--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241AFB78-F7D7-4140-9F6B-E2C1C59468B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF4F17B-F458-4BC8-8890-17FB4D98F01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="3734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7688" uniqueCount="3767">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11227,6 +11227,105 @@
   </si>
   <si>
     <t>Thai Phụ tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thiên Phủ tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Thất Sát tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Tham Lang tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung với Phá Quân tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung với Thiên Phủ tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung với Thiên Tướng tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung với Thất Sát tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung với Tham Lang tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung với Phá Quân tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung với Thiên Lương tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung với Thái Âm tại Phúc Đức ở Tý</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung với Thái Âm tại Phúc Đức ở Ngọ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung với Thiên Phủ tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung với Thiên Tướng tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung với Phá Quân tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung với Thất Sát tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung với Cự Môn tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung với Thiên Lương tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung với Thái Âm tại Phúc Đức ở Thân</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung với Thái Âm tại Phúc Đức ở Dần</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung với Thái Dương tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Văn Xương toạ thủ cung Phúc Đức gặp Thiên Khôi, Thiên Việt, Vũ Khúc</t>
+  </si>
+  <si>
+    <t>Thái Âm, Thái Dương, Hóa Kỵ đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Thiên Phủ, Tam Thai, Địa Không đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Hoa , Hồng Loan, Phục Binh, Thiên Tướng đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cô Thần, Ân Quang đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Quả Tú, Thiên Quý đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cô Thần, Thiên Quý đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Quả Tú, Ân Quang đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc, Hỏa Tinh đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Kình Dương, Đà La, Hóa Kỵ đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Kiếp Sát, Kình Dương đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Kình Dương, Đà La, Địa Không, Địa Kiếp đồng cung tại Phúc Đức</t>
   </si>
 </sst>
 </file>
@@ -11268,7 +11367,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11765,10 +11904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3812"/>
+  <dimension ref="A1:B3846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1649" workbookViewId="0">
-      <selection activeCell="T1656" sqref="T1656"/>
+    <sheetView tabSelected="1" topLeftCell="A3811" workbookViewId="0">
+      <selection activeCell="B3814" sqref="B3814:B3846"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42264,55 +42403,323 @@
         <v>3612</v>
       </c>
     </row>
+    <row r="3814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3814" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B3814" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3815" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3816" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3817" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B3817" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3818" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3819" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3820" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3821" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3822" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3823" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3824" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3825" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3826" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3827" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3828" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3829" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3830" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3831" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B3831" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3832" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3833" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3834" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3835" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3836" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3837" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3838" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3839" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3840" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3841" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3842" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3843" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3844" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3845" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3846" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>3766</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="21" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="17" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3813 B3847:B1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3814:B3846">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanTuVi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF4F17B-F458-4BC8-8890-17FB4D98F01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F506C2-6242-4ADD-AC20-AF934AA93CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7688" uniqueCount="3767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7742" uniqueCount="3794">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11326,6 +11326,87 @@
   </si>
   <si>
     <t>Kình Dương, Đà La, Địa Không, Địa Kiếp đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc</t>
+  </si>
+  <si>
+    <t>Sát Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Mã</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn</t>
+  </si>
+  <si>
+    <t>Hổ Tấu</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng</t>
+  </si>
+  <si>
+    <t>Đào Quyền</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp</t>
   </si>
 </sst>
 </file>
@@ -11367,17 +11448,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11904,10 +11975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3846"/>
+  <dimension ref="A1:B3874"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3811" workbookViewId="0">
-      <selection activeCell="B3814" sqref="B3814:B3846"/>
+    <sheetView tabSelected="1" topLeftCell="A3835" workbookViewId="0">
+      <selection activeCell="A3848" sqref="A3848:B3874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42667,59 +42738,278 @@
         <v>3766</v>
       </c>
     </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3848" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3849" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3850" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3851" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3852" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3853" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3854" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3855" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3856" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3857" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3858" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3859" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3860" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3861" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3862" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3862" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3863" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3864" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3865" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3866" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3867" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3868" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3869" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3870" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3871" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3872" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3873" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3874" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>3793</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="25" priority="72"/>
     <cfRule type="duplicateValues" dxfId="24" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="23" priority="42"/>
     <cfRule type="duplicateValues" dxfId="22" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="21" priority="46"/>
     <cfRule type="duplicateValues" dxfId="20" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="19" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="83"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3847 A3875:A1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="16" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
     <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
     <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
     <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
     <cfRule type="duplicateValues" dxfId="7" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B3813 B3847:B1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="22"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3813 B3847 B3875:B1048576">
     <cfRule type="duplicateValues" dxfId="5" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3814:B3846">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3848:A3874">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F506C2-6242-4ADD-AC20-AF934AA93CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C69E82-FDA0-4212-A45F-4FA2EE81265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7742" uniqueCount="3794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7812" uniqueCount="3829">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11407,6 +11407,111 @@
   </si>
   <si>
     <t>Hổ Tang Không Kiếp</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình</t>
+  </si>
+  <si>
+    <t>Lương Phá</t>
+  </si>
+  <si>
+    <t>Khôi Việt</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa</t>
+  </si>
+  <si>
+    <t>Cự Kỵ</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt</t>
+  </si>
+  <si>
+    <t>Khoa Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế</t>
+  </si>
+  <si>
+    <t>Tướng Binh</t>
+  </si>
+  <si>
+    <t>Cự Tang</t>
+  </si>
+  <si>
+    <t>Cự Hỏa</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu</t>
   </si>
 </sst>
 </file>
@@ -11448,7 +11553,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11975,10 +12090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3874"/>
+  <dimension ref="A1:B3909"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3835" workbookViewId="0">
-      <selection activeCell="A3848" sqref="A3848:B3874"/>
+    <sheetView tabSelected="1" topLeftCell="A3874" workbookViewId="0">
+      <selection activeCell="F3888" sqref="F3888"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42954,61 +43069,341 @@
         <v>3793</v>
       </c>
     </row>
+    <row r="3875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3875" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3876" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B3876" t="s">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3877" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B3877" t="s">
+        <v>3796</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3878" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3878" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3879" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B3879" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3880" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B3880" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3881" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B3881" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3882" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B3882" t="s">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3883" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B3883" t="s">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3884" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B3884" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3885" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B3885" t="s">
+        <v>3804</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3886" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B3886" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3887" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B3887" t="s">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3888" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B3888" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3889" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B3889" t="s">
+        <v>3808</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3890" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B3890" t="s">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3891" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B3891" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3892" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B3892" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3893" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B3893" t="s">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3894" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B3894" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3895" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B3895" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3896" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B3896" t="s">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3897" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B3897" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3898" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B3898" t="s">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3899" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B3899" t="s">
+        <v>3818</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3900" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B3900" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3901" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B3901" t="s">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3902" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B3902" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3903" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B3903" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3904" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B3904" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3905" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B3905" t="s">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3906" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B3906" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3907" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B3907" t="s">
+        <v>3826</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3908" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B3908" t="s">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3909" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B3909" t="s">
+        <v>3828</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="24" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="22" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="20" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="18" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3847 A3875:A1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="84"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3847 A3910:A1048576">
+    <cfRule type="duplicateValues" dxfId="18" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="15" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B3813 B3847 B3875:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3813 B3847 B3910:B1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3814:B3846">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3848:A3874">
+  <conditionalFormatting sqref="A3848:A3909">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1B70EC-AE9E-404F-8E33-360158A647DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23335397-C1D2-491F-97DD-F48EEB4CC5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8482" uniqueCount="4241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8640" uniqueCount="4320">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12748,6 +12748,243 @@
   </si>
   <si>
     <t>L. Đà La tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Sát Phá Tham hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cự Nhật hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Kình Đà hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Xương Khúc hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Hoả Linh hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Không Kiếp hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Quang Quý hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tả Hữu hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Song Hao hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tang Hổ hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Khốc Hư hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Hình Riêu hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Thai Toạ hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Hồng hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Ấn Phù hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Sát Quyền hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Lộc Mã hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Hổ Tấu hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Quyền hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Lương Phá hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Khôi Việt hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cự Kỵ hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Khoa Quyền hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Lộc Quyền hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tướng Binh hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cự Tang hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cự Hỏa hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu hội chiếu tại Phúc Đức</t>
   </si>
 </sst>
 </file>
@@ -12789,107 +13026,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13396,10 +13533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4242"/>
+  <dimension ref="A1:B4322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4212" workbookViewId="0">
+      <selection activeCell="B4244" sqref="B4244:B4322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47332,56 +47469,691 @@
         <v>4240</v>
       </c>
     </row>
+    <row r="4244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4244" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4245" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4246" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4247" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4248" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4249" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4250" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4251" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4252" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4253" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4254" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4255" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4256" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4257" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4258" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4259" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4260" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4261" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4262" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4263" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4264" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4265" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4266" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4267" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4268" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4269" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4270" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4271" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4272" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4273" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4274" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4275" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4276" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4277" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4278" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4279" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4280" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4281" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4282" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4283" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4284" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4285" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4286" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4287" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4288" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4289" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4290" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4291" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4292" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4293" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4294" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4295" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4296" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4297" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4298" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4299" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4300" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4301" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4302" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4303" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4304" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4305" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4306" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4307" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4308" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4309" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4310" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4311" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4312" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4313" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4314" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4315" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4316" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4317" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4318" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4319" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4320" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4321" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4322" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>4319</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="32" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="30" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="28" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="26" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3847 A3910:A4209 A6755:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="108"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="23" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3848:A3909">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143 B1805:B1809 B3442:B3847 B3910:B4209 B6755:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3848:B3909">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3848:B3909">
+  <conditionalFormatting sqref="A4244:A4322">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23335397-C1D2-491F-97DD-F48EEB4CC5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB8AD6-2538-4F4C-AC71-49D75BCD40F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8640" uniqueCount="4320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8850" uniqueCount="4425">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12985,6 +12985,321 @@
   </si>
   <si>
     <t>Tử Vi Tang Tả Hữu hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Cơ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Dương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Vũ Khúc tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Đồng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Liêm Trinh tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Phủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Âm tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Tham Lang tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Cự Môn tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Tướng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Lương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Dương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Vũ Khúc tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Đồng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Liêm Trinh tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Phủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Tham Lang tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Tướng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Vũ Khúc tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Đồng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Liêm Trinh tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Phủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thái Âm tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Tham Lang tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Cự Môn tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Tướng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Lương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Đồng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Liêm Trinh tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Phủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thái Âm tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Cự Môn tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Lương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Liêm Trinh tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Phủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Tham Lang tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Tướng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Phủ tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thái Âm tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Cự Môn tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Lương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thái Âm tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Tham Lang tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Cự Môn tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Tướng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Lương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Tham Lang tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Cự Môn tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Tướng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Lương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Cự Môn tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Tướng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Lương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Tướng tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Lương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thiên Lương tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Thất Sát tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Phá Quân tại cung đối Tài Bạch</t>
+  </si>
+  <si>
+    <t>Thất Sát đồng cung Phá Quân tại cung đối Tài Bạch</t>
   </si>
 </sst>
 </file>
@@ -13533,10 +13848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4322"/>
+  <dimension ref="A1:B4428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4212" workbookViewId="0">
-      <selection activeCell="B4244" sqref="B4244:B4322"/>
+    <sheetView tabSelected="1" topLeftCell="A4308" workbookViewId="0">
+      <selection activeCell="B4338" sqref="B4338:B4428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48099,6 +48414,846 @@
       </c>
       <c r="B4322" t="s">
         <v>4319</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4324" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4325" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4326" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4327" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4328" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4329" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4330" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4331" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4332" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4333" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4334" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4335" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4336" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4337" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4338" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4339" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4340" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4341" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4342" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4343" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4344" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4345" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4346" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4347" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4348" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4349" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4350" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4351" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4352" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4353" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4354" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4355" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4356" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4357" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4358" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4359" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4360" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4361" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4362" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4363" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4364" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4365" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4366" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4367" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4368" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4369" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4370" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4371" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4372" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4373" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4374" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4375" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4376" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4377" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4378" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4379" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4380" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4381" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4382" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4383" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4384" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4385" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4386" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4387" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4388" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4389" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4390" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4391" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4392" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4393" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4394" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4395" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4396" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4397" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4398" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4399" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4400" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4401" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4402" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4403" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4404" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4405" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B4405" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4406" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B4406" t="s">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4407" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B4407" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4408" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B4408" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4409" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B4409" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4410" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B4410" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4411" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B4411" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4412" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B4412" t="s">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4413" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B4413" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4414" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B4414" t="s">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4415" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B4415" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4416" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B4416" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4417" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B4417" t="s">
+        <v>4413</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4418" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B4418" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4419" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B4419" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4420" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B4420" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4421" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B4421" t="s">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4422" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B4422" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4423" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B4423" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4424" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B4424" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4425" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B4425" t="s">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4426" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B4426" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4427" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B4427" t="s">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4428" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B4428" t="s">
+        <v>4424</v>
       </c>
     </row>
   </sheetData>
@@ -48128,33 +49283,33 @@
   <conditionalFormatting sqref="A3848:A3909">
     <cfRule type="duplicateValues" dxfId="12" priority="24"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A4244:A4322">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143 B1805:B1809 B3442:B3847 B3910:B4209 B6755:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3848:B3909">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4244:A4322">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10FC46D-66C1-4211-84FC-3E8123197B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB9A2D-85E9-484C-8E4F-2DD4B190D64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8752" uniqueCount="4411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8756" uniqueCount="4437">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13172,17 +13172,10 @@
     <t>Được hưởng phúc. Trong họ ít của, hiếm người.</t>
   </si>
   <si>
-    <t>Suốt đời sung sướng, phúc thọ song toàn. Trong họ có
-nhiều người giàu sang.</t>
-  </si>
-  <si>
     <t>Được hưởng phúc. Họ hàng khá giả nhưng hiếm người.</t>
   </si>
   <si>
     <t xml:space="preserve">Vất vả lao khổ, phải xa quê hương mới sống lâu. Họ hàng ly tán. </t>
-  </si>
-  <si>
-    <t>Giảm thọ, khó tránh được tai ương, họa hại. Trong họ có nhiều người bần hàn hay mắc tù tội, thường phải bạt quán xiêu cư.</t>
   </si>
   <si>
     <t>Giảm thọ, hay gặp nguy hiểm, phải xa quê hương mới mong được an toàn. Trong họ có nhiều người chết non một cách thê thảm. Nếu không, cũng phải mang tàn tật, ác bệnh, hay mắc tù tội, khốn cùng.</t>
@@ -13268,6 +13261,98 @@
   </si>
   <si>
     <t>Không được hưởng phúc dồi dào nên suốt đời chẳng được xứng ý toại lòng. Họ hàng bình thường,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được hưởng phúc, sống lâu. Họ hàng đông đảo, khá
+giả </t>
+  </si>
+  <si>
+    <t>Không được hưởng phúc dồi dào. Nên lập nghiệp ở nơi thật xa quê hương. Trong họ, nhiều người giàu sang, nhưng ly tán.</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung với Thiên Tướng tại Phúc Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suốt đời được xứng ý toại lòng, sống lâu và hưởng phúc. Họ hàng nhiều người giàu sang. </t>
+  </si>
+  <si>
+    <t>Suốt đời sung sướng, phúc thọ song toàn. Trong họ có nhiều người giàu sang.</t>
+  </si>
+  <si>
+    <t>Được hưởng phúc trọn đời, sung sướng, sống lâu. Trong họ có nhiều người qúy hiến và giàu sang.</t>
+  </si>
+  <si>
+    <t>Bạc phúc nên tuổi thọ bị chiết giảm. Suốt đời vui ít buồn nhiều, lao tâm khổ tứ. Nên lập nghiệp ở nơi thật xa quê hương, có sớm xa cách gia đình mới mong được yên thân. Họ hàng ly tán, nhiều người cùng khổ, cô đơn, mang ác tật, phiêu bạt giang hồ, hay mắc tai nạn mà chết một cách thê thảm. Đàn bà con gái trong họ rất vất vả về chồng con.</t>
+  </si>
+  <si>
+    <t>Được hưởng phúc. Về già rất sung sướng. Trong họ nhiều người giàu có, nhưng thường lập nghiệp ở nơi thật xa quê hương.</t>
+  </si>
+  <si>
+    <t>Không được hưởng phúc dồi dào, nhưng cũng sống lâu. Họ hàng bình thường, có nhiều người lập thân bằng võ nghiệp.</t>
+  </si>
+  <si>
+    <t>Bạc phúc nên giảm thọ. Phải lập nghiệp ở xa quê
+hương, phải sớm xa gia đình mới mong được yên thân. Họ hàng ly tán, càng ngày càng sa sút, lại có nhiều người rất dâm đãng</t>
+  </si>
+  <si>
+    <t>Giảm thọ, khó tránh được tai ương, họa hại. Trong họ có nhiều người bần hàn hay mắc tù tội, thường phải phiêu bạt nay đây mai đó.</t>
+  </si>
+  <si>
+    <t>Được hưởng phúc, sống lâu, về già rất sung sướng. Họ hàng giàu có qúy hiển</t>
+  </si>
+  <si>
+    <t>Giảm thọ. Suốt đời lao tâm khổ tứ chẳng được xứng ý toại lòng, lại hay mắc tai nạn khẩu thiệt, kiện cáo. Phải sớm xa gia đình mới mong được yên thân. Trong họ thường có sự tranh chấp, nhiều người phải bỏ quê xa xứ, nếu không, cũng khốn cùng, mắc hình ngục, hay yểu tử.</t>
+  </si>
+  <si>
+    <t>Được hưởng phúc, sống lâu và sung sướng. Họ hàng qúy hiển, giàu sang, có danh giá và uy quyền tế thế.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được hưởng phúc, suốt đời bay gặp may mắn. Trong họ có nhiều người qúy hiển, giàu sang. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không được hưởng phúc dồi dào, nên lúc thiếu thời
+chẳng được xứng ý toại lòng. Về già hay gặp may mắn. Họ hàng càng ngày càng khá giả. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được hưởng phúc, thanh nhàn, sung sướng tránh
+được nhiều tai họa và sống lâu. Trong họ có nhiều người qúy hiến, có danh tiếng lừng lẫy. </t>
+  </si>
+  <si>
+    <t>Được hưởng phúc, sống lâu. Họ hàng bình thường.</t>
+  </si>
+  <si>
+    <t>Giảm thọ, khó tránh được tai họa. thường phải sớm
+xa gia đình, nay đây mai đó, hay thay đổi công việc và chí hướng. Họ hàng càng ngày càng sa sút ly tán, đàn ông con trai có nhiều người chơi bời, du đãng, đàn
+bà con gái cũng có nhiều người dâm dật, hay trắc trở về chồng con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạc phúc nên tuổi thọ bị chiết giảm. Suốt đời chẳng được xứng ý toại lòng. Nên ly tổ hay ở xa gia đình. Họ hàng càng ngày càng sa sút ly tán, có nhiều người gian quyệt nhưng bần cùng, có người phiêu bạt giang hồ, lại có người mang ác tật hay mắc tai nạn chết một cách thê thảm </t>
+  </si>
+  <si>
+    <t>Được hưởng phúc, nhưng nên lập nghiệp ở nơi thật xa quê hương. Họ hàng khá giả, có danh giá và uy quyền tế thế, lại có nhiều người hiển đạt về võ nghiệp.</t>
+  </si>
+  <si>
+    <t>Không được hưởng phúc dồi dào, suốt đời may thường đi liền với rủi. Nên ly tổ có sớm xa gia đình mới mong được yên thân. Họ hàng khá giả, nhưng ly tán, có nhiều người hiển đạt về vỗ nghiệp</t>
+  </si>
+  <si>
+    <t>Bạc phúc nên giảm thọ. Khó tránh được lai nạn vẻ đao thương, dễ mắc hình ngục. Phải ly tổ, ở xa gia đình, may ra mới được yên thân. Họ hàng càng ngày càng sa sút, nghèo khổ, ly tán, lại có nhiều người chết
+non.</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Họ hàng ly tán, thường lập nghiệp ở xa quê hương. </t>
+  </si>
+  <si>
+    <t>Được hưởng phúc, sống lâu, nhưng nên lập nghiệp
+ở nơi thật xa quê hương, Họ hàng khá giả. Tuy vậy ngành trưởng bao giờ cũng phiêu bạt, lụn bại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không được hưởng phúc dồi dào. Phải ly tán, sớm xa gia đình, mới mong được yên thân. Trong họ có người qúy hiển. </t>
+  </si>
+  <si>
+    <t>Bạc phúc nên giảm thọ. Khó tránh được tai họa. Phải ly tổ, sớm xa gia đình, may ra mới được yên thân. Họ hàng càng ngày càng sa sút.</t>
   </si>
 </sst>
 </file>
@@ -13312,227 +13397,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14059,10 +13924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4376"/>
+  <dimension ref="A1:B4378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3731" workbookViewId="0">
-      <selection activeCell="I3741" sqref="I3741"/>
+    <sheetView tabSelected="1" topLeftCell="A3726" workbookViewId="0">
+      <selection activeCell="C3733" sqref="C3733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15683,7 +15548,7 @@
         <v>324</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -16654,12 +16519,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>446</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16718,12 +16583,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>454</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16782,12 +16647,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>462</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16846,12 +16711,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>470</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16910,12 +16775,12 @@
         <v>477</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>478</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>478</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16974,12 +16839,12 @@
         <v>485</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>486</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17038,12 +16903,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>494</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17262,12 +17127,12 @@
         <v>521</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>522</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>522</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21246,12 +21111,12 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>1013</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>1013</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="899" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21278,12 +21143,12 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
         <v>1017</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>1017</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="903" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21310,12 +21175,12 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A906" s="1" t="s">
         <v>1021</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>1021</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="907" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21342,12 +21207,12 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A910" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>1025</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="911" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21374,12 +21239,12 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
         <v>1029</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>1029</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="915" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21406,12 +21271,12 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
         <v>1033</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>1033</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="919" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21438,12 +21303,12 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A922" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>1037</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="923" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -23307,7 +23172,7 @@
         <v>1270</v>
       </c>
       <c r="B1155" s="1" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
@@ -23323,7 +23188,7 @@
         <v>1272</v>
       </c>
       <c r="B1157" s="1" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="1158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23934,12 +23799,12 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1234" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1234" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="B1234" s="1" t="s">
-        <v>1345</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="1235" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -24014,12 +23879,12 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1244" s="1" t="s">
         <v>1355</v>
       </c>
       <c r="B1244" s="1" t="s">
-        <v>1355</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1245" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -24422,28 +24287,28 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="1295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1295" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1295" s="1" t="s">
         <v>1406</v>
       </c>
       <c r="B1295" s="1" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1296" s="1" t="s">
         <v>1407</v>
       </c>
       <c r="B1296" s="1" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1297" s="1" t="s">
         <v>1408</v>
       </c>
       <c r="B1297" s="1" t="s">
-        <v>1408</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26406,12 +26271,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1543" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1543" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>22</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.25">
@@ -27046,12 +26911,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="1623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1623" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1623" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>96</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.25">
@@ -27240,10 +27105,10 @@
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1647" s="1" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.25">
@@ -33795,7 +33660,7 @@
         <v>2343</v>
       </c>
       <c r="B2466" s="1" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="2467" spans="1:2" x14ac:dyDescent="0.25">
@@ -33803,7 +33668,7 @@
         <v>2344</v>
       </c>
       <c r="B2467" s="1" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="2468" spans="1:2" x14ac:dyDescent="0.25">
@@ -33811,7 +33676,7 @@
         <v>2345</v>
       </c>
       <c r="B2468" s="1" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="2469" spans="1:2" x14ac:dyDescent="0.25">
@@ -33843,7 +33708,7 @@
         <v>2349</v>
       </c>
       <c r="B2472" s="1" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="2473" spans="1:2" x14ac:dyDescent="0.25">
@@ -33851,7 +33716,7 @@
         <v>2350</v>
       </c>
       <c r="B2473" s="1" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="2474" spans="1:2" x14ac:dyDescent="0.25">
@@ -33859,7 +33724,7 @@
         <v>2351</v>
       </c>
       <c r="B2474" s="1" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="2475" spans="1:2" x14ac:dyDescent="0.25">
@@ -33915,7 +33780,7 @@
         <v>2358</v>
       </c>
       <c r="B2481" s="1" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="2482" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33923,7 +33788,7 @@
         <v>2359</v>
       </c>
       <c r="B2482" s="1" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="2483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33931,7 +33796,7 @@
         <v>2360</v>
       </c>
       <c r="B2483" s="1" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="2484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33939,7 +33804,7 @@
         <v>2361</v>
       </c>
       <c r="B2484" s="1" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="2485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33947,7 +33812,7 @@
         <v>2362</v>
       </c>
       <c r="B2485" s="1" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="2486" spans="1:2" x14ac:dyDescent="0.25">
@@ -33963,7 +33828,7 @@
         <v>2364</v>
       </c>
       <c r="B2487" s="1" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="2488" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -33971,7 +33836,7 @@
         <v>2365</v>
       </c>
       <c r="B2488" s="1" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="2489" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -33979,7 +33844,7 @@
         <v>2366</v>
       </c>
       <c r="B2489" s="1" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="2490" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -33987,7 +33852,7 @@
         <v>2367</v>
       </c>
       <c r="B2490" s="1" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="2491" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -33995,7 +33860,7 @@
         <v>2368</v>
       </c>
       <c r="B2491" s="1" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="2492" spans="1:2" x14ac:dyDescent="0.25">
@@ -34027,7 +33892,7 @@
         <v>2372</v>
       </c>
       <c r="B2495" s="1" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="2496" spans="1:2" x14ac:dyDescent="0.25">
@@ -34075,7 +33940,7 @@
         <v>2378</v>
       </c>
       <c r="B2501" s="1" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
     </row>
     <row r="2502" spans="1:2" x14ac:dyDescent="0.25">
@@ -34115,7 +33980,7 @@
         <v>2383</v>
       </c>
       <c r="B2506" s="1" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="2507" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -34123,7 +33988,7 @@
         <v>2384</v>
       </c>
       <c r="B2507" s="1" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="2508" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -34131,7 +33996,7 @@
         <v>2385</v>
       </c>
       <c r="B2508" s="1" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="2509" spans="1:2" x14ac:dyDescent="0.25">
@@ -34163,7 +34028,7 @@
         <v>2389</v>
       </c>
       <c r="B2512" s="1" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="2513" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -34171,7 +34036,7 @@
         <v>2390</v>
       </c>
       <c r="B2513" s="1" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="2514" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -34179,7 +34044,7 @@
         <v>2391</v>
       </c>
       <c r="B2514" s="1" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="2515" spans="1:2" x14ac:dyDescent="0.25">
@@ -34286,12 +34151,12 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="2528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2528" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2528" s="1" t="s">
         <v>2405</v>
       </c>
       <c r="B2528" s="1" t="s">
-        <v>2405</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="2529" spans="1:2" x14ac:dyDescent="0.25">
@@ -34302,12 +34167,12 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="2530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2530" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2530" s="1" t="s">
         <v>2407</v>
       </c>
       <c r="B2530" s="1" t="s">
-        <v>2407</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="2531" spans="1:2" x14ac:dyDescent="0.25">
@@ -34326,12 +34191,12 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="2533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2533" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2533" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="B2533" s="1" t="s">
-        <v>2410</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="2534" spans="1:2" x14ac:dyDescent="0.25">
@@ -34342,12 +34207,12 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="2535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2535" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2535" s="1" t="s">
         <v>2412</v>
       </c>
       <c r="B2535" s="1" t="s">
-        <v>2412</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="2536" spans="1:2" x14ac:dyDescent="0.25">
@@ -34358,12 +34223,12 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="2537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2537" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2537" s="1" t="s">
         <v>2414</v>
       </c>
       <c r="B2537" s="1" t="s">
-        <v>2414</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="2538" spans="1:2" x14ac:dyDescent="0.25">
@@ -34390,28 +34255,28 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="2541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2541" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2541" s="1" t="s">
         <v>2418</v>
       </c>
       <c r="B2541" s="1" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="2542" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2542" s="1" t="s">
         <v>2419</v>
       </c>
       <c r="B2542" s="1" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="2543" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2543" s="1" t="s">
         <v>2420</v>
       </c>
       <c r="B2543" s="1" t="s">
-        <v>2420</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="2544" spans="1:2" x14ac:dyDescent="0.25">
@@ -34438,36 +34303,36 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="2547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2547" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2547" s="1" t="s">
         <v>2424</v>
       </c>
       <c r="B2547" s="1" t="s">
-        <v>2424</v>
-      </c>
-    </row>
-    <row r="2548" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2548" s="1" t="s">
         <v>2425</v>
       </c>
       <c r="B2548" s="1" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="2549" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2549" s="1" t="s">
         <v>2426</v>
       </c>
       <c r="B2549" s="1" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="2550" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2550" s="1" t="s">
         <v>2427</v>
       </c>
       <c r="B2550" s="1" t="s">
-        <v>2427</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="2551" spans="1:2" x14ac:dyDescent="0.25">
@@ -34478,12 +34343,12 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="2552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2552" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2552" s="1" t="s">
         <v>2429</v>
       </c>
       <c r="B2552" s="1" t="s">
-        <v>2429</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="2553" spans="1:2" x14ac:dyDescent="0.25">
@@ -34494,12 +34359,12 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="2554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2554" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2554" s="1" t="s">
         <v>2431</v>
       </c>
       <c r="B2554" s="1" t="s">
-        <v>2431</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="2555" spans="1:2" x14ac:dyDescent="0.25">
@@ -34510,12 +34375,12 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="2556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2556" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2556" s="1" t="s">
         <v>2433</v>
       </c>
       <c r="B2556" s="1" t="s">
-        <v>2433</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="2557" spans="1:2" x14ac:dyDescent="0.25">
@@ -34526,12 +34391,12 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="2558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2558" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2558" s="1" t="s">
         <v>2435</v>
       </c>
       <c r="B2558" s="1" t="s">
-        <v>2435</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="2559" spans="1:2" x14ac:dyDescent="0.25">
@@ -34542,12 +34407,12 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="2560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2560" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2560" s="1" t="s">
         <v>2437</v>
       </c>
       <c r="B2560" s="1" t="s">
-        <v>2437</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="2561" spans="1:2" x14ac:dyDescent="0.25">
@@ -34590,20 +34455,20 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="2566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2566" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2566" s="1" t="s">
         <v>2443</v>
       </c>
       <c r="B2566" s="1" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="2567" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2567" s="1" t="s">
         <v>2444</v>
       </c>
       <c r="B2567" s="1" t="s">
-        <v>2444</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="2568" spans="1:2" x14ac:dyDescent="0.25">
@@ -34638,36 +34503,36 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="2572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2572" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2572" s="1" t="s">
         <v>2449</v>
       </c>
       <c r="B2572" s="1" t="s">
-        <v>2449</v>
-      </c>
-    </row>
-    <row r="2573" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2573" s="1" t="s">
         <v>2450</v>
       </c>
       <c r="B2573" s="1" t="s">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="2574" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2574" s="1" t="s">
         <v>2451</v>
       </c>
       <c r="B2574" s="1" t="s">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="2575" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2575" s="1" t="s">
         <v>2452</v>
       </c>
       <c r="B2575" s="1" t="s">
-        <v>2452</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="2576" spans="1:2" x14ac:dyDescent="0.25">
@@ -34678,44 +34543,44 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="2577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2577" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2577" s="1" t="s">
         <v>2454</v>
       </c>
       <c r="B2577" s="1" t="s">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="2578" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2578" s="1" t="s">
         <v>2455</v>
       </c>
       <c r="B2578" s="1" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="2579" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2579" s="1" t="s">
         <v>2456</v>
       </c>
       <c r="B2579" s="1" t="s">
-        <v>2456</v>
-      </c>
-    </row>
-    <row r="2580" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2580" s="1" t="s">
         <v>2457</v>
       </c>
       <c r="B2580" s="1" t="s">
-        <v>2457</v>
-      </c>
-    </row>
-    <row r="2581" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2581" s="1" t="s">
         <v>2458</v>
       </c>
       <c r="B2581" s="1" t="s">
-        <v>2458</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="2582" spans="1:2" x14ac:dyDescent="0.25">
@@ -34726,28 +34591,28 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="2583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2583" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2583" s="1" t="s">
         <v>2460</v>
       </c>
       <c r="B2583" s="1" t="s">
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="2584" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2584" s="1" t="s">
         <v>2461</v>
       </c>
       <c r="B2584" s="1" t="s">
-        <v>2461</v>
-      </c>
-    </row>
-    <row r="2585" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2585" s="1" t="s">
         <v>2462</v>
       </c>
       <c r="B2585" s="1" t="s">
-        <v>2462</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="2586" spans="1:2" x14ac:dyDescent="0.25">
@@ -34755,7 +34620,7 @@
         <v>2463</v>
       </c>
       <c r="B2586" s="1" t="s">
-        <v>2463</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="2587" spans="1:2" x14ac:dyDescent="0.25">
@@ -34782,20 +34647,20 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="2590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2590" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2590" s="1" t="s">
         <v>2467</v>
       </c>
       <c r="B2590" s="1" t="s">
-        <v>2467</v>
-      </c>
-    </row>
-    <row r="2591" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2591" s="1" t="s">
         <v>2468</v>
       </c>
       <c r="B2591" s="1" t="s">
-        <v>2468</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="2592" spans="1:2" x14ac:dyDescent="0.25">
@@ -34803,7 +34668,7 @@
         <v>2469</v>
       </c>
       <c r="B2592" s="1" t="s">
-        <v>2469</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="2593" spans="1:2" x14ac:dyDescent="0.25">
@@ -34830,20 +34695,20 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="2596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2596" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2596" s="1" t="s">
         <v>2473</v>
       </c>
       <c r="B2596" s="1" t="s">
-        <v>2473</v>
-      </c>
-    </row>
-    <row r="2597" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2597" s="1" t="s">
         <v>2474</v>
       </c>
       <c r="B2597" s="1" t="s">
-        <v>2474</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="2598" spans="1:2" x14ac:dyDescent="0.25">
@@ -34854,12 +34719,12 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="2599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2599" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2599" s="1" t="s">
         <v>2476</v>
       </c>
       <c r="B2599" s="1" t="s">
-        <v>2476</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="2600" spans="1:2" x14ac:dyDescent="0.25">
@@ -34870,12 +34735,12 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="2601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2601" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2601" s="1" t="s">
         <v>2478</v>
       </c>
       <c r="B2601" s="1" t="s">
-        <v>2478</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="2602" spans="1:2" x14ac:dyDescent="0.25">
@@ -34886,12 +34751,12 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="2603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2603" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2603" s="1" t="s">
         <v>2480</v>
       </c>
       <c r="B2603" s="1" t="s">
-        <v>2480</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="2604" spans="1:2" x14ac:dyDescent="0.25">
@@ -34902,12 +34767,12 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="2605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2605" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2605" s="1" t="s">
         <v>2482</v>
       </c>
       <c r="B2605" s="1" t="s">
-        <v>2482</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="2606" spans="1:2" x14ac:dyDescent="0.25">
@@ -34918,12 +34783,12 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="2607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2607" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2607" s="1" t="s">
         <v>2484</v>
       </c>
       <c r="B2607" s="1" t="s">
-        <v>2484</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="2608" spans="1:2" x14ac:dyDescent="0.25">
@@ -34934,12 +34799,12 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="2609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2609" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2609" s="1" t="s">
         <v>2486</v>
       </c>
       <c r="B2609" s="1" t="s">
-        <v>2486</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="2610" spans="1:2" x14ac:dyDescent="0.25">
@@ -34950,12 +34815,12 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="2611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2611" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2611" s="1" t="s">
         <v>2488</v>
       </c>
       <c r="B2611" s="1" t="s">
-        <v>2488</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="2612" spans="1:2" x14ac:dyDescent="0.25">
@@ -34966,12 +34831,12 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="2613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2613" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2613" s="1" t="s">
         <v>2490</v>
       </c>
       <c r="B2613" s="1" t="s">
-        <v>2490</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="2614" spans="1:2" x14ac:dyDescent="0.25">
@@ -34982,12 +34847,12 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="2615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2615" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2615" s="1" t="s">
         <v>2492</v>
       </c>
       <c r="B2615" s="1" t="s">
-        <v>2492</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="2616" spans="1:2" x14ac:dyDescent="0.25">
@@ -34998,12 +34863,12 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="2617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2617" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2617" s="1" t="s">
         <v>2494</v>
       </c>
       <c r="B2617" s="1" t="s">
-        <v>2494</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="2618" spans="1:2" x14ac:dyDescent="0.25">
@@ -35014,12 +34879,12 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="2619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2619" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2619" s="1" t="s">
         <v>2496</v>
       </c>
       <c r="B2619" s="1" t="s">
-        <v>2496</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="2620" spans="1:2" x14ac:dyDescent="0.25">
@@ -43846,12 +43711,12 @@
         <v>4379</v>
       </c>
     </row>
-    <row r="3723" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3723" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3723" s="1" t="s">
         <v>3721</v>
       </c>
       <c r="B3723" s="1" t="s">
-        <v>4381</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="3724" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -43859,7 +43724,7 @@
         <v>3722</v>
       </c>
       <c r="B3724" s="1" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="3725" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -43867,7 +43732,7 @@
         <v>3723</v>
       </c>
       <c r="B3725" s="1" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="3726" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -43875,7 +43740,7 @@
         <v>3724</v>
       </c>
       <c r="B3726" s="1" t="s">
-        <v>4384</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="3727" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -43883,7 +43748,7 @@
         <v>3725</v>
       </c>
       <c r="B3727" s="1" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="3728" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -43891,7 +43756,7 @@
         <v>3726</v>
       </c>
       <c r="B3728" s="1" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="3729" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -43899,7 +43764,7 @@
         <v>3727</v>
       </c>
       <c r="B3729" s="1" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="3730" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -43907,7 +43772,7 @@
         <v>3728</v>
       </c>
       <c r="B3730" s="1" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="3731" spans="1:2" x14ac:dyDescent="0.25">
@@ -43915,7 +43780,7 @@
         <v>3729</v>
       </c>
       <c r="B3731" s="1" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="3732" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -43923,7 +43788,7 @@
         <v>3730</v>
       </c>
       <c r="B3732" s="1" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="3733" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -43931,7 +43796,7 @@
         <v>3731</v>
       </c>
       <c r="B3733" s="1" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="3734" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -43939,7 +43804,7 @@
         <v>3732</v>
       </c>
       <c r="B3734" s="1" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="3735" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -43947,7 +43812,7 @@
         <v>3733</v>
       </c>
       <c r="B3735" s="1" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="3736" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -43955,7 +43820,7 @@
         <v>3734</v>
       </c>
       <c r="B3736" s="1" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="3737" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -43963,7 +43828,7 @@
         <v>3735</v>
       </c>
       <c r="B3737" s="1" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="3738" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -43971,7 +43836,7 @@
         <v>3736</v>
       </c>
       <c r="B3738" s="1" t="s">
-        <v>4410</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="3739" spans="1:2" x14ac:dyDescent="0.25">
@@ -49072,68 +48937,87 @@
     </row>
     <row r="4376" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4376" s="1" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="B4376" s="1" t="s">
-        <v>4389</v>
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4377" s="1" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B4377" s="1" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4378" s="1" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B4378" s="1" t="s">
+        <v>4433</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="23" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="21" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="19" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="17" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6701:A1048576 A209:A1614 A1:A23 A25:A84 A143 A1788:A1792 A3425:A3830 A3893:A4167">
-    <cfRule type="duplicateValues" dxfId="16" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1793:A3322">
-    <cfRule type="duplicateValues" dxfId="14" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3831:A3892">
-    <cfRule type="duplicateValues" dxfId="13" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4191:A4269">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6701:B1048576 B209:B1614 B1:B23 B25:B84 B143 B1788:B1792 B3425:B3830 B3893:B4167">
-    <cfRule type="duplicateValues" dxfId="4" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
+  <conditionalFormatting sqref="B6701:B1048576 B1:B23 B25:B84 B143 B1788:B1792 B3425:B3830 B3893:B4167 B209:B1614">
+    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1793:B3322">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3831:B3892">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1543">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB9A2D-85E9-484C-8E4F-2DD4B190D64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BBC7FE-56C1-4196-B897-10A872C81F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5355" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8756" uniqueCount="4437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8618" uniqueCount="4377">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6294,301 +6294,22 @@
     <t>Hỏa Tinh tọa thủ tại Phúc Đức</t>
   </si>
   <si>
-    <t>Hỏa Tinh tọa thủ tại Điền Trạch</t>
-  </si>
-  <si>
-    <t>Hỏa Tinh tọa thủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Hỏa Tinh tọa thủ tại Nô Bộc</t>
-  </si>
-  <si>
-    <t>Hỏa Tinh tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
-    <t>Hỏa Tinh tọa thủ tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Hỏa Tinh tọa thủ tại Tài Bạch</t>
-  </si>
-  <si>
-    <t>Hỏa Tinh tọa thủ tại Phu Thê</t>
-  </si>
-  <si>
-    <t>Hỏa Tinh tọa thủ tại Huynh Đệ</t>
-  </si>
-  <si>
-    <t>Linh Tinh tọa thủ tại Mệnh</t>
-  </si>
-  <si>
-    <t>Linh Tinh tọa thủ tại Phụ Mẫu</t>
-  </si>
-  <si>
     <t>Linh Tinh tọa thủ tại Phúc Đức</t>
   </si>
   <si>
-    <t>Linh Tinh tọa thủ tại Điền Trạch</t>
-  </si>
-  <si>
-    <t>Linh Tinh tọa thủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Linh Tinh tọa thủ tại Nô Bộc</t>
-  </si>
-  <si>
-    <t>Linh Tinh tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
-    <t>Linh Tinh tọa thủ tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Linh Tinh tọa thủ tại Tử Tức</t>
-  </si>
-  <si>
-    <t>Linh Tinh tọa thủ tại Phu Thê</t>
-  </si>
-  <si>
-    <t>Linh Tinh tọa thủ tại Huynh Đệ</t>
-  </si>
-  <si>
-    <t>Thiên Diêu tọa thủ tại Mệnh</t>
-  </si>
-  <si>
-    <t>Thiên Diêu tọa thủ tại Phụ Mẫu</t>
-  </si>
-  <si>
     <t>Thiên Diêu tọa thủ tại Phúc Đức</t>
   </si>
   <si>
-    <t>Thiên Diêu tọa thủ tại Điền Trạch</t>
-  </si>
-  <si>
-    <t>Thiên Diêu tọa thủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Diêu tọa thủ tại Nô Bộc</t>
-  </si>
-  <si>
-    <t>Thiên Diêu tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
-    <t>Thiên Diêu tọa thủ tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Thiên Diêu tọa thủ tại Tài Bạch</t>
-  </si>
-  <si>
-    <t>Thiên Diêu tọa thủ tại Tử Tức</t>
-  </si>
-  <si>
-    <t>Thiên Diêu tọa thủ tại Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Diêu tọa thủ tại Huynh Đệ</t>
-  </si>
-  <si>
-    <t>Bạch Hổ tọa thủ tại Mệnh</t>
-  </si>
-  <si>
-    <t>Bạch Hổ tọa thủ tại Phụ Mẫu</t>
-  </si>
-  <si>
-    <t>Bạch Hổ tọa thủ tại Điền Trạch</t>
-  </si>
-  <si>
-    <t>Bạch Hổ tọa thủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Bạch Hổ tọa thủ tại Nô Bộc</t>
-  </si>
-  <si>
-    <t>Bạch Hổ tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
-    <t>Bạch Hổ tọa thủ tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Bạch Hổ tọa thủ tại Tài Bạch</t>
-  </si>
-  <si>
-    <t>Bạch Hổ tọa thủ tại Tử Tức</t>
-  </si>
-  <si>
-    <t>Bạch Hổ tọa thủ tại Phu Thê</t>
-  </si>
-  <si>
-    <t>Bạch Hổ tọa thủ tại Huynh Đệ</t>
-  </si>
-  <si>
-    <t>Thiên Hình tọa thủ tại Mệnh</t>
-  </si>
-  <si>
-    <t>Thiên Hình tọa thủ tại Phụ Mẫu</t>
-  </si>
-  <si>
-    <t>Thiên Hình tọa thủ tại Điền Trạch</t>
-  </si>
-  <si>
-    <t>Thiên Hình tọa thủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Hình tọa thủ tại Nô Bộc</t>
-  </si>
-  <si>
-    <t>Thiên Hình tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
-    <t>Thiên Hình tọa thủ tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Thiên Hình tọa thủ tại Tài Bạch</t>
-  </si>
-  <si>
-    <t>Thiên Hình tọa thủ tại Tử Tức</t>
-  </si>
-  <si>
-    <t>Thiên Hình tọa thủ tại Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Hình tọa thủ tại Huynh Đệ</t>
-  </si>
-  <si>
-    <t>Thiên Quý tọa thủ tại Mệnh</t>
-  </si>
-  <si>
-    <t>Thiên Quý tọa thủ tại Phụ Mẫu</t>
-  </si>
-  <si>
     <t>Thiên Quý tọa thủ tại Phúc Đức</t>
   </si>
   <si>
-    <t>Thiên Quý tọa thủ tại Điền Trạch</t>
-  </si>
-  <si>
-    <t>Thiên Quý tọa thủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Quý tọa thủ tại Nô Bộc</t>
-  </si>
-  <si>
-    <t>Thiên Quý tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
-    <t>Thiên Quý tọa thủ tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Thiên Quý tọa thủ tại Tử Tức</t>
-  </si>
-  <si>
-    <t>Thiên Quý tọa thủ tại Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Quý tọa thủ tại Huynh Đệ</t>
-  </si>
-  <si>
-    <t>Ân Quang tọa thủ tại Mệnh</t>
-  </si>
-  <si>
-    <t>Ân Quang tọa thủ tại Phụ Mẫu</t>
-  </si>
-  <si>
     <t>Ân Quang tọa thủ tại Phúc Đức</t>
   </si>
   <si>
-    <t>Ân Quang tọa thủ tại Điền Trạch</t>
-  </si>
-  <si>
-    <t>Ân Quang tọa thủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Ân Quang tọa thủ tại Nô Bộc</t>
-  </si>
-  <si>
-    <t>Ân Quang tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
-    <t>Ân Quang tọa thủ tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Ân Quang tọa thủ tại Tử Tức</t>
-  </si>
-  <si>
-    <t>Ân Quang tọa thủ tại Phu Thê</t>
-  </si>
-  <si>
-    <t>Ân Quang tọa thủ tại Huynh Đệ</t>
-  </si>
-  <si>
-    <t>Thiếu Dương tọa thủ tại Mệnh</t>
-  </si>
-  <si>
-    <t>Thiếu Dương tọa thủ tại Phụ Mẫu</t>
-  </si>
-  <si>
     <t>Thiếu Dương tọa thủ tại Phúc Đức</t>
   </si>
   <si>
-    <t>Thiếu Dương tọa thủ tại Điền Trạch</t>
-  </si>
-  <si>
-    <t>Thiếu Dương tọa thủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Thiếu Dương tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
-    <t>Thiếu Dương tọa thủ tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Thiếu Dương tọa thủ tại Tài Bạch</t>
-  </si>
-  <si>
-    <t>Thiếu Dương tọa thủ tại Tử Tức</t>
-  </si>
-  <si>
-    <t>Thiếu Dương tọa thủ tại Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiếu Dương tọa thủ tại Huynh Đệ</t>
-  </si>
-  <si>
-    <t>Thiếu Âm tọa thủ tại Mệnh</t>
-  </si>
-  <si>
-    <t>Thiếu Âm tọa thủ tại Phụ Mẫu</t>
-  </si>
-  <si>
     <t>Thiếu Âm tọa thủ tại Phúc Đức</t>
-  </si>
-  <si>
-    <t>Thiếu Âm tọa thủ tại Điền Trạch</t>
-  </si>
-  <si>
-    <t>Thiếu Âm tọa thủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Thiếu Âm tọa thủ tại Nô Bộc</t>
-  </si>
-  <si>
-    <t>Thiếu Âm tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
-    <t>Thiếu Âm tọa thủ tại Tài Bạch</t>
-  </si>
-  <si>
-    <t>Thiếu Âm tọa thủ tại Tử Tức</t>
-  </si>
-  <si>
-    <t>Thiếu Âm tọa thủ tại Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiếu Âm tọa thủ tại Huynh Đệ</t>
-  </si>
-  <si>
-    <t>Tam Thai tọa thủ tại Mệnh</t>
-  </si>
-  <si>
-    <t>Tam Thai tọa thủ tại Phụ Mẫu</t>
   </si>
   <si>
     <t>Tam Thai tọa thủ tại Phúc Đức</t>
@@ -13353,6 +13074,106 @@
   </si>
   <si>
     <t>Bạc phúc nên giảm thọ. Khó tránh được tai họa. Phải ly tổ, sớm xa gia đình, may ra mới được yên thân. Họ hàng càng ngày càng sa sút.</t>
+  </si>
+  <si>
+    <t>Họ hàng ly tán.</t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Thìn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suốt đời may thường đi liền với rủi, về già được an
+nhàn. Họ hàng trước ly tán, sau quần tụ, càng ngày càng khá giả. </t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Tuất</t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Sửu</t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Mùi</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Thìn</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Tuất</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Sửu</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Mùi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạc phúc nên giảm thọ. Khó tránh được tai họa, thường phải lập nghiệp thật xa quê hương, không mấy khi được xúng ý toại lòng. Trong họ có người tàn tật, chết non hoặc trộm cắp, du đãng. </t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Tý</t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Dần</t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Mão</t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Tỵ</t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Ngọ</t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Thân</t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Dậu</t>
+  </si>
+  <si>
+    <t>Kình Dương tọa thủ tại Hợi</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Tý</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Dần</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Mão</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Tỵ</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Ngọ</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Thân</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Dậu</t>
+  </si>
+  <si>
+    <t>Đà La tọa thủ tại Hợi</t>
+  </si>
+  <si>
+    <t>Giảm thọ.</t>
+  </si>
+  <si>
+    <t>Giảm Thọ</t>
+  </si>
+  <si>
+    <t>Suốt đời may thường đi liền với rủi. Trong họ có nhiều người qúy hiển, nhưng hay chết non.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suốt đời lao tâm khổ tứ, không mấy khi được xứng ý toại lòng. Khó tránh được tai họa. Họ hàng càng ngày càng sa sút. </t>
+  </si>
+  <si>
+    <t>Bạc phúc, suốt đời mưu sự buổi đầu thường trắc trở, về sau mới được hành thông, đắc ý. Trong cái may có chứa dựng nhiều cái rủi. Họ hàng khá giả, nhưng ly tán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảm thọ, khó tránh được tai họa. Phải lập nghiệp ở nơi thật xa quê hương, may ra mới được yên thân. Họ hàng càng ngày càng sa sút, ly tán. </t>
   </si>
 </sst>
 </file>
@@ -13397,7 +13218,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13924,10 +13755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4378"/>
+  <dimension ref="A1:B4309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3726" workbookViewId="0">
-      <selection activeCell="C3733" sqref="C3733"/>
+    <sheetView tabSelected="1" topLeftCell="A950" workbookViewId="0">
+      <selection activeCell="D954" sqref="D954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14308,7 +14139,7 @@
         <v>169</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>4377</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -15548,7 +15379,7 @@
         <v>324</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>4400</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -15572,7 +15403,7 @@
         <v>327</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>327</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15804,7 +15635,7 @@
         <v>356</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>356</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15951,196 +15782,196 @@
         <v>374</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>398</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16524,7 +16355,7 @@
         <v>446</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>4422</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16588,7 +16419,7 @@
         <v>454</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>4399</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16652,7 +16483,7 @@
         <v>462</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>4399</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16716,7 +16547,7 @@
         <v>470</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>4422</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16780,7 +16611,7 @@
         <v>478</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>4422</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16844,7 +16675,7 @@
         <v>486</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>4399</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16908,7 +16739,7 @@
         <v>494</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>4399</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17132,7 +16963,7 @@
         <v>522</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>4422</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -19287,12 +19118,12 @@
         <v>785</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>786</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>786</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19319,12 +19150,12 @@
         <v>789</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>790</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>790</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19351,12 +19182,12 @@
         <v>793</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>794</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>794</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19383,12 +19214,12 @@
         <v>797</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>798</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>798</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="683" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19415,12 +19246,12 @@
         <v>801</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>802</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>802</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19447,12 +19278,12 @@
         <v>805</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>806</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>806</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19479,12 +19310,12 @@
         <v>809</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>810</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>810</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19511,12 +19342,12 @@
         <v>813</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>814</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>814</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21116,7 +20947,7 @@
         <v>1013</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>4398</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="899" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21148,7 +20979,7 @@
         <v>1017</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>4398</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="903" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21180,7 +21011,7 @@
         <v>1021</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>4428</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="907" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21212,7 +21043,7 @@
         <v>1025</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>4428</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="911" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21244,7 +21075,7 @@
         <v>1029</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>4398</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="915" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21276,7 +21107,7 @@
         <v>1033</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>4398</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="919" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21308,7 +21139,7 @@
         <v>1037</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>4428</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="923" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21375,12 +21206,12 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A931" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>1046</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="932" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21407,12 +21238,12 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A935" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>1050</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="936" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21439,12 +21270,12 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A939" s="1" t="s">
         <v>1054</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>1054</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="940" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21471,12 +21302,12 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A943" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>1058</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="944" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21503,12 +21334,12 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A947" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>1062</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="948" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21535,12 +21366,12 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A951" s="1" t="s">
         <v>1066</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>1066</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="952" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21567,12 +21398,12 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A955" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="B955" s="1" t="s">
-        <v>1070</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="956" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21599,12 +21430,12 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A959" s="1" t="s">
         <v>1074</v>
       </c>
       <c r="B959" s="1" t="s">
-        <v>1074</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="960" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21631,12 +21462,12 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A963" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="B963" s="1" t="s">
-        <v>1078</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="964" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21663,12 +21494,12 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A967" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="B967" s="1" t="s">
-        <v>1082</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="968" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23172,7 +23003,7 @@
         <v>1270</v>
       </c>
       <c r="B1155" s="1" t="s">
-        <v>4392</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
@@ -23188,7 +23019,7 @@
         <v>1272</v>
       </c>
       <c r="B1157" s="1" t="s">
-        <v>4393</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23804,7 +23635,7 @@
         <v>1345</v>
       </c>
       <c r="B1234" s="1" t="s">
-        <v>4399</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1235" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -23884,7 +23715,7 @@
         <v>1355</v>
       </c>
       <c r="B1244" s="1" t="s">
-        <v>4422</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1245" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -24292,7 +24123,7 @@
         <v>1406</v>
       </c>
       <c r="B1295" s="1" t="s">
-        <v>4428</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1296" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -24300,7 +24131,7 @@
         <v>1407</v>
       </c>
       <c r="B1296" s="1" t="s">
-        <v>4428</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24308,7 +24139,7 @@
         <v>1408</v>
       </c>
       <c r="B1297" s="1" t="s">
-        <v>4398</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26055,12 +25886,12 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="1516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
         <v>1627</v>
       </c>
       <c r="B1516" s="1" t="s">
-        <v>1627</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1517" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26087,12 +25918,12 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="1520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1520" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
         <v>1631</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>1631</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1521" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26119,12 +25950,12 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="1524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1524" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1524" s="1" t="s">
         <v>1635</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>1635</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1525" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26151,12 +25982,12 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="1528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1528" s="1" t="s">
         <v>1639</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>1639</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1529" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26183,12 +26014,12 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="1532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1532" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1532" s="1" t="s">
         <v>1643</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>1643</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.25">
@@ -26276,7 +26107,7 @@
         <v>22</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>4424</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.25">
@@ -26916,7 +26747,7 @@
         <v>96</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>4409</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.25">
@@ -27105,10 +26936,10 @@
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1647" s="1" t="s">
-        <v>4401</v>
+        <v>4308</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>4402</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.25">
@@ -30652,7 +30483,7 @@
         <v>2088</v>
       </c>
       <c r="B2090" s="1" t="s">
-        <v>2088</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="2091" spans="1:2" x14ac:dyDescent="0.25">
@@ -30660,7 +30491,7 @@
         <v>2089</v>
       </c>
       <c r="B2091" s="1" t="s">
-        <v>2089</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="2092" spans="1:2" x14ac:dyDescent="0.25">
@@ -30673,18 +30504,18 @@
     </row>
     <row r="2093" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2093" s="1" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="B2093" s="1" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="2094" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2094" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B2094" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="2095" spans="1:2" x14ac:dyDescent="0.25">
@@ -31081,178 +30912,178 @@
     </row>
     <row r="2144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2144" s="1" t="s">
-        <v>2153</v>
+        <v>2142</v>
       </c>
       <c r="B2144" s="1" t="s">
-        <v>2153</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="2145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2145" s="1" t="s">
-        <v>2154</v>
+        <v>2143</v>
       </c>
       <c r="B2145" s="1" t="s">
-        <v>2154</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="2146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2146" s="1" t="s">
-        <v>2155</v>
+        <v>2144</v>
       </c>
       <c r="B2146" s="1" t="s">
-        <v>2155</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="2147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2147" s="1" t="s">
-        <v>2156</v>
+        <v>2145</v>
       </c>
       <c r="B2147" s="1" t="s">
-        <v>2156</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="2148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2148" s="1" t="s">
-        <v>2157</v>
+        <v>2146</v>
       </c>
       <c r="B2148" s="1" t="s">
-        <v>2157</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="2149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2149" s="1" t="s">
-        <v>2158</v>
+        <v>2147</v>
       </c>
       <c r="B2149" s="1" t="s">
-        <v>2158</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="2150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2150" s="1" t="s">
-        <v>2159</v>
+        <v>2148</v>
       </c>
       <c r="B2150" s="1" t="s">
-        <v>2159</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="2151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2151" s="1" t="s">
-        <v>2160</v>
+        <v>2149</v>
       </c>
       <c r="B2151" s="1" t="s">
-        <v>2160</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="2152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2152" s="1" t="s">
-        <v>2161</v>
+        <v>2150</v>
       </c>
       <c r="B2152" s="1" t="s">
-        <v>2161</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="2153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2153" s="1" t="s">
-        <v>2162</v>
+        <v>2151</v>
       </c>
       <c r="B2153" s="1" t="s">
-        <v>2162</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="2154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2154" s="1" t="s">
-        <v>2163</v>
+        <v>2152</v>
       </c>
       <c r="B2154" s="1" t="s">
-        <v>2163</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="2155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2155" s="1" t="s">
-        <v>2142</v>
+        <v>2153</v>
       </c>
       <c r="B2155" s="1" t="s">
-        <v>2142</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="2156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2156" s="1" t="s">
-        <v>2143</v>
+        <v>2154</v>
       </c>
       <c r="B2156" s="1" t="s">
-        <v>2143</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="2157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2157" s="1" t="s">
-        <v>2144</v>
+        <v>2155</v>
       </c>
       <c r="B2157" s="1" t="s">
-        <v>2144</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="2158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2158" s="1" t="s">
-        <v>2145</v>
+        <v>2156</v>
       </c>
       <c r="B2158" s="1" t="s">
-        <v>2145</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="2159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2159" s="1" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
       <c r="B2159" s="1" t="s">
-        <v>2146</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="2160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2160" s="1" t="s">
-        <v>2147</v>
+        <v>2158</v>
       </c>
       <c r="B2160" s="1" t="s">
-        <v>2147</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="2161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2161" s="1" t="s">
-        <v>2148</v>
+        <v>2159</v>
       </c>
       <c r="B2161" s="1" t="s">
-        <v>2148</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="2162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2162" s="1" t="s">
-        <v>2149</v>
+        <v>2160</v>
       </c>
       <c r="B2162" s="1" t="s">
-        <v>2149</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="2163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2163" s="1" t="s">
-        <v>2150</v>
+        <v>2161</v>
       </c>
       <c r="B2163" s="1" t="s">
-        <v>2150</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="2164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2164" s="1" t="s">
-        <v>2151</v>
+        <v>2162</v>
       </c>
       <c r="B2164" s="1" t="s">
-        <v>2151</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="2165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2165" s="1" t="s">
-        <v>2152</v>
+        <v>2163</v>
       </c>
       <c r="B2165" s="1" t="s">
-        <v>2152</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="2166" spans="1:2" x14ac:dyDescent="0.25">
@@ -31497,178 +31328,178 @@
     </row>
     <row r="2196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2196" s="1" t="s">
-        <v>2194</v>
+        <v>3503</v>
       </c>
       <c r="B2196" s="1" t="s">
-        <v>2194</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="2197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2197" s="1" t="s">
-        <v>2195</v>
+        <v>3504</v>
       </c>
       <c r="B2197" s="1" t="s">
-        <v>2195</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="2198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2198" s="1" t="s">
-        <v>2196</v>
+        <v>3505</v>
       </c>
       <c r="B2198" s="1" t="s">
-        <v>2196</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="2199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2199" s="1" t="s">
-        <v>2197</v>
+        <v>3506</v>
       </c>
       <c r="B2199" s="1" t="s">
-        <v>2197</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="2200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2200" s="1" t="s">
-        <v>2198</v>
+        <v>3507</v>
       </c>
       <c r="B2200" s="1" t="s">
-        <v>2198</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="2201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2201" s="1" t="s">
-        <v>2199</v>
+        <v>3508</v>
       </c>
       <c r="B2201" s="1" t="s">
-        <v>2199</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="2202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2202" s="1" t="s">
-        <v>2200</v>
+        <v>3509</v>
       </c>
       <c r="B2202" s="1" t="s">
-        <v>2200</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="2203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2203" s="1" t="s">
-        <v>2201</v>
+        <v>3510</v>
       </c>
       <c r="B2203" s="1" t="s">
-        <v>2201</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="2204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2204" s="1" t="s">
-        <v>2202</v>
+        <v>3511</v>
       </c>
       <c r="B2204" s="1" t="s">
-        <v>2202</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="2205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2205" s="1" t="s">
-        <v>2203</v>
+        <v>3512</v>
       </c>
       <c r="B2205" s="1" t="s">
-        <v>2203</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="2206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2206" s="1" t="s">
-        <v>2204</v>
+        <v>3513</v>
       </c>
       <c r="B2206" s="1" t="s">
-        <v>2204</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="2207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2207" s="1" t="s">
-        <v>2205</v>
+        <v>3514</v>
       </c>
       <c r="B2207" s="1" t="s">
-        <v>2205</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="2208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2208" s="1" t="s">
-        <v>2206</v>
+        <v>3515</v>
       </c>
       <c r="B2208" s="1" t="s">
-        <v>2206</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="2209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2209" s="1" t="s">
-        <v>2207</v>
+        <v>3516</v>
       </c>
       <c r="B2209" s="1" t="s">
-        <v>2207</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="2210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2210" s="1" t="s">
-        <v>2208</v>
+        <v>3517</v>
       </c>
       <c r="B2210" s="1" t="s">
-        <v>2208</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="2211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2211" s="1" t="s">
-        <v>2209</v>
+        <v>3518</v>
       </c>
       <c r="B2211" s="1" t="s">
-        <v>2209</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="2212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2212" s="1" t="s">
-        <v>2210</v>
+        <v>3519</v>
       </c>
       <c r="B2212" s="1" t="s">
-        <v>2210</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="2213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2213" s="1" t="s">
-        <v>2211</v>
+        <v>3520</v>
       </c>
       <c r="B2213" s="1" t="s">
-        <v>2211</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="2214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2214" s="1" t="s">
-        <v>2212</v>
+        <v>3521</v>
       </c>
       <c r="B2214" s="1" t="s">
-        <v>2212</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="2215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2215" s="1" t="s">
-        <v>2213</v>
+        <v>3522</v>
       </c>
       <c r="B2215" s="1" t="s">
-        <v>2213</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="2216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2216" s="1" t="s">
-        <v>2214</v>
+        <v>3523</v>
       </c>
       <c r="B2216" s="1" t="s">
-        <v>2214</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="2217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2217" s="1" t="s">
-        <v>2215</v>
+        <v>3524</v>
       </c>
       <c r="B2217" s="1" t="s">
-        <v>2215</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="2218" spans="1:2" x14ac:dyDescent="0.25">
@@ -31761,1810 +31592,1810 @@
     </row>
     <row r="2229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2229" s="1" t="s">
-        <v>2227</v>
+        <v>2205</v>
       </c>
       <c r="B2229" s="1" t="s">
-        <v>2227</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="2230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2230" s="1" t="s">
-        <v>2228</v>
+        <v>2206</v>
       </c>
       <c r="B2230" s="1" t="s">
-        <v>2228</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="2231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2231" s="1" t="s">
-        <v>2229</v>
+        <v>2207</v>
       </c>
       <c r="B2231" s="1" t="s">
-        <v>2229</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="2232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2232" s="1" t="s">
-        <v>2230</v>
+        <v>2208</v>
       </c>
       <c r="B2232" s="1" t="s">
-        <v>2230</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="2233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2233" s="1" t="s">
-        <v>2231</v>
+        <v>2209</v>
       </c>
       <c r="B2233" s="1" t="s">
-        <v>2231</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="2234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2234" s="1" t="s">
-        <v>2232</v>
+        <v>2210</v>
       </c>
       <c r="B2234" s="1" t="s">
-        <v>2232</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="2235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2235" s="1" t="s">
-        <v>2233</v>
+        <v>2211</v>
       </c>
       <c r="B2235" s="1" t="s">
-        <v>2233</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="2236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2236" s="1" t="s">
-        <v>2234</v>
+        <v>2212</v>
       </c>
       <c r="B2236" s="1" t="s">
-        <v>2234</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="2237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2237" s="1" t="s">
-        <v>2235</v>
+        <v>2213</v>
       </c>
       <c r="B2237" s="1" t="s">
-        <v>2235</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="2238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2238" s="1" t="s">
-        <v>2236</v>
+        <v>2214</v>
       </c>
       <c r="B2238" s="1" t="s">
-        <v>2236</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="2239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2239" s="1" t="s">
-        <v>2237</v>
+        <v>2215</v>
       </c>
       <c r="B2239" s="1" t="s">
-        <v>2237</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="2240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2240" s="1" t="s">
-        <v>2238</v>
+        <v>3525</v>
       </c>
       <c r="B2240" s="1" t="s">
-        <v>2238</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="2241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2241" s="1" t="s">
-        <v>2239</v>
+        <v>3526</v>
       </c>
       <c r="B2241" s="1" t="s">
-        <v>2239</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="2242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2242" s="1" t="s">
-        <v>2240</v>
+        <v>3527</v>
       </c>
       <c r="B2242" s="1" t="s">
-        <v>2240</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="2243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2243" s="1" t="s">
-        <v>2241</v>
+        <v>3528</v>
       </c>
       <c r="B2243" s="1" t="s">
-        <v>2241</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="2244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2244" s="1" t="s">
-        <v>2242</v>
+        <v>3529</v>
       </c>
       <c r="B2244" s="1" t="s">
-        <v>2242</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="2245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2245" s="1" t="s">
-        <v>2243</v>
+        <v>3530</v>
       </c>
       <c r="B2245" s="1" t="s">
-        <v>2243</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="2246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2246" s="1" t="s">
-        <v>2244</v>
+        <v>3531</v>
       </c>
       <c r="B2246" s="1" t="s">
-        <v>2244</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="2247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2247" s="1" t="s">
-        <v>2245</v>
+        <v>3532</v>
       </c>
       <c r="B2247" s="1" t="s">
-        <v>2245</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="2248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2248" s="1" t="s">
-        <v>2246</v>
+        <v>3533</v>
       </c>
       <c r="B2248" s="1" t="s">
-        <v>2246</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="2249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2249" s="1" t="s">
-        <v>2247</v>
+        <v>3534</v>
       </c>
       <c r="B2249" s="1" t="s">
-        <v>2247</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="2250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2250" s="1" t="s">
-        <v>2248</v>
+        <v>3535</v>
       </c>
       <c r="B2250" s="1" t="s">
-        <v>2248</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="2251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2251" s="1" t="s">
-        <v>2249</v>
+        <v>3536</v>
       </c>
       <c r="B2251" s="1" t="s">
-        <v>2249</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="2252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2252" s="1" t="s">
-        <v>2250</v>
+        <v>3537</v>
       </c>
       <c r="B2252" s="1" t="s">
-        <v>2250</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="2253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2253" s="1" t="s">
-        <v>2251</v>
+        <v>3538</v>
       </c>
       <c r="B2253" s="1" t="s">
-        <v>2251</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="2254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2254" s="1" t="s">
-        <v>2252</v>
+        <v>3539</v>
       </c>
       <c r="B2254" s="1" t="s">
-        <v>2252</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="2255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2255" s="1" t="s">
-        <v>2253</v>
+        <v>3540</v>
       </c>
       <c r="B2255" s="1" t="s">
-        <v>2253</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="2256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2256" s="1" t="s">
-        <v>2254</v>
+        <v>3541</v>
       </c>
       <c r="B2256" s="1" t="s">
-        <v>2254</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="2257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2257" s="1" t="s">
-        <v>2255</v>
+        <v>3542</v>
       </c>
       <c r="B2257" s="1" t="s">
-        <v>2255</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="2258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2258" s="1" t="s">
-        <v>2256</v>
+        <v>3543</v>
       </c>
       <c r="B2258" s="1" t="s">
-        <v>2256</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="2259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2259" s="1" t="s">
-        <v>2257</v>
+        <v>3544</v>
       </c>
       <c r="B2259" s="1" t="s">
-        <v>2257</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="2260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2260" s="1" t="s">
-        <v>2258</v>
+        <v>3545</v>
       </c>
       <c r="B2260" s="1" t="s">
-        <v>2258</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="2261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2261" s="1" t="s">
-        <v>2259</v>
+        <v>3546</v>
       </c>
       <c r="B2261" s="1" t="s">
-        <v>2259</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="2262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2262" s="1" t="s">
-        <v>2260</v>
+        <v>3547</v>
       </c>
       <c r="B2262" s="1" t="s">
-        <v>2260</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="2263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2263" s="1" t="s">
-        <v>2261</v>
+        <v>3548</v>
       </c>
       <c r="B2263" s="1" t="s">
-        <v>2261</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="2264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2264" s="1" t="s">
-        <v>2262</v>
+        <v>3549</v>
       </c>
       <c r="B2264" s="1" t="s">
-        <v>2262</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="2265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2265" s="1" t="s">
-        <v>2263</v>
+        <v>3550</v>
       </c>
       <c r="B2265" s="1" t="s">
-        <v>2263</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="2266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2266" s="1" t="s">
-        <v>2264</v>
+        <v>3551</v>
       </c>
       <c r="B2266" s="1" t="s">
-        <v>2264</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="2267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2267" s="1" t="s">
-        <v>2265</v>
+        <v>3552</v>
       </c>
       <c r="B2267" s="1" t="s">
-        <v>2265</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="2268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2268" s="1" t="s">
-        <v>2266</v>
+        <v>3553</v>
       </c>
       <c r="B2268" s="1" t="s">
-        <v>2266</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="2269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2269" s="1" t="s">
-        <v>2267</v>
+        <v>3554</v>
       </c>
       <c r="B2269" s="1" t="s">
-        <v>2267</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="2270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2270" s="1" t="s">
-        <v>2268</v>
+        <v>3555</v>
       </c>
       <c r="B2270" s="1" t="s">
-        <v>2268</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="2271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2271" s="1" t="s">
-        <v>2269</v>
+        <v>3556</v>
       </c>
       <c r="B2271" s="1" t="s">
-        <v>2269</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="2272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2272" s="1" t="s">
-        <v>2270</v>
+        <v>3557</v>
       </c>
       <c r="B2272" s="1" t="s">
-        <v>2270</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="2273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2273" s="1" t="s">
-        <v>2271</v>
+        <v>3558</v>
       </c>
       <c r="B2273" s="1" t="s">
-        <v>2271</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="2274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2274" s="1" t="s">
-        <v>2272</v>
+        <v>3559</v>
       </c>
       <c r="B2274" s="1" t="s">
-        <v>2272</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="2275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2275" s="1" t="s">
-        <v>2273</v>
+        <v>3560</v>
       </c>
       <c r="B2275" s="1" t="s">
-        <v>2273</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="2276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2276" s="1" t="s">
-        <v>2274</v>
+        <v>3561</v>
       </c>
       <c r="B2276" s="1" t="s">
-        <v>2274</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="2277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2277" s="1" t="s">
-        <v>2275</v>
+        <v>3562</v>
       </c>
       <c r="B2277" s="1" t="s">
-        <v>2275</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="2278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2278" s="1" t="s">
-        <v>2276</v>
+        <v>3563</v>
       </c>
       <c r="B2278" s="1" t="s">
-        <v>2276</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="2279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2279" s="1" t="s">
-        <v>2277</v>
+        <v>3564</v>
       </c>
       <c r="B2279" s="1" t="s">
-        <v>2277</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="2280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2280" s="1" t="s">
-        <v>2278</v>
+        <v>3565</v>
       </c>
       <c r="B2280" s="1" t="s">
-        <v>2278</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="2281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2281" s="1" t="s">
-        <v>2279</v>
+        <v>3566</v>
       </c>
       <c r="B2281" s="1" t="s">
-        <v>2279</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="2282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2282" s="1" t="s">
-        <v>2280</v>
+        <v>3567</v>
       </c>
       <c r="B2282" s="1" t="s">
-        <v>2280</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="2283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2283" s="1" t="s">
-        <v>2281</v>
+        <v>3568</v>
       </c>
       <c r="B2283" s="1" t="s">
-        <v>2281</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="2284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2284" s="1" t="s">
-        <v>2282</v>
+        <v>3569</v>
       </c>
       <c r="B2284" s="1" t="s">
-        <v>2282</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="2285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2285" s="1" t="s">
-        <v>2283</v>
+        <v>3570</v>
       </c>
       <c r="B2285" s="1" t="s">
-        <v>2283</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="2286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2286" s="1" t="s">
-        <v>2284</v>
+        <v>3571</v>
       </c>
       <c r="B2286" s="1" t="s">
-        <v>2284</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="2287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2287" s="1" t="s">
-        <v>2285</v>
+        <v>3572</v>
       </c>
       <c r="B2287" s="1" t="s">
-        <v>2285</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="2288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2288" s="1" t="s">
-        <v>2286</v>
+        <v>3573</v>
       </c>
       <c r="B2288" s="1" t="s">
-        <v>2286</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="2289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2289" s="1" t="s">
-        <v>3596</v>
+        <v>3574</v>
       </c>
       <c r="B2289" s="1" t="s">
-        <v>3596</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="2290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2290" s="1" t="s">
-        <v>3597</v>
+        <v>3575</v>
       </c>
       <c r="B2290" s="1" t="s">
-        <v>3597</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="2291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2291" s="1" t="s">
-        <v>3598</v>
+        <v>3576</v>
       </c>
       <c r="B2291" s="1" t="s">
-        <v>3598</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="2292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2292" s="1" t="s">
-        <v>3599</v>
+        <v>3577</v>
       </c>
       <c r="B2292" s="1" t="s">
-        <v>3599</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="2293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2293" s="1" t="s">
-        <v>3600</v>
+        <v>3578</v>
       </c>
       <c r="B2293" s="1" t="s">
-        <v>3600</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="2294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2294" s="1" t="s">
-        <v>3601</v>
+        <v>3579</v>
       </c>
       <c r="B2294" s="1" t="s">
-        <v>3601</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="2295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2295" s="1" t="s">
-        <v>3602</v>
+        <v>3580</v>
       </c>
       <c r="B2295" s="1" t="s">
-        <v>3602</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="2296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2296" s="1" t="s">
-        <v>3603</v>
+        <v>3581</v>
       </c>
       <c r="B2296" s="1" t="s">
-        <v>3603</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="2297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2297" s="1" t="s">
-        <v>3604</v>
+        <v>3582</v>
       </c>
       <c r="B2297" s="1" t="s">
-        <v>3604</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="2298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2298" s="1" t="s">
-        <v>3605</v>
+        <v>3583</v>
       </c>
       <c r="B2298" s="1" t="s">
-        <v>3605</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="2299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2299" s="1" t="s">
-        <v>3606</v>
+        <v>3584</v>
       </c>
       <c r="B2299" s="1" t="s">
-        <v>3606</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="2300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2300" s="1" t="s">
-        <v>3607</v>
+        <v>3585</v>
       </c>
       <c r="B2300" s="1" t="s">
-        <v>3607</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="2301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2301" s="1" t="s">
-        <v>3608</v>
+        <v>3586</v>
       </c>
       <c r="B2301" s="1" t="s">
-        <v>3608</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="2302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2302" s="1" t="s">
-        <v>3609</v>
+        <v>3587</v>
       </c>
       <c r="B2302" s="1" t="s">
-        <v>3609</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="2303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2303" s="1" t="s">
-        <v>3610</v>
+        <v>3588</v>
       </c>
       <c r="B2303" s="1" t="s">
-        <v>3610</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="2304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2304" s="1" t="s">
-        <v>3611</v>
+        <v>3589</v>
       </c>
       <c r="B2304" s="1" t="s">
-        <v>3611</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="2305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2305" s="1" t="s">
-        <v>3612</v>
+        <v>3590</v>
       </c>
       <c r="B2305" s="1" t="s">
-        <v>3612</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="2306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2306" s="1" t="s">
-        <v>3613</v>
+        <v>3591</v>
       </c>
       <c r="B2306" s="1" t="s">
-        <v>3613</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="2307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2307" s="1" t="s">
-        <v>3614</v>
+        <v>3592</v>
       </c>
       <c r="B2307" s="1" t="s">
-        <v>3614</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="2308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2308" s="1" t="s">
-        <v>3615</v>
+        <v>3593</v>
       </c>
       <c r="B2308" s="1" t="s">
-        <v>3615</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="2309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2309" s="1" t="s">
-        <v>3616</v>
+        <v>3594</v>
       </c>
       <c r="B2309" s="1" t="s">
-        <v>3616</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="2310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2310" s="1" t="s">
-        <v>3617</v>
+        <v>3595</v>
       </c>
       <c r="B2310" s="1" t="s">
-        <v>3617</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="2311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2311" s="1" t="s">
-        <v>2309</v>
+        <v>3596</v>
       </c>
       <c r="B2311" s="1" t="s">
-        <v>2309</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="2312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2312" s="1" t="s">
-        <v>2310</v>
+        <v>3597</v>
       </c>
       <c r="B2312" s="1" t="s">
-        <v>2310</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="2313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2313" s="1" t="s">
-        <v>2311</v>
+        <v>3598</v>
       </c>
       <c r="B2313" s="1" t="s">
-        <v>2311</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="2314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2314" s="1" t="s">
-        <v>2312</v>
+        <v>3599</v>
       </c>
       <c r="B2314" s="1" t="s">
-        <v>2312</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="2315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2315" s="1" t="s">
-        <v>2313</v>
+        <v>3600</v>
       </c>
       <c r="B2315" s="1" t="s">
-        <v>2313</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="2316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2316" s="1" t="s">
-        <v>2314</v>
+        <v>3601</v>
       </c>
       <c r="B2316" s="1" t="s">
-        <v>2314</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="2317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2317" s="1" t="s">
-        <v>2315</v>
+        <v>3602</v>
       </c>
       <c r="B2317" s="1" t="s">
-        <v>2315</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="2318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2318" s="1" t="s">
-        <v>2316</v>
+        <v>3603</v>
       </c>
       <c r="B2318" s="1" t="s">
-        <v>2316</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="2319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2319" s="1" t="s">
-        <v>2317</v>
+        <v>3604</v>
       </c>
       <c r="B2319" s="1" t="s">
-        <v>2317</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="2320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2320" s="1" t="s">
-        <v>2318</v>
+        <v>3605</v>
       </c>
       <c r="B2320" s="1" t="s">
-        <v>2318</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2321" s="1" t="s">
-        <v>2319</v>
+        <v>3606</v>
       </c>
       <c r="B2321" s="1" t="s">
-        <v>2319</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="2322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2322" s="1" t="s">
-        <v>2298</v>
+        <v>3607</v>
       </c>
       <c r="B2322" s="1" t="s">
-        <v>2298</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="2323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2323" s="1" t="s">
-        <v>2299</v>
+        <v>3608</v>
       </c>
       <c r="B2323" s="1" t="s">
-        <v>2299</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="2324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2324" s="1" t="s">
-        <v>2300</v>
+        <v>3609</v>
       </c>
       <c r="B2324" s="1" t="s">
-        <v>2300</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="2325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2325" s="1" t="s">
-        <v>2301</v>
+        <v>3610</v>
       </c>
       <c r="B2325" s="1" t="s">
-        <v>2301</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="2326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2326" s="1" t="s">
-        <v>2302</v>
+        <v>3611</v>
       </c>
       <c r="B2326" s="1" t="s">
-        <v>2302</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="2327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2327" s="1" t="s">
-        <v>2303</v>
+        <v>3612</v>
       </c>
       <c r="B2327" s="1" t="s">
-        <v>2303</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="2328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2328" s="1" t="s">
-        <v>2304</v>
+        <v>2194</v>
       </c>
       <c r="B2328" s="1" t="s">
-        <v>2304</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="2329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2329" s="1" t="s">
-        <v>2305</v>
+        <v>2195</v>
       </c>
       <c r="B2329" s="1" t="s">
-        <v>2305</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="2330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2330" s="1" t="s">
-        <v>2306</v>
+        <v>2196</v>
       </c>
       <c r="B2330" s="1" t="s">
-        <v>2306</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="2331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2331" s="1" t="s">
-        <v>2307</v>
+        <v>2197</v>
       </c>
       <c r="B2331" s="1" t="s">
-        <v>2307</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="2332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2332" s="1" t="s">
-        <v>2308</v>
+        <v>2198</v>
       </c>
       <c r="B2332" s="1" t="s">
-        <v>2308</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="2333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2333" s="1" t="s">
-        <v>3618</v>
+        <v>2199</v>
       </c>
       <c r="B2333" s="1" t="s">
-        <v>3618</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="2334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2334" s="1" t="s">
-        <v>3619</v>
+        <v>2200</v>
       </c>
       <c r="B2334" s="1" t="s">
-        <v>3619</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="2335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2335" s="1" t="s">
-        <v>3620</v>
+        <v>2201</v>
       </c>
       <c r="B2335" s="1" t="s">
-        <v>3620</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="2336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2336" s="1" t="s">
-        <v>3621</v>
+        <v>2202</v>
       </c>
       <c r="B2336" s="1" t="s">
-        <v>3621</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="2337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2337" s="1" t="s">
-        <v>3622</v>
+        <v>2203</v>
       </c>
       <c r="B2337" s="1" t="s">
-        <v>3622</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="2338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2338" s="1" t="s">
-        <v>3623</v>
+        <v>2204</v>
       </c>
       <c r="B2338" s="1" t="s">
-        <v>3623</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="2339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2339" s="1" t="s">
-        <v>3624</v>
+        <v>2227</v>
       </c>
       <c r="B2339" s="1" t="s">
-        <v>3624</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="2340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2340" s="1" t="s">
-        <v>3625</v>
+        <v>2228</v>
       </c>
       <c r="B2340" s="1" t="s">
-        <v>3625</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="2341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2341" s="1" t="s">
-        <v>3626</v>
+        <v>2229</v>
       </c>
       <c r="B2341" s="1" t="s">
-        <v>3626</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="2342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2342" s="1" t="s">
-        <v>3627</v>
+        <v>2230</v>
       </c>
       <c r="B2342" s="1" t="s">
-        <v>3627</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="2343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2343" s="1" t="s">
-        <v>3628</v>
+        <v>2231</v>
       </c>
       <c r="B2343" s="1" t="s">
-        <v>3628</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="2344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2344" s="1" t="s">
-        <v>3629</v>
+        <v>2232</v>
       </c>
       <c r="B2344" s="1" t="s">
-        <v>3629</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="2345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2345" s="1" t="s">
-        <v>3630</v>
+        <v>2233</v>
       </c>
       <c r="B2345" s="1" t="s">
-        <v>3630</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="2346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2346" s="1" t="s">
-        <v>3631</v>
+        <v>2234</v>
       </c>
       <c r="B2346" s="1" t="s">
-        <v>3631</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="2347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2347" s="1" t="s">
-        <v>3632</v>
+        <v>2235</v>
       </c>
       <c r="B2347" s="1" t="s">
-        <v>3632</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="2348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2348" s="1" t="s">
-        <v>3633</v>
+        <v>2236</v>
       </c>
       <c r="B2348" s="1" t="s">
-        <v>3633</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="2349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2349" s="1" t="s">
-        <v>3634</v>
+        <v>2237</v>
       </c>
       <c r="B2349" s="1" t="s">
-        <v>3634</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="2350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2350" s="1" t="s">
-        <v>3635</v>
+        <v>2238</v>
       </c>
       <c r="B2350" s="1" t="s">
-        <v>3635</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="2351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2351" s="1" t="s">
-        <v>3636</v>
+        <v>3613</v>
       </c>
       <c r="B2351" s="1" t="s">
-        <v>3636</v>
+        <v>3613</v>
       </c>
     </row>
     <row r="2352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2352" s="1" t="s">
-        <v>3637</v>
+        <v>3614</v>
       </c>
       <c r="B2352" s="1" t="s">
-        <v>3637</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="2353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2353" s="1" t="s">
-        <v>3638</v>
+        <v>3615</v>
       </c>
       <c r="B2353" s="1" t="s">
-        <v>3638</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="2354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2354" s="1" t="s">
-        <v>3639</v>
+        <v>3616</v>
       </c>
       <c r="B2354" s="1" t="s">
-        <v>3639</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="2355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2355" s="1" t="s">
-        <v>3640</v>
+        <v>3617</v>
       </c>
       <c r="B2355" s="1" t="s">
-        <v>3640</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="2356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2356" s="1" t="s">
-        <v>3641</v>
+        <v>3618</v>
       </c>
       <c r="B2356" s="1" t="s">
-        <v>3641</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="2357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2357" s="1" t="s">
-        <v>3642</v>
+        <v>3619</v>
       </c>
       <c r="B2357" s="1" t="s">
-        <v>3642</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="2358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2358" s="1" t="s">
-        <v>3643</v>
+        <v>3620</v>
       </c>
       <c r="B2358" s="1" t="s">
-        <v>3643</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="2359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2359" s="1" t="s">
-        <v>3644</v>
+        <v>3621</v>
       </c>
       <c r="B2359" s="1" t="s">
-        <v>3644</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="2360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2360" s="1" t="s">
-        <v>3645</v>
+        <v>3622</v>
       </c>
       <c r="B2360" s="1" t="s">
-        <v>3645</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="2361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2361" s="1" t="s">
-        <v>3646</v>
+        <v>3623</v>
       </c>
       <c r="B2361" s="1" t="s">
-        <v>3646</v>
-      </c>
-    </row>
-    <row r="2362" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2362" s="1" t="s">
-        <v>3647</v>
+        <v>2239</v>
       </c>
       <c r="B2362" s="1" t="s">
-        <v>3647</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="2363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2363" s="1" t="s">
-        <v>3648</v>
+        <v>2240</v>
       </c>
       <c r="B2363" s="1" t="s">
-        <v>3648</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="2364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2364" s="1" t="s">
-        <v>3649</v>
+        <v>2241</v>
       </c>
       <c r="B2364" s="1" t="s">
-        <v>3649</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="2365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2365" s="1" t="s">
-        <v>3650</v>
+        <v>2242</v>
       </c>
       <c r="B2365" s="1" t="s">
-        <v>3650</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="2366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2366" s="1" t="s">
-        <v>3651</v>
+        <v>2243</v>
       </c>
       <c r="B2366" s="1" t="s">
-        <v>3651</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="2367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2367" s="1" t="s">
-        <v>3652</v>
+        <v>2244</v>
       </c>
       <c r="B2367" s="1" t="s">
-        <v>3652</v>
-      </c>
-    </row>
-    <row r="2368" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2368" s="1" t="s">
-        <v>3653</v>
+        <v>2245</v>
       </c>
       <c r="B2368" s="1" t="s">
-        <v>3653</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="2369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2369" s="1" t="s">
-        <v>3654</v>
+        <v>2246</v>
       </c>
       <c r="B2369" s="1" t="s">
-        <v>3654</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="2370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2370" s="1" t="s">
-        <v>3655</v>
+        <v>2247</v>
       </c>
       <c r="B2370" s="1" t="s">
-        <v>3655</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="2371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2371" s="1" t="s">
-        <v>3656</v>
+        <v>2248</v>
       </c>
       <c r="B2371" s="1" t="s">
-        <v>3656</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="2372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2372" s="1" t="s">
-        <v>3657</v>
+        <v>2249</v>
       </c>
       <c r="B2372" s="1" t="s">
-        <v>3657</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="2373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2373" s="1" t="s">
-        <v>3658</v>
+        <v>2250</v>
       </c>
       <c r="B2373" s="1" t="s">
-        <v>3658</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="2374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2374" s="1" t="s">
-        <v>3659</v>
+        <v>2251</v>
       </c>
       <c r="B2374" s="1" t="s">
-        <v>3659</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="2375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2375" s="1" t="s">
-        <v>3660</v>
+        <v>2252</v>
       </c>
       <c r="B2375" s="1" t="s">
-        <v>3660</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="2376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2376" s="1" t="s">
-        <v>3661</v>
+        <v>2253</v>
       </c>
       <c r="B2376" s="1" t="s">
-        <v>3661</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="2377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2377" s="1" t="s">
-        <v>3662</v>
+        <v>2254</v>
       </c>
       <c r="B2377" s="1" t="s">
-        <v>3662</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="2378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2378" s="1" t="s">
-        <v>3663</v>
+        <v>2255</v>
       </c>
       <c r="B2378" s="1" t="s">
-        <v>3663</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="2379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2379" s="1" t="s">
-        <v>3664</v>
+        <v>2256</v>
       </c>
       <c r="B2379" s="1" t="s">
-        <v>3664</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="2380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2380" s="1" t="s">
-        <v>3665</v>
+        <v>2257</v>
       </c>
       <c r="B2380" s="1" t="s">
-        <v>3665</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="2381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2381" s="1" t="s">
-        <v>3666</v>
+        <v>2258</v>
       </c>
       <c r="B2381" s="1" t="s">
-        <v>3666</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="2382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2382" s="1" t="s">
-        <v>3667</v>
+        <v>2259</v>
       </c>
       <c r="B2382" s="1" t="s">
-        <v>3667</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="2383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2383" s="1" t="s">
-        <v>3668</v>
+        <v>2260</v>
       </c>
       <c r="B2383" s="1" t="s">
-        <v>3668</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="2384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2384" s="1" t="s">
-        <v>3669</v>
+        <v>2261</v>
       </c>
       <c r="B2384" s="1" t="s">
-        <v>3669</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="2385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2385" s="1" t="s">
-        <v>3670</v>
+        <v>2262</v>
       </c>
       <c r="B2385" s="1" t="s">
-        <v>3670</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="2386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2386" s="1" t="s">
-        <v>3671</v>
+        <v>2263</v>
       </c>
       <c r="B2386" s="1" t="s">
-        <v>3671</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="2387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2387" s="1" t="s">
-        <v>3672</v>
+        <v>2264</v>
       </c>
       <c r="B2387" s="1" t="s">
-        <v>3672</v>
-      </c>
-    </row>
-    <row r="2388" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2388" s="1" t="s">
-        <v>3673</v>
+        <v>2265</v>
       </c>
       <c r="B2388" s="1" t="s">
-        <v>3673</v>
-      </c>
-    </row>
-    <row r="2389" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2389" s="1" t="s">
-        <v>3674</v>
+        <v>2266</v>
       </c>
       <c r="B2389" s="1" t="s">
-        <v>3674</v>
-      </c>
-    </row>
-    <row r="2390" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2390" s="1" t="s">
-        <v>3675</v>
+        <v>2267</v>
       </c>
       <c r="B2390" s="1" t="s">
-        <v>3675</v>
-      </c>
-    </row>
-    <row r="2391" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2391" s="1" t="s">
-        <v>3676</v>
+        <v>2268</v>
       </c>
       <c r="B2391" s="1" t="s">
-        <v>3676</v>
-      </c>
-    </row>
-    <row r="2392" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2392" s="1" t="s">
-        <v>3677</v>
+        <v>2269</v>
       </c>
       <c r="B2392" s="1" t="s">
-        <v>3677</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="2393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2393" s="1" t="s">
-        <v>3678</v>
+        <v>2270</v>
       </c>
       <c r="B2393" s="1" t="s">
-        <v>3678</v>
-      </c>
-    </row>
-    <row r="2394" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2394" s="1" t="s">
-        <v>3679</v>
+        <v>2271</v>
       </c>
       <c r="B2394" s="1" t="s">
-        <v>3679</v>
-      </c>
-    </row>
-    <row r="2395" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2395" s="1" t="s">
-        <v>3680</v>
+        <v>2272</v>
       </c>
       <c r="B2395" s="1" t="s">
-        <v>3680</v>
-      </c>
-    </row>
-    <row r="2396" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2396" s="1" t="s">
-        <v>3681</v>
+        <v>2273</v>
       </c>
       <c r="B2396" s="1" t="s">
-        <v>3681</v>
-      </c>
-    </row>
-    <row r="2397" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2397" s="1" t="s">
-        <v>3682</v>
+        <v>2274</v>
       </c>
       <c r="B2397" s="1" t="s">
-        <v>3682</v>
-      </c>
-    </row>
-    <row r="2398" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2398" s="1" t="s">
-        <v>3683</v>
+        <v>2275</v>
       </c>
       <c r="B2398" s="1" t="s">
-        <v>3683</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="2399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2399" s="1" t="s">
-        <v>3684</v>
+        <v>2276</v>
       </c>
       <c r="B2399" s="1" t="s">
-        <v>3684</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="2400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2400" s="1" t="s">
-        <v>3685</v>
+        <v>2277</v>
       </c>
       <c r="B2400" s="1" t="s">
-        <v>3685</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="2401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2401" s="1" t="s">
-        <v>3686</v>
+        <v>2278</v>
       </c>
       <c r="B2401" s="1" t="s">
-        <v>3686</v>
-      </c>
-    </row>
-    <row r="2402" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2402" s="1" t="s">
-        <v>3687</v>
+        <v>2279</v>
       </c>
       <c r="B2402" s="1" t="s">
-        <v>3687</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="2403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2403" s="1" t="s">
-        <v>3688</v>
+        <v>2280</v>
       </c>
       <c r="B2403" s="1" t="s">
-        <v>3688</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="2404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2404" s="1" t="s">
-        <v>3689</v>
+        <v>2281</v>
       </c>
       <c r="B2404" s="1" t="s">
-        <v>3689</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="2405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2405" s="1" t="s">
-        <v>3690</v>
+        <v>2282</v>
       </c>
       <c r="B2405" s="1" t="s">
-        <v>3690</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="2406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2406" s="1" t="s">
-        <v>3691</v>
+        <v>2283</v>
       </c>
       <c r="B2406" s="1" t="s">
-        <v>3691</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="2407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2407" s="1" t="s">
-        <v>3692</v>
+        <v>2284</v>
       </c>
       <c r="B2407" s="1" t="s">
-        <v>3692</v>
-      </c>
-    </row>
-    <row r="2408" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2408" s="1" t="s">
-        <v>3693</v>
+        <v>2285</v>
       </c>
       <c r="B2408" s="1" t="s">
-        <v>3693</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="2409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2409" s="1" t="s">
-        <v>3694</v>
+        <v>2286</v>
       </c>
       <c r="B2409" s="1" t="s">
-        <v>3694</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="2410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2410" s="1" t="s">
-        <v>3695</v>
+        <v>2287</v>
       </c>
       <c r="B2410" s="1" t="s">
-        <v>3695</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="2411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2411" s="1" t="s">
-        <v>3696</v>
+        <v>2288</v>
       </c>
       <c r="B2411" s="1" t="s">
-        <v>3696</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="2412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2412" s="1" t="s">
-        <v>3697</v>
+        <v>2289</v>
       </c>
       <c r="B2412" s="1" t="s">
-        <v>3697</v>
-      </c>
-    </row>
-    <row r="2413" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2413" s="1" t="s">
-        <v>3698</v>
+        <v>2290</v>
       </c>
       <c r="B2413" s="1" t="s">
-        <v>3698</v>
-      </c>
-    </row>
-    <row r="2414" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2414" s="1" t="s">
-        <v>3699</v>
+        <v>2291</v>
       </c>
       <c r="B2414" s="1" t="s">
-        <v>3699</v>
-      </c>
-    </row>
-    <row r="2415" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2415" s="1" t="s">
-        <v>3700</v>
+        <v>2292</v>
       </c>
       <c r="B2415" s="1" t="s">
-        <v>3700</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="2416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2416" s="1" t="s">
-        <v>3701</v>
+        <v>2293</v>
       </c>
       <c r="B2416" s="1" t="s">
-        <v>3701</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="2417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2417" s="1" t="s">
-        <v>3702</v>
+        <v>2294</v>
       </c>
       <c r="B2417" s="1" t="s">
-        <v>3702</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="2418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2418" s="1" t="s">
-        <v>3703</v>
+        <v>2295</v>
       </c>
       <c r="B2418" s="1" t="s">
-        <v>3703</v>
-      </c>
-    </row>
-    <row r="2419" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2419" s="1" t="s">
-        <v>3704</v>
+        <v>2296</v>
       </c>
       <c r="B2419" s="1" t="s">
-        <v>3704</v>
-      </c>
-    </row>
-    <row r="2420" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2420" s="1" t="s">
-        <v>3705</v>
+        <v>2297</v>
       </c>
       <c r="B2420" s="1" t="s">
-        <v>3705</v>
-      </c>
-    </row>
-    <row r="2421" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2421" s="1" t="s">
-        <v>2287</v>
+        <v>2298</v>
       </c>
       <c r="B2421" s="1" t="s">
-        <v>2287</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="2422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2422" s="1" t="s">
-        <v>2288</v>
+        <v>2299</v>
       </c>
       <c r="B2422" s="1" t="s">
-        <v>2288</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="2423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2423" s="1" t="s">
-        <v>2289</v>
+        <v>2300</v>
       </c>
       <c r="B2423" s="1" t="s">
-        <v>2289</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="2424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2424" s="1" t="s">
-        <v>2290</v>
+        <v>2301</v>
       </c>
       <c r="B2424" s="1" t="s">
-        <v>2290</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="2425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2425" s="1" t="s">
-        <v>2291</v>
+        <v>2302</v>
       </c>
       <c r="B2425" s="1" t="s">
-        <v>2291</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="2426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2426" s="1" t="s">
-        <v>2292</v>
+        <v>2303</v>
       </c>
       <c r="B2426" s="1" t="s">
-        <v>2292</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="2427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2427" s="1" t="s">
-        <v>2293</v>
+        <v>2304</v>
       </c>
       <c r="B2427" s="1" t="s">
-        <v>2293</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="2428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2428" s="1" t="s">
-        <v>2294</v>
+        <v>2305</v>
       </c>
       <c r="B2428" s="1" t="s">
-        <v>2294</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="2429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2429" s="1" t="s">
-        <v>2295</v>
+        <v>2306</v>
       </c>
       <c r="B2429" s="1" t="s">
-        <v>2295</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="2430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2430" s="1" t="s">
-        <v>2296</v>
+        <v>2307</v>
       </c>
       <c r="B2430" s="1" t="s">
-        <v>2296</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="2431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2431" s="1" t="s">
-        <v>2297</v>
+        <v>2308</v>
       </c>
       <c r="B2431" s="1" t="s">
-        <v>2297</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="2432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2432" s="1" t="s">
-        <v>2320</v>
+        <v>2309</v>
       </c>
       <c r="B2432" s="1" t="s">
-        <v>2320</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="2433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2433" s="1" t="s">
-        <v>2321</v>
+        <v>2310</v>
       </c>
       <c r="B2433" s="1" t="s">
-        <v>2321</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="2434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2434" s="1" t="s">
-        <v>2322</v>
+        <v>2311</v>
       </c>
       <c r="B2434" s="1" t="s">
-        <v>2322</v>
-      </c>
-    </row>
-    <row r="2435" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2435" s="1" t="s">
-        <v>2323</v>
+        <v>2312</v>
       </c>
       <c r="B2435" s="1" t="s">
-        <v>2323</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="2436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2436" s="1" t="s">
-        <v>2324</v>
+        <v>2313</v>
       </c>
       <c r="B2436" s="1" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="2437" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2437" s="1" t="s">
-        <v>2325</v>
+        <v>2314</v>
       </c>
       <c r="B2437" s="1" t="s">
-        <v>2325</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="2438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2438" s="1" t="s">
-        <v>2326</v>
+        <v>2315</v>
       </c>
       <c r="B2438" s="1" t="s">
-        <v>2326</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="2439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2439" s="1" t="s">
-        <v>2327</v>
+        <v>2316</v>
       </c>
       <c r="B2439" s="1" t="s">
-        <v>2327</v>
-      </c>
-    </row>
-    <row r="2440" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2440" s="1" t="s">
-        <v>2328</v>
+        <v>2317</v>
       </c>
       <c r="B2440" s="1" t="s">
-        <v>2328</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="2441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2441" s="1" t="s">
-        <v>2329</v>
+        <v>2318</v>
       </c>
       <c r="B2441" s="1" t="s">
-        <v>2329</v>
-      </c>
-    </row>
-    <row r="2442" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2442" s="1" t="s">
-        <v>2330</v>
+        <v>2319</v>
       </c>
       <c r="B2442" s="1" t="s">
-        <v>2330</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="2443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2443" s="1" t="s">
-        <v>2331</v>
+        <v>2320</v>
       </c>
       <c r="B2443" s="1" t="s">
-        <v>2331</v>
-      </c>
-    </row>
-    <row r="2444" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2444" s="1" t="s">
-        <v>3706</v>
+        <v>2321</v>
       </c>
       <c r="B2444" s="1" t="s">
-        <v>3706</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="2445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2445" s="1" t="s">
-        <v>3707</v>
+        <v>2322</v>
       </c>
       <c r="B2445" s="1" t="s">
-        <v>3707</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="2446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2446" s="1" t="s">
-        <v>3708</v>
+        <v>2323</v>
       </c>
       <c r="B2446" s="1" t="s">
-        <v>3708</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="2447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2447" s="1" t="s">
-        <v>3709</v>
+        <v>2324</v>
       </c>
       <c r="B2447" s="1" t="s">
-        <v>3709</v>
-      </c>
-    </row>
-    <row r="2448" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2448" s="1" t="s">
-        <v>3710</v>
+        <v>2325</v>
       </c>
       <c r="B2448" s="1" t="s">
-        <v>3710</v>
-      </c>
-    </row>
-    <row r="2449" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2449" s="1" t="s">
-        <v>3711</v>
+        <v>2326</v>
       </c>
       <c r="B2449" s="1" t="s">
-        <v>3711</v>
-      </c>
-    </row>
-    <row r="2450" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2450" s="1" t="s">
-        <v>3712</v>
+        <v>2327</v>
       </c>
       <c r="B2450" s="1" t="s">
-        <v>3712</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="2451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2451" s="1" t="s">
-        <v>3713</v>
+        <v>2328</v>
       </c>
       <c r="B2451" s="1" t="s">
-        <v>3713</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="2452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2452" s="1" t="s">
-        <v>3714</v>
+        <v>2329</v>
       </c>
       <c r="B2452" s="1" t="s">
-        <v>3714</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="2453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2453" s="1" t="s">
-        <v>3715</v>
+        <v>2330</v>
       </c>
       <c r="B2453" s="1" t="s">
-        <v>3715</v>
-      </c>
-    </row>
-    <row r="2454" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2454" s="1" t="s">
-        <v>3716</v>
+        <v>2331</v>
       </c>
       <c r="B2454" s="1" t="s">
-        <v>3716</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="2455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33572,23 +33403,23 @@
         <v>2332</v>
       </c>
       <c r="B2455" s="1" t="s">
-        <v>4374</v>
-      </c>
-    </row>
-    <row r="2456" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2456" s="1" t="s">
         <v>2333</v>
       </c>
       <c r="B2456" s="1" t="s">
-        <v>2333</v>
-      </c>
-    </row>
-    <row r="2457" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2457" s="1" t="s">
         <v>2334</v>
       </c>
       <c r="B2457" s="1" t="s">
-        <v>2334</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="2458" spans="1:2" x14ac:dyDescent="0.25">
@@ -33599,12 +33430,12 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="2459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2459" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2459" s="1" t="s">
         <v>2336</v>
       </c>
       <c r="B2459" s="1" t="s">
-        <v>2336</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="2460" spans="1:2" x14ac:dyDescent="0.25">
@@ -33615,12 +33446,12 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="2461" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2461" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2461" s="1" t="s">
         <v>2338</v>
       </c>
       <c r="B2461" s="1" t="s">
-        <v>4373</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="2462" spans="1:2" x14ac:dyDescent="0.25">
@@ -33631,12 +33462,12 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="2463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2463" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2463" s="1" t="s">
         <v>2340</v>
       </c>
       <c r="B2463" s="1" t="s">
-        <v>2340</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="2464" spans="1:2" x14ac:dyDescent="0.25">
@@ -33647,12 +33478,12 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="2465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2465" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2465" s="1" t="s">
         <v>2342</v>
       </c>
       <c r="B2465" s="1" t="s">
-        <v>2342</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="2466" spans="1:2" x14ac:dyDescent="0.25">
@@ -33660,15 +33491,15 @@
         <v>2343</v>
       </c>
       <c r="B2466" s="1" t="s">
-        <v>4404</v>
-      </c>
-    </row>
-    <row r="2467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2467" s="1" t="s">
         <v>2344</v>
       </c>
       <c r="B2467" s="1" t="s">
-        <v>4404</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="2468" spans="1:2" x14ac:dyDescent="0.25">
@@ -33676,7 +33507,7 @@
         <v>2345</v>
       </c>
       <c r="B2468" s="1" t="s">
-        <v>4404</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="2469" spans="1:2" x14ac:dyDescent="0.25">
@@ -33708,23 +33539,23 @@
         <v>2349</v>
       </c>
       <c r="B2472" s="1" t="s">
-        <v>4403</v>
-      </c>
-    </row>
-    <row r="2473" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2473" s="1" t="s">
         <v>2350</v>
       </c>
       <c r="B2473" s="1" t="s">
-        <v>4403</v>
-      </c>
-    </row>
-    <row r="2474" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2474" s="1" t="s">
         <v>2351</v>
       </c>
       <c r="B2474" s="1" t="s">
-        <v>4403</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="2475" spans="1:2" x14ac:dyDescent="0.25">
@@ -33759,20 +33590,20 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="2479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2479" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2479" s="1" t="s">
         <v>2356</v>
       </c>
       <c r="B2479" s="1" t="s">
-        <v>2356</v>
-      </c>
-    </row>
-    <row r="2480" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2480" s="1" t="s">
         <v>2357</v>
       </c>
       <c r="B2480" s="1" t="s">
-        <v>2357</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="2481" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33780,7 +33611,7 @@
         <v>2358</v>
       </c>
       <c r="B2481" s="1" t="s">
-        <v>4398</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="2482" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -33788,63 +33619,63 @@
         <v>2359</v>
       </c>
       <c r="B2482" s="1" t="s">
-        <v>4398</v>
-      </c>
-    </row>
-    <row r="2483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2483" s="1" t="s">
         <v>2360</v>
       </c>
       <c r="B2483" s="1" t="s">
-        <v>4398</v>
-      </c>
-    </row>
-    <row r="2484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2484" s="1" t="s">
         <v>2361</v>
       </c>
       <c r="B2484" s="1" t="s">
-        <v>4398</v>
-      </c>
-    </row>
-    <row r="2485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2485" s="1" t="s">
         <v>2362</v>
       </c>
       <c r="B2485" s="1" t="s">
-        <v>4398</v>
-      </c>
-    </row>
-    <row r="2486" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2486" s="1" t="s">
         <v>2363</v>
       </c>
       <c r="B2486" s="1" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="2487" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2487" s="1" t="s">
         <v>2364</v>
       </c>
       <c r="B2487" s="1" t="s">
-        <v>4399</v>
-      </c>
-    </row>
-    <row r="2488" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2488" s="1" t="s">
         <v>2365</v>
       </c>
       <c r="B2488" s="1" t="s">
-        <v>4399</v>
-      </c>
-    </row>
-    <row r="2489" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2489" s="1" t="s">
         <v>2366</v>
       </c>
       <c r="B2489" s="1" t="s">
-        <v>4399</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="2490" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -33852,23 +33683,23 @@
         <v>2367</v>
       </c>
       <c r="B2490" s="1" t="s">
-        <v>4399</v>
-      </c>
-    </row>
-    <row r="2491" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2491" s="1" t="s">
         <v>2368</v>
       </c>
       <c r="B2491" s="1" t="s">
-        <v>4399</v>
-      </c>
-    </row>
-    <row r="2492" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2492" s="1" t="s">
         <v>2369</v>
       </c>
       <c r="B2492" s="1" t="s">
-        <v>2369</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="2493" spans="1:2" x14ac:dyDescent="0.25">
@@ -33876,7 +33707,7 @@
         <v>2370</v>
       </c>
       <c r="B2493" s="1" t="s">
-        <v>2370</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="2494" spans="1:2" x14ac:dyDescent="0.25">
@@ -33887,12 +33718,12 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="2495" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2495" s="1" t="s">
         <v>2372</v>
       </c>
       <c r="B2495" s="1" t="s">
-        <v>4393</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="2496" spans="1:2" x14ac:dyDescent="0.25">
@@ -33903,20 +33734,20 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="2497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2497" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2497" s="1" t="s">
         <v>2374</v>
       </c>
       <c r="B2497" s="1" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="2498" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2498" s="1" t="s">
         <v>2375</v>
       </c>
       <c r="B2498" s="1" t="s">
-        <v>2375</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="2499" spans="1:2" x14ac:dyDescent="0.25">
@@ -33924,7 +33755,7 @@
         <v>2376</v>
       </c>
       <c r="B2499" s="1" t="s">
-        <v>2376</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="2500" spans="1:2" x14ac:dyDescent="0.25">
@@ -33935,12 +33766,12 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="2501" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2501" s="1" t="s">
         <v>2378</v>
       </c>
       <c r="B2501" s="1" t="s">
-        <v>4393</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="2502" spans="1:2" x14ac:dyDescent="0.25">
@@ -33951,20 +33782,20 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="2503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2503" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2503" s="1" t="s">
         <v>2380</v>
       </c>
       <c r="B2503" s="1" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="2504" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2504" s="1" t="s">
         <v>2381</v>
       </c>
       <c r="B2504" s="1" t="s">
-        <v>2381</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="2505" spans="1:2" x14ac:dyDescent="0.25">
@@ -33975,28 +33806,28 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="2506" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2506" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2506" s="1" t="s">
         <v>2383</v>
       </c>
       <c r="B2506" s="1" t="s">
-        <v>4384</v>
-      </c>
-    </row>
-    <row r="2507" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2507" s="1" t="s">
         <v>2384</v>
       </c>
       <c r="B2507" s="1" t="s">
-        <v>4387</v>
-      </c>
-    </row>
-    <row r="2508" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2508" s="1" t="s">
         <v>2385</v>
       </c>
       <c r="B2508" s="1" t="s">
-        <v>4386</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="2509" spans="1:2" x14ac:dyDescent="0.25">
@@ -34007,12 +33838,12 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="2510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2510" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2510" s="1" t="s">
         <v>2387</v>
       </c>
       <c r="B2510" s="1" t="s">
-        <v>2387</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="2511" spans="1:2" x14ac:dyDescent="0.25">
@@ -34023,28 +33854,28 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="2512" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="2512" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2512" s="1" t="s">
         <v>2389</v>
       </c>
       <c r="B2512" s="1" t="s">
-        <v>4385</v>
-      </c>
-    </row>
-    <row r="2513" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2513" s="1" t="s">
         <v>2390</v>
       </c>
       <c r="B2513" s="1" t="s">
-        <v>4387</v>
-      </c>
-    </row>
-    <row r="2514" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2514" s="1" t="s">
         <v>2391</v>
       </c>
       <c r="B2514" s="1" t="s">
-        <v>4386</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="2515" spans="1:2" x14ac:dyDescent="0.25">
@@ -34055,12 +33886,12 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="2516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2516" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2516" s="1" t="s">
         <v>2393</v>
       </c>
       <c r="B2516" s="1" t="s">
-        <v>2393</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="2517" spans="1:2" x14ac:dyDescent="0.25">
@@ -34068,15 +33899,15 @@
         <v>2394</v>
       </c>
       <c r="B2517" s="1" t="s">
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="2518" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2518" s="1" t="s">
         <v>2395</v>
       </c>
       <c r="B2518" s="1" t="s">
-        <v>2395</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="2519" spans="1:2" x14ac:dyDescent="0.25">
@@ -34087,12 +33918,12 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="2520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2520" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2520" s="1" t="s">
         <v>2397</v>
       </c>
       <c r="B2520" s="1" t="s">
-        <v>2397</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="2521" spans="1:2" x14ac:dyDescent="0.25">
@@ -34103,12 +33934,12 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="2522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2522" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2522" s="1" t="s">
         <v>2399</v>
       </c>
       <c r="B2522" s="1" t="s">
-        <v>2399</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="2523" spans="1:2" x14ac:dyDescent="0.25">
@@ -34116,15 +33947,15 @@
         <v>2400</v>
       </c>
       <c r="B2523" s="1" t="s">
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="2524" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2524" s="1" t="s">
         <v>2401</v>
       </c>
       <c r="B2524" s="1" t="s">
-        <v>2401</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="2525" spans="1:2" x14ac:dyDescent="0.25">
@@ -34135,12 +33966,12 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="2526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2526" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2526" s="1" t="s">
         <v>2403</v>
       </c>
       <c r="B2526" s="1" t="s">
-        <v>2403</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="2527" spans="1:2" x14ac:dyDescent="0.25">
@@ -34151,12 +33982,12 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="2528" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2528" s="1" t="s">
         <v>2405</v>
       </c>
       <c r="B2528" s="1" t="s">
-        <v>4410</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="2529" spans="1:2" x14ac:dyDescent="0.25">
@@ -34167,12 +33998,12 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="2530" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2530" s="1" t="s">
         <v>2407</v>
       </c>
       <c r="B2530" s="1" t="s">
-        <v>4410</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="2531" spans="1:2" x14ac:dyDescent="0.25">
@@ -34191,12 +34022,12 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="2533" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2533" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="B2533" s="1" t="s">
-        <v>4410</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="2534" spans="1:2" x14ac:dyDescent="0.25">
@@ -34207,12 +34038,12 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="2535" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2535" s="1" t="s">
         <v>2412</v>
       </c>
       <c r="B2535" s="1" t="s">
-        <v>4410</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="2536" spans="1:2" x14ac:dyDescent="0.25">
@@ -34223,12 +34054,12 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="2537" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2537" s="1" t="s">
         <v>2414</v>
       </c>
       <c r="B2537" s="1" t="s">
-        <v>4409</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="2538" spans="1:2" x14ac:dyDescent="0.25">
@@ -34255,28 +34086,28 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="2541" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="2541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2541" s="1" t="s">
         <v>2418</v>
       </c>
       <c r="B2541" s="1" t="s">
-        <v>4415</v>
-      </c>
-    </row>
-    <row r="2542" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2542" s="1" t="s">
         <v>2419</v>
       </c>
       <c r="B2542" s="1" t="s">
-        <v>4415</v>
-      </c>
-    </row>
-    <row r="2543" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2543" s="1" t="s">
         <v>2420</v>
       </c>
       <c r="B2543" s="1" t="s">
-        <v>4415</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="2544" spans="1:2" x14ac:dyDescent="0.25">
@@ -34303,36 +34134,36 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="2547" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2547" s="1" t="s">
         <v>2424</v>
       </c>
       <c r="B2547" s="1" t="s">
-        <v>4414</v>
-      </c>
-    </row>
-    <row r="2548" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2548" s="1" t="s">
         <v>2425</v>
       </c>
       <c r="B2548" s="1" t="s">
-        <v>4414</v>
-      </c>
-    </row>
-    <row r="2549" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2549" s="1" t="s">
         <v>2426</v>
       </c>
       <c r="B2549" s="1" t="s">
-        <v>4414</v>
-      </c>
-    </row>
-    <row r="2550" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2550" s="1" t="s">
         <v>2427</v>
       </c>
       <c r="B2550" s="1" t="s">
-        <v>4418</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="2551" spans="1:2" x14ac:dyDescent="0.25">
@@ -34343,12 +34174,12 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="2552" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2552" s="1" t="s">
         <v>2429</v>
       </c>
       <c r="B2552" s="1" t="s">
-        <v>4417</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="2553" spans="1:2" x14ac:dyDescent="0.25">
@@ -34359,12 +34190,12 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="2554" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2554" s="1" t="s">
         <v>2431</v>
       </c>
       <c r="B2554" s="1" t="s">
-        <v>4416</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="2555" spans="1:2" x14ac:dyDescent="0.25">
@@ -34375,12 +34206,12 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="2556" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2556" s="1" t="s">
         <v>2433</v>
       </c>
       <c r="B2556" s="1" t="s">
-        <v>4418</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="2557" spans="1:2" x14ac:dyDescent="0.25">
@@ -34391,12 +34222,12 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="2558" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2558" s="1" t="s">
         <v>2435</v>
       </c>
       <c r="B2558" s="1" t="s">
-        <v>4417</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="2559" spans="1:2" x14ac:dyDescent="0.25">
@@ -34407,12 +34238,12 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="2560" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2560" s="1" t="s">
         <v>2437</v>
       </c>
       <c r="B2560" s="1" t="s">
-        <v>4416</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="2561" spans="1:2" x14ac:dyDescent="0.25">
@@ -34455,20 +34286,20 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="2566" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2566" s="1" t="s">
         <v>2443</v>
       </c>
       <c r="B2566" s="1" t="s">
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="2567" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2567" s="1" t="s">
         <v>2444</v>
       </c>
       <c r="B2567" s="1" t="s">
-        <v>4421</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="2568" spans="1:2" x14ac:dyDescent="0.25">
@@ -34503,36 +34334,36 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="2572" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2572" s="1" t="s">
         <v>2449</v>
       </c>
       <c r="B2572" s="1" t="s">
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="2573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2573" s="1" t="s">
         <v>2450</v>
       </c>
       <c r="B2573" s="1" t="s">
-        <v>4420</v>
-      </c>
-    </row>
-    <row r="2574" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2574" s="1" t="s">
         <v>2451</v>
       </c>
       <c r="B2574" s="1" t="s">
-        <v>4420</v>
-      </c>
-    </row>
-    <row r="2575" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2575" s="1" t="s">
         <v>2452</v>
       </c>
       <c r="B2575" s="1" t="s">
-        <v>4423</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="2576" spans="1:2" x14ac:dyDescent="0.25">
@@ -34543,44 +34374,44 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="2577" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2577" s="1" t="s">
         <v>2454</v>
       </c>
       <c r="B2577" s="1" t="s">
-        <v>4424</v>
-      </c>
-    </row>
-    <row r="2578" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2578" s="1" t="s">
         <v>2455</v>
       </c>
       <c r="B2578" s="1" t="s">
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="2579" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2579" s="1" t="s">
         <v>2456</v>
       </c>
       <c r="B2579" s="1" t="s">
-        <v>4423</v>
-      </c>
-    </row>
-    <row r="2580" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2580" s="1" t="s">
         <v>2457</v>
       </c>
       <c r="B2580" s="1" t="s">
-        <v>4420</v>
-      </c>
-    </row>
-    <row r="2581" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2581" s="1" t="s">
         <v>2458</v>
       </c>
       <c r="B2581" s="1" t="s">
-        <v>4423</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="2582" spans="1:2" x14ac:dyDescent="0.25">
@@ -34591,28 +34422,28 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="2583" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2583" s="1" t="s">
         <v>2460</v>
       </c>
       <c r="B2583" s="1" t="s">
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="2584" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2584" s="1" t="s">
         <v>2461</v>
       </c>
       <c r="B2584" s="1" t="s">
-        <v>4423</v>
-      </c>
-    </row>
-    <row r="2585" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2585" s="1" t="s">
         <v>2462</v>
       </c>
       <c r="B2585" s="1" t="s">
-        <v>4425</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="2586" spans="1:2" x14ac:dyDescent="0.25">
@@ -34620,7 +34451,7 @@
         <v>2463</v>
       </c>
       <c r="B2586" s="1" t="s">
-        <v>4426</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="2587" spans="1:2" x14ac:dyDescent="0.25">
@@ -34647,20 +34478,20 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="2590" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="2590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2590" s="1" t="s">
         <v>2467</v>
       </c>
       <c r="B2590" s="1" t="s">
-        <v>4427</v>
-      </c>
-    </row>
-    <row r="2591" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2591" s="1" t="s">
         <v>2468</v>
       </c>
       <c r="B2591" s="1" t="s">
-        <v>4425</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="2592" spans="1:2" x14ac:dyDescent="0.25">
@@ -34668,7 +34499,7 @@
         <v>2469</v>
       </c>
       <c r="B2592" s="1" t="s">
-        <v>4426</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="2593" spans="1:2" x14ac:dyDescent="0.25">
@@ -34695,20 +34526,20 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="2596" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="2596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2596" s="1" t="s">
         <v>2473</v>
       </c>
       <c r="B2596" s="1" t="s">
-        <v>4427</v>
-      </c>
-    </row>
-    <row r="2597" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2597" s="1" t="s">
         <v>2474</v>
       </c>
       <c r="B2597" s="1" t="s">
-        <v>4430</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="2598" spans="1:2" x14ac:dyDescent="0.25">
@@ -34719,12 +34550,12 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="2599" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2599" s="1" t="s">
         <v>2476</v>
       </c>
       <c r="B2599" s="1" t="s">
-        <v>4429</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="2600" spans="1:2" x14ac:dyDescent="0.25">
@@ -34735,12 +34566,12 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="2601" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2601" s="1" t="s">
         <v>2478</v>
       </c>
       <c r="B2601" s="1" t="s">
-        <v>4431</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="2602" spans="1:2" x14ac:dyDescent="0.25">
@@ -34751,12 +34582,12 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="2603" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2603" s="1" t="s">
         <v>2480</v>
       </c>
       <c r="B2603" s="1" t="s">
-        <v>4430</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="2604" spans="1:2" x14ac:dyDescent="0.25">
@@ -34767,12 +34598,12 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="2605" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2605" s="1" t="s">
         <v>2482</v>
       </c>
       <c r="B2605" s="1" t="s">
-        <v>4429</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="2606" spans="1:2" x14ac:dyDescent="0.25">
@@ -34783,12 +34614,12 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="2607" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2607" s="1" t="s">
         <v>2484</v>
       </c>
       <c r="B2607" s="1" t="s">
-        <v>4431</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="2608" spans="1:2" x14ac:dyDescent="0.25">
@@ -34799,12 +34630,12 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="2609" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2609" s="1" t="s">
         <v>2486</v>
       </c>
       <c r="B2609" s="1" t="s">
-        <v>4434</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="2610" spans="1:2" x14ac:dyDescent="0.25">
@@ -34815,12 +34646,12 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="2611" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2611" s="1" t="s">
         <v>2488</v>
       </c>
       <c r="B2611" s="1" t="s">
-        <v>4436</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="2612" spans="1:2" x14ac:dyDescent="0.25">
@@ -34831,12 +34662,12 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="2613" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2613" s="1" t="s">
         <v>2490</v>
       </c>
       <c r="B2613" s="1" t="s">
-        <v>4435</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="2614" spans="1:2" x14ac:dyDescent="0.25">
@@ -34847,12 +34678,12 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="2615" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2615" s="1" t="s">
         <v>2492</v>
       </c>
       <c r="B2615" s="1" t="s">
-        <v>4434</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="2616" spans="1:2" x14ac:dyDescent="0.25">
@@ -34863,12 +34694,12 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="2617" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2617" s="1" t="s">
         <v>2494</v>
       </c>
       <c r="B2617" s="1" t="s">
-        <v>4436</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="2618" spans="1:2" x14ac:dyDescent="0.25">
@@ -34879,12 +34710,12 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="2619" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2619" s="1" t="s">
         <v>2496</v>
       </c>
       <c r="B2619" s="1" t="s">
-        <v>4435</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="2620" spans="1:2" x14ac:dyDescent="0.25">
@@ -42935,756 +42766,756 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="3626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3626" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3626" s="1" t="s">
-        <v>3503</v>
+        <v>3624</v>
       </c>
       <c r="B3626" s="1" t="s">
-        <v>3503</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="3627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3627" s="1" t="s">
-        <v>3504</v>
+        <v>3625</v>
       </c>
       <c r="B3627" s="1" t="s">
-        <v>3504</v>
-      </c>
-    </row>
-    <row r="3628" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3628" s="1" t="s">
-        <v>3505</v>
+        <v>3626</v>
       </c>
       <c r="B3628" s="1" t="s">
-        <v>3505</v>
-      </c>
-    </row>
-    <row r="3629" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3629" s="1" t="s">
-        <v>3506</v>
+        <v>3627</v>
       </c>
       <c r="B3629" s="1" t="s">
-        <v>3506</v>
-      </c>
-    </row>
-    <row r="3630" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3630" s="1" t="s">
-        <v>3507</v>
+        <v>3628</v>
       </c>
       <c r="B3630" s="1" t="s">
-        <v>3507</v>
-      </c>
-    </row>
-    <row r="3631" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3631" s="1" t="s">
-        <v>3508</v>
+        <v>3629</v>
       </c>
       <c r="B3631" s="1" t="s">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="3632" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3632" s="1" t="s">
-        <v>3509</v>
+        <v>3630</v>
       </c>
       <c r="B3632" s="1" t="s">
-        <v>3509</v>
-      </c>
-    </row>
-    <row r="3633" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3633" s="1" t="s">
-        <v>3510</v>
+        <v>3631</v>
       </c>
       <c r="B3633" s="1" t="s">
-        <v>3510</v>
-      </c>
-    </row>
-    <row r="3634" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3634" s="1" t="s">
-        <v>3511</v>
+        <v>3632</v>
       </c>
       <c r="B3634" s="1" t="s">
-        <v>3511</v>
-      </c>
-    </row>
-    <row r="3635" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3635" s="1" t="s">
-        <v>3512</v>
+        <v>3633</v>
       </c>
       <c r="B3635" s="1" t="s">
-        <v>3512</v>
-      </c>
-    </row>
-    <row r="3636" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3636" s="1" t="s">
-        <v>3513</v>
+        <v>3634</v>
       </c>
       <c r="B3636" s="1" t="s">
-        <v>3513</v>
-      </c>
-    </row>
-    <row r="3637" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3637" s="1" t="s">
-        <v>3514</v>
+        <v>3635</v>
       </c>
       <c r="B3637" s="1" t="s">
-        <v>3514</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="3638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3638" s="1" t="s">
-        <v>3515</v>
+        <v>3636</v>
       </c>
       <c r="B3638" s="1" t="s">
-        <v>3515</v>
-      </c>
-    </row>
-    <row r="3639" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3639" s="1" t="s">
-        <v>3516</v>
+        <v>3637</v>
       </c>
       <c r="B3639" s="1" t="s">
-        <v>3516</v>
-      </c>
-    </row>
-    <row r="3640" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3640" s="1" t="s">
-        <v>3517</v>
+        <v>3638</v>
       </c>
       <c r="B3640" s="1" t="s">
-        <v>3517</v>
-      </c>
-    </row>
-    <row r="3641" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3641" s="1" t="s">
-        <v>3518</v>
+        <v>3639</v>
       </c>
       <c r="B3641" s="1" t="s">
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="3642" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3642" s="1" t="s">
-        <v>3519</v>
+        <v>3640</v>
       </c>
       <c r="B3642" s="1" t="s">
-        <v>3519</v>
-      </c>
-    </row>
-    <row r="3643" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3643" s="1" t="s">
-        <v>3520</v>
+        <v>3641</v>
       </c>
       <c r="B3643" s="1" t="s">
-        <v>3520</v>
-      </c>
-    </row>
-    <row r="3644" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3644" s="1" t="s">
-        <v>3521</v>
+        <v>3642</v>
       </c>
       <c r="B3644" s="1" t="s">
-        <v>3521</v>
-      </c>
-    </row>
-    <row r="3645" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3645" s="1" t="s">
-        <v>3522</v>
+        <v>3643</v>
       </c>
       <c r="B3645" s="1" t="s">
-        <v>3522</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="3646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3646" s="1" t="s">
-        <v>3523</v>
+        <v>3644</v>
       </c>
       <c r="B3646" s="1" t="s">
-        <v>3523</v>
-      </c>
-    </row>
-    <row r="3647" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3647" s="1" t="s">
-        <v>3524</v>
+        <v>3645</v>
       </c>
       <c r="B3647" s="1" t="s">
-        <v>3524</v>
-      </c>
-    </row>
-    <row r="3648" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3648" s="1" t="s">
-        <v>3525</v>
+        <v>3646</v>
       </c>
       <c r="B3648" s="1" t="s">
-        <v>3525</v>
-      </c>
-    </row>
-    <row r="3649" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3649" s="1" t="s">
-        <v>3526</v>
+        <v>3647</v>
       </c>
       <c r="B3649" s="1" t="s">
-        <v>3526</v>
-      </c>
-    </row>
-    <row r="3650" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3650" s="1" t="s">
-        <v>3527</v>
+        <v>3648</v>
       </c>
       <c r="B3650" s="1" t="s">
-        <v>3527</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="3651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3651" s="1" t="s">
-        <v>3528</v>
+        <v>3649</v>
       </c>
       <c r="B3651" s="1" t="s">
-        <v>3528</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="3652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3652" s="1" t="s">
-        <v>3529</v>
+        <v>3650</v>
       </c>
       <c r="B3652" s="1" t="s">
-        <v>3529</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="3653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3653" s="1" t="s">
-        <v>3530</v>
+        <v>3651</v>
       </c>
       <c r="B3653" s="1" t="s">
-        <v>3530</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="3654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3654" s="1" t="s">
-        <v>3531</v>
+        <v>3652</v>
       </c>
       <c r="B3654" s="1" t="s">
-        <v>3531</v>
-      </c>
-    </row>
-    <row r="3655" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3655" s="1" t="s">
-        <v>3532</v>
+        <v>3653</v>
       </c>
       <c r="B3655" s="1" t="s">
-        <v>3532</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="3656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3656" s="1" t="s">
-        <v>3533</v>
+        <v>3654</v>
       </c>
       <c r="B3656" s="1" t="s">
-        <v>3533</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="3657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3657" s="1" t="s">
-        <v>3534</v>
+        <v>3655</v>
       </c>
       <c r="B3657" s="1" t="s">
-        <v>3534</v>
-      </c>
-    </row>
-    <row r="3658" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3658" s="1" t="s">
-        <v>3535</v>
+        <v>3656</v>
       </c>
       <c r="B3658" s="1" t="s">
-        <v>3535</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="3659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3659" s="1" t="s">
-        <v>3536</v>
+        <v>3657</v>
       </c>
       <c r="B3659" s="1" t="s">
-        <v>3536</v>
-      </c>
-    </row>
-    <row r="3660" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3660" s="1" t="s">
-        <v>3537</v>
+        <v>3658</v>
       </c>
       <c r="B3660" s="1" t="s">
-        <v>3537</v>
-      </c>
-    </row>
-    <row r="3661" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3661" s="1" t="s">
-        <v>3538</v>
+        <v>3659</v>
       </c>
       <c r="B3661" s="1" t="s">
-        <v>3538</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="3662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3662" s="1" t="s">
-        <v>3539</v>
+        <v>3660</v>
       </c>
       <c r="B3662" s="1" t="s">
-        <v>3539</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="3663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3663" s="1" t="s">
-        <v>3540</v>
+        <v>3661</v>
       </c>
       <c r="B3663" s="1" t="s">
-        <v>3540</v>
-      </c>
-    </row>
-    <row r="3664" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3664" s="1" t="s">
-        <v>3541</v>
+        <v>3662</v>
       </c>
       <c r="B3664" s="1" t="s">
-        <v>3541</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="3665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3665" s="1" t="s">
-        <v>3542</v>
+        <v>3663</v>
       </c>
       <c r="B3665" s="1" t="s">
-        <v>3542</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="3666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3666" s="1" t="s">
-        <v>3543</v>
+        <v>3664</v>
       </c>
       <c r="B3666" s="1" t="s">
-        <v>3543</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="3667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3667" s="1" t="s">
-        <v>3544</v>
+        <v>3665</v>
       </c>
       <c r="B3667" s="1" t="s">
-        <v>3544</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="3668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3668" s="1" t="s">
-        <v>3545</v>
+        <v>3666</v>
       </c>
       <c r="B3668" s="1" t="s">
-        <v>3545</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="3669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3669" s="1" t="s">
-        <v>3546</v>
+        <v>3667</v>
       </c>
       <c r="B3669" s="1" t="s">
-        <v>3546</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="3670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3670" s="1" t="s">
-        <v>3547</v>
+        <v>3668</v>
       </c>
       <c r="B3670" s="1" t="s">
-        <v>3547</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="3671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3671" s="1" t="s">
-        <v>3548</v>
+        <v>3669</v>
       </c>
       <c r="B3671" s="1" t="s">
-        <v>3548</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="3672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3672" s="1" t="s">
-        <v>3549</v>
+        <v>3670</v>
       </c>
       <c r="B3672" s="1" t="s">
-        <v>3549</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="3673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3673" s="1" t="s">
-        <v>3550</v>
+        <v>3671</v>
       </c>
       <c r="B3673" s="1" t="s">
-        <v>3550</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="3674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3674" s="1" t="s">
-        <v>3551</v>
+        <v>3672</v>
       </c>
       <c r="B3674" s="1" t="s">
-        <v>3551</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="3675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3675" s="1" t="s">
-        <v>3552</v>
+        <v>3673</v>
       </c>
       <c r="B3675" s="1" t="s">
-        <v>3552</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="3676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3676" s="1" t="s">
-        <v>3553</v>
+        <v>3674</v>
       </c>
       <c r="B3676" s="1" t="s">
-        <v>3553</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="3677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3677" s="1" t="s">
-        <v>3554</v>
+        <v>3675</v>
       </c>
       <c r="B3677" s="1" t="s">
-        <v>3554</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="3678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3678" s="1" t="s">
-        <v>3555</v>
+        <v>3676</v>
       </c>
       <c r="B3678" s="1" t="s">
-        <v>3555</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="3679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3679" s="1" t="s">
-        <v>3556</v>
+        <v>3677</v>
       </c>
       <c r="B3679" s="1" t="s">
-        <v>3556</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="3680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3680" s="1" t="s">
-        <v>3557</v>
+        <v>3678</v>
       </c>
       <c r="B3680" s="1" t="s">
-        <v>3557</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="3681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3681" s="1" t="s">
-        <v>3558</v>
+        <v>3679</v>
       </c>
       <c r="B3681" s="1" t="s">
-        <v>3558</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="3682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3682" s="1" t="s">
-        <v>3559</v>
+        <v>3680</v>
       </c>
       <c r="B3682" s="1" t="s">
-        <v>3559</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="3683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3683" s="1" t="s">
-        <v>3560</v>
+        <v>3681</v>
       </c>
       <c r="B3683" s="1" t="s">
-        <v>3560</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="3684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3684" s="1" t="s">
-        <v>3561</v>
+        <v>3682</v>
       </c>
       <c r="B3684" s="1" t="s">
-        <v>3561</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="3685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3685" s="1" t="s">
-        <v>3562</v>
+        <v>3683</v>
       </c>
       <c r="B3685" s="1" t="s">
-        <v>3562</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="3686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3686" s="1" t="s">
-        <v>3563</v>
+        <v>3684</v>
       </c>
       <c r="B3686" s="1" t="s">
-        <v>3563</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="3687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3687" s="1" t="s">
-        <v>3564</v>
+        <v>3685</v>
       </c>
       <c r="B3687" s="1" t="s">
-        <v>3564</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="3688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3688" s="1" t="s">
-        <v>3565</v>
+        <v>3686</v>
       </c>
       <c r="B3688" s="1" t="s">
-        <v>3565</v>
+        <v>3686</v>
       </c>
     </row>
     <row r="3689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3689" s="1" t="s">
-        <v>3566</v>
+        <v>3687</v>
       </c>
       <c r="B3689" s="1" t="s">
-        <v>3566</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="3690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3690" s="1" t="s">
-        <v>3567</v>
+        <v>3688</v>
       </c>
       <c r="B3690" s="1" t="s">
-        <v>3567</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="3691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3691" s="1" t="s">
-        <v>3568</v>
+        <v>3689</v>
       </c>
       <c r="B3691" s="1" t="s">
-        <v>3568</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="3692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3692" s="1" t="s">
-        <v>3569</v>
+        <v>3690</v>
       </c>
       <c r="B3692" s="1" t="s">
-        <v>3569</v>
+        <v>3690</v>
       </c>
     </row>
     <row r="3693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3693" s="1" t="s">
-        <v>3570</v>
+        <v>3691</v>
       </c>
       <c r="B3693" s="1" t="s">
-        <v>3570</v>
+        <v>3691</v>
       </c>
     </row>
     <row r="3694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3694" s="1" t="s">
-        <v>3571</v>
+        <v>3692</v>
       </c>
       <c r="B3694" s="1" t="s">
-        <v>3571</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="3695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3695" s="1" t="s">
-        <v>3572</v>
+        <v>3693</v>
       </c>
       <c r="B3695" s="1" t="s">
-        <v>3572</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="3696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3696" s="1" t="s">
-        <v>3573</v>
+        <v>3694</v>
       </c>
       <c r="B3696" s="1" t="s">
-        <v>3573</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="3697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3697" s="1" t="s">
-        <v>3574</v>
+        <v>3695</v>
       </c>
       <c r="B3697" s="1" t="s">
-        <v>3574</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="3698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3698" s="1" t="s">
-        <v>3575</v>
+        <v>3696</v>
       </c>
       <c r="B3698" s="1" t="s">
-        <v>3575</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="3699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3699" s="1" t="s">
-        <v>3576</v>
+        <v>3697</v>
       </c>
       <c r="B3699" s="1" t="s">
-        <v>3576</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="3700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3700" s="1" t="s">
-        <v>3577</v>
+        <v>3698</v>
       </c>
       <c r="B3700" s="1" t="s">
-        <v>3577</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="3701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3701" s="1" t="s">
-        <v>3578</v>
+        <v>3699</v>
       </c>
       <c r="B3701" s="1" t="s">
-        <v>3578</v>
+        <v>3699</v>
       </c>
     </row>
     <row r="3702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3702" s="1" t="s">
-        <v>3579</v>
+        <v>3700</v>
       </c>
       <c r="B3702" s="1" t="s">
-        <v>3579</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="3703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3703" s="1" t="s">
-        <v>3580</v>
+        <v>3701</v>
       </c>
       <c r="B3703" s="1" t="s">
-        <v>3580</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="3704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3704" s="1" t="s">
-        <v>3581</v>
+        <v>3702</v>
       </c>
       <c r="B3704" s="1" t="s">
-        <v>3581</v>
-      </c>
-    </row>
-    <row r="3705" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3705" s="1" t="s">
-        <v>3582</v>
+        <v>3703</v>
       </c>
       <c r="B3705" s="1" t="s">
-        <v>3582</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="3706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3706" s="1" t="s">
-        <v>3583</v>
+        <v>3704</v>
       </c>
       <c r="B3706" s="1" t="s">
-        <v>3583</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="3707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3707" s="1" t="s">
-        <v>3584</v>
+        <v>3705</v>
       </c>
       <c r="B3707" s="1" t="s">
-        <v>3584</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="3708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3708" s="1" t="s">
-        <v>3585</v>
+        <v>3706</v>
       </c>
       <c r="B3708" s="1" t="s">
-        <v>3585</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="3709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3709" s="1" t="s">
-        <v>3586</v>
+        <v>3707</v>
       </c>
       <c r="B3709" s="1" t="s">
-        <v>3586</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="3710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3710" s="1" t="s">
-        <v>3587</v>
+        <v>3708</v>
       </c>
       <c r="B3710" s="1" t="s">
-        <v>3587</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="3711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3711" s="1" t="s">
-        <v>3588</v>
+        <v>3709</v>
       </c>
       <c r="B3711" s="1" t="s">
-        <v>3588</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="3712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3712" s="1" t="s">
-        <v>3589</v>
+        <v>3710</v>
       </c>
       <c r="B3712" s="1" t="s">
-        <v>3589</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="3713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3713" s="1" t="s">
-        <v>3590</v>
+        <v>3711</v>
       </c>
       <c r="B3713" s="1" t="s">
-        <v>3590</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="3714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3714" s="1" t="s">
-        <v>3591</v>
+        <v>3712</v>
       </c>
       <c r="B3714" s="1" t="s">
-        <v>3591</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="3715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3715" s="1" t="s">
-        <v>3592</v>
+        <v>3713</v>
       </c>
       <c r="B3715" s="1" t="s">
-        <v>3592</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="3716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3716" s="1" t="s">
-        <v>3593</v>
+        <v>3714</v>
       </c>
       <c r="B3716" s="1" t="s">
-        <v>3593</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="3717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3717" s="1" t="s">
-        <v>3594</v>
+        <v>3715</v>
       </c>
       <c r="B3717" s="1" t="s">
-        <v>3594</v>
+        <v>3715</v>
       </c>
     </row>
     <row r="3718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3718" s="1" t="s">
-        <v>3595</v>
+        <v>3716</v>
       </c>
       <c r="B3718" s="1" t="s">
-        <v>3595</v>
-      </c>
-    </row>
-    <row r="3719" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3719" s="1" t="s">
         <v>3717</v>
       </c>
       <c r="B3719" s="1" t="s">
-        <v>4375</v>
+        <v>3717</v>
       </c>
     </row>
     <row r="3720" spans="1:2" x14ac:dyDescent="0.25">
@@ -43695,84 +43526,84 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="3721" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="3721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3721" s="1" t="s">
         <v>3719</v>
       </c>
       <c r="B3721" s="1" t="s">
-        <v>4378</v>
-      </c>
-    </row>
-    <row r="3722" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3722" s="1" t="s">
         <v>3720</v>
       </c>
       <c r="B3722" s="1" t="s">
-        <v>4379</v>
-      </c>
-    </row>
-    <row r="3723" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3723" s="1" t="s">
         <v>3721</v>
       </c>
       <c r="B3723" s="1" t="s">
-        <v>4413</v>
-      </c>
-    </row>
-    <row r="3724" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3724" s="1" t="s">
         <v>3722</v>
       </c>
       <c r="B3724" s="1" t="s">
-        <v>4381</v>
-      </c>
-    </row>
-    <row r="3725" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3725" s="1" t="s">
         <v>3723</v>
       </c>
       <c r="B3725" s="1" t="s">
-        <v>4383</v>
-      </c>
-    </row>
-    <row r="3726" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3726" s="1" t="s">
         <v>3724</v>
       </c>
       <c r="B3726" s="1" t="s">
-        <v>4419</v>
-      </c>
-    </row>
-    <row r="3727" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3727" s="1" t="s">
         <v>3725</v>
       </c>
       <c r="B3727" s="1" t="s">
-        <v>4382</v>
-      </c>
-    </row>
-    <row r="3728" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3725</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3728" s="1" t="s">
         <v>3726</v>
       </c>
       <c r="B3728" s="1" t="s">
-        <v>4389</v>
-      </c>
-    </row>
-    <row r="3729" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3729" s="1" t="s">
         <v>3727</v>
       </c>
       <c r="B3729" s="1" t="s">
-        <v>4390</v>
-      </c>
-    </row>
-    <row r="3730" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3730" s="1" t="s">
         <v>3728</v>
       </c>
       <c r="B3730" s="1" t="s">
-        <v>4391</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="3731" spans="1:2" x14ac:dyDescent="0.25">
@@ -43780,63 +43611,63 @@
         <v>3729</v>
       </c>
       <c r="B3731" s="1" t="s">
-        <v>4394</v>
-      </c>
-    </row>
-    <row r="3732" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3732" s="1" t="s">
         <v>3730</v>
       </c>
       <c r="B3732" s="1" t="s">
-        <v>4395</v>
-      </c>
-    </row>
-    <row r="3733" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>3730</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3733" s="1" t="s">
         <v>3731</v>
       </c>
       <c r="B3733" s="1" t="s">
-        <v>4396</v>
-      </c>
-    </row>
-    <row r="3734" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3734" s="1" t="s">
         <v>3732</v>
       </c>
       <c r="B3734" s="1" t="s">
-        <v>4397</v>
-      </c>
-    </row>
-    <row r="3735" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3735" s="1" t="s">
         <v>3733</v>
       </c>
       <c r="B3735" s="1" t="s">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="3736" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3736" s="1" t="s">
         <v>3734</v>
       </c>
       <c r="B3736" s="1" t="s">
-        <v>4406</v>
-      </c>
-    </row>
-    <row r="3737" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3737" s="1" t="s">
         <v>3735</v>
       </c>
       <c r="B3737" s="1" t="s">
-        <v>4407</v>
-      </c>
-    </row>
-    <row r="3738" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3738" s="1" t="s">
         <v>3736</v>
       </c>
       <c r="B3738" s="1" t="s">
-        <v>4408</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="3739" spans="1:2" x14ac:dyDescent="0.25">
@@ -43847,7 +43678,7 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="3740" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3740" s="1" t="s">
         <v>3738</v>
       </c>
@@ -43855,7 +43686,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="3741" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3741" s="1" t="s">
         <v>3739</v>
       </c>
@@ -43863,7 +43694,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="3742" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3742" s="1" t="s">
         <v>3740</v>
       </c>
@@ -43871,7 +43702,7 @@
         <v>3740</v>
       </c>
     </row>
-    <row r="3743" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3743" s="1" t="s">
         <v>3741</v>
       </c>
@@ -43911,7 +43742,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="3748" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3748" s="1" t="s">
         <v>3746</v>
       </c>
@@ -43935,7 +43766,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="3751" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3751" s="1" t="s">
         <v>3749</v>
       </c>
@@ -43951,7 +43782,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="3753" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3753" s="1" t="s">
         <v>3751</v>
       </c>
@@ -43959,7 +43790,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="3754" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3754" s="1" t="s">
         <v>3752</v>
       </c>
@@ -43983,7 +43814,7 @@
         <v>3754</v>
       </c>
     </row>
-    <row r="3757" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3757" s="1" t="s">
         <v>3755</v>
       </c>
@@ -44311,7 +44142,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="3798" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3798" s="1" t="s">
         <v>3796</v>
       </c>
@@ -46847,7 +46678,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="4115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4115" s="1" t="s">
         <v>4113</v>
       </c>
@@ -46855,7 +46686,7 @@
         <v>4113</v>
       </c>
     </row>
-    <row r="4116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4116" s="1" t="s">
         <v>4114</v>
       </c>
@@ -46863,7 +46694,7 @@
         <v>4114</v>
       </c>
     </row>
-    <row r="4117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4117" s="1" t="s">
         <v>4115</v>
       </c>
@@ -46879,7 +46710,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="4119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4119" s="1" t="s">
         <v>4117</v>
       </c>
@@ -46887,7 +46718,7 @@
         <v>4117</v>
       </c>
     </row>
-    <row r="4120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4120" s="1" t="s">
         <v>4118</v>
       </c>
@@ -46927,7 +46758,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="4125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4125" s="1" t="s">
         <v>4123</v>
       </c>
@@ -47207,7 +47038,7 @@
         <v>4157</v>
       </c>
     </row>
-    <row r="4160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4160" s="1" t="s">
         <v>4158</v>
       </c>
@@ -47215,7 +47046,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="4161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4161" s="1" t="s">
         <v>4159</v>
       </c>
@@ -47559,7 +47390,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="4204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4204" s="1" t="s">
         <v>4202</v>
       </c>
@@ -47575,7 +47406,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="4206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4206" s="1" t="s">
         <v>4204</v>
       </c>
@@ -47591,7 +47422,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="4208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4208" s="1" t="s">
         <v>4206</v>
       </c>
@@ -47599,7 +47430,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="4209" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4209" s="1" t="s">
         <v>4207</v>
       </c>
@@ -47607,7 +47438,7 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="4210" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4210" s="1" t="s">
         <v>4208</v>
       </c>
@@ -47655,7 +47486,7 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="4216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4216" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4216" s="1" t="s">
         <v>4214</v>
       </c>
@@ -47663,7 +47494,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="4217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4217" s="1" t="s">
         <v>4215</v>
       </c>
@@ -47679,7 +47510,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="4219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4219" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4219" s="1" t="s">
         <v>4217</v>
       </c>
@@ -47687,7 +47518,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="4220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4220" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4220" s="1" t="s">
         <v>4218</v>
       </c>
@@ -47695,7 +47526,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="4221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4221" s="1" t="s">
         <v>4219</v>
       </c>
@@ -47711,7 +47542,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="4223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4223" s="1" t="s">
         <v>4221</v>
       </c>
@@ -47719,7 +47550,7 @@
         <v>4221</v>
       </c>
     </row>
-    <row r="4224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4224" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4224" s="1" t="s">
         <v>4222</v>
       </c>
@@ -47735,7 +47566,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="4226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4226" s="1" t="s">
         <v>4224</v>
       </c>
@@ -47791,7 +47622,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="4233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4233" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4233" s="1" t="s">
         <v>4231</v>
       </c>
@@ -47799,7 +47630,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4234" s="1" t="s">
         <v>4232</v>
       </c>
@@ -47823,7 +47654,7 @@
         <v>4234</v>
       </c>
     </row>
-    <row r="4237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4237" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4237" s="1" t="s">
         <v>4235</v>
       </c>
@@ -47831,7 +47662,7 @@
         <v>4235</v>
       </c>
     </row>
-    <row r="4238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4238" s="1" t="s">
         <v>4236</v>
       </c>
@@ -47847,7 +47678,7 @@
         <v>4237</v>
       </c>
     </row>
-    <row r="4240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4240" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4240" s="1" t="s">
         <v>4238</v>
       </c>
@@ -47863,7 +47694,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="4242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4242" s="1" t="s">
         <v>4240</v>
       </c>
@@ -47871,7 +47702,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="4243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4243" s="1" t="s">
         <v>4241</v>
       </c>
@@ -47887,7 +47718,7 @@
         <v>4242</v>
       </c>
     </row>
-    <row r="4245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4245" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4245" s="1" t="s">
         <v>4243</v>
       </c>
@@ -47895,7 +47726,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="4246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4246" s="1" t="s">
         <v>4244</v>
       </c>
@@ -47911,7 +47742,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="4248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4248" s="1" t="s">
         <v>4246</v>
       </c>
@@ -47927,7 +47758,7 @@
         <v>4247</v>
       </c>
     </row>
-    <row r="4250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4250" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4250" s="1" t="s">
         <v>4248</v>
       </c>
@@ -47935,7 +47766,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4251" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4251" s="1" t="s">
         <v>4249</v>
       </c>
@@ -47959,7 +47790,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="4254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4254" s="1" t="s">
         <v>4252</v>
       </c>
@@ -47967,7 +47798,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4255" s="1" t="s">
         <v>4253</v>
       </c>
@@ -47983,7 +47814,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4257" s="1" t="s">
         <v>4255</v>
       </c>
@@ -47991,7 +47822,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4258" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4258" s="1" t="s">
         <v>4256</v>
       </c>
@@ -48007,7 +47838,7 @@
         <v>4257</v>
       </c>
     </row>
-    <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4260" s="1" t="s">
         <v>4258</v>
       </c>
@@ -48031,7 +47862,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4263" s="1" t="s">
         <v>4261</v>
       </c>
@@ -48039,7 +47870,7 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4264" s="1" t="s">
         <v>4262</v>
       </c>
@@ -48071,7 +47902,7 @@
         <v>4265</v>
       </c>
     </row>
-    <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4268" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4268" s="1" t="s">
         <v>4266</v>
       </c>
@@ -48079,7 +47910,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="4269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4269" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4269" s="1" t="s">
         <v>4267</v>
       </c>
@@ -48095,7 +47926,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4271" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4271" s="1" t="s">
         <v>4269</v>
       </c>
@@ -48103,7 +47934,7 @@
         <v>4269</v>
       </c>
     </row>
-    <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4272" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4272" s="1" t="s">
         <v>4270</v>
       </c>
@@ -48111,7 +47942,7 @@
         <v>4270</v>
       </c>
     </row>
-    <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4273" s="1" t="s">
         <v>4271</v>
       </c>
@@ -48135,7 +47966,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4276" s="1" t="s">
         <v>4274</v>
       </c>
@@ -48143,7 +47974,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4277" s="1" t="s">
         <v>4275</v>
       </c>
@@ -48151,7 +47982,7 @@
         <v>4275</v>
       </c>
     </row>
-    <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4278" s="1" t="s">
         <v>4276</v>
       </c>
@@ -48159,7 +47990,7 @@
         <v>4276</v>
       </c>
     </row>
-    <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4279" s="1" t="s">
         <v>4277</v>
       </c>
@@ -48167,7 +47998,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4280" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4280" s="1" t="s">
         <v>4278</v>
       </c>
@@ -48183,842 +48014,293 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="4282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4282" s="1" t="s">
-        <v>4280</v>
+        <v>4283</v>
       </c>
       <c r="B4282" s="1" t="s">
-        <v>4280</v>
-      </c>
-    </row>
-    <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4283" s="1" t="s">
-        <v>4281</v>
+        <v>4295</v>
       </c>
       <c r="B4283" s="1" t="s">
-        <v>4281</v>
-      </c>
-    </row>
-    <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4284" s="1" t="s">
-        <v>4282</v>
+        <v>4318</v>
       </c>
       <c r="B4284" s="1" t="s">
-        <v>4282</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4285" s="1" t="s">
-        <v>4283</v>
+        <v>4339</v>
       </c>
       <c r="B4285" s="1" t="s">
-        <v>4283</v>
-      </c>
-    </row>
-    <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4286" s="1" t="s">
-        <v>4284</v>
+        <v>4345</v>
       </c>
       <c r="B4286" s="1" t="s">
-        <v>4284</v>
-      </c>
-    </row>
-    <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4287" s="1" t="s">
-        <v>4285</v>
+        <v>4347</v>
       </c>
       <c r="B4287" s="1" t="s">
-        <v>4285</v>
-      </c>
-    </row>
-    <row r="4288" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4288" s="1" t="s">
-        <v>4286</v>
+        <v>4348</v>
       </c>
       <c r="B4288" s="1" t="s">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4289" s="1" t="s">
-        <v>4287</v>
+        <v>4349</v>
       </c>
       <c r="B4289" s="1" t="s">
-        <v>4287</v>
-      </c>
-    </row>
-    <row r="4290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4290" s="1" t="s">
-        <v>4288</v>
+        <v>4350</v>
       </c>
       <c r="B4290" s="1" t="s">
-        <v>4288</v>
-      </c>
-    </row>
-    <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4291" s="1" t="s">
-        <v>4289</v>
+        <v>4351</v>
       </c>
       <c r="B4291" s="1" t="s">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4292" s="1" t="s">
-        <v>4290</v>
+        <v>4352</v>
       </c>
       <c r="B4292" s="1" t="s">
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4293" s="1" t="s">
-        <v>4291</v>
+        <v>4353</v>
       </c>
       <c r="B4293" s="1" t="s">
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4294" s="1" t="s">
-        <v>4292</v>
+        <v>4355</v>
       </c>
       <c r="B4294" s="1" t="s">
-        <v>4292</v>
-      </c>
-    </row>
-    <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4295" s="1" t="s">
-        <v>4293</v>
+        <v>4356</v>
       </c>
       <c r="B4295" s="1" t="s">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4296" s="1" t="s">
-        <v>4294</v>
+        <v>4357</v>
       </c>
       <c r="B4296" s="1" t="s">
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="4297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4297" s="1" t="s">
-        <v>4295</v>
+        <v>4358</v>
       </c>
       <c r="B4297" s="1" t="s">
-        <v>4295</v>
-      </c>
-    </row>
-    <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4298" s="1" t="s">
-        <v>4296</v>
+        <v>4359</v>
       </c>
       <c r="B4298" s="1" t="s">
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="4299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4299" s="1" t="s">
-        <v>4297</v>
+        <v>4360</v>
       </c>
       <c r="B4299" s="1" t="s">
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4300" s="1" t="s">
-        <v>4298</v>
+        <v>4361</v>
       </c>
       <c r="B4300" s="1" t="s">
-        <v>4298</v>
-      </c>
-    </row>
-    <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4301" s="1" t="s">
-        <v>4299</v>
+        <v>4362</v>
       </c>
       <c r="B4301" s="1" t="s">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4302" s="1" t="s">
-        <v>4300</v>
+        <v>4363</v>
       </c>
       <c r="B4302" s="1" t="s">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="4303" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4303" s="1" t="s">
-        <v>4301</v>
+        <v>4364</v>
       </c>
       <c r="B4303" s="1" t="s">
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4304" s="1" t="s">
-        <v>4302</v>
+        <v>4365</v>
       </c>
       <c r="B4304" s="1" t="s">
-        <v>4302</v>
-      </c>
-    </row>
-    <row r="4305" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4305" s="1" t="s">
-        <v>4303</v>
+        <v>4366</v>
       </c>
       <c r="B4305" s="1" t="s">
-        <v>4303</v>
-      </c>
-    </row>
-    <row r="4306" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4306" s="1" t="s">
-        <v>4304</v>
+        <v>4367</v>
       </c>
       <c r="B4306" s="1" t="s">
-        <v>4304</v>
-      </c>
-    </row>
-    <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4307" s="1" t="s">
-        <v>4305</v>
+        <v>4368</v>
       </c>
       <c r="B4307" s="1" t="s">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4308" s="1" t="s">
-        <v>4306</v>
+        <v>4369</v>
       </c>
       <c r="B4308" s="1" t="s">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="4309" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4309" s="1" t="s">
-        <v>4307</v>
+        <v>4370</v>
       </c>
       <c r="B4309" s="1" t="s">
-        <v>4307</v>
-      </c>
-    </row>
-    <row r="4310" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4310" s="1" t="s">
-        <v>4308</v>
-      </c>
-      <c r="B4310" s="1" t="s">
-        <v>4308</v>
-      </c>
-    </row>
-    <row r="4311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4311" s="1" t="s">
-        <v>4309</v>
-      </c>
-      <c r="B4311" s="1" t="s">
-        <v>4309</v>
-      </c>
-    </row>
-    <row r="4312" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4312" s="1" t="s">
-        <v>4310</v>
-      </c>
-      <c r="B4312" s="1" t="s">
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="4313" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4313" s="1" t="s">
-        <v>4311</v>
-      </c>
-      <c r="B4313" s="1" t="s">
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="4314" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4314" s="1" t="s">
-        <v>4312</v>
-      </c>
-      <c r="B4314" s="1" t="s">
-        <v>4312</v>
-      </c>
-    </row>
-    <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4315" s="1" t="s">
-        <v>4313</v>
-      </c>
-      <c r="B4315" s="1" t="s">
-        <v>4313</v>
-      </c>
-    </row>
-    <row r="4316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4316" s="1" t="s">
-        <v>4314</v>
-      </c>
-      <c r="B4316" s="1" t="s">
-        <v>4314</v>
-      </c>
-    </row>
-    <row r="4317" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4317" s="1" t="s">
-        <v>4315</v>
-      </c>
-      <c r="B4317" s="1" t="s">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="4318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4318" s="1" t="s">
-        <v>4316</v>
-      </c>
-      <c r="B4318" s="1" t="s">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="4319" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4319" s="1" t="s">
-        <v>4317</v>
-      </c>
-      <c r="B4319" s="1" t="s">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4320" s="1" t="s">
-        <v>4318</v>
-      </c>
-      <c r="B4320" s="1" t="s">
-        <v>4318</v>
-      </c>
-    </row>
-    <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4321" s="1" t="s">
-        <v>4319</v>
-      </c>
-      <c r="B4321" s="1" t="s">
-        <v>4319</v>
-      </c>
-    </row>
-    <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4322" s="1" t="s">
-        <v>4320</v>
-      </c>
-      <c r="B4322" s="1" t="s">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="4323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4323" s="1" t="s">
-        <v>4321</v>
-      </c>
-      <c r="B4323" s="1" t="s">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4324" s="1" t="s">
-        <v>4322</v>
-      </c>
-      <c r="B4324" s="1" t="s">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4325" s="1" t="s">
-        <v>4323</v>
-      </c>
-      <c r="B4325" s="1" t="s">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="4326" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4326" s="1" t="s">
-        <v>4324</v>
-      </c>
-      <c r="B4326" s="1" t="s">
-        <v>4324</v>
-      </c>
-    </row>
-    <row r="4327" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4327" s="1" t="s">
-        <v>4325</v>
-      </c>
-      <c r="B4327" s="1" t="s">
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="4328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4328" s="1" t="s">
-        <v>4326</v>
-      </c>
-      <c r="B4328" s="1" t="s">
-        <v>4326</v>
-      </c>
-    </row>
-    <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4329" s="1" t="s">
-        <v>4327</v>
-      </c>
-      <c r="B4329" s="1" t="s">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="4330" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4330" s="1" t="s">
-        <v>4328</v>
-      </c>
-      <c r="B4330" s="1" t="s">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="4331" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4331" s="1" t="s">
-        <v>4329</v>
-      </c>
-      <c r="B4331" s="1" t="s">
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4332" s="1" t="s">
-        <v>4330</v>
-      </c>
-      <c r="B4332" s="1" t="s">
-        <v>4330</v>
-      </c>
-    </row>
-    <row r="4333" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4333" s="1" t="s">
-        <v>4331</v>
-      </c>
-      <c r="B4333" s="1" t="s">
-        <v>4331</v>
-      </c>
-    </row>
-    <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4334" s="1" t="s">
-        <v>4332</v>
-      </c>
-      <c r="B4334" s="1" t="s">
-        <v>4332</v>
-      </c>
-    </row>
-    <row r="4335" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4335" s="1" t="s">
-        <v>4333</v>
-      </c>
-      <c r="B4335" s="1" t="s">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="4336" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4336" s="1" t="s">
-        <v>4334</v>
-      </c>
-      <c r="B4336" s="1" t="s">
-        <v>4334</v>
-      </c>
-    </row>
-    <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4337" s="1" t="s">
-        <v>4335</v>
-      </c>
-      <c r="B4337" s="1" t="s">
-        <v>4335</v>
-      </c>
-    </row>
-    <row r="4338" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4338" s="1" t="s">
-        <v>4336</v>
-      </c>
-      <c r="B4338" s="1" t="s">
-        <v>4336</v>
-      </c>
-    </row>
-    <row r="4339" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4339" s="1" t="s">
-        <v>4337</v>
-      </c>
-      <c r="B4339" s="1" t="s">
-        <v>4337</v>
-      </c>
-    </row>
-    <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4340" s="1" t="s">
-        <v>4338</v>
-      </c>
-      <c r="B4340" s="1" t="s">
-        <v>4338</v>
-      </c>
-    </row>
-    <row r="4341" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4341" s="1" t="s">
-        <v>4339</v>
-      </c>
-      <c r="B4341" s="1" t="s">
-        <v>4339</v>
-      </c>
-    </row>
-    <row r="4342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4342" s="1" t="s">
-        <v>4340</v>
-      </c>
-      <c r="B4342" s="1" t="s">
-        <v>4340</v>
-      </c>
-    </row>
-    <row r="4343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4343" s="1" t="s">
-        <v>4341</v>
-      </c>
-      <c r="B4343" s="1" t="s">
-        <v>4341</v>
-      </c>
-    </row>
-    <row r="4344" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4344" s="1" t="s">
-        <v>4342</v>
-      </c>
-      <c r="B4344" s="1" t="s">
-        <v>4342</v>
-      </c>
-    </row>
-    <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4345" s="1" t="s">
-        <v>4343</v>
-      </c>
-      <c r="B4345" s="1" t="s">
-        <v>4343</v>
-      </c>
-    </row>
-    <row r="4346" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4346" s="1" t="s">
-        <v>4344</v>
-      </c>
-      <c r="B4346" s="1" t="s">
-        <v>4344</v>
-      </c>
-    </row>
-    <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4347" s="1" t="s">
-        <v>4345</v>
-      </c>
-      <c r="B4347" s="1" t="s">
-        <v>4345</v>
-      </c>
-    </row>
-    <row r="4348" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4348" s="1" t="s">
-        <v>4346</v>
-      </c>
-      <c r="B4348" s="1" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4349" s="1" t="s">
-        <v>4347</v>
-      </c>
-      <c r="B4349" s="1" t="s">
-        <v>4347</v>
-      </c>
-    </row>
-    <row r="4350" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4350" s="1" t="s">
-        <v>4348</v>
-      </c>
-      <c r="B4350" s="1" t="s">
-        <v>4348</v>
-      </c>
-    </row>
-    <row r="4351" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4351" s="1" t="s">
-        <v>4349</v>
-      </c>
-      <c r="B4351" s="1" t="s">
-        <v>4349</v>
-      </c>
-    </row>
-    <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4352" s="1" t="s">
-        <v>4350</v>
-      </c>
-      <c r="B4352" s="1" t="s">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="4353" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4353" s="1" t="s">
-        <v>4351</v>
-      </c>
-      <c r="B4353" s="1" t="s">
-        <v>4351</v>
-      </c>
-    </row>
-    <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4354" s="1" t="s">
-        <v>4352</v>
-      </c>
-      <c r="B4354" s="1" t="s">
-        <v>4352</v>
-      </c>
-    </row>
-    <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4355" s="1" t="s">
-        <v>4353</v>
-      </c>
-      <c r="B4355" s="1" t="s">
-        <v>4353</v>
-      </c>
-    </row>
-    <row r="4356" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4356" s="1" t="s">
         <v>4354</v>
-      </c>
-      <c r="B4356" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4357" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4357" s="1" t="s">
-        <v>4355</v>
-      </c>
-      <c r="B4357" s="1" t="s">
-        <v>4355</v>
-      </c>
-    </row>
-    <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4358" s="1" t="s">
-        <v>4356</v>
-      </c>
-      <c r="B4358" s="1" t="s">
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4359" s="1" t="s">
-        <v>4357</v>
-      </c>
-      <c r="B4359" s="1" t="s">
-        <v>4357</v>
-      </c>
-    </row>
-    <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4360" s="1" t="s">
-        <v>4358</v>
-      </c>
-      <c r="B4360" s="1" t="s">
-        <v>4358</v>
-      </c>
-    </row>
-    <row r="4361" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4361" s="1" t="s">
-        <v>4359</v>
-      </c>
-      <c r="B4361" s="1" t="s">
-        <v>4359</v>
-      </c>
-    </row>
-    <row r="4362" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4362" s="1" t="s">
-        <v>4360</v>
-      </c>
-      <c r="B4362" s="1" t="s">
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4363" s="1" t="s">
-        <v>4361</v>
-      </c>
-      <c r="B4363" s="1" t="s">
-        <v>4361</v>
-      </c>
-    </row>
-    <row r="4364" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4364" s="1" t="s">
-        <v>4362</v>
-      </c>
-      <c r="B4364" s="1" t="s">
-        <v>4362</v>
-      </c>
-    </row>
-    <row r="4365" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4365" s="1" t="s">
-        <v>4363</v>
-      </c>
-      <c r="B4365" s="1" t="s">
-        <v>4363</v>
-      </c>
-    </row>
-    <row r="4366" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4366" s="1" t="s">
-        <v>4364</v>
-      </c>
-      <c r="B4366" s="1" t="s">
-        <v>4364</v>
-      </c>
-    </row>
-    <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4367" s="1" t="s">
-        <v>4365</v>
-      </c>
-      <c r="B4367" s="1" t="s">
-        <v>4365</v>
-      </c>
-    </row>
-    <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4368" s="1" t="s">
-        <v>4366</v>
-      </c>
-      <c r="B4368" s="1" t="s">
-        <v>4366</v>
-      </c>
-    </row>
-    <row r="4369" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4369" s="1" t="s">
-        <v>4367</v>
-      </c>
-      <c r="B4369" s="1" t="s">
-        <v>4367</v>
-      </c>
-    </row>
-    <row r="4370" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4370" s="1" t="s">
-        <v>4368</v>
-      </c>
-      <c r="B4370" s="1" t="s">
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="4371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4371" s="1" t="s">
-        <v>4369</v>
-      </c>
-      <c r="B4371" s="1" t="s">
-        <v>4369</v>
-      </c>
-    </row>
-    <row r="4372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4372" s="1" t="s">
-        <v>4370</v>
-      </c>
-      <c r="B4372" s="1" t="s">
-        <v>4370</v>
-      </c>
-    </row>
-    <row r="4373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4373" s="1" t="s">
-        <v>4371</v>
-      </c>
-      <c r="B4373" s="1" t="s">
-        <v>4371</v>
-      </c>
-    </row>
-    <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4374" s="1" t="s">
-        <v>4372</v>
-      </c>
-      <c r="B4374" s="1" t="s">
-        <v>4372</v>
-      </c>
-    </row>
-    <row r="4375" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4375" s="1" t="s">
-        <v>4376</v>
-      </c>
-      <c r="B4375" s="1" t="s">
-        <v>4375</v>
-      </c>
-    </row>
-    <row r="4376" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4376" s="1" t="s">
-        <v>4388</v>
-      </c>
-      <c r="B4376" s="1" t="s">
-        <v>4387</v>
-      </c>
-    </row>
-    <row r="4377" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4377" s="1" t="s">
-        <v>4411</v>
-      </c>
-      <c r="B4377" s="1" t="s">
-        <v>4412</v>
-      </c>
-    </row>
-    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4378" s="1" t="s">
-        <v>4432</v>
-      </c>
-      <c r="B4378" s="1" t="s">
-        <v>4433</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="24" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="101"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="20" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="18" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6701:A1048576 A209:A1614 A1:A23 A25:A84 A143 A1788:A1792 A3425:A3830 A3893:A4167">
-    <cfRule type="duplicateValues" dxfId="17" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="110"/>
+  <conditionalFormatting sqref="A6608:A1048576 A209:A1614 A1:A23 A25:A84 A143 A1788:A1792 A3332:A3737 A3800:A4074">
+    <cfRule type="duplicateValues" dxfId="18" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="111"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1793:A3322">
-    <cfRule type="duplicateValues" dxfId="15" priority="51"/>
+  <conditionalFormatting sqref="A3738:A3799">
+    <cfRule type="duplicateValues" dxfId="16" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3831:A3892">
-    <cfRule type="duplicateValues" dxfId="14" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4191:A4269">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  <conditionalFormatting sqref="A4098:A4176">
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6701:B1048576 B1:B23 B25:B84 B143 B1788:B1792 B3425:B3830 B3893:B4167 B209:B1614">
-    <cfRule type="duplicateValues" dxfId="5" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
+  <conditionalFormatting sqref="B6608:B1048576 B1:B23 B25:B84 B143 B1788:B1792 B3332:B3737 B3800:B4074 B209:B1614">
+    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1793:B3322">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3831:B3892">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="B3738:B3799">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1543">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B234">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1793:A3229">
+    <cfRule type="duplicateValues" dxfId="1" priority="344"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1793:B3229">
+    <cfRule type="duplicateValues" dxfId="0" priority="346"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BBC7FE-56C1-4196-B897-10A872C81F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC72641-FCB3-4BEF-A785-3E698DB299F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8618" uniqueCount="4377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8706" uniqueCount="4462">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -5271,61 +5271,7 @@
     <t>Thiên Quan tọa thủ tại Phúc Đức</t>
   </si>
   <si>
-    <t>Thiên Quan tọa thủ tại Điền Trạch</t>
-  </si>
-  <si>
-    <t>Thiên Quan tọa thủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Quan tọa thủ tại Nô Bộc</t>
-  </si>
-  <si>
-    <t>Thiên Quan tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
-    <t>Thiên Quan tọa thủ tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Thiên Quan tọa thủ tại Tài Bạch</t>
-  </si>
-  <si>
-    <t>Thiên Quan tọa thủ tại Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Quan tọa thủ tại Huynh Đệ</t>
-  </si>
-  <si>
-    <t>Thiên Phúc tọa thủ tại Mệnh</t>
-  </si>
-  <si>
     <t>Thiên Phúc tọa thủ tại Phúc Đức</t>
-  </si>
-  <si>
-    <t>Thiên Phúc tọa thủ tại Điền Trạch</t>
-  </si>
-  <si>
-    <t>Thiên Phúc tọa thủ tại Quan Lộc</t>
-  </si>
-  <si>
-    <t>Thiên Phúc tọa thủ tại Nô Bộc</t>
-  </si>
-  <si>
-    <t>Thiên Phúc tọa thủ tại Thiên Di</t>
-  </si>
-  <si>
-    <t>Thiên Phúc tọa thủ tại Tật Ách</t>
-  </si>
-  <si>
-    <t>Thiên Phúc tọa thủ tại Tài Bạch</t>
-  </si>
-  <si>
-    <t>Thiên Phúc tọa thủ tại Tử Tức</t>
-  </si>
-  <si>
-    <t>Thiên Phúc tọa thủ tại Phu Thê</t>
-  </si>
-  <si>
-    <t>Thiên Phúc tọa thủ tại Huynh Đệ</t>
   </si>
   <si>
     <t>Quốc Ấn tọa thủ tại Mệnh</t>
@@ -13174,6 +13120,323 @@
   </si>
   <si>
     <t xml:space="preserve">Giảm thọ, khó tránh được tai họa. Phải lập nghiệp ở nơi thật xa quê hương, may ra mới được yên thân. Họ hàng càng ngày càng sa sút, ly tán. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được hưởng phúc sung sướng, vinh hiển và  sống lâu. Trong họ có nhiều người đỗ đạt cao có danh giá. </t>
+  </si>
+  <si>
+    <t>Tăng tuổi thọ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảm thọ, khó tránh được tai họa. Phải sớm xa 
+gia đình, như thế may ra mới được yên thân. Họ hàng tuy khá giả, có người đỗ đạt cao, nhưng ly tán. Những người có danh giá lại hay mang tàn tật, ác bệnh, nếu 
+không cũng chết non. </t>
+  </si>
+  <si>
+    <t>Được hưởng phúc vinh hiển và sống lâu. Trong họ có nhiều người đỗ đạt làm nên danh giá, lại thường có vĩ nhân hay thần đồng xuất hiện.</t>
+  </si>
+  <si>
+    <t>Trong cái may có chứa đựng nhiều cái rủi. Nếu có danh giá, tất khó tránh được tai họa. Họ hàng mỗi ngày một suy bại.</t>
+  </si>
+  <si>
+    <t>Được hưởng phúc sung sướng, vinh hiển và sống lâu. Trong họ có nhiều người đỗ đạt cao có danh giá.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được hưởng phúc sống lâu. Suốt đời hay gặp 
+may mắn. Càng ở xa quê hương lại càng khá giả. Họ hàng qúy hiển giàu sang, nhưng không ở gần nhau. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạc phúc nên giảm thọ. Khó tránh được tai họa. 
+Phải lập nghiệp ở nơi thật xa quê hương, hay phải sớm xa gia đình, may ra mới được yên thân. Trong họ có người cùng khổ phiêu bạt, hoặc du đãng, bất lương, nếu không, cùng mang tàn tật, ác bệnh, hay mắc tai nạn mà chết một cách thê thảm. Họ hàng càng ngày càng ly tán, lụn bại. </t>
+  </si>
+  <si>
+    <t>Lộc Tồn tọa thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tăng tuổi thọ, được hưởng phúc, trong họ hiếm người và thường có sự  tranh chấp bất hòa. Họ hàng khá giả nhưng ly tán. </t>
+  </si>
+  <si>
+    <t>Được hưởng phúc, khỏi phải lo lắng những lúc túng thiếu. Tránh được nhiều tai họa, họ hàng giàu có</t>
+  </si>
+  <si>
+    <t>Được hưởng phúc. Được nhiều người vị nể. Họ hàng qúy hiển, có danh giá, truyền từ đời này sang đời khác. Nhận định theo Thiên Khôi, Thiên Việt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được hưởng phúc sống lâu. Tránh được nhiều tai họa. Họ hàng khá giả, có người đỗ đạt cao. </t>
+  </si>
+  <si>
+    <t>Giảm thọ. Họ hàng ly tán, hay tranh chấp lẫn nhau.</t>
+  </si>
+  <si>
+    <t>Đại Hao toạ thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t>Tiểu Hao toạ thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t>Giảm thọ. Nên sớm xa gia đình, trong họ có nhiều người nghèo túng, phải đi biệt xứ.</t>
+  </si>
+  <si>
+    <t>Tang Môn toạ thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t>Bạch Hổ toạ thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảm thọ. Họ hàng ly tán, những người khá giả lại chết sớm. </t>
+  </si>
+  <si>
+    <t>Giảm thọ. Họ hàng hay oán trách lẫn nhau.</t>
+  </si>
+  <si>
+    <t>Thiên Mã toạ thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tăng tuổi thọ. Càng ở xa quê hương lại càng khá giả. Trong họ có nhiều người hiển đạt, nhưng không ở gần nhau. </t>
+  </si>
+  <si>
+    <t>Thái Tuế toạ thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t>Không được hưởng phúc dồi dào, khó tránh được tai họa. Trong họ thiếu hòa khí, thường có sự tranh chấp lẫn nhau.</t>
+  </si>
+  <si>
+    <t>Phượng Các toạ thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được hưởng phúc. Trong họ có nhiều người khá giả. </t>
+  </si>
+  <si>
+    <t>Long Trì toạ thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảm thọ, khó tránh được tai họa. Họ hàng càng ngày càng lụn bại. </t>
+  </si>
+  <si>
+    <t>Giảm thọ, khó tránh được tai họa. Họ hàng càng ngày càng lụn bại. Nay đây mai đó, phải bỏ quê xa xứ</t>
+  </si>
+  <si>
+    <t>Trong họ hiếm người. Tránh được nhiều tai họa. 
+Họ hàng khá giả. Được hưởng phúc. Suốt đời hay gặp may mắn.</t>
+  </si>
+  <si>
+    <t>Đào Hoa toạ thủ cung Phúc Đức gặp Tử Vi, Thiên Phủ, Thiên Tướng</t>
+  </si>
+  <si>
+    <t>Hồng Loan toạ thủ cung Phúc Đức gặp Tử Vi, Thiên Phủ, Thiên Tướng</t>
+  </si>
+  <si>
+    <t>Được hưởng phúc sống lâu. Suốt đời hay gặp may. Trong họ có nhiều người qúy hiển giàu sang</t>
+  </si>
+  <si>
+    <t>Đào Hoa toạ thủ cung Phúc Đức gặp Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Hồng Loan toạ thủ cung Phúc Đức gặp Ân Quang, Thiên Quý</t>
+  </si>
+  <si>
+    <t>Hồng Loan toạ thủ cung Phúc Đức gặp Thiên Hình, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Đào Hoa toạ thủ cung Phúc Đức gặp Thiên Hình, Thiên Riêu</t>
+  </si>
+  <si>
+    <t>Bạc phúc nên giảm thọ. Khó tranh được tai họa. Họ hàng càng ngày càng lụn bại, ly tán. Đàn bà con gái rất trắc trở về chồng con, lại có nhiều người dâm đãng.</t>
+  </si>
+  <si>
+    <t>Đào Hoa toạ thủ cung Phúc Đức gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Hồng Loan toạ thủ cung Phúc Đức gặp Hỏa Tinh, Linh Tinh, Kình Dương, Đà La</t>
+  </si>
+  <si>
+    <t>Hồng Loan toạ thủ cung Phúc Đức gặp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Đào Hoa toạ thủ cung Phúc Đức gặp Địa Không, Địa Kiếp</t>
+  </si>
+  <si>
+    <t>Được hưởng phúc. Tránh được nhiều tai họa. Trong họ có nhiều người khá giả và nhân đức.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảm thọ, khó tránh được tai họa. Phải lập nghiệp ở nơi thật xa quê hương, may ra mới được yên thân. Họ hàng ly tán, có nhiều người chết bất đắc kỳ tử. Ngành trưởng họ suy bại </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được hưởng phúc, sống lâu. Suốt đời gặp may mắn. Trong họ có nhiều người qúy hiển, lại thường có vĩ nhân hay anh hùng dân tộc xuất hiện. </t>
+  </si>
+  <si>
+    <t>Vũ Xương Khúc Khôi Việt hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Giảm thọ, mắt kém. Khó tránh được tai họa. Suốt đời chẳng được xứng ý toại lòng. Họ hàng ly tán, hay tranh chấp lẫn nhau. Những người qúy hiển lại hay gặp những chuyện chẳng lành.</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Tỵ gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Ngọ gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Sửu gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Mùi gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Dần gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Mão gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Thìn gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Thân gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Dậu gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Tuất gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Hợi gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ cung Phúc Đức ở Tý gặp Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Giảm thọ, mắt kém. Khó tránh được tai họa. Suốt đời bất đắc chí. Họ hàng ly tán, hay tranh chấp lẫn nhau. Những người qúy hiến lại hay gặp những sự chẳng lành. Đàn bà con gái trong họ thường phải buồn phiền vì chồng con.</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Dậu gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Tuất gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Hợi gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Thân gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Tý gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Sửu gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Mùi gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Dần gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Mão gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Thìn gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Tỵ gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ cung Phúc Đức ở Ngọ gặp các sao: Thiên Riêu, Hóa Kỵ, Đà La</t>
+  </si>
+  <si>
+    <t>Giảm thọ, mắt kém rất đáng lo ngại. Tai họa đầy rẫy không kể xiết được. Họ hàng càng  ngày càng ly tán, suy bại. Đàn bà con gái trong họ, nếu không vất vả về chồng con, cũng chết sớm.</t>
+  </si>
+  <si>
+    <t>Thái Dương, Thái Âm, Hóa Kỵ đồng cung ở Phúc Đức tại Sửu</t>
+  </si>
+  <si>
+    <t>Thái Dương, Thái Âm, Hóa Kỵ đồng cung ở Phúc Đức tại Mùi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Được hưởng phúc sống lâu. Suốt đời gặp may mắn. Càng ở xa quê hương lại càng khá giả. Trong họ có nhiều người qúy hiến, nhưng thường bất hòa, không ở gần nhau. Tổ tiên xa đời cũng đã có danh giá và tiếng tăm lưu lại đến đời nay. </t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc, Hỏa Tinh đồng cung ở Phúc Đức tại Sửu</t>
+  </si>
+  <si>
+    <t>Tham Lang, Vũ Khúc, Hỏa Tinh đồng cung ở Phúc Đức tại Mùi</t>
+  </si>
+  <si>
+    <t>Được hưởng phúc, tăng thêm tuổi thọ. Suốt đời hay gặp may mắn. Họ hàng khá giả, nhiều người giàu có qúy hiến.</t>
+  </si>
+  <si>
+    <t>Giảm thọ. Khó tránh được tai họa. Suốt đời chẳng được xứng ý toại lòng.  Họ hàng bất hòa ly tán và càng ngày càng suy bại. Lại có người mắc hình ngục, hay chết một cách thê thảm.</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ cung Phúc Đức đồng cung Hoả Tinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảm thọ, tai họa đầy rẫy. Họ hàng bất hòa ly tán và càng ngày càng suy bại. Nhà thờ họ đã có lần bị cháy. </t>
+  </si>
+  <si>
+    <t>Thất Sát đồng cung Kình Dương tại cung Phúc Đức</t>
+  </si>
+  <si>
+    <t>Giảm thọ. Khó tránh được tai hoa. Trong họ có nhiều người chết bất đắc kỳ tử.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảm thọ. Khó tránh được những sự chẳng lành. Suốt đời lao tâm khổ tứ. Họ hàng ly tán, lại có nhiều người mang tàn tật hay ác bệnh. Nếu không cũng là hạng du đãng, cùng khổ và chết non. </t>
+  </si>
+  <si>
+    <t>Bạc phúc nên giảm thọ. Tai họa đẫy rẫy. Họ hàng ly tán càng ngày càng suy bại, lại có nhiều người cùng khổ, du đãng, nếu không cũng điên cuồng, hay mang 
+tàn tật, ác bệnh, hay chết non.</t>
+  </si>
+  <si>
+    <t>Kình Dương, Hóa Kỵ toạ thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạc phúc nên suốt đời lao tâm khổ tứ may ít rủi nhiều. Họ hàng hay tranh chấp lẫn nhau và càng ngày càng sa sút lại có nhiều người là hạng du đãng trộm 
+cướp. </t>
+  </si>
+  <si>
+    <t>Đà La, Hóa Kỵ toạ thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t>Địa Không, Địa Kiếp, Hóa Kỵ đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Kỵ Phù Hình</t>
+  </si>
+  <si>
+    <t>Kỵ Phù Hình hội chiếu tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Giảm thọ. Suốt đời chẳng được xứng ý toại lòng. Họ hàng ly tán, càng ngày càng suy bại, lại có nhiều người bất lương.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giảm thọ. Khó tránh được tai họa. Đau ốm lâu khỏi. Trong họ có nhiều người mang ác tật, ác bệnh (điên, lao, hủi), nếu không, cùng nghèo hèn hay chết non. </t>
+  </si>
+  <si>
+    <t>Cô Thần, Thiên Quan đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Quả Tú, Thiên Phúc đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Cô Thần, Thiên Phúc đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Quả Tú, Thiên Quan đồng cung tại Phúc Đức</t>
+  </si>
+  <si>
+    <t>Suốt đời hay gặp may mắn, tránh được nhiều tai họa, vì luôn luôn có thần linh hộ trì. Trong họ có phúc thần.</t>
+  </si>
+  <si>
+    <t>Trong họ có nhiều con gái bất chính, chửa hoang.</t>
+  </si>
+  <si>
+    <t>Thiên Riêu toạ thủ cung Phúc Đức</t>
+  </si>
+  <si>
+    <t>Giảm thọ. Phải lìa bỏ quê hương, đi lập nghiệp ở nơi thật xa xôi. Họ hàng càng nghèo khổ ly tán, lại có nhiều người mang ác bệnh ác tật, nếu không cũng 
+yểu tử. Đàn bà con gái trong họ thường trắc trở về đường chồng con.</t>
   </si>
 </sst>
 </file>
@@ -13209,16 +13472,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13755,15 +14031,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4309"/>
+  <dimension ref="A1:C4351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A950" workbookViewId="0">
-      <selection activeCell="D954" sqref="D954"/>
+    <sheetView tabSelected="1" topLeftCell="A4343" workbookViewId="0">
+      <selection activeCell="H4347" sqref="H4347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="47.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -14139,7 +14416,7 @@
         <v>169</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>4284</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -14174,20 +14451,20 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>175</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -15379,7 +15656,7 @@
         <v>324</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>4307</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -15403,7 +15680,7 @@
         <v>327</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>4344</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15635,7 +15912,7 @@
         <v>356</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>4344</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15787,7 +16064,7 @@
         <v>375</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>4373</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15795,7 +16072,7 @@
         <v>376</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>4373</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15803,7 +16080,7 @@
         <v>377</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>4373</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15811,7 +16088,7 @@
         <v>378</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>4373</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15819,7 +16096,7 @@
         <v>379</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>4373</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15827,7 +16104,7 @@
         <v>380</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>4373</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15835,7 +16112,7 @@
         <v>381</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>4373</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15843,7 +16120,7 @@
         <v>382</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>4373</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15851,7 +16128,7 @@
         <v>383</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>4373</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -15859,7 +16136,7 @@
         <v>384</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>4373</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15867,7 +16144,7 @@
         <v>385</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15875,7 +16152,7 @@
         <v>386</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15883,7 +16160,7 @@
         <v>387</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15891,7 +16168,7 @@
         <v>388</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15899,7 +16176,7 @@
         <v>389</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15907,7 +16184,7 @@
         <v>390</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15915,7 +16192,7 @@
         <v>391</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15923,7 +16200,7 @@
         <v>392</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15931,7 +16208,7 @@
         <v>393</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15939,7 +16216,7 @@
         <v>394</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15947,7 +16224,7 @@
         <v>395</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15955,7 +16232,7 @@
         <v>396</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15963,7 +16240,7 @@
         <v>397</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -15971,7 +16248,7 @@
         <v>398</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>4374</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16355,7 +16632,7 @@
         <v>446</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>4329</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16419,7 +16696,7 @@
         <v>454</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>4306</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16483,7 +16760,7 @@
         <v>462</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>4306</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16547,7 +16824,7 @@
         <v>470</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>4329</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16611,7 +16888,7 @@
         <v>478</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>4329</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16675,7 +16952,7 @@
         <v>486</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>4306</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16739,7 +17016,7 @@
         <v>494</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>4306</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -16963,7 +17240,7 @@
         <v>522</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>4329</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -17147,31 +17424,31 @@
         <v>540</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>541</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>543</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>543</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -17187,55 +17464,55 @@
         <v>545</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>547</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>549</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>551</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>551</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17243,31 +17520,31 @@
         <v>552</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>553</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>555</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>555</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17275,7 +17552,7 @@
         <v>556</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>556</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17286,20 +17563,20 @@
         <v>557</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>558</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>559</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>559</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17307,7 +17584,7 @@
         <v>560</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>560</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17318,20 +17595,20 @@
         <v>561</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>562</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>563</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -17339,7 +17616,7 @@
         <v>564</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>564</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17350,12 +17627,12 @@
         <v>565</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>566</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -19123,7 +19400,7 @@
         <v>786</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>4375</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="671" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19155,7 +19432,7 @@
         <v>790</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>4375</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="675" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19187,7 +19464,7 @@
         <v>794</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>4375</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19219,7 +19496,7 @@
         <v>798</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>4375</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="683" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19251,7 +19528,7 @@
         <v>802</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>4375</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19283,7 +19560,7 @@
         <v>806</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>4375</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19315,7 +19592,7 @@
         <v>810</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>4375</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19347,7 +19624,7 @@
         <v>814</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>4375</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20947,7 +21224,7 @@
         <v>1013</v>
       </c>
       <c r="B898" s="1" t="s">
-        <v>4305</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="899" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20979,7 +21256,7 @@
         <v>1017</v>
       </c>
       <c r="B902" s="1" t="s">
-        <v>4305</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="903" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21011,7 +21288,7 @@
         <v>1021</v>
       </c>
       <c r="B906" s="1" t="s">
-        <v>4335</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="907" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21043,7 +21320,7 @@
         <v>1025</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>4335</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="911" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21075,7 +21352,7 @@
         <v>1029</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>4305</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="915" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21107,7 +21384,7 @@
         <v>1033</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>4305</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="919" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21139,7 +21416,7 @@
         <v>1037</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>4335</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="923" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21211,7 +21488,7 @@
         <v>1046</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="932" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21243,7 +21520,7 @@
         <v>1050</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="936" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21275,7 +21552,7 @@
         <v>1054</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="940" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21307,7 +21584,7 @@
         <v>1058</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="944" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21339,7 +21616,7 @@
         <v>1062</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="948" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21371,7 +21648,7 @@
         <v>1066</v>
       </c>
       <c r="B951" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="952" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21403,7 +21680,7 @@
         <v>1070</v>
       </c>
       <c r="B955" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="956" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21435,7 +21712,7 @@
         <v>1074</v>
       </c>
       <c r="B959" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="960" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21467,7 +21744,7 @@
         <v>1078</v>
       </c>
       <c r="B963" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="964" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21499,7 +21776,7 @@
         <v>1082</v>
       </c>
       <c r="B967" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="968" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21630,12 +21907,12 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A984" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="B984" s="1" t="s">
-        <v>1099</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="985" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21678,12 +21955,12 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A990" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>1105</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="991" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21750,12 +22027,12 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A999" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>1114</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1000" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21811,7 +22088,7 @@
         <v>1121</v>
       </c>
       <c r="B1006" s="1" t="s">
-        <v>1121</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1007" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22339,7 +22616,7 @@
         <v>1187</v>
       </c>
       <c r="B1072" s="1" t="s">
-        <v>1187</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
@@ -22443,7 +22720,7 @@
         <v>1200</v>
       </c>
       <c r="B1085" s="1" t="s">
-        <v>1200</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
@@ -23003,7 +23280,7 @@
         <v>1270</v>
       </c>
       <c r="B1155" s="1" t="s">
-        <v>4299</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
@@ -23019,7 +23296,7 @@
         <v>1272</v>
       </c>
       <c r="B1157" s="1" t="s">
-        <v>4300</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23635,7 +23912,7 @@
         <v>1345</v>
       </c>
       <c r="B1234" s="1" t="s">
-        <v>4306</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1235" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -23715,7 +23992,7 @@
         <v>1355</v>
       </c>
       <c r="B1244" s="1" t="s">
-        <v>4329</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="1245" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -23886,12 +24163,12 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="1266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1266" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1266" s="1" t="s">
         <v>1377</v>
       </c>
       <c r="B1266" s="1" t="s">
-        <v>1377</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1267" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24123,7 +24400,7 @@
         <v>1406</v>
       </c>
       <c r="B1295" s="1" t="s">
-        <v>4335</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1296" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -24131,7 +24408,7 @@
         <v>1407</v>
       </c>
       <c r="B1296" s="1" t="s">
-        <v>4335</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="1297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24139,7 +24416,7 @@
         <v>1408</v>
       </c>
       <c r="B1297" s="1" t="s">
-        <v>4305</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1298" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -24934,12 +25211,12 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1397" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1397" s="1" t="s">
         <v>1508</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>1508</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1398" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -24947,55 +25224,55 @@
         <v>1509</v>
       </c>
       <c r="B1398" s="1" t="s">
-        <v>1509</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1399" s="1" t="s">
         <v>1510</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>1510</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1400" s="1" t="s">
         <v>1511</v>
       </c>
       <c r="B1400" s="1" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1401" s="1" t="s">
         <v>1512</v>
       </c>
       <c r="B1401" s="1" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1402" s="1" t="s">
         <v>1513</v>
       </c>
       <c r="B1402" s="1" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1403" s="1" t="s">
         <v>1514</v>
       </c>
       <c r="B1403" s="1" t="s">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1404" s="1" t="s">
         <v>1515</v>
       </c>
       <c r="B1404" s="1" t="s">
-        <v>1515</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="1405" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -25003,55 +25280,55 @@
         <v>1516</v>
       </c>
       <c r="B1405" s="1" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="1406" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1406" s="1" t="s">
         <v>1517</v>
       </c>
       <c r="B1406" s="1" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="1407" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1407" s="1" t="s">
         <v>1518</v>
       </c>
       <c r="B1407" s="1" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="1408" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1408" s="1" t="s">
         <v>1519</v>
       </c>
       <c r="B1408" s="1" t="s">
-        <v>1519</v>
-      </c>
-    </row>
-    <row r="1409" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1409" s="1" t="s">
         <v>1520</v>
       </c>
       <c r="B1409" s="1" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="1410" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1410" s="1" t="s">
         <v>1521</v>
       </c>
       <c r="B1410" s="1" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="1411" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1411" s="1" t="s">
         <v>1522</v>
       </c>
       <c r="B1411" s="1" t="s">
-        <v>1522</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1412" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -25059,55 +25336,55 @@
         <v>1523</v>
       </c>
       <c r="B1412" s="1" t="s">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="1413" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1413" s="1" t="s">
         <v>1524</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="1414" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1414" s="1" t="s">
         <v>1525</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1415" s="1" t="s">
         <v>1526</v>
       </c>
       <c r="B1415" s="1" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="1416" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1416" s="1" t="s">
         <v>1527</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="1417" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1417" s="1" t="s">
         <v>1528</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1418" s="1" t="s">
         <v>1529</v>
       </c>
       <c r="B1418" s="1" t="s">
-        <v>1529</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1419" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -25115,55 +25392,55 @@
         <v>1530</v>
       </c>
       <c r="B1419" s="1" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="1420" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1420" s="1" t="s">
         <v>1531</v>
       </c>
       <c r="B1420" s="1" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="1421" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1421" s="1" t="s">
         <v>1532</v>
       </c>
       <c r="B1421" s="1" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1422" s="1" t="s">
         <v>1533</v>
       </c>
       <c r="B1422" s="1" t="s">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="1423" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1423" s="1" t="s">
         <v>1534</v>
       </c>
       <c r="B1423" s="1" t="s">
-        <v>1534</v>
-      </c>
-    </row>
-    <row r="1424" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1424" s="1" t="s">
         <v>1535</v>
       </c>
       <c r="B1424" s="1" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1425" s="1" t="s">
         <v>1536</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>1536</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1426" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -25171,55 +25448,55 @@
         <v>1537</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1427" s="1" t="s">
         <v>1538</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1428" s="1" t="s">
         <v>1539</v>
       </c>
       <c r="B1428" s="1" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1429" s="1" t="s">
         <v>1540</v>
       </c>
       <c r="B1429" s="1" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1430" s="1" t="s">
         <v>1541</v>
       </c>
       <c r="B1430" s="1" t="s">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1431" s="1" t="s">
         <v>1542</v>
       </c>
       <c r="B1431" s="1" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1432" s="1" t="s">
         <v>1543</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>1543</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1433" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -25227,55 +25504,55 @@
         <v>1544</v>
       </c>
       <c r="B1433" s="1" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1434" s="1" t="s">
         <v>1545</v>
       </c>
       <c r="B1434" s="1" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1435" s="1" t="s">
         <v>1546</v>
       </c>
       <c r="B1435" s="1" t="s">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1436" s="1" t="s">
         <v>1547</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="1437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1437" s="1" t="s">
         <v>1548</v>
       </c>
       <c r="B1437" s="1" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="1438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1438" s="1" t="s">
         <v>1549</v>
       </c>
       <c r="B1438" s="1" t="s">
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1439" s="1" t="s">
         <v>1550</v>
       </c>
       <c r="B1439" s="1" t="s">
-        <v>1550</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1440" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -25283,55 +25560,55 @@
         <v>1551</v>
       </c>
       <c r="B1440" s="1" t="s">
-        <v>1551</v>
-      </c>
-    </row>
-    <row r="1441" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1441" s="1" t="s">
         <v>1552</v>
       </c>
       <c r="B1441" s="1" t="s">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="1442" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1442" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="B1442" s="1" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="1443" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1443" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="B1443" s="1" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="1444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1444" s="1" t="s">
         <v>1555</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="1445" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1445" s="1" t="s">
         <v>1556</v>
       </c>
       <c r="B1445" s="1" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1446" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>1557</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1447" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -25339,55 +25616,55 @@
         <v>1558</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>1558</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1448" s="1" t="s">
         <v>1559</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1449" s="1" t="s">
         <v>1560</v>
       </c>
       <c r="B1449" s="1" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1450" s="1" t="s">
         <v>1561</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1451" s="1" t="s">
         <v>1562</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="1452" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1452" s="1" t="s">
         <v>1563</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>1563</v>
-      </c>
-    </row>
-    <row r="1453" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1453" s="1" t="s">
         <v>1564</v>
       </c>
       <c r="B1453" s="1" t="s">
-        <v>1564</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1454" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -25395,55 +25672,55 @@
         <v>1565</v>
       </c>
       <c r="B1454" s="1" t="s">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="1455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1455" s="1" t="s">
         <v>1566</v>
       </c>
       <c r="B1455" s="1" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="1456" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1456" s="1" t="s">
         <v>1567</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1457" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>1568</v>
-      </c>
-    </row>
-    <row r="1458" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1458" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="1459" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1459" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="1460" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1460" s="1" t="s">
         <v>1571</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>1571</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1461" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -25451,55 +25728,55 @@
         <v>1572</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="1462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1462" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="B1462" s="1" t="s">
-        <v>1573</v>
-      </c>
-    </row>
-    <row r="1463" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1463" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="1464" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1464" s="1" t="s">
         <v>1575</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1465" s="1" t="s">
         <v>1576</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1466" s="1" t="s">
         <v>1577</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1467" s="1" t="s">
         <v>1578</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>1578</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1468" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -25507,55 +25784,55 @@
         <v>1579</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="1469" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1469" s="1" t="s">
         <v>1580</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="1470" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1470" s="1" t="s">
         <v>1581</v>
       </c>
       <c r="B1470" s="1" t="s">
-        <v>1581</v>
-      </c>
-    </row>
-    <row r="1471" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1471" s="1" t="s">
         <v>1582</v>
       </c>
       <c r="B1471" s="1" t="s">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="1472" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1472" s="1" t="s">
         <v>1583</v>
       </c>
       <c r="B1472" s="1" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="1473" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1473" s="1" t="s">
         <v>1584</v>
       </c>
       <c r="B1473" s="1" t="s">
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="1474" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1474" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="B1474" s="1" t="s">
-        <v>1585</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1475" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -25563,79 +25840,79 @@
         <v>1586</v>
       </c>
       <c r="B1475" s="1" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="1476" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1476" s="1" t="s">
         <v>1587</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>1587</v>
-      </c>
-    </row>
-    <row r="1477" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1477" s="1" t="s">
         <v>1588</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1478" s="1" t="s">
         <v>1589</v>
       </c>
       <c r="B1478" s="1" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1479" s="1" t="s">
         <v>1590</v>
       </c>
       <c r="B1479" s="1" t="s">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1480" s="1" t="s">
         <v>1591</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>1591</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1481" s="1" t="s">
         <v>1592</v>
       </c>
       <c r="B1481" s="1" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1482" s="1" t="s">
         <v>1593</v>
       </c>
       <c r="B1482" s="1" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1483" s="1" t="s">
         <v>1594</v>
       </c>
       <c r="B1483" s="1" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="1484" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1484" s="1" t="s">
         <v>1595</v>
       </c>
       <c r="B1484" s="1" t="s">
-        <v>1595</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1485" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25670,36 +25947,36 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="1489" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1489" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1489" s="1" t="s">
         <v>1600</v>
       </c>
       <c r="B1489" s="1" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1490" s="1" t="s">
         <v>1601</v>
       </c>
       <c r="B1490" s="1" t="s">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1491" s="1" t="s">
         <v>1602</v>
       </c>
       <c r="B1491" s="1" t="s">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1492" s="1" t="s">
         <v>1603</v>
       </c>
       <c r="B1492" s="1" t="s">
-        <v>1603</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
@@ -25707,7 +25984,7 @@
         <v>1604</v>
       </c>
       <c r="B1493" s="1" t="s">
-        <v>1604</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1494" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -25715,7 +25992,7 @@
         <v>1605</v>
       </c>
       <c r="B1494" s="1" t="s">
-        <v>1605</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1495" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -25723,47 +26000,47 @@
         <v>1606</v>
       </c>
       <c r="B1495" s="1" t="s">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1496" s="1" t="s">
         <v>1607</v>
       </c>
       <c r="B1496" s="1" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="1497" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1497" s="1" t="s">
         <v>1608</v>
       </c>
       <c r="B1497" s="1" t="s">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="1498" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1498" s="1" t="s">
         <v>1609</v>
       </c>
       <c r="B1498" s="1" t="s">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="1499" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1499" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="1500" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1500" s="1" t="s">
         <v>1611</v>
       </c>
       <c r="B1500" s="1" t="s">
-        <v>1611</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
@@ -25771,7 +26048,7 @@
         <v>1612</v>
       </c>
       <c r="B1501" s="1" t="s">
-        <v>1612</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1502" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -25779,7 +26056,7 @@
         <v>1613</v>
       </c>
       <c r="B1502" s="1" t="s">
-        <v>1613</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1503" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -25787,71 +26064,71 @@
         <v>1614</v>
       </c>
       <c r="B1503" s="1" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="1504" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1504" s="1" t="s">
         <v>1615</v>
       </c>
       <c r="B1504" s="1" t="s">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1505" s="1" t="s">
         <v>1616</v>
       </c>
       <c r="B1505" s="1" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
         <v>1617</v>
       </c>
       <c r="B1506" s="1" t="s">
-        <v>1617</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
         <v>1618</v>
       </c>
       <c r="B1507" s="1" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="1508" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
         <v>1619</v>
       </c>
       <c r="B1508" s="1" t="s">
-        <v>1619</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
         <v>1620</v>
       </c>
       <c r="B1509" s="1" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="1510" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
         <v>1621</v>
       </c>
       <c r="B1510" s="1" t="s">
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1511" s="1" t="s">
         <v>1622</v>
       </c>
       <c r="B1511" s="1" t="s">
-        <v>1622</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1512" spans="1:2" x14ac:dyDescent="0.25">
@@ -25891,7 +26168,7 @@
         <v>1627</v>
       </c>
       <c r="B1516" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1517" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25923,7 +26200,7 @@
         <v>1631</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1521" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25955,7 +26232,7 @@
         <v>1635</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1525" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25987,7 +26264,7 @@
         <v>1639</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1529" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -26019,7 +26296,7 @@
         <v>1643</v>
       </c>
       <c r="B1532" s="1" t="s">
-        <v>4376</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="1533" spans="1:2" x14ac:dyDescent="0.25">
@@ -26107,7 +26384,7 @@
         <v>22</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>4331</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1544" spans="1:2" x14ac:dyDescent="0.25">
@@ -26747,7 +27024,7 @@
         <v>96</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>4316</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1624" spans="1:2" x14ac:dyDescent="0.25">
@@ -26936,10 +27213,10 @@
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1647" s="1" t="s">
-        <v>4308</v>
+        <v>4290</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>4309</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1648" spans="1:2" x14ac:dyDescent="0.25">
@@ -27750,20 +28027,20 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="1749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1749" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1749" s="1" t="s">
         <v>1747</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4402</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1750" s="1" t="s">
         <v>1748</v>
       </c>
       <c r="B1750" s="1" t="s">
-        <v>1748</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="1751" spans="1:2" x14ac:dyDescent="0.25">
@@ -30339,7 +30616,7 @@
         <v>2070</v>
       </c>
       <c r="B2072" s="1" t="s">
-        <v>2070</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="2073" spans="1:2" x14ac:dyDescent="0.25">
@@ -30347,7 +30624,7 @@
         <v>2071</v>
       </c>
       <c r="B2073" s="1" t="s">
-        <v>2071</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="2074" spans="1:2" x14ac:dyDescent="0.25">
@@ -30360,18 +30637,18 @@
     </row>
     <row r="2075" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2075" s="1" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="B2075" s="1" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="2076" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2076" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B2076" s="1" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="2077" spans="1:2" x14ac:dyDescent="0.25">
@@ -30483,7 +30760,7 @@
         <v>2088</v>
       </c>
       <c r="B2090" s="1" t="s">
-        <v>4371</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="2091" spans="1:2" x14ac:dyDescent="0.25">
@@ -30491,7 +30768,7 @@
         <v>2089</v>
       </c>
       <c r="B2091" s="1" t="s">
-        <v>4372</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="2092" spans="1:2" x14ac:dyDescent="0.25">
@@ -30504,18 +30781,18 @@
     </row>
     <row r="2093" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2093" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="B2093" s="1" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="2094" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2094" s="1" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="B2094" s="1" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="2095" spans="1:2" x14ac:dyDescent="0.25">
@@ -31184,146 +31461,146 @@
     </row>
     <row r="2178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2178" s="1" t="s">
-        <v>2176</v>
+        <v>3485</v>
       </c>
       <c r="B2178" s="1" t="s">
-        <v>2176</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="2179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2179" s="1" t="s">
-        <v>2177</v>
+        <v>3486</v>
       </c>
       <c r="B2179" s="1" t="s">
-        <v>2177</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="2180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2180" s="1" t="s">
-        <v>2178</v>
+        <v>3487</v>
       </c>
       <c r="B2180" s="1" t="s">
-        <v>2178</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="2181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2181" s="1" t="s">
-        <v>2179</v>
+        <v>3488</v>
       </c>
       <c r="B2181" s="1" t="s">
-        <v>2179</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="2182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2182" s="1" t="s">
-        <v>2180</v>
+        <v>3489</v>
       </c>
       <c r="B2182" s="1" t="s">
-        <v>2180</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="2183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2183" s="1" t="s">
-        <v>2181</v>
+        <v>3490</v>
       </c>
       <c r="B2183" s="1" t="s">
-        <v>2181</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="2184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2184" s="1" t="s">
-        <v>2182</v>
+        <v>3491</v>
       </c>
       <c r="B2184" s="1" t="s">
-        <v>2182</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="2185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2185" s="1" t="s">
-        <v>2183</v>
+        <v>3492</v>
       </c>
       <c r="B2185" s="1" t="s">
-        <v>2183</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="2186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2186" s="1" t="s">
-        <v>2184</v>
+        <v>3493</v>
       </c>
       <c r="B2186" s="1" t="s">
-        <v>2184</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="2187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2187" s="1" t="s">
-        <v>2185</v>
+        <v>3494</v>
       </c>
       <c r="B2187" s="1" t="s">
-        <v>2185</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="2188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2188" s="1" t="s">
-        <v>2186</v>
+        <v>3495</v>
       </c>
       <c r="B2188" s="1" t="s">
-        <v>2186</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="2189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2189" s="1" t="s">
-        <v>2187</v>
+        <v>3496</v>
       </c>
       <c r="B2189" s="1" t="s">
-        <v>2187</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="2190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2190" s="1" t="s">
-        <v>2188</v>
+        <v>3497</v>
       </c>
       <c r="B2190" s="1" t="s">
-        <v>2188</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="2191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2191" s="1" t="s">
-        <v>2189</v>
+        <v>3498</v>
       </c>
       <c r="B2191" s="1" t="s">
-        <v>2189</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="2192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2192" s="1" t="s">
-        <v>2190</v>
+        <v>3499</v>
       </c>
       <c r="B2192" s="1" t="s">
-        <v>2190</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="2193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2193" s="1" t="s">
-        <v>2191</v>
+        <v>3500</v>
       </c>
       <c r="B2193" s="1" t="s">
-        <v>2191</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="2194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2194" s="1" t="s">
-        <v>2192</v>
+        <v>3501</v>
       </c>
       <c r="B2194" s="1" t="s">
-        <v>2192</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="2195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2195" s="1" t="s">
-        <v>2193</v>
+        <v>3502</v>
       </c>
       <c r="B2195" s="1" t="s">
-        <v>2193</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="2196" spans="1:2" x14ac:dyDescent="0.25">
@@ -31360,322 +31637,322 @@
     </row>
     <row r="2200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2200" s="1" t="s">
-        <v>3507</v>
+        <v>2198</v>
       </c>
       <c r="B2200" s="1" t="s">
-        <v>3507</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="2201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2201" s="1" t="s">
-        <v>3508</v>
+        <v>2199</v>
       </c>
       <c r="B2201" s="1" t="s">
-        <v>3508</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="2202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2202" s="1" t="s">
-        <v>3509</v>
+        <v>2200</v>
       </c>
       <c r="B2202" s="1" t="s">
-        <v>3509</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="2203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2203" s="1" t="s">
-        <v>3510</v>
+        <v>2201</v>
       </c>
       <c r="B2203" s="1" t="s">
-        <v>3510</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="2204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2204" s="1" t="s">
-        <v>3511</v>
+        <v>2202</v>
       </c>
       <c r="B2204" s="1" t="s">
-        <v>3511</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="2205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2205" s="1" t="s">
-        <v>3512</v>
+        <v>2203</v>
       </c>
       <c r="B2205" s="1" t="s">
-        <v>3512</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="2206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2206" s="1" t="s">
-        <v>3513</v>
+        <v>2204</v>
       </c>
       <c r="B2206" s="1" t="s">
-        <v>3513</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="2207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2207" s="1" t="s">
-        <v>3514</v>
+        <v>2205</v>
       </c>
       <c r="B2207" s="1" t="s">
-        <v>3514</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="2208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2208" s="1" t="s">
-        <v>3515</v>
+        <v>2206</v>
       </c>
       <c r="B2208" s="1" t="s">
-        <v>3515</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="2209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2209" s="1" t="s">
-        <v>3516</v>
+        <v>2207</v>
       </c>
       <c r="B2209" s="1" t="s">
-        <v>3516</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="2210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2210" s="1" t="s">
-        <v>3517</v>
+        <v>2208</v>
       </c>
       <c r="B2210" s="1" t="s">
-        <v>3517</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="2211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2211" s="1" t="s">
-        <v>3518</v>
+        <v>2187</v>
       </c>
       <c r="B2211" s="1" t="s">
-        <v>3518</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="2212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2212" s="1" t="s">
-        <v>3519</v>
+        <v>2188</v>
       </c>
       <c r="B2212" s="1" t="s">
-        <v>3519</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="2213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2213" s="1" t="s">
-        <v>3520</v>
+        <v>2189</v>
       </c>
       <c r="B2213" s="1" t="s">
-        <v>3520</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="2214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2214" s="1" t="s">
-        <v>3521</v>
+        <v>2190</v>
       </c>
       <c r="B2214" s="1" t="s">
-        <v>3521</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="2215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2215" s="1" t="s">
-        <v>3522</v>
+        <v>2191</v>
       </c>
       <c r="B2215" s="1" t="s">
-        <v>3522</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="2216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2216" s="1" t="s">
-        <v>3523</v>
+        <v>2192</v>
       </c>
       <c r="B2216" s="1" t="s">
-        <v>3523</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="2217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2217" s="1" t="s">
-        <v>3524</v>
+        <v>2193</v>
       </c>
       <c r="B2217" s="1" t="s">
-        <v>3524</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="2218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2218" s="1" t="s">
-        <v>2216</v>
+        <v>2194</v>
       </c>
       <c r="B2218" s="1" t="s">
-        <v>2216</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="2219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2219" s="1" t="s">
-        <v>2217</v>
+        <v>2195</v>
       </c>
       <c r="B2219" s="1" t="s">
-        <v>2217</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="2220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2220" s="1" t="s">
-        <v>2218</v>
+        <v>2196</v>
       </c>
       <c r="B2220" s="1" t="s">
-        <v>2218</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="2221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2221" s="1" t="s">
-        <v>2219</v>
+        <v>2197</v>
       </c>
       <c r="B2221" s="1" t="s">
-        <v>2219</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="2222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2222" s="1" t="s">
-        <v>2220</v>
+        <v>3507</v>
       </c>
       <c r="B2222" s="1" t="s">
-        <v>2220</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="2223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2223" s="1" t="s">
-        <v>2221</v>
+        <v>3508</v>
       </c>
       <c r="B2223" s="1" t="s">
-        <v>2221</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="2224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2224" s="1" t="s">
-        <v>2222</v>
+        <v>3509</v>
       </c>
       <c r="B2224" s="1" t="s">
-        <v>2222</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="2225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2225" s="1" t="s">
-        <v>2223</v>
+        <v>3510</v>
       </c>
       <c r="B2225" s="1" t="s">
-        <v>2223</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="2226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2226" s="1" t="s">
-        <v>2224</v>
+        <v>3511</v>
       </c>
       <c r="B2226" s="1" t="s">
-        <v>2224</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="2227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2227" s="1" t="s">
-        <v>2225</v>
+        <v>3512</v>
       </c>
       <c r="B2227" s="1" t="s">
-        <v>2225</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="2228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2228" s="1" t="s">
-        <v>2226</v>
+        <v>3513</v>
       </c>
       <c r="B2228" s="1" t="s">
-        <v>2226</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="2229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2229" s="1" t="s">
-        <v>2205</v>
+        <v>3514</v>
       </c>
       <c r="B2229" s="1" t="s">
-        <v>2205</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="2230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2230" s="1" t="s">
-        <v>2206</v>
+        <v>3515</v>
       </c>
       <c r="B2230" s="1" t="s">
-        <v>2206</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="2231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2231" s="1" t="s">
-        <v>2207</v>
+        <v>3516</v>
       </c>
       <c r="B2231" s="1" t="s">
-        <v>2207</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="2232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2232" s="1" t="s">
-        <v>2208</v>
+        <v>3517</v>
       </c>
       <c r="B2232" s="1" t="s">
-        <v>2208</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="2233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2233" s="1" t="s">
-        <v>2209</v>
+        <v>3518</v>
       </c>
       <c r="B2233" s="1" t="s">
-        <v>2209</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="2234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2234" s="1" t="s">
-        <v>2210</v>
+        <v>3519</v>
       </c>
       <c r="B2234" s="1" t="s">
-        <v>2210</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="2235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2235" s="1" t="s">
-        <v>2211</v>
+        <v>3520</v>
       </c>
       <c r="B2235" s="1" t="s">
-        <v>2211</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="2236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2236" s="1" t="s">
-        <v>2212</v>
+        <v>3521</v>
       </c>
       <c r="B2236" s="1" t="s">
-        <v>2212</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="2237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2237" s="1" t="s">
-        <v>2213</v>
+        <v>3522</v>
       </c>
       <c r="B2237" s="1" t="s">
-        <v>2213</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="2238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2238" s="1" t="s">
-        <v>2214</v>
+        <v>3523</v>
       </c>
       <c r="B2238" s="1" t="s">
-        <v>2214</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="2239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2239" s="1" t="s">
-        <v>2215</v>
+        <v>3524</v>
       </c>
       <c r="B2239" s="1" t="s">
-        <v>2215</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="2240" spans="1:2" x14ac:dyDescent="0.25">
@@ -32240,426 +32517,426 @@
     </row>
     <row r="2310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2310" s="1" t="s">
-        <v>3595</v>
+        <v>2176</v>
       </c>
       <c r="B2310" s="1" t="s">
-        <v>3595</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="2311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2311" s="1" t="s">
-        <v>3596</v>
+        <v>2177</v>
       </c>
       <c r="B2311" s="1" t="s">
-        <v>3596</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="2312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2312" s="1" t="s">
-        <v>3597</v>
+        <v>2178</v>
       </c>
       <c r="B2312" s="1" t="s">
-        <v>3597</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="2313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2313" s="1" t="s">
-        <v>3598</v>
+        <v>2179</v>
       </c>
       <c r="B2313" s="1" t="s">
-        <v>3598</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="2314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2314" s="1" t="s">
-        <v>3599</v>
+        <v>2180</v>
       </c>
       <c r="B2314" s="1" t="s">
-        <v>3599</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="2315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2315" s="1" t="s">
-        <v>3600</v>
+        <v>2181</v>
       </c>
       <c r="B2315" s="1" t="s">
-        <v>3600</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="2316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2316" s="1" t="s">
-        <v>3601</v>
+        <v>2182</v>
       </c>
       <c r="B2316" s="1" t="s">
-        <v>3601</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="2317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2317" s="1" t="s">
-        <v>3602</v>
+        <v>2183</v>
       </c>
       <c r="B2317" s="1" t="s">
-        <v>3602</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="2318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2318" s="1" t="s">
-        <v>3603</v>
+        <v>2184</v>
       </c>
       <c r="B2318" s="1" t="s">
-        <v>3603</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="2319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2319" s="1" t="s">
-        <v>3604</v>
+        <v>2185</v>
       </c>
       <c r="B2319" s="1" t="s">
-        <v>3604</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="2320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2320" s="1" t="s">
-        <v>3605</v>
+        <v>2186</v>
       </c>
       <c r="B2320" s="1" t="s">
-        <v>3605</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="2321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2321" s="1" t="s">
-        <v>3606</v>
+        <v>2209</v>
       </c>
       <c r="B2321" s="1" t="s">
-        <v>3606</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="2322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2322" s="1" t="s">
-        <v>3607</v>
+        <v>2210</v>
       </c>
       <c r="B2322" s="1" t="s">
-        <v>3607</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="2323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2323" s="1" t="s">
-        <v>3608</v>
+        <v>2211</v>
       </c>
       <c r="B2323" s="1" t="s">
-        <v>3608</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="2324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2324" s="1" t="s">
-        <v>3609</v>
+        <v>2212</v>
       </c>
       <c r="B2324" s="1" t="s">
-        <v>3609</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="2325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2325" s="1" t="s">
-        <v>3610</v>
+        <v>2213</v>
       </c>
       <c r="B2325" s="1" t="s">
-        <v>3610</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="2326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2326" s="1" t="s">
-        <v>3611</v>
+        <v>2214</v>
       </c>
       <c r="B2326" s="1" t="s">
-        <v>3611</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="2327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2327" s="1" t="s">
-        <v>3612</v>
+        <v>2215</v>
       </c>
       <c r="B2327" s="1" t="s">
-        <v>3612</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="2328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2328" s="1" t="s">
-        <v>2194</v>
+        <v>2216</v>
       </c>
       <c r="B2328" s="1" t="s">
-        <v>2194</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="2329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2329" s="1" t="s">
-        <v>2195</v>
+        <v>2217</v>
       </c>
       <c r="B2329" s="1" t="s">
-        <v>2195</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="2330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2330" s="1" t="s">
-        <v>2196</v>
+        <v>2218</v>
       </c>
       <c r="B2330" s="1" t="s">
-        <v>2196</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="2331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2331" s="1" t="s">
-        <v>2197</v>
+        <v>2219</v>
       </c>
       <c r="B2331" s="1" t="s">
-        <v>2197</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="2332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2332" s="1" t="s">
-        <v>2198</v>
+        <v>2220</v>
       </c>
       <c r="B2332" s="1" t="s">
-        <v>2198</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="2333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2333" s="1" t="s">
-        <v>2199</v>
+        <v>3595</v>
       </c>
       <c r="B2333" s="1" t="s">
-        <v>2199</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="2334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2334" s="1" t="s">
-        <v>2200</v>
+        <v>3596</v>
       </c>
       <c r="B2334" s="1" t="s">
-        <v>2200</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="2335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2335" s="1" t="s">
-        <v>2201</v>
+        <v>3597</v>
       </c>
       <c r="B2335" s="1" t="s">
-        <v>2201</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="2336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2336" s="1" t="s">
-        <v>2202</v>
+        <v>3598</v>
       </c>
       <c r="B2336" s="1" t="s">
-        <v>2202</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="2337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2337" s="1" t="s">
-        <v>2203</v>
+        <v>3599</v>
       </c>
       <c r="B2337" s="1" t="s">
-        <v>2203</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="2338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2338" s="1" t="s">
-        <v>2204</v>
+        <v>3600</v>
       </c>
       <c r="B2338" s="1" t="s">
-        <v>2204</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="2339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2339" s="1" t="s">
-        <v>2227</v>
+        <v>3601</v>
       </c>
       <c r="B2339" s="1" t="s">
-        <v>2227</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="2340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2340" s="1" t="s">
-        <v>2228</v>
+        <v>3602</v>
       </c>
       <c r="B2340" s="1" t="s">
-        <v>2228</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="2341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2341" s="1" t="s">
-        <v>2229</v>
+        <v>3603</v>
       </c>
       <c r="B2341" s="1" t="s">
-        <v>2229</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="2342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2342" s="1" t="s">
-        <v>2230</v>
+        <v>3604</v>
       </c>
       <c r="B2342" s="1" t="s">
-        <v>2230</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="2343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2343" s="1" t="s">
-        <v>2231</v>
+        <v>3605</v>
       </c>
       <c r="B2343" s="1" t="s">
-        <v>2231</v>
-      </c>
-    </row>
-    <row r="2344" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2344" s="1" t="s">
-        <v>2232</v>
+        <v>2221</v>
       </c>
       <c r="B2344" s="1" t="s">
-        <v>2232</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="2345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2345" s="1" t="s">
-        <v>2233</v>
+        <v>2222</v>
       </c>
       <c r="B2345" s="1" t="s">
-        <v>2233</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="2346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2346" s="1" t="s">
-        <v>2234</v>
+        <v>2223</v>
       </c>
       <c r="B2346" s="1" t="s">
-        <v>2234</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="2347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2347" s="1" t="s">
-        <v>2235</v>
+        <v>2224</v>
       </c>
       <c r="B2347" s="1" t="s">
-        <v>2235</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="2348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2348" s="1" t="s">
-        <v>2236</v>
+        <v>2225</v>
       </c>
       <c r="B2348" s="1" t="s">
-        <v>2236</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="2349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2349" s="1" t="s">
-        <v>2237</v>
+        <v>2226</v>
       </c>
       <c r="B2349" s="1" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="2350" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2350" s="1" t="s">
-        <v>2238</v>
+        <v>2227</v>
       </c>
       <c r="B2350" s="1" t="s">
-        <v>2238</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="2351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2351" s="1" t="s">
-        <v>3613</v>
+        <v>2228</v>
       </c>
       <c r="B2351" s="1" t="s">
-        <v>3613</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="2352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2352" s="1" t="s">
-        <v>3614</v>
+        <v>2229</v>
       </c>
       <c r="B2352" s="1" t="s">
-        <v>3614</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="2353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2353" s="1" t="s">
-        <v>3615</v>
+        <v>2230</v>
       </c>
       <c r="B2353" s="1" t="s">
-        <v>3615</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="2354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2354" s="1" t="s">
-        <v>3616</v>
+        <v>2231</v>
       </c>
       <c r="B2354" s="1" t="s">
-        <v>3616</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="2355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2355" s="1" t="s">
-        <v>3617</v>
+        <v>2232</v>
       </c>
       <c r="B2355" s="1" t="s">
-        <v>3617</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="2356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2356" s="1" t="s">
-        <v>3618</v>
+        <v>2233</v>
       </c>
       <c r="B2356" s="1" t="s">
-        <v>3618</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="2357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2357" s="1" t="s">
-        <v>3619</v>
+        <v>2234</v>
       </c>
       <c r="B2357" s="1" t="s">
-        <v>3619</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="2358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2358" s="1" t="s">
-        <v>3620</v>
+        <v>2235</v>
       </c>
       <c r="B2358" s="1" t="s">
-        <v>3620</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="2359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2359" s="1" t="s">
-        <v>3621</v>
+        <v>2236</v>
       </c>
       <c r="B2359" s="1" t="s">
-        <v>3621</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="2360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2360" s="1" t="s">
-        <v>3622</v>
+        <v>2237</v>
       </c>
       <c r="B2360" s="1" t="s">
-        <v>3622</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="2361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2361" s="1" t="s">
-        <v>3623</v>
+        <v>2238</v>
       </c>
       <c r="B2361" s="1" t="s">
-        <v>3623</v>
-      </c>
-    </row>
-    <row r="2362" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2362" s="1" t="s">
         <v>2239</v>
       </c>
       <c r="B2362" s="1" t="s">
-        <v>4281</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="2363" spans="1:2" x14ac:dyDescent="0.25">
@@ -32667,7 +32944,7 @@
         <v>2240</v>
       </c>
       <c r="B2363" s="1" t="s">
-        <v>2240</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="2364" spans="1:2" x14ac:dyDescent="0.25">
@@ -32702,12 +32979,12 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="2368" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2368" s="1" t="s">
         <v>2245</v>
       </c>
       <c r="B2368" s="1" t="s">
-        <v>4280</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="2369" spans="1:2" x14ac:dyDescent="0.25">
@@ -32718,44 +32995,44 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="2370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2370" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2370" s="1" t="s">
         <v>2247</v>
       </c>
       <c r="B2370" s="1" t="s">
-        <v>2247</v>
-      </c>
-    </row>
-    <row r="2371" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2371" s="1" t="s">
         <v>2248</v>
       </c>
       <c r="B2371" s="1" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="2372" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2372" s="1" t="s">
         <v>2249</v>
       </c>
       <c r="B2372" s="1" t="s">
-        <v>2249</v>
-      </c>
-    </row>
-    <row r="2373" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2373" s="1" t="s">
         <v>2250</v>
       </c>
       <c r="B2373" s="1" t="s">
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="2374" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2374" s="1" t="s">
         <v>2251</v>
       </c>
       <c r="B2374" s="1" t="s">
-        <v>4311</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="2375" spans="1:2" x14ac:dyDescent="0.25">
@@ -32763,47 +33040,47 @@
         <v>2252</v>
       </c>
       <c r="B2375" s="1" t="s">
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="2376" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2376" s="1" t="s">
         <v>2253</v>
       </c>
       <c r="B2376" s="1" t="s">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="2377" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2377" s="1" t="s">
         <v>2254</v>
       </c>
       <c r="B2377" s="1" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="2378" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2378" s="1" t="s">
         <v>2255</v>
       </c>
       <c r="B2378" s="1" t="s">
-        <v>2255</v>
-      </c>
-    </row>
-    <row r="2379" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2379" s="1" t="s">
         <v>2256</v>
       </c>
       <c r="B2379" s="1" t="s">
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="2380" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2380" s="1" t="s">
         <v>2257</v>
       </c>
       <c r="B2380" s="1" t="s">
-        <v>4310</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="2381" spans="1:2" x14ac:dyDescent="0.25">
@@ -32811,7 +33088,7 @@
         <v>2258</v>
       </c>
       <c r="B2381" s="1" t="s">
-        <v>4310</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="2382" spans="1:2" x14ac:dyDescent="0.25">
@@ -32830,12 +33107,12 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="2384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2384" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2384" s="1" t="s">
         <v>2261</v>
       </c>
       <c r="B2384" s="1" t="s">
-        <v>2261</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="2385" spans="1:2" x14ac:dyDescent="0.25">
@@ -32862,44 +33139,44 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="2388" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2388" s="1" t="s">
         <v>2265</v>
       </c>
       <c r="B2388" s="1" t="s">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="2389" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2389" s="1" t="s">
         <v>2266</v>
       </c>
       <c r="B2389" s="1" t="s">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="2390" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2390" s="1" t="s">
         <v>2267</v>
       </c>
       <c r="B2390" s="1" t="s">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="2391" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2391" s="1" t="s">
         <v>2268</v>
       </c>
       <c r="B2391" s="1" t="s">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="2392" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2392" s="1" t="s">
         <v>2269</v>
       </c>
       <c r="B2392" s="1" t="s">
-        <v>4305</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="2393" spans="1:2" x14ac:dyDescent="0.25">
@@ -32910,12 +33187,12 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="2394" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2394" s="1" t="s">
         <v>2271</v>
       </c>
       <c r="B2394" s="1" t="s">
-        <v>4306</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="2395" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -32923,31 +33200,31 @@
         <v>2272</v>
       </c>
       <c r="B2395" s="1" t="s">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="2396" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2396" s="1" t="s">
         <v>2273</v>
       </c>
       <c r="B2396" s="1" t="s">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="2397" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2397" s="1" t="s">
         <v>2274</v>
       </c>
       <c r="B2397" s="1" t="s">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="2398" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2398" s="1" t="s">
         <v>2275</v>
       </c>
       <c r="B2398" s="1" t="s">
-        <v>4306</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="2399" spans="1:2" x14ac:dyDescent="0.25">
@@ -32966,28 +33243,28 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="2401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2401" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2401" s="1" t="s">
         <v>2278</v>
       </c>
       <c r="B2401" s="1" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="2402" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2402" s="1" t="s">
         <v>2279</v>
       </c>
       <c r="B2402" s="1" t="s">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="2403" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2403" s="1" t="s">
         <v>2280</v>
       </c>
       <c r="B2403" s="1" t="s">
-        <v>2280</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="2404" spans="1:2" x14ac:dyDescent="0.25">
@@ -33011,7 +33288,7 @@
         <v>2283</v>
       </c>
       <c r="B2406" s="1" t="s">
-        <v>2283</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="2407" spans="1:2" x14ac:dyDescent="0.25">
@@ -33022,12 +33299,12 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="2408" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2408" s="1" t="s">
         <v>2285</v>
       </c>
       <c r="B2408" s="1" t="s">
-        <v>4300</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="2409" spans="1:2" x14ac:dyDescent="0.25">
@@ -33059,31 +33336,31 @@
         <v>2289</v>
       </c>
       <c r="B2412" s="1" t="s">
-        <v>2289</v>
-      </c>
-    </row>
-    <row r="2413" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2413" s="1" t="s">
         <v>2290</v>
       </c>
       <c r="B2413" s="1" t="s">
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="2414" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2414" s="1" t="s">
         <v>2291</v>
       </c>
       <c r="B2414" s="1" t="s">
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="2415" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2415" s="1" t="s">
         <v>2292</v>
       </c>
       <c r="B2415" s="1" t="s">
-        <v>4293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="2416" spans="1:2" x14ac:dyDescent="0.25">
@@ -33094,12 +33371,12 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="2417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2417" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2417" s="1" t="s">
         <v>2294</v>
       </c>
       <c r="B2417" s="1" t="s">
-        <v>2294</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="2418" spans="1:2" x14ac:dyDescent="0.25">
@@ -33110,36 +33387,36 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="2419" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="2419" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2419" s="1" t="s">
         <v>2296</v>
       </c>
       <c r="B2419" s="1" t="s">
-        <v>4292</v>
-      </c>
-    </row>
-    <row r="2420" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2420" s="1" t="s">
         <v>2297</v>
       </c>
       <c r="B2420" s="1" t="s">
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="2421" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2421" s="1" t="s">
         <v>2298</v>
       </c>
       <c r="B2421" s="1" t="s">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="2422" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2422" s="1" t="s">
         <v>2299</v>
       </c>
       <c r="B2422" s="1" t="s">
-        <v>2299</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="2423" spans="1:2" x14ac:dyDescent="0.25">
@@ -33150,12 +33427,12 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="2424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2424" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2424" s="1" t="s">
         <v>2301</v>
       </c>
       <c r="B2424" s="1" t="s">
-        <v>4287</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="2425" spans="1:2" x14ac:dyDescent="0.25">
@@ -33166,12 +33443,12 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="2426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2426" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2426" s="1" t="s">
         <v>2303</v>
       </c>
       <c r="B2426" s="1" t="s">
-        <v>2303</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="2427" spans="1:2" x14ac:dyDescent="0.25">
@@ -33198,28 +33475,28 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="2430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2430" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2430" s="1" t="s">
         <v>2307</v>
       </c>
       <c r="B2430" s="1" t="s">
-        <v>4287</v>
-      </c>
-    </row>
-    <row r="2431" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2431" s="1" t="s">
         <v>2308</v>
       </c>
       <c r="B2431" s="1" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="2432" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2432" s="1" t="s">
         <v>2309</v>
       </c>
       <c r="B2432" s="1" t="s">
-        <v>2309</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="2433" spans="1:2" x14ac:dyDescent="0.25">
@@ -33238,92 +33515,92 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="2435" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2435" s="1" t="s">
         <v>2312</v>
       </c>
       <c r="B2435" s="1" t="s">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="2436" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2436" s="1" t="s">
         <v>2313</v>
       </c>
       <c r="B2436" s="1" t="s">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="2437" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2437" s="1" t="s">
         <v>2314</v>
       </c>
       <c r="B2437" s="1" t="s">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="2438" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2438" s="1" t="s">
         <v>2315</v>
       </c>
       <c r="B2438" s="1" t="s">
-        <v>2315</v>
-      </c>
-    </row>
-    <row r="2439" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2439" s="1" t="s">
         <v>2316</v>
       </c>
       <c r="B2439" s="1" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="2440" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2440" s="1" t="s">
         <v>2317</v>
       </c>
       <c r="B2440" s="1" t="s">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="2441" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2441" s="1" t="s">
         <v>2318</v>
       </c>
       <c r="B2441" s="1" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="2442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2442" s="1" t="s">
         <v>2319</v>
       </c>
       <c r="B2442" s="1" t="s">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="2443" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2443" s="1" t="s">
         <v>2320</v>
       </c>
       <c r="B2443" s="1" t="s">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="2444" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2444" s="1" t="s">
         <v>2321</v>
       </c>
       <c r="B2444" s="1" t="s">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="2445" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2445" s="1" t="s">
         <v>2322</v>
       </c>
       <c r="B2445" s="1" t="s">
-        <v>2322</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="2446" spans="1:2" x14ac:dyDescent="0.25">
@@ -33334,36 +33611,36 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="2447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2447" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2447" s="1" t="s">
         <v>2324</v>
       </c>
       <c r="B2447" s="1" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="2448" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2448" s="1" t="s">
         <v>2325</v>
       </c>
       <c r="B2448" s="1" t="s">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="2449" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2449" s="1" t="s">
         <v>2326</v>
       </c>
       <c r="B2449" s="1" t="s">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="2450" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2450" s="1" t="s">
         <v>2327</v>
       </c>
       <c r="B2450" s="1" t="s">
-        <v>4322</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="2451" spans="1:2" x14ac:dyDescent="0.25">
@@ -33390,36 +33667,36 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="2454" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2454" s="1" t="s">
         <v>2331</v>
       </c>
       <c r="B2454" s="1" t="s">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="2455" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2455" s="1" t="s">
         <v>2332</v>
       </c>
       <c r="B2455" s="1" t="s">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="2456" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2456" s="1" t="s">
         <v>2333</v>
       </c>
       <c r="B2456" s="1" t="s">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="2457" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2457" s="1" t="s">
         <v>2334</v>
       </c>
       <c r="B2457" s="1" t="s">
-        <v>4325</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="2458" spans="1:2" x14ac:dyDescent="0.25">
@@ -33430,12 +33707,12 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="2459" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2459" s="1" t="s">
         <v>2336</v>
       </c>
       <c r="B2459" s="1" t="s">
-        <v>4324</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="2460" spans="1:2" x14ac:dyDescent="0.25">
@@ -33446,84 +33723,84 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="2461" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2461" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2461" s="1" t="s">
         <v>2338</v>
       </c>
       <c r="B2461" s="1" t="s">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="2462" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2462" s="1" t="s">
         <v>2339</v>
       </c>
       <c r="B2462" s="1" t="s">
-        <v>2339</v>
-      </c>
-    </row>
-    <row r="2463" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2463" s="1" t="s">
         <v>2340</v>
       </c>
       <c r="B2463" s="1" t="s">
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="2464" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2464" s="1" t="s">
         <v>2341</v>
       </c>
       <c r="B2464" s="1" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="2465" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2465" s="1" t="s">
         <v>2342</v>
       </c>
       <c r="B2465" s="1" t="s">
-        <v>4324</v>
-      </c>
-    </row>
-    <row r="2466" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2466" s="1" t="s">
         <v>2343</v>
       </c>
       <c r="B2466" s="1" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="2467" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2467" s="1" t="s">
         <v>2344</v>
       </c>
       <c r="B2467" s="1" t="s">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="2468" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2468" s="1" t="s">
         <v>2345</v>
       </c>
       <c r="B2468" s="1" t="s">
-        <v>2345</v>
-      </c>
-    </row>
-    <row r="2469" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2469" s="1" t="s">
         <v>2346</v>
       </c>
       <c r="B2469" s="1" t="s">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="2470" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2470" s="1" t="s">
         <v>2347</v>
       </c>
       <c r="B2470" s="1" t="s">
-        <v>2347</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="2471" spans="1:2" x14ac:dyDescent="0.25">
@@ -33534,28 +33811,28 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="2472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2472" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2472" s="1" t="s">
         <v>2349</v>
       </c>
       <c r="B2472" s="1" t="s">
-        <v>2349</v>
-      </c>
-    </row>
-    <row r="2473" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2473" s="1" t="s">
         <v>2350</v>
       </c>
       <c r="B2473" s="1" t="s">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="2474" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2474" s="1" t="s">
         <v>2351</v>
       </c>
       <c r="B2474" s="1" t="s">
-        <v>4328</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="2475" spans="1:2" x14ac:dyDescent="0.25">
@@ -33563,7 +33840,7 @@
         <v>2352</v>
       </c>
       <c r="B2475" s="1" t="s">
-        <v>2352</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="2476" spans="1:2" x14ac:dyDescent="0.25">
@@ -33590,36 +33867,36 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="2479" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2479" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2479" s="1" t="s">
         <v>2356</v>
       </c>
       <c r="B2479" s="1" t="s">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="2480" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2480" s="1" t="s">
         <v>2357</v>
       </c>
       <c r="B2480" s="1" t="s">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="2481" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2481" s="1" t="s">
         <v>2358</v>
       </c>
       <c r="B2481" s="1" t="s">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="2482" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2482" s="1" t="s">
         <v>2359</v>
       </c>
       <c r="B2482" s="1" t="s">
-        <v>4330</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="2483" spans="1:2" x14ac:dyDescent="0.25">
@@ -33630,44 +33907,44 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="2484" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2484" s="1" t="s">
         <v>2361</v>
       </c>
       <c r="B2484" s="1" t="s">
-        <v>4331</v>
-      </c>
-    </row>
-    <row r="2485" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2485" s="1" t="s">
         <v>2362</v>
       </c>
       <c r="B2485" s="1" t="s">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="2486" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2486" s="1" t="s">
         <v>2363</v>
       </c>
       <c r="B2486" s="1" t="s">
-        <v>4330</v>
-      </c>
-    </row>
-    <row r="2487" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2487" s="1" t="s">
         <v>2364</v>
       </c>
       <c r="B2487" s="1" t="s">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="2488" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2488" s="1" t="s">
         <v>2365</v>
       </c>
       <c r="B2488" s="1" t="s">
-        <v>4330</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="2489" spans="1:2" x14ac:dyDescent="0.25">
@@ -33683,23 +33960,23 @@
         <v>2367</v>
       </c>
       <c r="B2490" s="1" t="s">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="2491" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2491" s="1" t="s">
         <v>2368</v>
       </c>
       <c r="B2491" s="1" t="s">
-        <v>4330</v>
-      </c>
-    </row>
-    <row r="2492" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2492" s="1" t="s">
         <v>2369</v>
       </c>
       <c r="B2492" s="1" t="s">
-        <v>4332</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="2493" spans="1:2" x14ac:dyDescent="0.25">
@@ -33707,15 +33984,15 @@
         <v>2370</v>
       </c>
       <c r="B2493" s="1" t="s">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="2494" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2494" s="1" t="s">
         <v>2371</v>
       </c>
       <c r="B2494" s="1" t="s">
-        <v>2371</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="2495" spans="1:2" x14ac:dyDescent="0.25">
@@ -33726,20 +34003,20 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="2496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2496" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2496" s="1" t="s">
         <v>2373</v>
       </c>
       <c r="B2496" s="1" t="s">
-        <v>2373</v>
-      </c>
-    </row>
-    <row r="2497" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2497" s="1" t="s">
         <v>2374</v>
       </c>
       <c r="B2497" s="1" t="s">
-        <v>4334</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="2498" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -33747,7 +34024,7 @@
         <v>2375</v>
       </c>
       <c r="B2498" s="1" t="s">
-        <v>4332</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="2499" spans="1:2" x14ac:dyDescent="0.25">
@@ -33755,15 +34032,15 @@
         <v>2376</v>
       </c>
       <c r="B2499" s="1" t="s">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="2500" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2500" s="1" t="s">
         <v>2377</v>
       </c>
       <c r="B2500" s="1" t="s">
-        <v>2377</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="2501" spans="1:2" x14ac:dyDescent="0.25">
@@ -33774,28 +34051,28 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="2502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2502" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2502" s="1" t="s">
         <v>2379</v>
       </c>
       <c r="B2502" s="1" t="s">
-        <v>2379</v>
-      </c>
-    </row>
-    <row r="2503" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2503" s="1" t="s">
         <v>2380</v>
       </c>
       <c r="B2503" s="1" t="s">
-        <v>4334</v>
-      </c>
-    </row>
-    <row r="2504" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2504" s="1" t="s">
         <v>2381</v>
       </c>
       <c r="B2504" s="1" t="s">
-        <v>4337</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="2505" spans="1:2" x14ac:dyDescent="0.25">
@@ -33806,12 +34083,12 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="2506" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2506" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2506" s="1" t="s">
         <v>2383</v>
       </c>
       <c r="B2506" s="1" t="s">
-        <v>4336</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="2507" spans="1:2" x14ac:dyDescent="0.25">
@@ -33822,12 +34099,12 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="2508" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2508" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2508" s="1" t="s">
         <v>2385</v>
       </c>
       <c r="B2508" s="1" t="s">
-        <v>4338</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="2509" spans="1:2" x14ac:dyDescent="0.25">
@@ -33838,12 +34115,12 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="2510" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2510" s="1" t="s">
         <v>2387</v>
       </c>
       <c r="B2510" s="1" t="s">
-        <v>4337</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="2511" spans="1:2" x14ac:dyDescent="0.25">
@@ -33854,12 +34131,12 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="2512" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2512" s="1" t="s">
         <v>2389</v>
       </c>
       <c r="B2512" s="1" t="s">
-        <v>4336</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="2513" spans="1:2" x14ac:dyDescent="0.25">
@@ -33870,12 +34147,12 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="2514" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2514" s="1" t="s">
         <v>2391</v>
       </c>
       <c r="B2514" s="1" t="s">
-        <v>4338</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="2515" spans="1:2" x14ac:dyDescent="0.25">
@@ -33886,12 +34163,12 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="2516" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2516" s="1" t="s">
         <v>2393</v>
       </c>
       <c r="B2516" s="1" t="s">
-        <v>4341</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="2517" spans="1:2" x14ac:dyDescent="0.25">
@@ -33902,12 +34179,12 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="2518" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2518" s="1" t="s">
         <v>2395</v>
       </c>
       <c r="B2518" s="1" t="s">
-        <v>4343</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="2519" spans="1:2" x14ac:dyDescent="0.25">
@@ -33918,12 +34195,12 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="2520" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2520" s="1" t="s">
         <v>2397</v>
       </c>
       <c r="B2520" s="1" t="s">
-        <v>4342</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="2521" spans="1:2" x14ac:dyDescent="0.25">
@@ -33934,12 +34211,12 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="2522" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2522" s="1" t="s">
         <v>2399</v>
       </c>
       <c r="B2522" s="1" t="s">
-        <v>4341</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="2523" spans="1:2" x14ac:dyDescent="0.25">
@@ -33950,12 +34227,12 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="2524" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2524" s="1" t="s">
         <v>2401</v>
       </c>
       <c r="B2524" s="1" t="s">
-        <v>4343</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="2525" spans="1:2" x14ac:dyDescent="0.25">
@@ -33966,12 +34243,12 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="2526" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2526" s="1" t="s">
         <v>2403</v>
       </c>
       <c r="B2526" s="1" t="s">
-        <v>4342</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="2527" spans="1:2" x14ac:dyDescent="0.25">
@@ -42622,148 +42899,148 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="3608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3608" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3608" s="1" t="s">
-        <v>3485</v>
+        <v>3606</v>
       </c>
       <c r="B3608" s="1" t="s">
-        <v>3485</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="3609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3609" s="1" t="s">
-        <v>3486</v>
+        <v>3607</v>
       </c>
       <c r="B3609" s="1" t="s">
-        <v>3486</v>
-      </c>
-    </row>
-    <row r="3610" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3610" s="1" t="s">
-        <v>3487</v>
+        <v>3608</v>
       </c>
       <c r="B3610" s="1" t="s">
-        <v>3487</v>
-      </c>
-    </row>
-    <row r="3611" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3611" s="1" t="s">
-        <v>3488</v>
+        <v>3609</v>
       </c>
       <c r="B3611" s="1" t="s">
-        <v>3488</v>
-      </c>
-    </row>
-    <row r="3612" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3612" s="1" t="s">
-        <v>3489</v>
+        <v>3610</v>
       </c>
       <c r="B3612" s="1" t="s">
-        <v>3489</v>
-      </c>
-    </row>
-    <row r="3613" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3613" s="1" t="s">
-        <v>3490</v>
+        <v>3611</v>
       </c>
       <c r="B3613" s="1" t="s">
-        <v>3490</v>
-      </c>
-    </row>
-    <row r="3614" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3614" s="1" t="s">
-        <v>3491</v>
+        <v>3612</v>
       </c>
       <c r="B3614" s="1" t="s">
-        <v>3491</v>
-      </c>
-    </row>
-    <row r="3615" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3615" s="1" t="s">
-        <v>3492</v>
+        <v>3613</v>
       </c>
       <c r="B3615" s="1" t="s">
-        <v>3492</v>
-      </c>
-    </row>
-    <row r="3616" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3616" s="1" t="s">
-        <v>3493</v>
+        <v>3614</v>
       </c>
       <c r="B3616" s="1" t="s">
-        <v>3493</v>
-      </c>
-    </row>
-    <row r="3617" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3617" s="1" t="s">
-        <v>3494</v>
+        <v>3615</v>
       </c>
       <c r="B3617" s="1" t="s">
-        <v>3494</v>
-      </c>
-    </row>
-    <row r="3618" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3618" s="1" t="s">
-        <v>3495</v>
+        <v>3616</v>
       </c>
       <c r="B3618" s="1" t="s">
-        <v>3495</v>
-      </c>
-    </row>
-    <row r="3619" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3619" s="1" t="s">
-        <v>3496</v>
+        <v>3617</v>
       </c>
       <c r="B3619" s="1" t="s">
-        <v>3496</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="3620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3620" s="1" t="s">
-        <v>3497</v>
+        <v>3618</v>
       </c>
       <c r="B3620" s="1" t="s">
-        <v>3497</v>
-      </c>
-    </row>
-    <row r="3621" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3621" s="1" t="s">
-        <v>3498</v>
+        <v>3619</v>
       </c>
       <c r="B3621" s="1" t="s">
-        <v>3498</v>
-      </c>
-    </row>
-    <row r="3622" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A3622" s="1" t="s">
-        <v>3499</v>
+        <v>3620</v>
       </c>
       <c r="B3622" s="1" t="s">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="3623" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A3623" s="1" t="s">
-        <v>3500</v>
+        <v>3621</v>
       </c>
       <c r="B3623" s="1" t="s">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="3624" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3624" s="1" t="s">
-        <v>3501</v>
+        <v>3622</v>
       </c>
       <c r="B3624" s="1" t="s">
-        <v>3501</v>
-      </c>
-    </row>
-    <row r="3625" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3625" s="1" t="s">
-        <v>3502</v>
+        <v>3623</v>
       </c>
       <c r="B3625" s="1" t="s">
-        <v>3502</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="3626" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -42771,31 +43048,31 @@
         <v>3624</v>
       </c>
       <c r="B3626" s="1" t="s">
-        <v>4282</v>
-      </c>
-    </row>
-    <row r="3627" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3627" s="1" t="s">
         <v>3625</v>
       </c>
       <c r="B3627" s="1" t="s">
-        <v>3625</v>
-      </c>
-    </row>
-    <row r="3628" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3628" s="1" t="s">
         <v>3626</v>
       </c>
       <c r="B3628" s="1" t="s">
-        <v>4285</v>
-      </c>
-    </row>
-    <row r="3629" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3629" s="1" t="s">
         <v>3627</v>
       </c>
       <c r="B3629" s="1" t="s">
-        <v>4286</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="3630" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -42803,7 +43080,7 @@
         <v>3628</v>
       </c>
       <c r="B3630" s="1" t="s">
-        <v>4320</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="3631" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -42811,122 +43088,134 @@
         <v>3629</v>
       </c>
       <c r="B3631" s="1" t="s">
-        <v>4288</v>
-      </c>
-    </row>
-    <row r="3632" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3632" s="1" t="s">
         <v>3630</v>
       </c>
       <c r="B3632" s="1" t="s">
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="3633" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3633" s="1" t="s">
         <v>3631</v>
       </c>
       <c r="B3633" s="1" t="s">
-        <v>4326</v>
-      </c>
-    </row>
-    <row r="3634" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4389</v>
+      </c>
+      <c r="C3633" s="2" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3634" s="1" t="s">
         <v>3632</v>
       </c>
       <c r="B3634" s="1" t="s">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="3635" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4389</v>
+      </c>
+      <c r="C3634" s="2" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3635" s="1" t="s">
         <v>3633</v>
       </c>
       <c r="B3635" s="1" t="s">
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="3636" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4389</v>
+      </c>
+      <c r="C3635" s="2" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3636" s="1" t="s">
         <v>3634</v>
       </c>
       <c r="B3636" s="1" t="s">
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="3637" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4389</v>
+      </c>
+      <c r="C3636" s="2" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3637" s="1" t="s">
         <v>3635</v>
       </c>
       <c r="B3637" s="1" t="s">
-        <v>4298</v>
-      </c>
-    </row>
-    <row r="3638" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3638" s="1" t="s">
         <v>3636</v>
       </c>
       <c r="B3638" s="1" t="s">
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="3639" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3639" s="1" t="s">
         <v>3637</v>
       </c>
       <c r="B3639" s="1" t="s">
-        <v>4302</v>
-      </c>
-    </row>
-    <row r="3640" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3640" s="1" t="s">
         <v>3638</v>
       </c>
       <c r="B3640" s="1" t="s">
-        <v>4303</v>
-      </c>
-    </row>
-    <row r="3641" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3641" s="1" t="s">
         <v>3639</v>
       </c>
       <c r="B3641" s="1" t="s">
-        <v>4304</v>
-      </c>
-    </row>
-    <row r="3642" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3642" s="1" t="s">
         <v>3640</v>
       </c>
       <c r="B3642" s="1" t="s">
-        <v>4312</v>
-      </c>
-    </row>
-    <row r="3643" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3643" s="1" t="s">
         <v>3641</v>
       </c>
       <c r="B3643" s="1" t="s">
-        <v>4313</v>
-      </c>
-    </row>
-    <row r="3644" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3644" s="1" t="s">
         <v>3642</v>
       </c>
       <c r="B3644" s="1" t="s">
-        <v>4314</v>
-      </c>
-    </row>
-    <row r="3645" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>3642</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3645" s="1" t="s">
         <v>3643</v>
       </c>
       <c r="B3645" s="1" t="s">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="3646" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3646" s="1" t="s">
         <v>3644</v>
       </c>
@@ -42934,7 +43223,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="3647" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3647" s="1" t="s">
         <v>3645</v>
       </c>
@@ -42942,7 +43231,7 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="3648" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3648" s="1" t="s">
         <v>3646</v>
       </c>
@@ -42950,7 +43239,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="3649" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3649" s="1" t="s">
         <v>3647</v>
       </c>
@@ -42958,7 +43247,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="3650" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3650" s="1" t="s">
         <v>3648</v>
       </c>
@@ -42998,7 +43287,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="3655" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3655" s="1" t="s">
         <v>3653</v>
       </c>
@@ -43022,7 +43311,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="3658" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3658" s="1" t="s">
         <v>3656</v>
       </c>
@@ -43038,7 +43327,7 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="3660" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3660" s="1" t="s">
         <v>3658</v>
       </c>
@@ -43046,7 +43335,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="3661" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3661" s="1" t="s">
         <v>3659</v>
       </c>
@@ -43070,7 +43359,7 @@
         <v>3661</v>
       </c>
     </row>
-    <row r="3664" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3664" s="1" t="s">
         <v>3662</v>
       </c>
@@ -43254,7 +43543,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="3687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3687" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3687" s="1" t="s">
         <v>3685</v>
       </c>
@@ -43398,7 +43687,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="3705" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3705" s="1" t="s">
         <v>3703</v>
       </c>
@@ -46534,7 +46823,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="4097" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4097" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4097" s="1" t="s">
         <v>4095</v>
       </c>
@@ -46542,7 +46831,7 @@
         <v>4095</v>
       </c>
     </row>
-    <row r="4098" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4098" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4098" s="1" t="s">
         <v>4096</v>
       </c>
@@ -46550,7 +46839,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="4099" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4099" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4099" s="1" t="s">
         <v>4097</v>
       </c>
@@ -46566,7 +46855,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="4101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4101" s="1" t="s">
         <v>4099</v>
       </c>
@@ -46574,7 +46863,7 @@
         <v>4099</v>
       </c>
     </row>
-    <row r="4102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4102" s="1" t="s">
         <v>4100</v>
       </c>
@@ -46614,7 +46903,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="4107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4107" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4107" s="1" t="s">
         <v>4105</v>
       </c>
@@ -46678,7 +46967,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="4115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4115" s="1" t="s">
         <v>4113</v>
       </c>
@@ -46686,7 +46975,7 @@
         <v>4113</v>
       </c>
     </row>
-    <row r="4116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4116" s="1" t="s">
         <v>4114</v>
       </c>
@@ -46694,7 +46983,7 @@
         <v>4114</v>
       </c>
     </row>
-    <row r="4117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4117" s="1" t="s">
         <v>4115</v>
       </c>
@@ -46710,7 +46999,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="4119" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4119" s="1" t="s">
         <v>4117</v>
       </c>
@@ -46718,7 +47007,7 @@
         <v>4117</v>
       </c>
     </row>
-    <row r="4120" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4120" s="1" t="s">
         <v>4118</v>
       </c>
@@ -46758,7 +47047,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="4125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4125" s="1" t="s">
         <v>4123</v>
       </c>
@@ -46846,20 +47135,20 @@
         <v>4133</v>
       </c>
     </row>
-    <row r="4136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4136" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4136" s="1" t="s">
         <v>4134</v>
       </c>
       <c r="B4136" s="1" t="s">
-        <v>4134</v>
-      </c>
-    </row>
-    <row r="4137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4137" s="1" t="s">
         <v>4135</v>
       </c>
       <c r="B4137" s="1" t="s">
-        <v>4135</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="4138" spans="1:2" x14ac:dyDescent="0.25">
@@ -46894,7 +47183,7 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="4142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4142" s="1" t="s">
         <v>4140</v>
       </c>
@@ -46902,7 +47191,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="4143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4143" s="1" t="s">
         <v>4141</v>
       </c>
@@ -46955,7 +47244,7 @@
         <v>4147</v>
       </c>
       <c r="B4149" s="1" t="s">
-        <v>4147</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="4150" spans="1:2" x14ac:dyDescent="0.25">
@@ -47038,7 +47327,7 @@
         <v>4157</v>
       </c>
     </row>
-    <row r="4160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4160" s="1" t="s">
         <v>4158</v>
       </c>
@@ -47046,7 +47335,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="4161" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4161" s="1" t="s">
         <v>4159</v>
       </c>
@@ -47246,7 +47535,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="4186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4186" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4186" s="1" t="s">
         <v>4184</v>
       </c>
@@ -47262,7 +47551,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="4188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4188" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4188" s="1" t="s">
         <v>4186</v>
       </c>
@@ -47310,7 +47599,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="4194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4194" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4194" s="1" t="s">
         <v>4192</v>
       </c>
@@ -47318,7 +47607,7 @@
         <v>4192</v>
       </c>
     </row>
-    <row r="4195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4195" s="1" t="s">
         <v>4193</v>
       </c>
@@ -47342,7 +47631,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="4198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4198" s="1" t="s">
         <v>4196</v>
       </c>
@@ -47350,7 +47639,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="4199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4199" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4199" s="1" t="s">
         <v>4197</v>
       </c>
@@ -47358,7 +47647,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="4200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4200" s="1" t="s">
         <v>4198</v>
       </c>
@@ -47366,7 +47655,7 @@
         <v>4198</v>
       </c>
     </row>
-    <row r="4201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4201" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4201" s="1" t="s">
         <v>4199</v>
       </c>
@@ -47374,7 +47663,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="4202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4202" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4202" s="1" t="s">
         <v>4200</v>
       </c>
@@ -47382,7 +47671,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="4203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4203" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4203" s="1" t="s">
         <v>4201</v>
       </c>
@@ -47390,7 +47679,7 @@
         <v>4201</v>
       </c>
     </row>
-    <row r="4204" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4204" s="1" t="s">
         <v>4202</v>
       </c>
@@ -47398,7 +47687,7 @@
         <v>4202</v>
       </c>
     </row>
-    <row r="4205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4205" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4205" s="1" t="s">
         <v>4203</v>
       </c>
@@ -47422,7 +47711,7 @@
         <v>4205</v>
       </c>
     </row>
-    <row r="4208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4208" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4208" s="1" t="s">
         <v>4206</v>
       </c>
@@ -47454,7 +47743,7 @@
         <v>4209</v>
       </c>
     </row>
-    <row r="4212" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4212" s="1" t="s">
         <v>4210</v>
       </c>
@@ -47462,7 +47751,7 @@
         <v>4210</v>
       </c>
     </row>
-    <row r="4213" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4213" s="1" t="s">
         <v>4211</v>
       </c>
@@ -47478,7 +47767,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="4215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4215" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4215" s="1" t="s">
         <v>4213</v>
       </c>
@@ -47494,7 +47783,7 @@
         <v>4214</v>
       </c>
     </row>
-    <row r="4217" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4217" s="1" t="s">
         <v>4215</v>
       </c>
@@ -47502,7 +47791,7 @@
         <v>4215</v>
       </c>
     </row>
-    <row r="4218" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4218" s="1" t="s">
         <v>4216</v>
       </c>
@@ -47526,7 +47815,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="4221" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4221" s="1" t="s">
         <v>4219</v>
       </c>
@@ -47534,7 +47823,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="4222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4222" s="1" t="s">
         <v>4220</v>
       </c>
@@ -47542,7 +47831,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="4223" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4223" s="1" t="s">
         <v>4221</v>
       </c>
@@ -47558,7 +47847,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="4225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4225" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4225" s="1" t="s">
         <v>4223</v>
       </c>
@@ -47566,7 +47855,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="4226" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4226" s="1" t="s">
         <v>4224</v>
       </c>
@@ -47574,7 +47863,7 @@
         <v>4224</v>
       </c>
     </row>
-    <row r="4227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4227" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4227" s="1" t="s">
         <v>4225</v>
       </c>
@@ -47582,7 +47871,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="4228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4228" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4228" s="1" t="s">
         <v>4226</v>
       </c>
@@ -47598,7 +47887,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="4230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4230" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4230" s="1" t="s">
         <v>4228</v>
       </c>
@@ -47614,7 +47903,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="4232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4232" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4232" s="1" t="s">
         <v>4230</v>
       </c>
@@ -47630,7 +47919,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="4234" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4234" s="1" t="s">
         <v>4232</v>
       </c>
@@ -47638,7 +47927,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4235" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4235" s="1" t="s">
         <v>4233</v>
       </c>
@@ -47662,7 +47951,7 @@
         <v>4235</v>
       </c>
     </row>
-    <row r="4238" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4238" s="1" t="s">
         <v>4236</v>
       </c>
@@ -47670,7 +47959,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="4239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4239" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4239" s="1" t="s">
         <v>4237</v>
       </c>
@@ -47702,7 +47991,7 @@
         <v>4240</v>
       </c>
     </row>
-    <row r="4243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4243" s="1" t="s">
         <v>4241</v>
       </c>
@@ -47742,7 +48031,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="4248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4248" s="1" t="s">
         <v>4246</v>
       </c>
@@ -47790,7 +48079,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4254" s="1" t="s">
         <v>4252</v>
       </c>
@@ -47814,7 +48103,7 @@
         <v>4254</v>
       </c>
     </row>
-    <row r="4257" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4257" s="1" t="s">
         <v>4255</v>
       </c>
@@ -47830,7 +48119,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4259" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4259" s="1" t="s">
         <v>4257</v>
       </c>
@@ -47846,7 +48135,7 @@
         <v>4258</v>
       </c>
     </row>
-    <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4261" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4261" s="1" t="s">
         <v>4259</v>
       </c>
@@ -47854,7 +48143,7 @@
         <v>4259</v>
       </c>
     </row>
-    <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4262" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4262" s="1" t="s">
         <v>4260</v>
       </c>
@@ -47862,7 +48151,7 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="4263" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4263" s="1" t="s">
         <v>4261</v>
       </c>
@@ -47872,435 +48161,772 @@
     </row>
     <row r="4264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4264" s="1" t="s">
-        <v>4262</v>
+        <v>4265</v>
       </c>
       <c r="B4264" s="1" t="s">
-        <v>4262</v>
-      </c>
-    </row>
-    <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4265" s="1" t="s">
-        <v>4263</v>
+        <v>4277</v>
       </c>
       <c r="B4265" s="1" t="s">
-        <v>4263</v>
-      </c>
-    </row>
-    <row r="4266" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4266" s="1" t="s">
-        <v>4264</v>
+        <v>4300</v>
       </c>
       <c r="B4266" s="1" t="s">
-        <v>4264</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="4267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4267" s="1" t="s">
-        <v>4265</v>
+        <v>4321</v>
       </c>
       <c r="B4267" s="1" t="s">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="4268" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4268" s="1" t="s">
-        <v>4266</v>
+        <v>4327</v>
       </c>
       <c r="B4268" s="1" t="s">
-        <v>4266</v>
-      </c>
-    </row>
-    <row r="4269" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4269" s="1" t="s">
-        <v>4267</v>
+        <v>4329</v>
       </c>
       <c r="B4269" s="1" t="s">
-        <v>4267</v>
-      </c>
-    </row>
-    <row r="4270" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4270" s="1" t="s">
-        <v>4268</v>
+        <v>4330</v>
       </c>
       <c r="B4270" s="1" t="s">
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="4271" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4271" s="1" t="s">
-        <v>4269</v>
+        <v>4331</v>
       </c>
       <c r="B4271" s="1" t="s">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="4272" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4272" s="1" t="s">
-        <v>4270</v>
+        <v>4332</v>
       </c>
       <c r="B4272" s="1" t="s">
-        <v>4270</v>
-      </c>
-    </row>
-    <row r="4273" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4273" s="1" t="s">
-        <v>4271</v>
+        <v>4333</v>
       </c>
       <c r="B4273" s="1" t="s">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4274" s="1" t="s">
-        <v>4272</v>
+        <v>4334</v>
       </c>
       <c r="B4274" s="1" t="s">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4275" s="1" t="s">
-        <v>4273</v>
+        <v>4335</v>
       </c>
       <c r="B4275" s="1" t="s">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4276" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4276" s="1" t="s">
-        <v>4274</v>
+        <v>4337</v>
       </c>
       <c r="B4276" s="1" t="s">
-        <v>4274</v>
-      </c>
-    </row>
-    <row r="4277" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4277" s="1" t="s">
-        <v>4275</v>
+        <v>4338</v>
       </c>
       <c r="B4277" s="1" t="s">
-        <v>4275</v>
-      </c>
-    </row>
-    <row r="4278" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4278" s="1" t="s">
-        <v>4276</v>
+        <v>4339</v>
       </c>
       <c r="B4278" s="1" t="s">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="4279" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4279" s="1" t="s">
-        <v>4277</v>
+        <v>4340</v>
       </c>
       <c r="B4279" s="1" t="s">
-        <v>4277</v>
-      </c>
-    </row>
-    <row r="4280" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4280" s="1" t="s">
-        <v>4278</v>
+        <v>4341</v>
       </c>
       <c r="B4280" s="1" t="s">
-        <v>4278</v>
-      </c>
-    </row>
-    <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4281" s="1" t="s">
-        <v>4279</v>
+        <v>4342</v>
       </c>
       <c r="B4281" s="1" t="s">
-        <v>4279</v>
-      </c>
-    </row>
-    <row r="4282" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4282" s="1" t="s">
-        <v>4283</v>
+        <v>4343</v>
       </c>
       <c r="B4282" s="1" t="s">
-        <v>4282</v>
-      </c>
-    </row>
-    <row r="4283" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4283" s="1" t="s">
-        <v>4295</v>
+        <v>4344</v>
       </c>
       <c r="B4283" s="1" t="s">
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="4284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4284" s="1" t="s">
-        <v>4318</v>
+        <v>4345</v>
       </c>
       <c r="B4284" s="1" t="s">
-        <v>4319</v>
-      </c>
-    </row>
-    <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4285" s="1" t="s">
-        <v>4339</v>
+        <v>4346</v>
       </c>
       <c r="B4285" s="1" t="s">
-        <v>4340</v>
-      </c>
-    </row>
-    <row r="4286" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4286" s="1" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
       <c r="B4286" s="1" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="4287" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4287" s="1" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="B4287" s="1" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="4288" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4288" s="1" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="B4288" s="1" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="4289" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4289" s="1" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
       <c r="B4289" s="1" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="4290" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4290" s="1" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="B4290" s="1" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="4291" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4291" s="1" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="B4291" s="1" t="s">
-        <v>4346</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="4292" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4292" s="1" t="s">
-        <v>4352</v>
+        <v>4367</v>
       </c>
       <c r="B4292" s="1" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="4293" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4293" s="1" t="s">
-        <v>4353</v>
+        <v>4373</v>
       </c>
       <c r="B4293" s="1" t="s">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="4294" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4294" s="1" t="s">
-        <v>4355</v>
+        <v>4374</v>
       </c>
       <c r="B4294" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4295" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4295" s="1" t="s">
-        <v>4356</v>
+        <v>4376</v>
       </c>
       <c r="B4295" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4296" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4296" s="1" t="s">
-        <v>4357</v>
+        <v>4377</v>
       </c>
       <c r="B4296" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4297" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4297" s="1" t="s">
-        <v>4358</v>
+        <v>4380</v>
       </c>
       <c r="B4297" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4298" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4298" s="1" t="s">
-        <v>4359</v>
+        <v>4382</v>
       </c>
       <c r="B4298" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4299" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4299" s="1" t="s">
-        <v>4360</v>
+        <v>4384</v>
       </c>
       <c r="B4299" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4300" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4300" s="1" t="s">
-        <v>4361</v>
+        <v>4386</v>
       </c>
       <c r="B4300" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4301" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4301" s="1" t="s">
-        <v>4362</v>
+        <v>4390</v>
       </c>
       <c r="B4301" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4302" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4302" s="1" t="s">
-        <v>4363</v>
+        <v>4391</v>
       </c>
       <c r="B4302" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4303" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4303" s="1" t="s">
-        <v>4364</v>
+        <v>4393</v>
       </c>
       <c r="B4303" s="1" t="s">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="4304" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4304" s="1" t="s">
-        <v>4365</v>
+        <v>4394</v>
       </c>
       <c r="B4304" s="1" t="s">
-        <v>4354</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="4305" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4305" s="1" t="s">
-        <v>4366</v>
+        <v>4395</v>
       </c>
       <c r="B4305" s="1" t="s">
-        <v>4354</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="4306" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4306" s="1" t="s">
-        <v>4367</v>
+        <v>4396</v>
       </c>
       <c r="B4306" s="1" t="s">
-        <v>4354</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="4307" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4307" s="1" t="s">
-        <v>4368</v>
+        <v>4398</v>
       </c>
       <c r="B4307" s="1" t="s">
-        <v>4354</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="4308" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4308" s="1" t="s">
-        <v>4369</v>
+        <v>4399</v>
       </c>
       <c r="B4308" s="1" t="s">
-        <v>4354</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="4309" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4309" s="1" t="s">
-        <v>4370</v>
+        <v>4400</v>
       </c>
       <c r="B4309" s="1" t="s">
-        <v>4354</v>
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4310" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B4310" s="1" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4311" s="1" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B4311" s="1" t="s">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4312" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B4312" s="1" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4313" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B4313" s="1" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4314" s="1" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B4314" s="1" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4315" s="1" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B4315" s="1" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4316" s="1" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B4316" s="1" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4317" s="1" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B4317" s="1" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4318" s="1" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B4318" s="1" t="s">
+        <v>4406</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4319" s="1" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B4319" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4320" s="1" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B4320" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4321" s="1" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B4321" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4322" s="1" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B4322" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4323" s="1" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B4323" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4324" s="1" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B4324" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4325" s="1" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B4325" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4326" s="1" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B4326" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4327" s="1" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B4327" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4328" s="1" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B4328" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4329" s="1" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B4329" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4330" s="1" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B4330" s="1" t="s">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4331" s="1" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B4331" s="1" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4332" s="1" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B4332" s="1" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4333" s="1" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B4333" s="1" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4334" s="1" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B4334" s="1" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4335" s="1" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B4335" s="1" t="s">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4336" s="1" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B4336" s="1" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4337" s="1" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B4337" s="1" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4338" s="1" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B4338" s="1" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4339" s="1" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B4339" s="1" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4340" s="1" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B4340" s="1" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4341" s="1" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B4341" s="1" t="s">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4342" s="1" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B4342" s="1" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4343" s="1" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B4343" s="1" t="s">
+        <v>4447</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4344" s="1" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B4344" s="1" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4345" s="1" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B4345" s="1" t="s">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4346" s="1" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B4346" s="1" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4347" s="1" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B4347" s="2" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4348" s="1" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B4348" s="2" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4349" s="1" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B4349" s="2" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4350" s="1" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B4350" s="2" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4351" s="1" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B4351" s="1" t="s">
+        <v>4461</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="25" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="23" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="21" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="19" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6608:A1048576 A209:A1614 A1:A23 A25:A84 A143 A1788:A1792 A3332:A3737 A3800:A4074">
-    <cfRule type="duplicateValues" dxfId="18" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="111"/>
+  <conditionalFormatting sqref="A1775:A3211">
+    <cfRule type="duplicateValues" dxfId="19" priority="345"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3738:A3799">
-    <cfRule type="duplicateValues" dxfId="16" priority="27"/>
+  <conditionalFormatting sqref="A3720:A3781">
+    <cfRule type="duplicateValues" dxfId="18" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4098:A4176">
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+  <conditionalFormatting sqref="A4080:A4158">
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6589:A1048576 A209:A1614 A1:A23 A25:A84 A143 A1770:A1774 A3314:A3719 A3782:A4056">
+    <cfRule type="duplicateValues" dxfId="16" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B4346 A4351:B1048576 A4347:A4350">
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="12" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6608:B1048576 B1:B23 B25:B84 B143 B1788:B1792 B3332:B3737 B3800:B4074 B209:B1614">
-    <cfRule type="duplicateValues" dxfId="7" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
+  <conditionalFormatting sqref="B234">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3738:B3799">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
+  <conditionalFormatting sqref="B1543">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1543">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="B1775:B3211">
+    <cfRule type="duplicateValues" dxfId="3" priority="347"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B234">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="B3720:B3781">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1793:A3229">
-    <cfRule type="duplicateValues" dxfId="1" priority="344"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1793:B3229">
-    <cfRule type="duplicateValues" dxfId="0" priority="346"/>
+  <conditionalFormatting sqref="B6589:B1048576 B1:B23 B143 B1770:B1774 B3782:B4056 B209:B1614 B3314:B3719 B25:B84">
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC72641-FCB3-4BEF-A785-3E698DB299F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966A5F84-BDB1-465D-9D38-38E5EAA5D072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8706" uniqueCount="4462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8707" uniqueCount="4468">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13437,6 +13437,24 @@
   <si>
     <t>Giảm thọ. Phải lìa bỏ quê hương, đi lập nghiệp ở nơi thật xa xôi. Họ hàng càng nghèo khổ ly tán, lại có nhiều người mang ác bệnh ác tật, nếu không cũng 
 yểu tử. Đàn bà con gái trong họ thường trắc trở về đường chồng con.</t>
+  </si>
+  <si>
+    <t>Ông bà tổ tiên cũng là những người có danh chức địa vị, đại thọ, vinh hiển. Cũng  chủ sự tốt đẹp về mồ mả, đắc lợi cho con cháu về sau.</t>
+  </si>
+  <si>
+    <t>Bạn  sinh ra trong dòng họ nhiều người thành đạt, thành danh, có truyền thống học tốt.  Ông bà tổ tiên khi xưa mất dễ được phong danh, để lại tước vị truyền lại tới con cháu đời sau.</t>
+  </si>
+  <si>
+    <t>Mồ yên mả đẹp, Mồ Phát mả Kết, tượng cho dòng họ có nhiều người thành đạt, học hành tốt, đời trước nhà mình cũng dễ có người được ghi tên bảng vàng</t>
+  </si>
+  <si>
+    <t>Chủ làm giảm thọ, giảm phước, tăng hoạ, giảm thọ, chủ sát phạt đấu đá trong họ hàng,thất thoát và mất mồ mả</t>
+  </si>
+  <si>
+    <t>Chủ về con cháu ít quan tâm, để ý thờ cúng, chú ý tới mồ mả tổ tiên. Mồ mả, bàn thờ tổ tiên ít được quan tâm nên bẩn thỉu, xuống cấp. Trong dòng họ có nhiều người hay ốm đau, sức khỏe không tốt.</t>
+  </si>
+  <si>
+    <t>Bị giảm thọ, gia đình không toàn vẹn, trong họ có người chết non, vất vả, nghèo khổ, cô độc.</t>
   </si>
 </sst>
 </file>
@@ -13472,13 +13490,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14031,19 +14046,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:C4351"/>
+  <dimension ref="A1:F4351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4343" workbookViewId="0">
-      <selection activeCell="H4347" sqref="H4347"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="47.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43" style="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14051,47 +14067,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4462</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>131</v>
       </c>
@@ -14099,7 +14118,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>132</v>
       </c>
@@ -14107,7 +14126,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>133</v>
       </c>
@@ -14115,7 +14134,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>134</v>
       </c>
@@ -14123,7 +14142,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
@@ -14131,7 +14150,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>136</v>
       </c>
@@ -14139,7 +14158,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>137</v>
       </c>
@@ -14147,7 +14166,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
@@ -14155,7 +14174,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>139</v>
       </c>
@@ -14163,7 +14182,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -43106,7 +43125,7 @@
       <c r="B3633" s="1" t="s">
         <v>4389</v>
       </c>
-      <c r="C3633" s="2" t="s">
+      <c r="C3633" s="1" t="s">
         <v>4458</v>
       </c>
     </row>
@@ -43117,7 +43136,7 @@
       <c r="B3634" s="1" t="s">
         <v>4389</v>
       </c>
-      <c r="C3634" s="2" t="s">
+      <c r="C3634" s="1" t="s">
         <v>4458</v>
       </c>
     </row>
@@ -43128,7 +43147,7 @@
       <c r="B3635" s="1" t="s">
         <v>4389</v>
       </c>
-      <c r="C3635" s="2" t="s">
+      <c r="C3635" s="1" t="s">
         <v>4458</v>
       </c>
     </row>
@@ -43139,7 +43158,7 @@
       <c r="B3636" s="1" t="s">
         <v>4389</v>
       </c>
-      <c r="C3636" s="2" t="s">
+      <c r="C3636" s="1" t="s">
         <v>4458</v>
       </c>
     </row>
@@ -48827,7 +48846,7 @@
       <c r="A4347" s="1" t="s">
         <v>4454</v>
       </c>
-      <c r="B4347" s="2" t="s">
+      <c r="B4347" s="1" t="s">
         <v>4458</v>
       </c>
     </row>
@@ -48835,7 +48854,7 @@
       <c r="A4348" s="1" t="s">
         <v>4455</v>
       </c>
-      <c r="B4348" s="2" t="s">
+      <c r="B4348" s="1" t="s">
         <v>4458</v>
       </c>
     </row>
@@ -48843,7 +48862,7 @@
       <c r="A4349" s="1" t="s">
         <v>4456</v>
       </c>
-      <c r="B4349" s="2" t="s">
+      <c r="B4349" s="1" t="s">
         <v>4458</v>
       </c>
     </row>
@@ -48851,7 +48870,7 @@
       <c r="A4350" s="1" t="s">
         <v>4457</v>
       </c>
-      <c r="B4350" s="2" t="s">
+      <c r="B4350" s="1" t="s">
         <v>4458</v>
       </c>
     </row>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F40207-970A-42F1-95AD-C551BF6219BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FEAE9F-1A81-4A77-AD85-664F78213462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6557" uniqueCount="3457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6561" uniqueCount="3465">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -10421,7 +10421,31 @@
     <t>Dòng họ nhiều người hiền lành, từ thiện, tốt tính, hay giúp đỡ, hỗ trợ nhau. Dòng họ mỗi người một nơi, mỗi người một xứ, không ở gần nhau.Ông bà tổ tiên mồ yên mả đẹp, nhiều người đã siêu thoát, không còn vấn vương, tái sinh cuộc sống khác.</t>
   </si>
   <si>
-    <t>Tổn thọ. Gia đình không toàn vẹn.</t>
+    <t>Tổn thọ. Gia đình không toàn vẹn.Ban phải chịu trách nhiệm chăm lo cho việc thờ cúng, mồ mả, có trách nhiệm và nghĩa vụ phải thờ cúng gia tiên, gánh vác các việc tâm linh liên quan đến gia đình.</t>
+  </si>
+  <si>
+    <t>Bạn cũng là người nhiều trách nhiệm, phải tự gây dựng, tôn bồi phúc đức nên phước đức riêng cho mình.</t>
+  </si>
+  <si>
+    <t>Trong dòng họ có nhiều người nghèo túng, bần hàn, phải tha hương lập nghiệp, hao hớt mỗi người một nơi, tìm về thì chẳng còn ai</t>
+  </si>
+  <si>
+    <t>Cũng là người được thừa hưởng phước đức tổ tiên, được may mắn về của tiền, người biết dùng của tiền làm phúc, tôn bồi phúc đức cho mình và dòng tộc.</t>
+  </si>
+  <si>
+    <t>Trong dòng họ nhiều người thành đạt, tuy nhiên dễ có bất đồng, cãi nhau trong việc thờ cúng, mồ mả tổ tiên.</t>
+  </si>
+  <si>
+    <t>Gia đình người hôn phối có chức quyền, khó tính, khắt khe, hay soi xét hoặc có người làm về ngành luật.</t>
+  </si>
+  <si>
+    <t>Trong dòng họ nhiều người tính toán, so đo, ngầm hại lẫn nhau. Gia đình người hôn phối nhiều mưu tính sau lưng mình.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dòng họ nhiều người có học thức, xuất phát từ dòng dõi nhà nho gia, có truyền thống học tốt. </t>
+  </si>
+  <si>
+    <t>Giúp tăng tuổi thọ, hưởng phúc, may mắn cho đương số. Dòng họ dễ có độc đinh, trong dòng họ có người mồ côi, có người mãi không chịu lấy vợ lấy chồng</t>
   </si>
 </sst>
 </file>
@@ -11145,8 +11169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A1:G3258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1591" workbookViewId="0">
-      <selection activeCell="C1598" sqref="C1598"/>
+    <sheetView tabSelected="1" topLeftCell="A1509" workbookViewId="0">
+      <selection activeCell="C1514" sqref="C1514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12519,7 +12543,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>192</v>
       </c>
@@ -12527,7 +12551,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>193</v>
       </c>
@@ -13743,7 +13767,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>345</v>
       </c>
@@ -13935,7 +13959,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>369</v>
       </c>
@@ -13999,7 +14023,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>377</v>
       </c>
@@ -14135,7 +14159,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>394</v>
       </c>
@@ -14143,7 +14167,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>395</v>
       </c>
@@ -14351,7 +14375,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>421</v>
       </c>
@@ -18335,7 +18359,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="898" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A898" s="1" t="s">
         <v>912</v>
       </c>
@@ -18367,7 +18391,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="902" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A902" s="1" t="s">
         <v>916</v>
       </c>
@@ -18463,7 +18487,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="914" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A914" s="1" t="s">
         <v>928</v>
       </c>
@@ -18495,7 +18519,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="918" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A918" s="1" t="s">
         <v>932</v>
       </c>
@@ -21103,7 +21127,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="1244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1244" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1244" s="1" t="s">
         <v>1254</v>
       </c>
@@ -21527,7 +21551,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="1297" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1297" s="1" t="s">
         <v>1307</v>
       </c>
@@ -23247,12 +23271,12 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="1512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1512" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1512" s="1" t="s">
         <v>1522</v>
       </c>
       <c r="B1512" s="1" t="s">
-        <v>1522</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="1513" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -23652,7 +23676,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="1560" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="1560" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1560" s="1" t="s">
         <v>1557</v>
       </c>
@@ -23798,7 +23822,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="1576" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="1576" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A1576" s="1" t="s">
         <v>1573</v>
       </c>
@@ -23994,52 +24018,64 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="1594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1594" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
         <v>1590</v>
       </c>
       <c r="B1594" s="1" t="s">
         <v>3456</v>
       </c>
-    </row>
-    <row r="1595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1594" s="1" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1595" s="1" t="s">
         <v>2847</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="1596" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+      <c r="C1595" s="1" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1596" s="1" t="s">
         <v>2848</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="1597" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+      <c r="C1596" s="1" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1597" s="1" t="s">
         <v>1593</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="1598" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3460</v>
+      </c>
+      <c r="C1597" s="1" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1598" s="1" t="s">
         <v>1592</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="1599" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1599" s="1" t="s">
         <v>2849</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>2849</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="1600" spans="1:7" x14ac:dyDescent="0.25">
@@ -24306,7 +24342,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="1633" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1633" s="1" t="s">
         <v>1620</v>
       </c>
@@ -24314,7 +24350,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="1634" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1634" s="1" t="s">
         <v>1621</v>
       </c>
@@ -24322,7 +24358,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="1635" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1635" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1635" s="1" t="s">
         <v>1622</v>
       </c>
@@ -24330,7 +24366,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="1636" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1636" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
         <v>1623</v>
       </c>
@@ -24338,7 +24374,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="1637" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1637" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1637" s="1" t="s">
         <v>1624</v>
       </c>
@@ -37347,97 +37383,87 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="39" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="37" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="35" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="88"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
     <cfRule type="duplicateValues" dxfId="33" priority="83"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1559:A1585 A1587:A2474">
+    <cfRule type="duplicateValues" dxfId="32" priority="2102"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2957:A2961">
-    <cfRule type="duplicateValues" dxfId="32" priority="1158"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1158"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2987:A3065">
-    <cfRule type="duplicateValues" dxfId="31" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5496:A1048576 A209:A1541 A1:A23 A25:A84 A143 A2577:A2956 A2962:A2983">
-    <cfRule type="duplicateValues" dxfId="30" priority="123"/>
     <cfRule type="duplicateValues" dxfId="29" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1586:B1586">
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3258:B1048576 A3254:A3257 A1:B1584 A1585 A1587:B3253">
-    <cfRule type="duplicateValues" dxfId="28" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="24" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234">
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1534">
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2957:B2961">
-    <cfRule type="duplicateValues" dxfId="17" priority="1159"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5496:B1048576 B1:B23 B143 B2962:B2983 B2577:B2956 B25:B84 B209:B1541">
-    <cfRule type="duplicateValues" dxfId="16" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1559:A1585 A1587:A2474">
-    <cfRule type="duplicateValues" dxfId="14" priority="2102"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1559:B1584 B1587:B2474">
     <cfRule type="duplicateValues" dxfId="13" priority="2104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2969">
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
+  <conditionalFormatting sqref="B1585">
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2957:B2961">
+    <cfRule type="duplicateValues" dxfId="9" priority="1159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2985">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5496:B1048576 B1:B23 B143 B2962:B2983 B2577:B2956 B25:B84 B209:B1541">
+    <cfRule type="duplicateValues" dxfId="6" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2969">
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2985">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1585">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1585">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1585">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1586:B1586">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1586:B1586">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1586:B1586">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1586:W1586">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC8B890-2E50-4C34-AD47-7693C1269F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D7D020-737D-4313-8ACD-E4C26B94D376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$2201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$2183</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4448" uniqueCount="2437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="2421">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -4773,36 +4773,9 @@
     <t>Tử Vi tọa thủ tại Tý</t>
   </si>
   <si>
-    <t>Tử Vi tọa thủ tại Sửu</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Dần</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Mão</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Thìn</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Tỵ</t>
-  </si>
-  <si>
     <t>Tử Vi tọa thủ tại Ngọ</t>
   </si>
   <si>
-    <t>Tử Vi tọa thủ tại Mùi</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Thân</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Dậu</t>
-  </si>
-  <si>
-    <t>Tử Vi tọa thủ tại Tuất</t>
-  </si>
-  <si>
     <t>Tử Vi tọa thủ tại Hợi</t>
   </si>
   <si>
@@ -5367,18 +5340,12 @@
     <t>Liêm Trinh và Thiên Phủ đồng cung tại Tuất</t>
   </si>
   <si>
-    <t>Liêm Trinh và Thiên Phủ đồng cung tại Hợi</t>
-  </si>
-  <si>
     <t>Liêm Trinh và Tham Lang đồng cung tại Tỵ</t>
   </si>
   <si>
     <t>Liêm Trinh và Tham Lang đồng cung tại Hợi</t>
   </si>
   <si>
-    <t>Liêm Trinh và Thiên Tướng đồng cung tại Tý</t>
-  </si>
-  <si>
     <t>Liêm Trinh và Thiên Tướng đồng cung tại Ngọ</t>
   </si>
   <si>
@@ -5427,9 +5394,6 @@
     <t>Tử Vi đồng cung với Thiên Phủ tại Phúc Đức</t>
   </si>
   <si>
-    <t>Tử Vi đồng cung với Thất Sát tại Phúc Đức</t>
-  </si>
-  <si>
     <t>Tử Vi đồng cung với Tham Lang tại Phúc Đức</t>
   </si>
   <si>
@@ -5484,9 +5448,6 @@
     <t>Thiên Cơ đồng cung với Thái Âm tại Phúc Đức ở Dần</t>
   </si>
   <si>
-    <t>Thái Âm đồng cung với Thái Dương tại Phúc Đức</t>
-  </si>
-  <si>
     <t>Văn Xương toạ thủ cung Phúc Đức gặp Thiên Khôi, Thiên Việt, Vũ Khúc</t>
   </si>
   <si>
@@ -6084,9 +6045,6 @@
     <t>Phá Quân tọa thủ tại cung đối Tài Bạch</t>
   </si>
   <si>
-    <t>Tử Vi đồng cung Thiên Cơ tại cung đối Tài Bạch</t>
-  </si>
-  <si>
     <t>Tử Vi đồng cung Thái Dương tại cung đối Tài Bạch</t>
   </si>
   <si>
@@ -6096,25 +6054,13 @@
     <t>Tử Vi đồng cung Thiên Đồng tại cung đối Tài Bạch</t>
   </si>
   <si>
-    <t>Tử Vi đồng cung Liêm Trinh tại cung đối Tài Bạch</t>
-  </si>
-  <si>
     <t>Tử Vi đồng cung Thiên Phủ tại cung đối Tài Bạch</t>
   </si>
   <si>
-    <t>Tử Vi đồng cung Thái Âm tại cung đối Tài Bạch</t>
-  </si>
-  <si>
     <t>Tử Vi đồng cung Tham Lang tại cung đối Tài Bạch</t>
   </si>
   <si>
-    <t>Tử Vi đồng cung Cự Môn tại cung đối Tài Bạch</t>
-  </si>
-  <si>
     <t>Tử Vi đồng cung Thiên Tướng tại cung đối Tài Bạch</t>
-  </si>
-  <si>
-    <t>Tử Vi đồng cung Thiên Lương tại cung đối Tài Bạch</t>
   </si>
   <si>
     <t>Tử Vi đồng cung Thất Sát tại cung đối Tài Bạch</t>
@@ -7366,6 +7312,12 @@
   </si>
   <si>
     <t>Suốt đời hay gặp những sự may mắn. Trong họ tuy hiếm người, nhưng cùng khá giả.</t>
+  </si>
+  <si>
+    <t>Họ hàng khá giả, suốt đời may mắn, tránh được nhiều họa.</t>
+  </si>
+  <si>
+    <t>Trong họ hiếm người nhưng được khá giả</t>
   </si>
 </sst>
 </file>
@@ -7410,737 +7362,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="147">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9157,10 +8379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G2201"/>
+  <dimension ref="A2:G2183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1976" workbookViewId="0">
+      <selection activeCell="D1996" sqref="D1996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9175,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9183,10 +8405,10 @@
         <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2309</v>
+        <v>2291</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2310</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9194,7 +8416,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2311</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9202,7 +8424,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2312</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9210,7 +8432,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2313</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9218,7 +8440,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2314</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -9226,7 +8448,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2315</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9250,7 +8472,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2435</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9258,7 +8480,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2436</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -9450,7 +8672,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2113</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -9482,7 +8704,7 @@
         <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2250</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -9490,7 +8712,7 @@
         <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2250</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -10674,7 +9896,7 @@
         <v>209</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>2136</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -10698,7 +9920,7 @@
         <v>212</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>2173</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -10930,7 +10152,7 @@
         <v>241</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>2173</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11082,7 +10304,7 @@
         <v>260</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2202</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11090,7 +10312,7 @@
         <v>261</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2202</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11098,7 +10320,7 @@
         <v>262</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2202</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11106,7 +10328,7 @@
         <v>263</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2202</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11114,7 +10336,7 @@
         <v>264</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2202</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11122,7 +10344,7 @@
         <v>265</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2202</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11130,7 +10352,7 @@
         <v>266</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2202</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11138,7 +10360,7 @@
         <v>267</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2202</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11146,7 +10368,7 @@
         <v>268</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2202</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11154,7 +10376,7 @@
         <v>269</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2202</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11162,7 +10384,7 @@
         <v>270</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11170,7 +10392,7 @@
         <v>271</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11178,7 +10400,7 @@
         <v>272</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11186,7 +10408,7 @@
         <v>273</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11194,7 +10416,7 @@
         <v>274</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11202,7 +10424,7 @@
         <v>275</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11210,7 +10432,7 @@
         <v>276</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11218,7 +10440,7 @@
         <v>277</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11226,7 +10448,7 @@
         <v>278</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11234,7 +10456,7 @@
         <v>279</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11242,7 +10464,7 @@
         <v>280</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11250,7 +10472,7 @@
         <v>281</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11258,7 +10480,7 @@
         <v>282</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11266,7 +10488,7 @@
         <v>283</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>2203</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11642,7 +10864,7 @@
         <v>330</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>2316</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -11650,7 +10872,7 @@
         <v>331</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>2158</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -11714,7 +10936,7 @@
         <v>339</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>2135</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -11778,7 +11000,7 @@
         <v>347</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>2135</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -11842,7 +11064,7 @@
         <v>355</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>2158</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -11906,7 +11128,7 @@
         <v>363</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>2158</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -11970,7 +11192,7 @@
         <v>371</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>2135</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -12034,7 +11256,7 @@
         <v>379</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>2135</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12258,7 +11480,7 @@
         <v>407</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>2158</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -12434,7 +11656,7 @@
         <v>424</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>2339</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12442,7 +11664,7 @@
         <v>425</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12450,7 +11672,7 @@
         <v>426</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -12458,7 +11680,7 @@
         <v>427</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>2213</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -12466,7 +11688,7 @@
         <v>428</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>2213</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12474,7 +11696,7 @@
         <v>429</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>2339</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12482,7 +11704,7 @@
         <v>430</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12490,7 +11712,7 @@
         <v>431</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -12498,7 +11720,7 @@
         <v>432</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>2213</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -12506,7 +11728,7 @@
         <v>433</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>2213</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12514,7 +11736,7 @@
         <v>434</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12522,7 +11744,7 @@
         <v>435</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12530,7 +11752,7 @@
         <v>436</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12538,7 +11760,7 @@
         <v>437</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12546,7 +11768,7 @@
         <v>438</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12554,7 +11776,7 @@
         <v>439</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12562,7 +11784,7 @@
         <v>440</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12570,7 +11792,7 @@
         <v>441</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12586,7 +11808,7 @@
         <v>443</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12594,7 +11816,7 @@
         <v>444</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12602,7 +11824,7 @@
         <v>445</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12618,7 +11840,7 @@
         <v>447</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12626,7 +11848,7 @@
         <v>448</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -12634,7 +11856,7 @@
         <v>449</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -12650,7 +11872,7 @@
         <v>451</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>2212</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -14418,7 +13640,7 @@
         <v>671</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>2204</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14450,7 +13672,7 @@
         <v>675</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>2204</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="662" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14482,7 +13704,7 @@
         <v>679</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>2204</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="666" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14514,7 +13736,7 @@
         <v>683</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>2204</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14546,7 +13768,7 @@
         <v>687</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>2204</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14578,7 +13800,7 @@
         <v>691</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>2204</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14610,7 +13832,7 @@
         <v>695</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>2204</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="682" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -14642,7 +13864,7 @@
         <v>699</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>2204</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16242,7 +15464,7 @@
         <v>898</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>2134</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="886" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16274,7 +15496,7 @@
         <v>902</v>
       </c>
       <c r="B889" s="1" t="s">
-        <v>2134</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="890" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16306,7 +15528,7 @@
         <v>906</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>2164</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="894" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16338,7 +15560,7 @@
         <v>910</v>
       </c>
       <c r="B897" s="1" t="s">
-        <v>2164</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="898" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16370,7 +15592,7 @@
         <v>914</v>
       </c>
       <c r="B901" s="1" t="s">
-        <v>2134</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="902" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16402,7 +15624,7 @@
         <v>918</v>
       </c>
       <c r="B905" s="1" t="s">
-        <v>2134</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="906" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16434,7 +15656,7 @@
         <v>922</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>2164</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="910" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -16506,7 +15728,7 @@
         <v>931</v>
       </c>
       <c r="B918" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="919" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16538,7 +15760,7 @@
         <v>935</v>
       </c>
       <c r="B922" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="923" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16570,7 +15792,7 @@
         <v>939</v>
       </c>
       <c r="B926" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="927" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16602,7 +15824,7 @@
         <v>943</v>
       </c>
       <c r="B930" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="931" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16634,7 +15856,7 @@
         <v>947</v>
       </c>
       <c r="B934" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="935" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16666,7 +15888,7 @@
         <v>951</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="939" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16698,7 +15920,7 @@
         <v>955</v>
       </c>
       <c r="B942" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="943" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16730,7 +15952,7 @@
         <v>959</v>
       </c>
       <c r="B946" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="947" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16762,7 +15984,7 @@
         <v>963</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="951" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16794,7 +16016,7 @@
         <v>967</v>
       </c>
       <c r="B954" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="955" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16930,7 +16152,7 @@
         <v>984</v>
       </c>
       <c r="B971" s="1" t="s">
-        <v>2216</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="972" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -16978,7 +16200,7 @@
         <v>990</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>2217</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="978" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17050,7 +16272,7 @@
         <v>999</v>
       </c>
       <c r="B986" s="1" t="s">
-        <v>2218</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="987" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17106,7 +16328,7 @@
         <v>1006</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>2219</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="994" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -17634,7 +16856,7 @@
         <v>1072</v>
       </c>
       <c r="B1059" s="1" t="s">
-        <v>2226</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
@@ -17738,7 +16960,7 @@
         <v>1085</v>
       </c>
       <c r="B1072" s="1" t="s">
-        <v>2226</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
@@ -18298,7 +17520,7 @@
         <v>1155</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>2128</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
@@ -18314,7 +17536,7 @@
         <v>1157</v>
       </c>
       <c r="B1144" s="1" t="s">
-        <v>2129</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -18930,7 +18152,7 @@
         <v>1230</v>
       </c>
       <c r="B1221" s="1" t="s">
-        <v>2135</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1222" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -19010,7 +18232,7 @@
         <v>1240</v>
       </c>
       <c r="B1231" s="1" t="s">
-        <v>2158</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1232" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -19186,7 +18408,7 @@
         <v>1262</v>
       </c>
       <c r="B1253" s="1" t="s">
-        <v>2286</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1254" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19418,7 +18640,7 @@
         <v>1291</v>
       </c>
       <c r="B1282" s="1" t="s">
-        <v>2164</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1283" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -19426,7 +18648,7 @@
         <v>1292</v>
       </c>
       <c r="B1283" s="1" t="s">
-        <v>2164</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -19434,7 +18656,7 @@
         <v>1293</v>
       </c>
       <c r="B1284" s="1" t="s">
-        <v>2134</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1285" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20234,7 +19456,7 @@
         <v>1393</v>
       </c>
       <c r="B1384" s="1" t="s">
-        <v>2211</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1385" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20242,7 +19464,7 @@
         <v>1394</v>
       </c>
       <c r="B1385" s="1" t="s">
-        <v>2211</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1386" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20250,7 +19472,7 @@
         <v>1395</v>
       </c>
       <c r="B1386" s="1" t="s">
-        <v>2211</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20258,7 +19480,7 @@
         <v>1396</v>
       </c>
       <c r="B1387" s="1" t="s">
-        <v>2211</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1388" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20266,7 +19488,7 @@
         <v>1397</v>
       </c>
       <c r="B1388" s="1" t="s">
-        <v>2211</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1389" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20274,7 +19496,7 @@
         <v>1398</v>
       </c>
       <c r="B1389" s="1" t="s">
-        <v>2211</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1390" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20282,7 +19504,7 @@
         <v>1399</v>
       </c>
       <c r="B1390" s="1" t="s">
-        <v>2211</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1391" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20290,7 +19512,7 @@
         <v>1400</v>
       </c>
       <c r="B1391" s="1" t="s">
-        <v>2211</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1392" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20298,7 +19520,7 @@
         <v>1401</v>
       </c>
       <c r="B1392" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1393" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20306,7 +19528,7 @@
         <v>1402</v>
       </c>
       <c r="B1393" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1394" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20314,7 +19536,7 @@
         <v>1403</v>
       </c>
       <c r="B1394" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1395" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20322,7 +19544,7 @@
         <v>1404</v>
       </c>
       <c r="B1395" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1396" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20330,7 +19552,7 @@
         <v>1405</v>
       </c>
       <c r="B1396" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1397" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20338,7 +19560,7 @@
         <v>1406</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1398" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20346,7 +19568,7 @@
         <v>1407</v>
       </c>
       <c r="B1398" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1399" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20354,7 +19576,7 @@
         <v>1408</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1400" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20362,7 +19584,7 @@
         <v>1409</v>
       </c>
       <c r="B1400" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1401" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20370,7 +19592,7 @@
         <v>1410</v>
       </c>
       <c r="B1401" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1402" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20378,7 +19600,7 @@
         <v>1411</v>
       </c>
       <c r="B1402" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1403" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20386,7 +19608,7 @@
         <v>1412</v>
       </c>
       <c r="B1403" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1404" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20394,7 +19616,7 @@
         <v>1413</v>
       </c>
       <c r="B1404" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1405" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20402,7 +19624,7 @@
         <v>1414</v>
       </c>
       <c r="B1405" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1406" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20410,7 +19632,7 @@
         <v>1415</v>
       </c>
       <c r="B1406" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1407" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20418,7 +19640,7 @@
         <v>1416</v>
       </c>
       <c r="B1407" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1408" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20426,7 +19648,7 @@
         <v>1417</v>
       </c>
       <c r="B1408" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1409" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20434,7 +19656,7 @@
         <v>1418</v>
       </c>
       <c r="B1409" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1410" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20442,7 +19664,7 @@
         <v>1419</v>
       </c>
       <c r="B1410" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1411" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20450,7 +19672,7 @@
         <v>1420</v>
       </c>
       <c r="B1411" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1412" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20458,7 +19680,7 @@
         <v>1421</v>
       </c>
       <c r="B1412" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1413" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20466,7 +19688,7 @@
         <v>1422</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1414" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20474,7 +19696,7 @@
         <v>1423</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1415" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20482,7 +19704,7 @@
         <v>1424</v>
       </c>
       <c r="B1415" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1416" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20490,7 +19712,7 @@
         <v>1425</v>
       </c>
       <c r="B1416" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1417" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20498,7 +19720,7 @@
         <v>1426</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1418" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20506,7 +19728,7 @@
         <v>1427</v>
       </c>
       <c r="B1418" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1419" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20514,7 +19736,7 @@
         <v>1428</v>
       </c>
       <c r="B1419" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1420" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20522,7 +19744,7 @@
         <v>1429</v>
       </c>
       <c r="B1420" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1421" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20530,7 +19752,7 @@
         <v>1430</v>
       </c>
       <c r="B1421" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1422" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20538,7 +19760,7 @@
         <v>1431</v>
       </c>
       <c r="B1422" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1423" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20546,7 +19768,7 @@
         <v>1432</v>
       </c>
       <c r="B1423" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1424" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20554,7 +19776,7 @@
         <v>1433</v>
       </c>
       <c r="B1424" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1425" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20562,7 +19784,7 @@
         <v>1434</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1426" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20570,7 +19792,7 @@
         <v>1435</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1427" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20578,7 +19800,7 @@
         <v>1436</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1428" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20586,7 +19808,7 @@
         <v>1437</v>
       </c>
       <c r="B1428" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1429" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20594,7 +19816,7 @@
         <v>1438</v>
       </c>
       <c r="B1429" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1430" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20602,7 +19824,7 @@
         <v>1439</v>
       </c>
       <c r="B1430" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1431" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20610,7 +19832,7 @@
         <v>1440</v>
       </c>
       <c r="B1431" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1432" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20618,7 +19840,7 @@
         <v>1441</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1433" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20626,7 +19848,7 @@
         <v>1442</v>
       </c>
       <c r="B1433" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1434" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20634,7 +19856,7 @@
         <v>1443</v>
       </c>
       <c r="B1434" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1435" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20642,7 +19864,7 @@
         <v>1444</v>
       </c>
       <c r="B1435" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1436" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20650,7 +19872,7 @@
         <v>1445</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1437" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20658,7 +19880,7 @@
         <v>1446</v>
       </c>
       <c r="B1437" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1438" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20666,7 +19888,7 @@
         <v>1447</v>
       </c>
       <c r="B1438" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1439" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20674,7 +19896,7 @@
         <v>1448</v>
       </c>
       <c r="B1439" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1440" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20682,7 +19904,7 @@
         <v>1449</v>
       </c>
       <c r="B1440" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1441" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20690,7 +19912,7 @@
         <v>1450</v>
       </c>
       <c r="B1441" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1442" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20698,7 +19920,7 @@
         <v>1451</v>
       </c>
       <c r="B1442" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1443" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20706,7 +19928,7 @@
         <v>1452</v>
       </c>
       <c r="B1443" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1444" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20714,7 +19936,7 @@
         <v>1453</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1445" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20722,7 +19944,7 @@
         <v>1454</v>
       </c>
       <c r="B1445" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1446" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20730,7 +19952,7 @@
         <v>1455</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1447" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20738,7 +19960,7 @@
         <v>1456</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1448" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20746,7 +19968,7 @@
         <v>1457</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1449" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20754,7 +19976,7 @@
         <v>1458</v>
       </c>
       <c r="B1449" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1450" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20762,7 +19984,7 @@
         <v>1459</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1451" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20770,7 +19992,7 @@
         <v>1460</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1452" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20778,7 +20000,7 @@
         <v>1461</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1453" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20786,7 +20008,7 @@
         <v>1462</v>
       </c>
       <c r="B1453" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1454" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20794,7 +20016,7 @@
         <v>1463</v>
       </c>
       <c r="B1454" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1455" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20802,7 +20024,7 @@
         <v>1464</v>
       </c>
       <c r="B1455" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1456" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20810,7 +20032,7 @@
         <v>1465</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1457" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20818,7 +20040,7 @@
         <v>1466</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1458" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20826,7 +20048,7 @@
         <v>1467</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1459" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20834,7 +20056,7 @@
         <v>1468</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1460" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20842,7 +20064,7 @@
         <v>1469</v>
       </c>
       <c r="B1460" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1461" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20850,7 +20072,7 @@
         <v>1470</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1462" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -20858,7 +20080,7 @@
         <v>1471</v>
       </c>
       <c r="B1462" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1463" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20866,7 +20088,7 @@
         <v>1472</v>
       </c>
       <c r="B1463" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1464" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20874,7 +20096,7 @@
         <v>1473</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1465" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20882,7 +20104,7 @@
         <v>1474</v>
       </c>
       <c r="B1465" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1466" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20890,7 +20112,7 @@
         <v>1475</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1467" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20898,7 +20120,7 @@
         <v>1476</v>
       </c>
       <c r="B1467" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1468" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20906,7 +20128,7 @@
         <v>1477</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1469" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20914,7 +20136,7 @@
         <v>1478</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1470" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20922,7 +20144,7 @@
         <v>1479</v>
       </c>
       <c r="B1470" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1471" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -20930,7 +20152,7 @@
         <v>1480</v>
       </c>
       <c r="B1471" s="1" t="s">
-        <v>2206</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1472" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -20970,7 +20192,7 @@
         <v>1485</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>2208</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1477" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -20978,7 +20200,7 @@
         <v>1486</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>2208</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1478" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -20986,7 +20208,7 @@
         <v>1487</v>
       </c>
       <c r="B1478" s="1" t="s">
-        <v>2208</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1479" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -20994,7 +20216,7 @@
         <v>1488</v>
       </c>
       <c r="B1479" s="1" t="s">
-        <v>2208</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
@@ -21002,7 +20224,7 @@
         <v>1489</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>2207</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1481" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21010,7 +20232,7 @@
         <v>1490</v>
       </c>
       <c r="B1481" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1482" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21018,7 +20240,7 @@
         <v>1491</v>
       </c>
       <c r="B1482" s="1" t="s">
-        <v>2210</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1483" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21026,7 +20248,7 @@
         <v>1492</v>
       </c>
       <c r="B1483" s="1" t="s">
-        <v>2210</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1484" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21034,7 +20256,7 @@
         <v>1493</v>
       </c>
       <c r="B1484" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1485" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21042,7 +20264,7 @@
         <v>1494</v>
       </c>
       <c r="B1485" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1486" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21050,7 +20272,7 @@
         <v>1495</v>
       </c>
       <c r="B1486" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1487" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21058,7 +20280,7 @@
         <v>1496</v>
       </c>
       <c r="B1487" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1488" spans="1:2" x14ac:dyDescent="0.25">
@@ -21066,7 +20288,7 @@
         <v>1497</v>
       </c>
       <c r="B1488" s="1" t="s">
-        <v>2207</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1489" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21074,7 +20296,7 @@
         <v>1498</v>
       </c>
       <c r="B1489" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1490" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21082,7 +20304,7 @@
         <v>1499</v>
       </c>
       <c r="B1490" s="1" t="s">
-        <v>2210</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1491" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21090,7 +20312,7 @@
         <v>1500</v>
       </c>
       <c r="B1491" s="1" t="s">
-        <v>2210</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1492" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21098,7 +20320,7 @@
         <v>1501</v>
       </c>
       <c r="B1492" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1493" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21106,7 +20328,7 @@
         <v>1502</v>
       </c>
       <c r="B1493" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1494" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21114,7 +20336,7 @@
         <v>1503</v>
       </c>
       <c r="B1494" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1495" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21122,7 +20344,7 @@
         <v>1504</v>
       </c>
       <c r="B1495" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1496" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21130,7 +20352,7 @@
         <v>1505</v>
       </c>
       <c r="B1496" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1497" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21138,7 +20360,7 @@
         <v>1506</v>
       </c>
       <c r="B1497" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1498" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21146,7 +20368,7 @@
         <v>1507</v>
       </c>
       <c r="B1498" s="1" t="s">
-        <v>2209</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1499" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -21154,7 +20376,7 @@
         <v>1508</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>2405</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1500" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -21186,7 +20408,7 @@
         <v>1512</v>
       </c>
       <c r="B1503" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1504" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21218,7 +20440,7 @@
         <v>1516</v>
       </c>
       <c r="B1507" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1508" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21250,7 +20472,7 @@
         <v>1520</v>
       </c>
       <c r="B1511" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1512" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21282,7 +20504,7 @@
         <v>1524</v>
       </c>
       <c r="B1515" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1516" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -21314,7 +20536,7 @@
         <v>1528</v>
       </c>
       <c r="B1519" s="1" t="s">
-        <v>2205</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1520" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -21322,7 +20544,7 @@
         <v>12</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>2429</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1521" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -21330,7 +20552,7 @@
         <v>13</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>2160</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1522" spans="1:3" x14ac:dyDescent="0.25">
@@ -21346,7 +20568,7 @@
         <v>15</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>2317</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1524" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -21354,10 +20576,10 @@
         <v>16</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>2318</v>
+        <v>2300</v>
       </c>
       <c r="C1524" s="1" t="s">
-        <v>2319</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1525" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -21365,10 +20587,10 @@
         <v>17</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>2321</v>
+        <v>2303</v>
       </c>
       <c r="C1525" s="1" t="s">
-        <v>2320</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1526" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -21376,7 +20598,7 @@
         <v>18</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>2322</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1527" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -21384,7 +20606,7 @@
         <v>19</v>
       </c>
       <c r="B1527" s="1" t="s">
-        <v>2142</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1528" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -21392,7 +20614,7 @@
         <v>20</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>2416</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1529" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -21400,7 +20622,7 @@
         <v>21</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>2145</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1530" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -21408,7 +20630,7 @@
         <v>22</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>2424</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1531" spans="1:3" x14ac:dyDescent="0.25">
@@ -21429,18 +20651,18 @@
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1533" s="1" t="s">
-        <v>2137</v>
+        <v>2119</v>
       </c>
       <c r="B1533" s="1" t="s">
-        <v>2138</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1534" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1534" s="1" t="s">
-        <v>2323</v>
+        <v>2305</v>
       </c>
       <c r="B1534" s="1" t="s">
-        <v>2324</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1535" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -21448,7 +20670,7 @@
         <v>1531</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>2324</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1536" spans="1:3" x14ac:dyDescent="0.25">
@@ -21456,7 +20678,7 @@
         <v>1532</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>2317</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1537" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -21464,13 +20686,13 @@
         <v>1533</v>
       </c>
       <c r="B1537" s="1" t="s">
-        <v>2325</v>
+        <v>2307</v>
       </c>
       <c r="C1537" s="1" t="s">
-        <v>2326</v>
+        <v>2308</v>
       </c>
       <c r="D1537" s="1" t="s">
-        <v>2327</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1538" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -21478,13 +20700,13 @@
         <v>1534</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>2325</v>
+        <v>2307</v>
       </c>
       <c r="C1538" s="1" t="s">
-        <v>2326</v>
+        <v>2308</v>
       </c>
       <c r="D1538" s="1" t="s">
-        <v>2327</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1539" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21492,7 +20714,7 @@
         <v>1535</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>2328</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1540" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -21500,7 +20722,7 @@
         <v>1536</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>2329</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1541" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -21508,10 +20730,10 @@
         <v>1537</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>2330</v>
+        <v>2312</v>
       </c>
       <c r="C1541" s="1" t="s">
-        <v>2331</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1542" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -21519,7 +20741,7 @@
         <v>1538</v>
       </c>
       <c r="B1542" s="1" t="s">
-        <v>2249</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1543" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -21527,7 +20749,7 @@
         <v>1539</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>2249</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1544" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21535,7 +20757,7 @@
         <v>1540</v>
       </c>
       <c r="B1544" s="1" t="s">
-        <v>2332</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1545" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -21543,7 +20765,7 @@
         <v>1541</v>
       </c>
       <c r="B1545" s="1" t="s">
-        <v>2337</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1546" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -21551,7 +20773,7 @@
         <v>1542</v>
       </c>
       <c r="B1546" s="1" t="s">
-        <v>2338</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1547" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -21559,10 +20781,10 @@
         <v>1543</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>2340</v>
+        <v>2322</v>
       </c>
       <c r="C1547" s="1" t="s">
-        <v>2341</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1548" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21570,7 +20792,7 @@
         <v>1544</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>2342</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1549" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21578,7 +20800,7 @@
         <v>1545</v>
       </c>
       <c r="B1549" s="1" t="s">
-        <v>2343</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1550" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -21586,7 +20808,7 @@
         <v>1547</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>2344</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1551" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -21594,7 +20816,7 @@
         <v>1548</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>2345</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1552" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -21602,7 +20824,7 @@
         <v>1549</v>
       </c>
       <c r="B1552" s="1" t="s">
-        <v>2346</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1553" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -21610,7 +20832,7 @@
         <v>1550</v>
       </c>
       <c r="B1553" s="1" t="s">
-        <v>2346</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1554" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21618,7 +20840,7 @@
         <v>1551</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>2347</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1555" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21626,7 +20848,7 @@
         <v>1552</v>
       </c>
       <c r="B1555" s="1" t="s">
-        <v>2348</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1556" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21634,7 +20856,7 @@
         <v>1553</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>2349</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1557" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21642,7 +20864,7 @@
         <v>1554</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>2349</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1558" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -21650,13 +20872,13 @@
         <v>1555</v>
       </c>
       <c r="B1558" s="1" t="s">
-        <v>2350</v>
+        <v>2332</v>
       </c>
       <c r="C1558" s="1" t="s">
-        <v>2351</v>
+        <v>2333</v>
       </c>
       <c r="D1558" s="1" t="s">
-        <v>2352</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1559" spans="1:4" ht="150" x14ac:dyDescent="0.25">
@@ -21664,7 +20886,7 @@
         <v>1556</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>2353</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1560" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -21672,13 +20894,13 @@
         <v>1557</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>2354</v>
+        <v>2336</v>
       </c>
       <c r="C1560" s="1" t="s">
-        <v>2355</v>
+        <v>2337</v>
       </c>
       <c r="D1560" s="1" t="s">
-        <v>2356</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1561" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -21686,10 +20908,10 @@
         <v>1558</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>2357</v>
+        <v>2339</v>
       </c>
       <c r="C1561" s="1" t="s">
-        <v>2358</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1562" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -21697,10 +20919,10 @@
         <v>1559</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>2373</v>
+        <v>2355</v>
       </c>
       <c r="C1562" s="1" t="s">
-        <v>2372</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1563" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -21708,7 +20930,7 @@
         <v>1560</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>2376</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1564" spans="1:4" ht="90" x14ac:dyDescent="0.25">
@@ -21716,10 +20938,10 @@
         <v>1561</v>
       </c>
       <c r="B1564" s="1" t="s">
-        <v>2374</v>
+        <v>2356</v>
       </c>
       <c r="C1564" s="1" t="s">
-        <v>2375</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1565" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -21727,7 +20949,7 @@
         <v>1562</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>2377</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1566" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -21735,10 +20957,10 @@
         <v>1563</v>
       </c>
       <c r="B1566" s="1" t="s">
-        <v>2378</v>
+        <v>2360</v>
       </c>
       <c r="C1566" s="1" t="s">
-        <v>2379</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1567" spans="1:4" ht="120" x14ac:dyDescent="0.25">
@@ -21746,10 +20968,10 @@
         <v>1564</v>
       </c>
       <c r="B1567" s="1" t="s">
-        <v>2378</v>
+        <v>2360</v>
       </c>
       <c r="C1567" s="1" t="s">
-        <v>2379</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1568" spans="1:4" x14ac:dyDescent="0.25">
@@ -21757,7 +20979,7 @@
         <v>1565</v>
       </c>
       <c r="B1568" s="1" t="s">
-        <v>2200</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1569" spans="1:7" x14ac:dyDescent="0.25">
@@ -21765,7 +20987,7 @@
         <v>1566</v>
       </c>
       <c r="B1569" s="1" t="s">
-        <v>2201</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1570" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -21773,10 +20995,10 @@
         <v>1546</v>
       </c>
       <c r="B1570" s="1" t="s">
-        <v>2380</v>
+        <v>2362</v>
       </c>
       <c r="C1570" s="1" t="s">
-        <v>2381</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1571" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -21784,19 +21006,19 @@
         <v>1568</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>2382</v>
+        <v>2364</v>
       </c>
       <c r="C1571" s="1" t="s">
-        <v>2383</v>
+        <v>2365</v>
       </c>
       <c r="D1571" s="1" t="s">
-        <v>2384</v>
+        <v>2366</v>
       </c>
       <c r="E1571" s="1" t="s">
-        <v>2385</v>
+        <v>2367</v>
       </c>
       <c r="F1571" s="1" t="s">
-        <v>2386</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1572" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -21804,19 +21026,19 @@
         <v>1567</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>2382</v>
+        <v>2364</v>
       </c>
       <c r="C1572" s="1" t="s">
-        <v>2387</v>
+        <v>2369</v>
       </c>
       <c r="D1572" s="1" t="s">
-        <v>2384</v>
+        <v>2366</v>
       </c>
       <c r="E1572" s="1" t="s">
-        <v>2385</v>
+        <v>2367</v>
       </c>
       <c r="F1572" s="1" t="s">
-        <v>2386</v>
+        <v>2368</v>
       </c>
       <c r="G1572" s="1"/>
     </row>
@@ -21825,10 +21047,10 @@
         <v>1569</v>
       </c>
       <c r="B1573" s="1" t="s">
-        <v>2388</v>
+        <v>2370</v>
       </c>
       <c r="C1573" s="1" t="s">
-        <v>2389</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1574" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -21836,7 +21058,7 @@
         <v>1570</v>
       </c>
       <c r="B1574" s="1" t="s">
-        <v>2390</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1575" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -21844,10 +21066,10 @@
         <v>1571</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>2392</v>
+        <v>2374</v>
       </c>
       <c r="C1575" s="1" t="s">
-        <v>2391</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1576" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -21855,10 +21077,10 @@
         <v>1572</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>2392</v>
+        <v>2374</v>
       </c>
       <c r="C1576" s="1" t="s">
-        <v>2391</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1577" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -21866,7 +21088,7 @@
         <v>1573</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>2393</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1578" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -21874,10 +21096,10 @@
         <v>1574</v>
       </c>
       <c r="B1578" s="1" t="s">
-        <v>2394</v>
+        <v>2376</v>
       </c>
       <c r="C1578" s="1" t="s">
-        <v>2395</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1579" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -21885,7 +21107,7 @@
         <v>1575</v>
       </c>
       <c r="B1579" s="1" t="s">
-        <v>2396</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1580" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -21893,32 +21115,32 @@
         <v>1576</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>2397</v>
+        <v>2379</v>
       </c>
       <c r="C1580" s="1" t="s">
-        <v>2398</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1581" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1581" s="1" t="s">
-        <v>1789</v>
+        <v>1778</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>2399</v>
+        <v>2381</v>
       </c>
       <c r="C1581" s="1" t="s">
-        <v>2400</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1582" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1582" s="1" t="s">
-        <v>1790</v>
+        <v>1779</v>
       </c>
       <c r="B1582" s="1" t="s">
-        <v>2399</v>
+        <v>2381</v>
       </c>
       <c r="C1582" s="1" t="s">
-        <v>2400</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1583" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -21926,10 +21148,10 @@
         <v>1579</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>2401</v>
+        <v>2383</v>
       </c>
       <c r="C1583" s="1" t="s">
-        <v>2402</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1584" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -21937,58 +21159,58 @@
         <v>1578</v>
       </c>
       <c r="B1584" s="1" t="s">
-        <v>2403</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1585" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1585" s="1" t="s">
-        <v>1791</v>
+        <v>1780</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>2404</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1586" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A1586" s="1" t="s">
-        <v>1792</v>
+        <v>1781</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>2406</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1587" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1587" s="1" t="s">
-        <v>1793</v>
+        <v>1782</v>
       </c>
       <c r="B1587" s="1" t="s">
-        <v>2407</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1588" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1588" s="1" t="s">
-        <v>1794</v>
+        <v>1783</v>
       </c>
       <c r="B1588" s="1" t="s">
-        <v>2408</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1589" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1589" s="1" t="s">
-        <v>1795</v>
+        <v>1784</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>2409</v>
+        <v>2391</v>
       </c>
       <c r="C1589" s="1" t="s">
-        <v>2410</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1590" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1590" s="1" t="s">
-        <v>1796</v>
+        <v>1785</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>2411</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1591" spans="1:3" ht="75" x14ac:dyDescent="0.25">
@@ -21996,15 +21218,15 @@
         <v>1577</v>
       </c>
       <c r="B1591" s="1" t="s">
-        <v>2412</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1592" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1592" s="1" t="s">
-        <v>1797</v>
+        <v>1786</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>2413</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1593" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -22012,15 +21234,15 @@
         <v>1580</v>
       </c>
       <c r="B1593" s="1" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1594" s="1" t="s">
         <v>1581</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>1581</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1595" spans="1:3" x14ac:dyDescent="0.25">
@@ -22028,7 +21250,7 @@
         <v>1582</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>1582</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1596" spans="1:3" x14ac:dyDescent="0.25">
@@ -22036,7 +21258,7 @@
         <v>1583</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>1583</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1597" spans="1:3" x14ac:dyDescent="0.25">
@@ -22044,7 +21266,7 @@
         <v>1584</v>
       </c>
       <c r="B1597" s="1" t="s">
-        <v>1584</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1598" spans="1:3" x14ac:dyDescent="0.25">
@@ -22055,12 +21277,12 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="1599" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1599" s="1" t="s">
         <v>1586</v>
       </c>
       <c r="B1599" s="1" t="s">
-        <v>2109</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="1600" spans="1:3" x14ac:dyDescent="0.25">
@@ -22076,7 +21298,7 @@
         <v>1588</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>1588</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1602" spans="1:2" x14ac:dyDescent="0.25">
@@ -22084,7 +21306,7 @@
         <v>1589</v>
       </c>
       <c r="B1602" s="1" t="s">
-        <v>1589</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1603" spans="1:2" x14ac:dyDescent="0.25">
@@ -22092,7 +21314,7 @@
         <v>1590</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>1590</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1604" spans="1:2" x14ac:dyDescent="0.25">
@@ -22100,7 +21322,7 @@
         <v>1591</v>
       </c>
       <c r="B1604" s="1" t="s">
-        <v>2140</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1605" spans="1:2" x14ac:dyDescent="0.25">
@@ -22108,7 +21330,7 @@
         <v>1592</v>
       </c>
       <c r="B1605" s="1" t="s">
-        <v>2140</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1606" spans="1:2" x14ac:dyDescent="0.25">
@@ -22116,7 +21338,7 @@
         <v>1593</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>2140</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1607" spans="1:2" x14ac:dyDescent="0.25">
@@ -22143,44 +21365,44 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="1610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1610" s="1" t="s">
         <v>1597</v>
       </c>
       <c r="B1610" s="1" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="1611" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1611" s="1" t="s">
         <v>1598</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="1612" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1612" s="1" t="s">
         <v>1599</v>
       </c>
       <c r="B1612" s="1" t="s">
-        <v>2139</v>
-      </c>
-    </row>
-    <row r="1613" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1613" s="1" t="s">
         <v>1600</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="1614" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1614" s="1" t="s">
         <v>1601</v>
       </c>
       <c r="B1614" s="1" t="s">
-        <v>1601</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1615" spans="1:2" x14ac:dyDescent="0.25">
@@ -22191,124 +21413,124 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="1616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1616" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1616" s="1" t="s">
         <v>1603</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="1617" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1617" s="1" t="s">
         <v>1604</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>1604</v>
-      </c>
-    </row>
-    <row r="1618" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1618" s="1" t="s">
         <v>1605</v>
       </c>
       <c r="B1618" s="1" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="1619" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1619" s="1" t="s">
         <v>1606</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="1620" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1620" s="1" t="s">
         <v>1607</v>
       </c>
       <c r="B1620" s="1" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="1621" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1621" s="1" t="s">
         <v>1608</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="1622" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1622" s="1" t="s">
         <v>1609</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1623" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1624" s="1" t="s">
         <v>1611</v>
       </c>
       <c r="B1624" s="1" t="s">
-        <v>1611</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1625" s="1" t="s">
         <v>1612</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="1626" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1626" s="1" t="s">
         <v>1613</v>
       </c>
       <c r="B1626" s="1" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="1627" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1627" s="1" t="s">
         <v>1614</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="1628" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1628" s="1" t="s">
         <v>1615</v>
       </c>
       <c r="B1628" s="1" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="1629" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1629" s="1" t="s">
         <v>1616</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>2135</v>
-      </c>
-    </row>
-    <row r="1630" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1630" s="1" t="s">
         <v>1617</v>
       </c>
       <c r="B1630" s="1" t="s">
-        <v>1617</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1631" spans="1:2" x14ac:dyDescent="0.25">
@@ -22327,12 +21549,12 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="1633" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1633" s="1" t="s">
         <v>1620</v>
       </c>
       <c r="B1633" s="1" t="s">
-        <v>2129</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1634" spans="1:2" x14ac:dyDescent="0.25">
@@ -22343,28 +21565,28 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="1635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1635" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1635" s="1" t="s">
         <v>1622</v>
       </c>
       <c r="B1635" s="1" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1636" s="1" t="s">
         <v>1623</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="1637" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1637" s="1" t="s">
         <v>1624</v>
       </c>
       <c r="B1637" s="1" t="s">
-        <v>1624</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1638" spans="1:2" x14ac:dyDescent="0.25">
@@ -22375,12 +21597,12 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="1639" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1639" s="1" t="s">
         <v>1626</v>
       </c>
       <c r="B1639" s="1" t="s">
-        <v>2129</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1640" spans="1:2" x14ac:dyDescent="0.25">
@@ -22391,52 +21613,52 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="1641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1641" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1641" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="1642" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1642" s="1" t="s">
         <v>1629</v>
       </c>
       <c r="B1642" s="1" t="s">
-        <v>1629</v>
-      </c>
-    </row>
-    <row r="1643" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1643" s="1" t="s">
         <v>1630</v>
       </c>
       <c r="B1643" s="1" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="1644" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1644" s="1" t="s">
         <v>1631</v>
       </c>
       <c r="B1644" s="1" t="s">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="1645" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1645" s="1" t="s">
         <v>1632</v>
       </c>
       <c r="B1645" s="1" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="1646" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1646" s="1" t="s">
         <v>1633</v>
       </c>
       <c r="B1646" s="1" t="s">
-        <v>2122</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1647" spans="1:2" x14ac:dyDescent="0.25">
@@ -22463,28 +21685,28 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="1650" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1650" s="1" t="s">
         <v>1637</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>2121</v>
-      </c>
-    </row>
-    <row r="1651" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1651" s="1" t="s">
         <v>1638</v>
       </c>
       <c r="B1651" s="1" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="1652" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1652" s="1" t="s">
         <v>1639</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>2122</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1653" spans="1:2" x14ac:dyDescent="0.25">
@@ -22508,7 +21730,7 @@
         <v>1642</v>
       </c>
       <c r="B1655" s="1" t="s">
-        <v>2116</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="1656" spans="1:2" x14ac:dyDescent="0.25">
@@ -22519,12 +21741,12 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="1657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1657" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1657" s="1" t="s">
         <v>1644</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>1644</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1658" spans="1:2" x14ac:dyDescent="0.25">
@@ -22535,12 +21757,12 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="1659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1659" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1659" s="1" t="s">
         <v>1646</v>
       </c>
       <c r="B1659" s="1" t="s">
-        <v>1646</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1660" spans="1:2" x14ac:dyDescent="0.25">
@@ -22556,15 +21778,15 @@
         <v>1648</v>
       </c>
       <c r="B1661" s="1" t="s">
-        <v>2116</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1662" s="1" t="s">
         <v>1649</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>1649</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1663" spans="1:2" x14ac:dyDescent="0.25">
@@ -22575,12 +21797,12 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="1664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1664" s="1" t="s">
         <v>1651</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>1651</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1665" spans="1:2" x14ac:dyDescent="0.25">
@@ -22591,12 +21813,12 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="1666" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1666" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1666" s="1" t="s">
         <v>1653</v>
       </c>
       <c r="B1666" s="1" t="s">
-        <v>2146</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1667" spans="1:2" x14ac:dyDescent="0.25">
@@ -22607,12 +21829,12 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="1668" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1668" s="1" t="s">
         <v>1655</v>
       </c>
       <c r="B1668" s="1" t="s">
-        <v>2146</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1669" spans="1:2" x14ac:dyDescent="0.25">
@@ -22623,36 +21845,36 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="1670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1670" s="1" t="s">
         <v>1657</v>
       </c>
       <c r="B1670" s="1" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1671" s="1" t="s">
         <v>1658</v>
       </c>
       <c r="B1671" s="1" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1672" s="1" t="s">
         <v>1659</v>
       </c>
       <c r="B1672" s="1" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="1673" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1673" s="1" t="s">
         <v>1660</v>
       </c>
       <c r="B1673" s="1" t="s">
-        <v>2146</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1674" spans="1:2" x14ac:dyDescent="0.25">
@@ -22663,60 +21885,60 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="1675" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1675" s="1" t="s">
         <v>1662</v>
       </c>
       <c r="B1675" s="1" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1676" s="1" t="s">
         <v>1663</v>
       </c>
       <c r="B1676" s="1" t="s">
-        <v>1663</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1677" s="1" t="s">
         <v>1664</v>
       </c>
       <c r="B1677" s="1" t="s">
-        <v>1664</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1678" s="1" t="s">
         <v>1665</v>
       </c>
       <c r="B1678" s="1" t="s">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1679" s="1" t="s">
         <v>1666</v>
       </c>
       <c r="B1679" s="1" t="s">
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="1680" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1680" s="1" t="s">
         <v>1667</v>
       </c>
       <c r="B1680" s="1" t="s">
-        <v>2151</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1681" s="1" t="s">
         <v>1668</v>
       </c>
       <c r="B1681" s="1" t="s">
-        <v>2151</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1682" spans="1:2" x14ac:dyDescent="0.25">
@@ -22727,12 +21949,12 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="1683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1683" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1683" s="1" t="s">
         <v>1670</v>
       </c>
       <c r="B1683" s="1" t="s">
-        <v>1670</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1684" spans="1:2" x14ac:dyDescent="0.25">
@@ -22743,124 +21965,124 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="1685" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1685" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1685" s="1" t="s">
         <v>1672</v>
       </c>
       <c r="B1685" s="1" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="1686" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1686" s="1" t="s">
         <v>1673</v>
       </c>
       <c r="B1686" s="1" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="1687" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1687" s="1" t="s">
         <v>1674</v>
       </c>
       <c r="B1687" s="1" t="s">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="1688" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1688" s="1" t="s">
         <v>1675</v>
       </c>
       <c r="B1688" s="1" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="1689" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1689" s="1" t="s">
         <v>1676</v>
       </c>
       <c r="B1689" s="1" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1690" s="1" t="s">
         <v>1677</v>
       </c>
       <c r="B1690" s="1" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="1691" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1691" s="1" t="s">
         <v>1678</v>
       </c>
       <c r="B1691" s="1" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1692" s="1" t="s">
         <v>1679</v>
       </c>
       <c r="B1692" s="1" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1693" s="1" t="s">
         <v>1680</v>
       </c>
       <c r="B1693" s="1" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="1694" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1694" s="1" t="s">
         <v>1681</v>
       </c>
       <c r="B1694" s="1" t="s">
-        <v>2154</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1695" s="1" t="s">
         <v>1682</v>
       </c>
       <c r="B1695" s="1" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1696" s="1" t="s">
         <v>1683</v>
       </c>
       <c r="B1696" s="1" t="s">
-        <v>2153</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1697" s="1" t="s">
         <v>1684</v>
       </c>
       <c r="B1697" s="1" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1698" s="1" t="s">
         <v>1685</v>
       </c>
       <c r="B1698" s="1" t="s">
-        <v>2152</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1699" s="1" t="s">
         <v>1686</v>
       </c>
       <c r="B1699" s="1" t="s">
-        <v>1686</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1700" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22868,7 +22090,7 @@
         <v>1687</v>
       </c>
       <c r="B1700" s="1" t="s">
-        <v>2434</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1701" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22876,7 +22098,7 @@
         <v>1688</v>
       </c>
       <c r="B1701" s="1" t="s">
-        <v>2158</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1702" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22884,71 +22106,71 @@
         <v>1689</v>
       </c>
       <c r="B1702" s="1" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="1703" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1703" s="1" t="s">
         <v>1690</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1704" s="1" t="s">
         <v>1691</v>
       </c>
       <c r="B1704" s="1" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1705" s="1" t="s">
         <v>1692</v>
       </c>
       <c r="B1705" s="1" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="1706" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1706" s="1" t="s">
         <v>1693</v>
       </c>
       <c r="B1706" s="1" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="1707" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1707" s="1" t="s">
         <v>1694</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="1708" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1708" s="1" t="s">
         <v>1695</v>
       </c>
       <c r="B1708" s="1" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="1709" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1709" s="1" t="s">
         <v>1696</v>
       </c>
       <c r="B1709" s="1" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="1710" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1710" s="1" t="s">
         <v>1697</v>
       </c>
       <c r="B1710" s="1" t="s">
-        <v>2156</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1711" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -22956,87 +22178,87 @@
         <v>1698</v>
       </c>
       <c r="B1711" s="1" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="1712" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1712" s="1" t="s">
         <v>1699</v>
       </c>
       <c r="B1712" s="1" t="s">
-        <v>1699</v>
-      </c>
-    </row>
-    <row r="1713" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1713" s="1" t="s">
         <v>1700</v>
       </c>
       <c r="B1713" s="1" t="s">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1714" s="1" t="s">
         <v>1701</v>
       </c>
       <c r="B1714" s="1" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="1715" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1715" s="1" t="s">
         <v>1702</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="1716" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1716" s="1" t="s">
         <v>1703</v>
       </c>
       <c r="B1716" s="1" t="s">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1717" s="1" t="s">
         <v>1704</v>
       </c>
       <c r="B1717" s="1" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1718" s="1" t="s">
         <v>1705</v>
       </c>
       <c r="B1718" s="1" t="s">
-        <v>1705</v>
-      </c>
-    </row>
-    <row r="1719" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1719" s="1" t="s">
         <v>1706</v>
       </c>
       <c r="B1719" s="1" t="s">
-        <v>2157</v>
-      </c>
-    </row>
-    <row r="1720" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1720" s="1" t="s">
         <v>1707</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1721" s="1" t="s">
         <v>1708</v>
       </c>
       <c r="B1721" s="1" t="s">
-        <v>2161</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1722" spans="1:2" x14ac:dyDescent="0.25">
@@ -23044,23 +22266,23 @@
         <v>1709</v>
       </c>
       <c r="B1722" s="1" t="s">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1723" s="1" t="s">
         <v>1710</v>
       </c>
       <c r="B1723" s="1" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1724" s="1" t="s">
         <v>1711</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>1711</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1725" spans="1:2" x14ac:dyDescent="0.25">
@@ -23071,28 +22293,28 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="1726" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="1726" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1726" s="1" t="s">
         <v>1713</v>
       </c>
       <c r="B1726" s="1" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="1727" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1727" s="1" t="s">
         <v>1714</v>
       </c>
       <c r="B1727" s="1" t="s">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="1728" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1728" s="1" t="s">
         <v>1715</v>
       </c>
       <c r="B1728" s="1" t="s">
-        <v>2162</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1729" spans="1:2" x14ac:dyDescent="0.25">
@@ -23103,12 +22325,12 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="1730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1730" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1730" s="1" t="s">
         <v>1717</v>
       </c>
       <c r="B1730" s="1" t="s">
-        <v>1717</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1731" spans="1:2" x14ac:dyDescent="0.25">
@@ -23119,156 +22341,156 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="1732" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="1732" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1732" s="1" t="s">
         <v>1719</v>
       </c>
       <c r="B1732" s="1" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1733" s="1" t="s">
         <v>1720</v>
       </c>
       <c r="B1733" s="1" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="1734" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1734" s="1" t="s">
         <v>1721</v>
       </c>
       <c r="B1734" s="1" t="s">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1735" s="1" t="s">
         <v>1722</v>
       </c>
       <c r="B1735" s="1" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="1736" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1736" s="1" t="s">
         <v>1723</v>
       </c>
       <c r="B1736" s="1" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="1737" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1737" s="1" t="s">
         <v>1724</v>
       </c>
       <c r="B1737" s="1" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1738" s="1" t="s">
         <v>1725</v>
       </c>
       <c r="B1738" s="1" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="1739" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1739" s="1" t="s">
         <v>1726</v>
       </c>
       <c r="B1739" s="1" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1740" s="1" t="s">
         <v>1727</v>
       </c>
       <c r="B1740" s="1" t="s">
-        <v>1727</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1741" s="1" t="s">
         <v>1728</v>
       </c>
       <c r="B1741" s="1" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1742" s="1" t="s">
         <v>1729</v>
       </c>
       <c r="B1742" s="1" t="s">
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="1743" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1743" s="1" t="s">
         <v>1730</v>
       </c>
       <c r="B1743" s="1" t="s">
-        <v>2167</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1744" s="1" t="s">
         <v>1731</v>
       </c>
       <c r="B1744" s="1" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="1745" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1745" s="1" t="s">
         <v>1732</v>
       </c>
       <c r="B1745" s="1" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="1746" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1746" s="1" t="s">
         <v>1733</v>
       </c>
       <c r="B1746" s="1" t="s">
-        <v>1733</v>
-      </c>
-    </row>
-    <row r="1747" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1747" s="1" t="s">
         <v>1734</v>
       </c>
       <c r="B1747" s="1" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="1748" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1748" s="1" t="s">
         <v>1735</v>
       </c>
       <c r="B1748" s="1" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="1749" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1749" s="1" t="s">
         <v>1736</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="1750" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1750" s="1" t="s">
         <v>1737</v>
       </c>
       <c r="B1750" s="1" t="s">
-        <v>1737</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1751" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -23276,63 +22498,63 @@
         <v>1738</v>
       </c>
       <c r="B1751" s="1" t="s">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="1752" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1752" s="1" t="s">
         <v>1739</v>
       </c>
       <c r="B1752" s="1" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="1753" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1753" s="1" t="s">
         <v>1740</v>
       </c>
       <c r="B1753" s="1" t="s">
-        <v>2172</v>
-      </c>
-    </row>
-    <row r="1754" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1754" s="1" t="s">
         <v>1741</v>
       </c>
       <c r="B1754" s="1" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="1755" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1755" s="1" t="s">
         <v>1742</v>
       </c>
       <c r="B1755" s="1" t="s">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="1756" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1756" s="1" t="s">
         <v>1743</v>
       </c>
       <c r="B1756" s="1" t="s">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="1757" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1757" s="1" t="s">
         <v>1744</v>
       </c>
       <c r="B1757" s="1" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="1758" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1758" s="1" t="s">
         <v>1745</v>
       </c>
       <c r="B1758" s="1" t="s">
-        <v>2111</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1759" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -23356,15 +22578,15 @@
         <v>1748</v>
       </c>
       <c r="B1761" s="1" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="1762" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1762" s="1" t="s">
         <v>1749</v>
       </c>
       <c r="B1762" s="1" t="s">
-        <v>2111</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1763" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -23372,7 +22594,7 @@
         <v>1750</v>
       </c>
       <c r="B1763" s="1" t="s">
-        <v>2416</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1764" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23380,7 +22602,7 @@
         <v>1751</v>
       </c>
       <c r="B1764" s="1" t="s">
-        <v>2414</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1765" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23388,31 +22610,31 @@
         <v>1752</v>
       </c>
       <c r="B1765" s="1" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1766" s="1" t="s">
         <v>1753</v>
       </c>
       <c r="B1766" s="1" t="s">
-        <v>2432</v>
-      </c>
-    </row>
-    <row r="1767" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1767" s="1" t="s">
         <v>1754</v>
       </c>
       <c r="B1767" s="1" t="s">
-        <v>2431</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1768" s="1" t="s">
         <v>1755</v>
       </c>
       <c r="B1768" s="1" t="s">
-        <v>2433</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1769" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -23420,7 +22642,7 @@
         <v>1756</v>
       </c>
       <c r="B1769" s="1" t="s">
-        <v>2433</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1770" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23428,282 +22650,282 @@
         <v>1757</v>
       </c>
       <c r="B1770" s="1" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="1771" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1771" s="1" t="s">
         <v>1758</v>
       </c>
       <c r="B1771" s="1" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="1772" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1772" s="1" t="s">
         <v>1759</v>
       </c>
       <c r="B1772" s="1" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="1773" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1773" s="1" t="s">
         <v>1760</v>
       </c>
       <c r="B1773" s="1" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="1774" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1774" s="1" t="s">
         <v>1761</v>
       </c>
       <c r="B1774" s="1" t="s">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="1775" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1775" s="1" t="s">
         <v>1762</v>
       </c>
       <c r="B1775" s="1" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="1776" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1776" s="1" t="s">
         <v>1763</v>
       </c>
       <c r="B1776" s="1" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="1777" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1777" s="1" t="s">
         <v>1764</v>
       </c>
       <c r="B1777" s="1" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="1778" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1778" s="1" t="s">
         <v>1765</v>
       </c>
       <c r="B1778" s="1" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="1779" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1779" s="1" t="s">
         <v>1766</v>
       </c>
       <c r="B1779" s="1" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="1780" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1780" s="1" t="s">
         <v>1767</v>
       </c>
       <c r="B1780" s="1" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="1781" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1781" s="1" t="s">
         <v>1768</v>
       </c>
       <c r="B1781" s="1" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="1782" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1782" s="1" t="s">
         <v>1769</v>
       </c>
       <c r="B1782" s="1" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="1783" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1783" s="1" t="s">
         <v>1770</v>
       </c>
       <c r="B1783" s="1" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="1784" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1784" s="1" t="s">
         <v>1771</v>
       </c>
       <c r="B1784" s="1" t="s">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="1785" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1785" s="1" t="s">
         <v>1772</v>
       </c>
       <c r="B1785" s="1" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="1786" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1786" s="1" t="s">
         <v>1773</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="1787" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1787" s="1" t="s">
         <v>1774</v>
       </c>
       <c r="B1787" s="1" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="1788" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1788" s="1" t="s">
         <v>1775</v>
       </c>
       <c r="B1788" s="1" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="1789" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1789" s="1" t="s">
         <v>1776</v>
       </c>
       <c r="B1789" s="1" t="s">
-        <v>2125</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1790" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1790" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="B1790" s="1" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1791" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="B1790" s="1" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="1791" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1791" s="1" t="s">
-        <v>1778</v>
-      </c>
       <c r="B1791" s="1" t="s">
-        <v>2149</v>
-      </c>
-    </row>
-    <row r="1792" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1792" s="1" t="s">
-        <v>1779</v>
+        <v>1787</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1793" s="1" t="s">
-        <v>1780</v>
+        <v>1788</v>
       </c>
       <c r="B1793" s="1" t="s">
-        <v>2417</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1794" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1794" s="1" t="s">
-        <v>1781</v>
+        <v>1789</v>
       </c>
       <c r="B1794" s="1" t="s">
-        <v>2417</v>
-      </c>
-    </row>
-    <row r="1795" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1795" s="1" t="s">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>1782</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1796" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1796" s="1" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="B1796" s="1" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="1797" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1797" s="1" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="B1797" s="1" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1798" s="1" t="s">
-        <v>1785</v>
+        <v>1793</v>
       </c>
       <c r="B1798" s="1" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="1799" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1799" s="1" t="s">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="B1799" s="1" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="1800" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1800" s="1" t="s">
-        <v>1787</v>
+        <v>1795</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="1801" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1801" s="1" t="s">
-        <v>2420</v>
+        <v>1796</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="1802" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1802" s="1" t="s">
-        <v>1788</v>
+        <v>1797</v>
       </c>
       <c r="B1802" s="1" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1803" s="1" t="s">
         <v>1798</v>
       </c>
       <c r="B1803" s="1" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="1804" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1804" s="1" t="s">
         <v>1799</v>
       </c>
       <c r="B1804" s="1" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1805" s="1" t="s">
         <v>1800</v>
       </c>
@@ -23711,7 +22933,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="1806" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1806" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1806" s="1" t="s">
         <v>1801</v>
       </c>
@@ -23719,12 +22941,12 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="1807" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1807" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1807" s="1" t="s">
         <v>1802</v>
       </c>
       <c r="B1807" s="1" t="s">
-        <v>2149</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1808" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -23732,122 +22954,134 @@
         <v>1803</v>
       </c>
       <c r="B1808" s="1" t="s">
-        <v>2117</v>
-      </c>
-    </row>
-    <row r="1809" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1809" s="1" t="s">
         <v>1804</v>
       </c>
       <c r="B1809" s="1" t="s">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="1810" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1810" s="1" t="s">
         <v>1805</v>
       </c>
       <c r="B1810" s="1" t="s">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="1811" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1811" s="1" t="s">
         <v>1806</v>
       </c>
       <c r="B1811" s="1" t="s">
-        <v>2118</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1812" s="1" t="s">
         <v>1807</v>
       </c>
       <c r="B1812" s="1" t="s">
-        <v>2125</v>
-      </c>
-    </row>
-    <row r="1813" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1813" s="1" t="s">
         <v>1808</v>
       </c>
       <c r="B1813" s="1" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="1814" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1814" s="1" t="s">
         <v>1809</v>
       </c>
       <c r="B1814" s="1" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1815" s="1" t="s">
         <v>1810</v>
       </c>
       <c r="B1815" s="1" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="1816" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2218</v>
+      </c>
+      <c r="C1815" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1816" s="1" t="s">
         <v>1811</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2218</v>
+      </c>
+      <c r="C1816" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1817" s="1" t="s">
         <v>1812</v>
       </c>
       <c r="B1817" s="1" t="s">
-        <v>2132</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2218</v>
+      </c>
+      <c r="C1817" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1818" s="1" t="s">
         <v>1813</v>
       </c>
       <c r="B1818" s="1" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2218</v>
+      </c>
+      <c r="C1818" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1819" s="1" t="s">
         <v>1814</v>
       </c>
       <c r="B1819" s="1" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1820" s="1" t="s">
         <v>1815</v>
       </c>
       <c r="B1820" s="1" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1821" s="1" t="s">
         <v>1816</v>
       </c>
       <c r="B1821" s="1" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="1822" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1822" s="1" t="s">
         <v>1817</v>
       </c>
       <c r="B1822" s="1" t="s">
-        <v>2144</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1823" s="1" t="s">
         <v>1818</v>
       </c>
@@ -23855,7 +23089,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="1824" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1824" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1824" s="1" t="s">
         <v>1819</v>
       </c>
@@ -23863,7 +23097,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="1825" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1825" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1825" s="1" t="s">
         <v>1820</v>
       </c>
@@ -23871,7 +23105,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="1826" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1826" s="1" t="s">
         <v>1821</v>
       </c>
@@ -23879,7 +23113,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="1827" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1827" s="1" t="s">
         <v>1822</v>
       </c>
@@ -23887,51 +23121,39 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="1828" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1828" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1828" s="1" t="s">
         <v>1823</v>
       </c>
       <c r="B1828" s="1" t="s">
-        <v>2236</v>
-      </c>
-      <c r="C1828" s="1" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="1829" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1829" s="1" t="s">
         <v>1824</v>
       </c>
       <c r="B1829" s="1" t="s">
-        <v>2236</v>
-      </c>
-      <c r="C1829" s="1" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1830" s="1" t="s">
         <v>1825</v>
       </c>
       <c r="B1830" s="1" t="s">
-        <v>2236</v>
-      </c>
-      <c r="C1830" s="1" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1831" s="1" t="s">
         <v>1826</v>
       </c>
       <c r="B1831" s="1" t="s">
-        <v>2236</v>
-      </c>
-      <c r="C1831" s="1" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1832" s="1" t="s">
         <v>1827</v>
       </c>
@@ -23939,7 +23161,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="1833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1833" s="1" t="s">
         <v>1828</v>
       </c>
@@ -23947,23 +23169,23 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="1834" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1834" s="1" t="s">
         <v>1829</v>
       </c>
       <c r="B1834" s="1" t="s">
-        <v>2234</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1835" s="1" t="s">
         <v>1830</v>
       </c>
       <c r="B1835" s="1" t="s">
-        <v>2235</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1836" s="1" t="s">
         <v>1831</v>
       </c>
@@ -23971,7 +23193,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="1837" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1837" s="1" t="s">
         <v>1832</v>
       </c>
@@ -23979,7 +23201,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="1838" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1838" s="1" t="s">
         <v>1833</v>
       </c>
@@ -23987,7 +23209,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="1839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1839" s="1" t="s">
         <v>1834</v>
       </c>
@@ -23995,7 +23217,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="1840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1840" s="1" t="s">
         <v>1835</v>
       </c>
@@ -24003,7 +23225,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="1841" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1841" s="1" t="s">
         <v>1836</v>
       </c>
@@ -24227,7 +23449,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="1869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1869" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1869" s="1" t="s">
         <v>1864</v>
       </c>
@@ -24259,7 +23481,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="1873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1873" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1873" s="1" t="s">
         <v>1868</v>
       </c>
@@ -24267,7 +23489,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="1874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1874" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1874" s="1" t="s">
         <v>1869</v>
       </c>
@@ -24275,7 +23497,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="1875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1875" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1875" s="1" t="s">
         <v>1870</v>
       </c>
@@ -24283,7 +23505,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="1876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1876" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1876" s="1" t="s">
         <v>1871</v>
       </c>
@@ -24291,7 +23513,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="1877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1877" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1877" s="1" t="s">
         <v>1872</v>
       </c>
@@ -24299,7 +23521,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="1878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1878" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1878" s="1" t="s">
         <v>1873</v>
       </c>
@@ -24307,7 +23529,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="1879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1879" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1879" s="1" t="s">
         <v>1874</v>
       </c>
@@ -24315,7 +23537,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="1880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1880" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1880" s="1" t="s">
         <v>1875</v>
       </c>
@@ -24323,7 +23545,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="1881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1881" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1881" s="1" t="s">
         <v>1876</v>
       </c>
@@ -24331,7 +23553,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="1882" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1882" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1882" s="1" t="s">
         <v>1877</v>
       </c>
@@ -24339,7 +23561,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="1883" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1883" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1883" s="1" t="s">
         <v>1878</v>
       </c>
@@ -24347,7 +23569,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="1884" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1884" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1884" s="1" t="s">
         <v>1879</v>
       </c>
@@ -24355,7 +23577,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="1885" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1885" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1885" s="1" t="s">
         <v>1880</v>
       </c>
@@ -24363,7 +23585,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="1886" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1886" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1886" s="1" t="s">
         <v>1881</v>
       </c>
@@ -24371,15 +23593,18 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="1887" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1887" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1887" s="1" t="s">
         <v>1882</v>
       </c>
       <c r="B1887" s="1" t="s">
-        <v>1882</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2383</v>
+      </c>
+      <c r="C1887" s="1" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1888" s="1" t="s">
         <v>1883</v>
       </c>
@@ -24387,7 +23612,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="1889" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1889" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1889" s="1" t="s">
         <v>1884</v>
       </c>
@@ -24395,23 +23620,29 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="1890" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1890" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1890" s="1" t="s">
         <v>1885</v>
       </c>
       <c r="B1890" s="1" t="s">
-        <v>1885</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2341</v>
+      </c>
+      <c r="C1890" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1891" s="1" t="s">
         <v>1886</v>
       </c>
       <c r="B1891" s="1" t="s">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2343</v>
+      </c>
+      <c r="C1891" s="1" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1892" s="1" t="s">
         <v>1887</v>
       </c>
@@ -24419,7 +23650,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="1893" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1893" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1893" s="1" t="s">
         <v>1888</v>
       </c>
@@ -24427,23 +23658,26 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="1894" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1894" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A1894" s="1" t="s">
         <v>1889</v>
       </c>
       <c r="B1894" s="1" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2345</v>
+      </c>
+      <c r="C1894" s="1" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1895" s="1" t="s">
         <v>1890</v>
       </c>
       <c r="B1895" s="1" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1896" s="1" t="s">
         <v>1891</v>
       </c>
@@ -24451,7 +23685,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="1897" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1897" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1897" s="1" t="s">
         <v>1892</v>
       </c>
@@ -24459,42 +23693,48 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="1898" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1898" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A1898" s="1" t="s">
         <v>1893</v>
       </c>
       <c r="B1898" s="1" t="s">
-        <v>1893</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2316</v>
+      </c>
+      <c r="C1898" s="1" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D1898" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1899" s="1" t="s">
         <v>1894</v>
       </c>
       <c r="B1899" s="1" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>2348</v>
+      </c>
+      <c r="C1899" s="1" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1900" s="1" t="s">
         <v>1895</v>
       </c>
       <c r="B1900" s="1" t="s">
-        <v>2401</v>
-      </c>
-      <c r="C1900" s="1" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1901" s="1" t="s">
         <v>1896</v>
       </c>
       <c r="B1901" s="1" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1902" s="1" t="s">
         <v>1897</v>
       </c>
@@ -24502,29 +23742,23 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="1903" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1903" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1903" s="1" t="s">
         <v>1898</v>
       </c>
       <c r="B1903" s="1" t="s">
-        <v>2359</v>
-      </c>
-      <c r="C1903" s="1" t="s">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1904" s="1" t="s">
         <v>1899</v>
       </c>
       <c r="B1904" s="1" t="s">
-        <v>2361</v>
-      </c>
-      <c r="C1904" s="1" t="s">
-        <v>2362</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1905" s="1" t="s">
         <v>1900</v>
       </c>
@@ -24532,75 +23766,63 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="1906" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1906" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1906" s="1" t="s">
         <v>1901</v>
       </c>
       <c r="B1906" s="1" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1907" s="1" t="s">
         <v>1902</v>
       </c>
       <c r="B1907" s="1" t="s">
-        <v>2363</v>
-      </c>
-      <c r="C1907" s="1" t="s">
-        <v>2364</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1908" s="1" t="s">
         <v>1903</v>
       </c>
       <c r="B1908" s="1" t="s">
-        <v>2365</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1909" s="1" t="s">
         <v>1904</v>
       </c>
       <c r="B1909" s="1" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1910" s="1" t="s">
         <v>1905</v>
       </c>
       <c r="B1910" s="1" t="s">
-        <v>1905</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1911" s="1" t="s">
         <v>1906</v>
       </c>
       <c r="B1911" s="1" t="s">
-        <v>2334</v>
-      </c>
-      <c r="C1911" s="1" t="s">
-        <v>2335</v>
-      </c>
-      <c r="D1911" s="1" t="s">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1912" s="1" t="s">
         <v>1907</v>
       </c>
       <c r="B1912" s="1" t="s">
-        <v>2366</v>
-      </c>
-      <c r="C1912" s="1" t="s">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1913" s="1" t="s">
         <v>1908</v>
       </c>
@@ -24608,23 +23830,23 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="1914" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1914" s="1" t="s">
         <v>1909</v>
       </c>
       <c r="B1914" s="1" t="s">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1915" s="1" t="s">
         <v>1910</v>
       </c>
       <c r="B1915" s="1" t="s">
-        <v>1910</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1916" s="1" t="s">
         <v>1911</v>
       </c>
@@ -24632,7 +23854,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="1917" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1917" s="1" t="s">
         <v>1912</v>
       </c>
@@ -24640,7 +23862,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="1918" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1918" s="1" t="s">
         <v>1913</v>
       </c>
@@ -24648,15 +23870,15 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="1919" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1919" s="1" t="s">
         <v>1914</v>
       </c>
       <c r="B1919" s="1" t="s">
-        <v>2368</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1920" s="1" t="s">
         <v>1915</v>
       </c>
@@ -24677,15 +23899,15 @@
         <v>1917</v>
       </c>
       <c r="B1922" s="1" t="s">
-        <v>2369</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1923" s="1" t="s">
         <v>1918</v>
       </c>
       <c r="B1923" s="1" t="s">
-        <v>2370</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1924" spans="1:2" x14ac:dyDescent="0.25">
@@ -24720,12 +23942,12 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="1928" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1928" s="1" t="s">
         <v>1923</v>
       </c>
       <c r="B1928" s="1" t="s">
-        <v>2371</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1929" spans="1:2" x14ac:dyDescent="0.25">
@@ -24768,7 +23990,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="1934" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1934" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1934" s="1" t="s">
         <v>1929</v>
       </c>
@@ -24776,7 +23998,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="1935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1935" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1935" s="1" t="s">
         <v>1930</v>
       </c>
@@ -24784,7 +24006,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="1936" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1936" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1936" s="1" t="s">
         <v>1931</v>
       </c>
@@ -24800,7 +24022,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="1938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1938" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1938" s="1" t="s">
         <v>1933</v>
       </c>
@@ -24808,7 +24030,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="1939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1939" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1939" s="1" t="s">
         <v>1934</v>
       </c>
@@ -24848,7 +24070,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="1944" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1944" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1944" s="1" t="s">
         <v>1939</v>
       </c>
@@ -24864,15 +24086,15 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="1946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1946" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1946" s="1" t="s">
         <v>1941</v>
       </c>
       <c r="B1946" s="1" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1947" s="1" t="s">
         <v>1942</v>
       </c>
@@ -24880,7 +24102,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="1948" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1948" s="1" t="s">
         <v>1943</v>
       </c>
@@ -24888,7 +24110,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="1949" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1949" s="1" t="s">
         <v>1944</v>
       </c>
@@ -24904,7 +24126,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="1951" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1951" s="1" t="s">
         <v>1946</v>
       </c>
@@ -24912,7 +24134,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="1952" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1952" s="1" t="s">
         <v>1947</v>
       </c>
@@ -24952,7 +24174,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="1957" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1957" s="1" t="s">
         <v>1952</v>
       </c>
@@ -24968,12 +24190,12 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="1959" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1959" s="1" t="s">
         <v>1954</v>
       </c>
       <c r="B1959" s="1" t="s">
-        <v>2333</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1960" spans="1:2" x14ac:dyDescent="0.25">
@@ -25080,20 +24302,20 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="1973" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1973" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A1973" s="1" t="s">
         <v>1968</v>
       </c>
       <c r="B1973" s="1" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="1974" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A1974" s="1" t="s">
         <v>1969</v>
       </c>
       <c r="B1974" s="1" t="s">
-        <v>1969</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1975" spans="1:2" x14ac:dyDescent="0.25">
@@ -25128,7 +24350,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="1979" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1979" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1979" s="1" t="s">
         <v>1974</v>
       </c>
@@ -25136,7 +24358,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="1980" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1980" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1980" s="1" t="s">
         <v>1975</v>
       </c>
@@ -25184,20 +24406,20 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="1986" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="1986" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1986" s="1" t="s">
         <v>1981</v>
       </c>
       <c r="B1986" s="1" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="1987" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1987" s="1" t="s">
         <v>1982</v>
       </c>
       <c r="B1987" s="1" t="s">
-        <v>2291</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1988" spans="1:2" x14ac:dyDescent="0.25">
@@ -25232,7 +24454,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="1992" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1992" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1992" s="1" t="s">
         <v>1987</v>
       </c>
@@ -25240,7 +24462,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="1993" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1993" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1993" s="1" t="s">
         <v>1988</v>
       </c>
@@ -25264,12 +24486,12 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="1996" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1996" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1996" s="1" t="s">
         <v>1991</v>
       </c>
       <c r="B1996" s="1" t="s">
-        <v>1991</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1997" spans="1:2" x14ac:dyDescent="0.25">
@@ -25277,7 +24499,7 @@
         <v>1992</v>
       </c>
       <c r="B1997" s="1" t="s">
-        <v>1992</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1998" spans="1:2" x14ac:dyDescent="0.25">
@@ -25293,7 +24515,7 @@
         <v>1994</v>
       </c>
       <c r="B1999" s="1" t="s">
-        <v>2306</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.25">
@@ -25400,47 +24622,47 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="2013" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2013" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2013" s="1" t="s">
         <v>2008</v>
       </c>
       <c r="B2013" s="1" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="2014" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2014" s="1" t="s">
         <v>2009</v>
       </c>
       <c r="B2014" s="1" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="2015" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2015" s="1" t="s">
         <v>2010</v>
       </c>
       <c r="B2015" s="1" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="2016" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2016" s="1" t="s">
         <v>2011</v>
       </c>
       <c r="B2016" s="1" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="2017" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2017" s="1" t="s">
         <v>2012</v>
       </c>
       <c r="B2017" s="1" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="2018" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2018" s="1" t="s">
         <v>2013</v>
       </c>
@@ -25456,7 +24678,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2020" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2020" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2020" s="1" t="s">
         <v>2015</v>
       </c>
@@ -25496,15 +24718,15 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2025" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2025" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2025" s="1" t="s">
         <v>2020</v>
       </c>
       <c r="B2025" s="1" t="s">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2026" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2026" s="1" t="s">
         <v>2021</v>
       </c>
@@ -25512,20 +24734,20 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2027" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2027" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2027" s="1" t="s">
         <v>2022</v>
       </c>
       <c r="B2027" s="1" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2028" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2028" s="1" t="s">
         <v>2023</v>
       </c>
       <c r="B2028" s="1" t="s">
-        <v>2111</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="2029" spans="1:2" x14ac:dyDescent="0.25">
@@ -25536,15 +24758,15 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="2030" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2030" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2030" s="1" t="s">
         <v>2025</v>
       </c>
       <c r="B2030" s="1" t="s">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="2031" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2031" s="1" t="s">
         <v>2026</v>
       </c>
@@ -25557,10 +24779,10 @@
         <v>2027</v>
       </c>
       <c r="B2032" s="1" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="2033" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2033" s="1" t="s">
         <v>2028</v>
       </c>
@@ -25568,23 +24790,23 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="2034" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2034" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2034" s="1" t="s">
         <v>2029</v>
       </c>
       <c r="B2034" s="1" t="s">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="2035" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2035" s="1" t="s">
         <v>2030</v>
       </c>
       <c r="B2035" s="1" t="s">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="2036" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2036" s="1" t="s">
         <v>2031</v>
       </c>
@@ -25592,7 +24814,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="2037" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2037" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2037" s="1" t="s">
         <v>2032</v>
       </c>
@@ -25600,7 +24822,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="2038" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2038" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2038" s="1" t="s">
         <v>2033</v>
       </c>
@@ -25608,7 +24830,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="2039" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2039" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2039" s="1" t="s">
         <v>2034</v>
       </c>
@@ -25616,7 +24838,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="2040" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2040" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2040" s="1" t="s">
         <v>2035</v>
       </c>
@@ -25624,7 +24846,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="2041" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2041" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2041" s="1" t="s">
         <v>2036</v>
       </c>
@@ -25632,7 +24854,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="2042" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2042" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2042" s="1" t="s">
         <v>2037</v>
       </c>
@@ -25640,15 +24862,15 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="2043" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2043" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2043" s="1" t="s">
         <v>2038</v>
       </c>
       <c r="B2043" s="1" t="s">
-        <v>2433</v>
-      </c>
-    </row>
-    <row r="2044" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2044" s="1" t="s">
         <v>2039</v>
       </c>
@@ -25656,15 +24878,18 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="2045" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2045" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2045" s="1" t="s">
         <v>2040</v>
       </c>
       <c r="B2045" s="1" t="s">
-        <v>2142</v>
-      </c>
-    </row>
-    <row r="2046" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2409</v>
+      </c>
+      <c r="C2045" s="1" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2046" s="1" t="s">
         <v>2041</v>
       </c>
@@ -25672,15 +24897,15 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="2047" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2047" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2047" s="1" t="s">
         <v>2042</v>
       </c>
       <c r="B2047" s="1" t="s">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="2048" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2048" s="1" t="s">
         <v>2043</v>
       </c>
@@ -25688,23 +24913,23 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="2049" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2049" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2049" s="1" t="s">
         <v>2044</v>
       </c>
       <c r="B2049" s="1" t="s">
-        <v>2044</v>
-      </c>
-    </row>
-    <row r="2050" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2050" s="1" t="s">
         <v>2045</v>
       </c>
       <c r="B2050" s="1" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="2051" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2051" s="1" t="s">
         <v>2046</v>
       </c>
@@ -25712,15 +24937,15 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="2052" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="2052" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2052" s="1" t="s">
         <v>2047</v>
       </c>
       <c r="B2052" s="1" t="s">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="2053" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2053" s="1" t="s">
         <v>2048</v>
       </c>
@@ -25728,7 +24953,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="2054" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2054" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2054" s="1" t="s">
         <v>2049</v>
       </c>
@@ -25736,15 +24961,15 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="2055" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2055" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2055" s="1" t="s">
         <v>2050</v>
       </c>
       <c r="B2055" s="1" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2056" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2056" s="1" t="s">
         <v>2051</v>
       </c>
@@ -25752,15 +24977,15 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="2057" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2057" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2057" s="1" t="s">
         <v>2052</v>
       </c>
       <c r="B2057" s="1" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="2058" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2058" s="1" t="s">
         <v>2053</v>
       </c>
@@ -25768,7 +24993,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="2059" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2059" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2059" s="1" t="s">
         <v>2054</v>
       </c>
@@ -25776,47 +25001,44 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2060" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2060" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2060" s="1" t="s">
         <v>2055</v>
       </c>
       <c r="B2060" s="1" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="2061" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2061" s="1" t="s">
         <v>2056</v>
       </c>
       <c r="B2061" s="1" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="2062" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2062" s="1" t="s">
         <v>2057</v>
       </c>
       <c r="B2062" s="1" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="2063" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2063" s="1" t="s">
         <v>2058</v>
       </c>
       <c r="B2063" s="1" t="s">
-        <v>2427</v>
-      </c>
-      <c r="C2063" s="1" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="2064" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2064" s="1" t="s">
         <v>2059</v>
       </c>
       <c r="B2064" s="1" t="s">
-        <v>2059</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="2065" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25824,31 +25046,31 @@
         <v>2060</v>
       </c>
       <c r="B2065" s="1" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="2066" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2066" s="1" t="s">
         <v>2061</v>
       </c>
       <c r="B2066" s="1" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="2067" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2067" s="1" t="s">
         <v>2062</v>
       </c>
       <c r="B2067" s="1" t="s">
-        <v>2425</v>
-      </c>
-    </row>
-    <row r="2068" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2068" s="1" t="s">
         <v>2063</v>
       </c>
       <c r="B2068" s="1" t="s">
-        <v>2426</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="2069" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25859,7 +25081,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="2070" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2070" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2070" s="1" t="s">
         <v>2065</v>
       </c>
@@ -25867,7 +25089,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="2071" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2071" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2071" s="1" t="s">
         <v>2066</v>
       </c>
@@ -25883,12 +25105,12 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="2073" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2073" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2073" s="1" t="s">
         <v>2068</v>
       </c>
       <c r="B2073" s="1" t="s">
-        <v>2421</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="2074" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25899,12 +25121,12 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="2075" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2075" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2075" s="1" t="s">
         <v>2070</v>
       </c>
       <c r="B2075" s="1" t="s">
-        <v>2125</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="2076" spans="1:2" x14ac:dyDescent="0.25">
@@ -25928,7 +25150,7 @@
         <v>2073</v>
       </c>
       <c r="B2078" s="1" t="s">
-        <v>2149</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="2079" spans="1:2" x14ac:dyDescent="0.25">
@@ -25939,12 +25161,12 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="2080" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2080" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2080" s="1" t="s">
         <v>2075</v>
       </c>
       <c r="B2080" s="1" t="s">
-        <v>2417</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="2081" spans="1:2" x14ac:dyDescent="0.25">
@@ -25960,7 +25182,7 @@
         <v>2077</v>
       </c>
       <c r="B2082" s="1" t="s">
-        <v>2117</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="2083" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25971,12 +25193,12 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="2084" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="2084" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2084" s="1" t="s">
         <v>2079</v>
       </c>
       <c r="B2084" s="1" t="s">
-        <v>2418</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="2085" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -25984,10 +25206,10 @@
         <v>2080</v>
       </c>
       <c r="B2085" s="1" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="2086" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2086" s="1" t="s">
         <v>2081</v>
       </c>
@@ -26011,7 +25233,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="2089" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2089" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2089" s="1" t="s">
         <v>2084</v>
       </c>
@@ -26027,7 +25249,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="2091" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2091" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2091" s="1" t="s">
         <v>2086</v>
       </c>
@@ -26043,7 +25265,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="2093" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2093" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2093" s="1" t="s">
         <v>2088</v>
       </c>
@@ -26051,7 +25273,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="2094" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2094" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2094" s="1" t="s">
         <v>2089</v>
       </c>
@@ -26059,7 +25281,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="2095" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2095" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2095" s="1" t="s">
         <v>2090</v>
       </c>
@@ -26069,1024 +25291,872 @@
     </row>
     <row r="2096" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2096" s="1" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="B2096" s="1" t="s">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="2097" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2097" s="1" t="s">
-        <v>2092</v>
+        <v>2106</v>
       </c>
       <c r="B2097" s="1" t="s">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="2098" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2098" s="1" t="s">
-        <v>2093</v>
+        <v>2129</v>
       </c>
       <c r="B2098" s="1" t="s">
-        <v>2093</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="2099" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2099" s="1" t="s">
-        <v>2094</v>
+        <v>2150</v>
       </c>
       <c r="B2099" s="1" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="2100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2100" s="1" t="s">
-        <v>2095</v>
+        <v>2156</v>
       </c>
       <c r="B2100" s="1" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="2101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2101" s="1" t="s">
-        <v>2096</v>
+        <v>2158</v>
       </c>
       <c r="B2101" s="1" t="s">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="2102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2102" s="1" t="s">
-        <v>2097</v>
+        <v>2159</v>
       </c>
       <c r="B2102" s="1" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="2103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2103" s="1" t="s">
-        <v>2098</v>
+        <v>2160</v>
       </c>
       <c r="B2103" s="1" t="s">
-        <v>2098</v>
-      </c>
-    </row>
-    <row r="2104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2104" s="1" t="s">
-        <v>2099</v>
+        <v>2161</v>
       </c>
       <c r="B2104" s="1" t="s">
-        <v>2099</v>
-      </c>
-    </row>
-    <row r="2105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2105" s="1" t="s">
-        <v>2100</v>
+        <v>2162</v>
       </c>
       <c r="B2105" s="1" t="s">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="2106" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2106" s="1" t="s">
-        <v>2101</v>
+        <v>2163</v>
       </c>
       <c r="B2106" s="1" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="2107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2107" s="1" t="s">
-        <v>2102</v>
+        <v>2164</v>
       </c>
       <c r="B2107" s="1" t="s">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="2108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2108" s="1" t="s">
-        <v>2103</v>
+        <v>2166</v>
       </c>
       <c r="B2108" s="1" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="2109" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2109" s="1" t="s">
-        <v>2104</v>
+        <v>2167</v>
       </c>
       <c r="B2109" s="1" t="s">
-        <v>2104</v>
-      </c>
-    </row>
-    <row r="2110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2110" s="1" t="s">
-        <v>2105</v>
+        <v>2168</v>
       </c>
       <c r="B2110" s="1" t="s">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="2111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2111" s="1" t="s">
-        <v>2106</v>
+        <v>2169</v>
       </c>
       <c r="B2111" s="1" t="s">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="2112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2112" s="1" t="s">
-        <v>2107</v>
+        <v>2170</v>
       </c>
       <c r="B2112" s="1" t="s">
-        <v>2107</v>
-      </c>
-    </row>
-    <row r="2113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2113" s="1" t="s">
-        <v>2108</v>
+        <v>2171</v>
       </c>
       <c r="B2113" s="1" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="2114" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2114" s="1" t="s">
-        <v>2112</v>
+        <v>2172</v>
       </c>
       <c r="B2114" s="1" t="s">
-        <v>2111</v>
-      </c>
-    </row>
-    <row r="2115" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2115" s="1" t="s">
-        <v>2124</v>
+        <v>2173</v>
       </c>
       <c r="B2115" s="1" t="s">
-        <v>2123</v>
-      </c>
-    </row>
-    <row r="2116" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2116" s="1" t="s">
-        <v>2147</v>
+        <v>2174</v>
       </c>
       <c r="B2116" s="1" t="s">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="2117" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2117" s="1" t="s">
-        <v>2168</v>
+        <v>2175</v>
       </c>
       <c r="B2117" s="1" t="s">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="2118" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2118" s="1" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="B2118" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="2119" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2119" s="1" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="B2119" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="2120" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2120" s="1" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="B2120" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="2121" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2121" s="1" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="B2121" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="2122" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2122" s="1" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="B2122" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="2123" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2123" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B2123" s="1" t="s">
-        <v>2175</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="2124" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2124" s="1" t="s">
-        <v>2181</v>
+        <v>2196</v>
       </c>
       <c r="B2124" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="2125" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2125" s="1" t="s">
-        <v>2182</v>
+        <v>2202</v>
       </c>
       <c r="B2125" s="1" t="s">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="2126" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2126" s="1" t="s">
-        <v>2184</v>
+        <v>2203</v>
       </c>
       <c r="B2126" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2127" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2127" s="1" t="s">
-        <v>2185</v>
+        <v>2205</v>
       </c>
       <c r="B2127" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2128" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2128" s="1" t="s">
-        <v>2186</v>
+        <v>2206</v>
       </c>
       <c r="B2128" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2129" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2129" s="1" t="s">
-        <v>2187</v>
+        <v>2209</v>
       </c>
       <c r="B2129" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2130" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2130" s="1" t="s">
-        <v>2188</v>
+        <v>2211</v>
       </c>
       <c r="B2130" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2131" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2131" s="1" t="s">
-        <v>2189</v>
+        <v>2213</v>
       </c>
       <c r="B2131" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2132" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2132" s="1" t="s">
-        <v>2190</v>
+        <v>2215</v>
       </c>
       <c r="B2132" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2133" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2133" s="1" t="s">
-        <v>2191</v>
+        <v>2219</v>
       </c>
       <c r="B2133" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2134" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2134" s="1" t="s">
-        <v>2192</v>
+        <v>2220</v>
       </c>
       <c r="B2134" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2135" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2135" s="1" t="s">
-        <v>2193</v>
+        <v>2222</v>
       </c>
       <c r="B2135" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2136" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2136" s="1" t="s">
-        <v>2194</v>
+        <v>2223</v>
       </c>
       <c r="B2136" s="1" t="s">
-        <v>2183</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="2137" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2137" s="1" t="s">
-        <v>2195</v>
+        <v>2224</v>
       </c>
       <c r="B2137" s="1" t="s">
-        <v>2183</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="2138" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2138" s="1" t="s">
-        <v>2196</v>
+        <v>2225</v>
       </c>
       <c r="B2138" s="1" t="s">
-        <v>2183</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="2139" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2139" s="1" t="s">
-        <v>2197</v>
+        <v>2227</v>
       </c>
       <c r="B2139" s="1" t="s">
-        <v>2183</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="2140" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2140" s="1" t="s">
-        <v>2198</v>
+        <v>2228</v>
       </c>
       <c r="B2140" s="1" t="s">
-        <v>2183</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="2141" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2141" s="1" t="s">
-        <v>2199</v>
+        <v>2229</v>
       </c>
       <c r="B2141" s="1" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="2142" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2142" s="1" t="s">
-        <v>2214</v>
+        <v>2230</v>
       </c>
       <c r="B2142" s="1" t="s">
-        <v>2215</v>
-      </c>
-    </row>
-    <row r="2143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2143" s="1" t="s">
-        <v>2220</v>
+        <v>2234</v>
       </c>
       <c r="B2143" s="1" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="2144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2144" s="1" t="s">
-        <v>2221</v>
+        <v>2236</v>
       </c>
       <c r="B2144" s="1" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="2145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2145" s="1" t="s">
-        <v>2223</v>
+        <v>2237</v>
       </c>
       <c r="B2145" s="1" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="2146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2146" s="1" t="s">
-        <v>2224</v>
+        <v>2238</v>
       </c>
       <c r="B2146" s="1" t="s">
-        <v>2225</v>
-      </c>
-    </row>
-    <row r="2147" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2147" s="1" t="s">
-        <v>2227</v>
+        <v>2239</v>
       </c>
       <c r="B2147" s="1" t="s">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="2148" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2148" s="1" t="s">
-        <v>2229</v>
+        <v>2240</v>
       </c>
       <c r="B2148" s="1" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="2149" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2149" s="1" t="s">
-        <v>2231</v>
+        <v>2241</v>
       </c>
       <c r="B2149" s="1" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="2150" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2150" s="1" t="s">
-        <v>2233</v>
+        <v>2242</v>
       </c>
       <c r="B2150" s="1" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="2151" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2151" s="1" t="s">
-        <v>2237</v>
+        <v>2243</v>
       </c>
       <c r="B2151" s="1" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="2152" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2152" s="1" t="s">
-        <v>2238</v>
+        <v>2244</v>
       </c>
       <c r="B2152" s="1" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="2153" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2153" s="1" t="s">
-        <v>2240</v>
+        <v>2245</v>
       </c>
       <c r="B2153" s="1" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="2154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2154" s="1" t="s">
-        <v>2241</v>
+        <v>2246</v>
       </c>
       <c r="B2154" s="1" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="2155" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2155" s="1" t="s">
-        <v>2242</v>
+        <v>2247</v>
       </c>
       <c r="B2155" s="1" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="2156" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2156" s="1" t="s">
-        <v>2243</v>
+        <v>2249</v>
       </c>
       <c r="B2156" s="1" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="2157" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2157" s="1" t="s">
-        <v>2245</v>
+        <v>2250</v>
       </c>
       <c r="B2157" s="1" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="2158" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2158" s="1" t="s">
-        <v>2246</v>
+        <v>2251</v>
       </c>
       <c r="B2158" s="1" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="2159" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2159" s="1" t="s">
-        <v>2247</v>
+        <v>2252</v>
       </c>
       <c r="B2159" s="1" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="2160" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2160" s="1" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B2160" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="B2160" s="1" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="2161" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2161" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2161" s="1" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="B2161" s="1" t="s">
-        <v>2251</v>
-      </c>
-    </row>
-    <row r="2162" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2162" s="1" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="B2162" s="1" t="s">
-        <v>2253</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="2163" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2163" s="1" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="B2163" s="1" t="s">
-        <v>2253</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="2164" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2164" s="1" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="B2164" s="1" t="s">
-        <v>2253</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="2165" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2165" s="1" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="B2165" s="1" t="s">
-        <v>2253</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="2166" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2166" s="1" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="B2166" s="1" t="s">
-        <v>2253</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="2167" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2167" s="1" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="B2167" s="1" t="s">
-        <v>2253</v>
-      </c>
-    </row>
-    <row r="2168" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2168" s="1" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="B2168" s="1" t="s">
-        <v>2253</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="2169" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2169" s="1" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="B2169" s="1" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2170" s="1" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B2170" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2171" s="1" t="s">
         <v>2266</v>
       </c>
-    </row>
-    <row r="2170" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2170" s="1" t="s">
-        <v>2262</v>
-      </c>
-      <c r="B2170" s="1" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="2171" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2171" s="1" t="s">
-        <v>2263</v>
-      </c>
       <c r="B2171" s="1" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="2172" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2172" s="1" t="s">
-        <v>2264</v>
+        <v>2269</v>
       </c>
       <c r="B2172" s="1" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="2173" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2173" s="1" t="s">
-        <v>2265</v>
+        <v>2271</v>
       </c>
       <c r="B2173" s="1" t="s">
-        <v>2266</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="2174" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2174" s="1" t="s">
-        <v>2267</v>
+        <v>2275</v>
       </c>
       <c r="B2174" s="1" t="s">
-        <v>2266</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="2175" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2175" s="1" t="s">
-        <v>2268</v>
+        <v>2277</v>
       </c>
       <c r="B2175" s="1" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="2176" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2176" s="1" t="s">
-        <v>2269</v>
+        <v>2278</v>
       </c>
       <c r="B2176" s="1" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="2177" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2177" s="1" t="s">
-        <v>2270</v>
+        <v>2280</v>
       </c>
       <c r="B2177" s="1" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="2178" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2178" s="1" t="s">
-        <v>2271</v>
+        <v>2279</v>
       </c>
       <c r="B2178" s="1" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="2179" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2179" s="1" t="s">
-        <v>2272</v>
+        <v>2283</v>
       </c>
       <c r="B2179" s="1" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="2180" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2180" s="1" t="s">
-        <v>2273</v>
+        <v>2284</v>
       </c>
       <c r="B2180" s="1" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="2181" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2181" s="1" t="s">
-        <v>2274</v>
+        <v>2285</v>
       </c>
       <c r="B2181" s="1" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="2182" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2182" s="1" t="s">
-        <v>2275</v>
+        <v>2286</v>
       </c>
       <c r="B2182" s="1" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="2183" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A2183" s="1" t="s">
-        <v>2276</v>
+        <v>2289</v>
       </c>
       <c r="B2183" s="1" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="2184" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2184" s="1" t="s">
-        <v>2277</v>
-      </c>
-      <c r="B2184" s="1" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="2185" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2185" s="1" t="s">
-        <v>2278</v>
-      </c>
-      <c r="B2185" s="1" t="s">
-        <v>2279</v>
-      </c>
-    </row>
-    <row r="2186" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2186" s="1" t="s">
-        <v>2280</v>
-      </c>
-      <c r="B2186" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="2187" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2187" s="1" t="s">
-        <v>2281</v>
-      </c>
-      <c r="B2187" s="1" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="2188" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2188" s="1" t="s">
-        <v>2283</v>
-      </c>
-      <c r="B2188" s="1" t="s">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="2189" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2189" s="1" t="s">
-        <v>2284</v>
-      </c>
-      <c r="B2189" s="1" t="s">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="2190" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2190" s="1" t="s">
-        <v>2287</v>
-      </c>
-      <c r="B2190" s="1" t="s">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="2191" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2191" s="1" t="s">
-        <v>2289</v>
-      </c>
-      <c r="B2191" s="1" t="s">
         <v>2290</v>
       </c>
     </row>
-    <row r="2192" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2192" s="1" t="s">
-        <v>2293</v>
-      </c>
-      <c r="B2192" s="1" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="2193" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2193" s="1" t="s">
-        <v>2295</v>
-      </c>
-      <c r="B2193" s="1" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="2194" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2194" s="1" t="s">
-        <v>2296</v>
-      </c>
-      <c r="B2194" s="1" t="s">
-        <v>2299</v>
-      </c>
-    </row>
-    <row r="2195" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2195" s="1" t="s">
-        <v>2298</v>
-      </c>
-      <c r="B2195" s="1" t="s">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="2196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2196" s="1" t="s">
-        <v>2297</v>
-      </c>
-      <c r="B2196" s="1" t="s">
-        <v>2297</v>
-      </c>
-    </row>
-    <row r="2197" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2197" s="1" t="s">
-        <v>2301</v>
-      </c>
-      <c r="B2197" s="1" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="2198" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2198" s="1" t="s">
-        <v>2302</v>
-      </c>
-      <c r="B2198" s="1" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="2199" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2199" s="1" t="s">
-        <v>2303</v>
-      </c>
-      <c r="B2199" s="1" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="2200" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2200" s="1" t="s">
-        <v>2304</v>
-      </c>
-      <c r="B2200" s="1" t="s">
-        <v>2305</v>
-      </c>
-    </row>
-    <row r="2201" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2201" s="1" t="s">
-        <v>2307</v>
-      </c>
-      <c r="B2201" s="1" t="s">
-        <v>2308</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D2201" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
+  <autoFilter ref="A1:D2183" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="146" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="149"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A129">
-    <cfRule type="duplicateValues" dxfId="144" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="119"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="142" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="123"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:A195">
-    <cfRule type="duplicateValues" dxfId="140" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="117"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1900:A1904">
-    <cfRule type="duplicateValues" dxfId="139" priority="1192"/>
+  <conditionalFormatting sqref="A1887:A1891">
+    <cfRule type="duplicateValues" dxfId="66" priority="1192"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1930:A2008">
-    <cfRule type="duplicateValues" dxfId="138" priority="52"/>
+  <conditionalFormatting sqref="A1917:A1995">
+    <cfRule type="duplicateValues" dxfId="65" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4439:A1048576 A196:A1528 A2:A13 A15:A71 A130 A1802:A1899 A1905:A1926">
-    <cfRule type="duplicateValues" dxfId="137" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="159"/>
+  <conditionalFormatting sqref="A4421:A1048576 A196:A1528 A2:A13 A15:A71 A130 A1791:A1886 A1892:A1913">
+    <cfRule type="duplicateValues" dxfId="64" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1572:B1572">
-    <cfRule type="duplicateValues" dxfId="135" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2201:B1048576 A2197:A2200 A1571 A1900 A2:B1570 A1802:B1899 A1801 A1901:B2196 A1573:B1799">
-    <cfRule type="duplicateValues" dxfId="132" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="51"/>
+  <conditionalFormatting sqref="A1789:B1789">
+    <cfRule type="duplicateValues" dxfId="57" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2183:B1048576 A2179:A2182 A1571 A1887 A2:B1570 A1791:B1886 A1790 A1888:B2178 A1573:B1788">
+    <cfRule type="duplicateValues" dxfId="55" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="130" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B129">
-    <cfRule type="duplicateValues" dxfId="128" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="126" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:B195">
-    <cfRule type="duplicateValues" dxfId="124" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B221">
-    <cfRule type="duplicateValues" dxfId="123" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1521">
-    <cfRule type="duplicateValues" dxfId="122" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1528">
+    <cfRule type="duplicateValues" dxfId="44" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1571">
-    <cfRule type="duplicateValues" dxfId="121" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1901:B1904">
-    <cfRule type="duplicateValues" dxfId="118" priority="1193"/>
+  <conditionalFormatting sqref="B1761">
+    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1928">
-    <cfRule type="duplicateValues" dxfId="117" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="43"/>
+  <conditionalFormatting sqref="B1769">
+    <cfRule type="duplicateValues" dxfId="38" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4439:B1048576 B2:B13 B130 B1905:B1926 B1802:B1899 B15:B71 B196:B1528">
-    <cfRule type="duplicateValues" dxfId="115" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="63"/>
+  <conditionalFormatting sqref="B1790">
+    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1912">
-    <cfRule type="duplicateValues" dxfId="113" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="47"/>
+  <conditionalFormatting sqref="B1887">
+    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1888:B1891">
+    <cfRule type="duplicateValues" dxfId="31" priority="1193"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1915">
+    <cfRule type="duplicateValues" dxfId="30" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2013">
+    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2014">
+    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2016">
+    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2027">
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2034">
+    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2043">
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2045">
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2047">
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2049">
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2050">
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2055">
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2060">
+    <cfRule type="duplicateValues" dxfId="13" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2062">
+    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4421:B1048576 B2:B13 B130 B1892:B1913 B1791:B1886 B15:B71 B196:B1528">
+    <cfRule type="duplicateValues" dxfId="11" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1899">
+    <cfRule type="duplicateValues" dxfId="9" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1570">
+    <cfRule type="duplicateValues" dxfId="5" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1572:W1572">
-    <cfRule type="duplicateValues" dxfId="109" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1900">
-    <cfRule type="duplicateValues" dxfId="108" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="33"/>
+  <conditionalFormatting sqref="A1573:A1784 A1546:A1571">
+    <cfRule type="duplicateValues" dxfId="1" priority="6212"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1900">
-    <cfRule type="duplicateValues" dxfId="106" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1570">
-    <cfRule type="duplicateValues" dxfId="105" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1570">
-    <cfRule type="duplicateValues" dxfId="103" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2028">
-    <cfRule type="duplicateValues" dxfId="102" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2030">
-    <cfRule type="duplicateValues" dxfId="101" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1528">
-    <cfRule type="duplicateValues" dxfId="100" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2034">
-    <cfRule type="duplicateValues" dxfId="99" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2078">
-    <cfRule type="duplicateValues" dxfId="98" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2080">
-    <cfRule type="duplicateValues" dxfId="97" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1800:B1800">
-    <cfRule type="duplicateValues" dxfId="96" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1801">
-    <cfRule type="duplicateValues" dxfId="94" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2073">
-    <cfRule type="duplicateValues" dxfId="92" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2065">
-    <cfRule type="duplicateValues" dxfId="91" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2067">
-    <cfRule type="duplicateValues" dxfId="90" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2068">
-    <cfRule type="duplicateValues" dxfId="89" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1778">
-    <cfRule type="duplicateValues" dxfId="88" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2063">
-    <cfRule type="duplicateValues" dxfId="86" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2063">
-    <cfRule type="duplicateValues" dxfId="84" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2061">
-    <cfRule type="duplicateValues" dxfId="83" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2052">
-    <cfRule type="duplicateValues" dxfId="82" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1770">
-    <cfRule type="duplicateValues" dxfId="81" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2045">
-    <cfRule type="duplicateValues" dxfId="79" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2045">
-    <cfRule type="duplicateValues" dxfId="77" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1573:A1794 A1546:A1571">
-    <cfRule type="duplicateValues" dxfId="76" priority="6069"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1546:B1570 B1573:B1794">
-    <cfRule type="duplicateValues" dxfId="75" priority="6071"/>
+  <conditionalFormatting sqref="B1546:B1570 B1573:B1784">
+    <cfRule type="duplicateValues" dxfId="0" priority="6215"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D7D020-737D-4313-8ACD-E4C26B94D376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797DC494-915C-47FF-94E6-8304518E92BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="2421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="2424">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -7318,6 +7318,15 @@
   </si>
   <si>
     <t>Trong họ hiếm người nhưng được khá giả</t>
+  </si>
+  <si>
+    <t>Trong họ hiếm người.</t>
+  </si>
+  <si>
+    <t>Phải lập nghiệp xa quê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Họ hàng ly tán, thường lập nghiệp ở xa quê hương.</t>
   </si>
 </sst>
 </file>
@@ -8381,8 +8390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:G2183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1976" workbookViewId="0">
-      <selection activeCell="D1996" sqref="D1996"/>
+    <sheetView tabSelected="1" topLeftCell="A1980" workbookViewId="0">
+      <selection activeCell="E1986" sqref="E1986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24515,7 +24524,7 @@
         <v>1994</v>
       </c>
       <c r="B1999" s="1" t="s">
-        <v>1994</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="2000" spans="1:2" x14ac:dyDescent="0.25">
@@ -24523,7 +24532,7 @@
         <v>1995</v>
       </c>
       <c r="B2000" s="1" t="s">
-        <v>1995</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="2001" spans="1:2" x14ac:dyDescent="0.25">
@@ -24531,7 +24540,7 @@
         <v>1996</v>
       </c>
       <c r="B2001" s="1" t="s">
-        <v>1996</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="2002" spans="1:2" x14ac:dyDescent="0.25">
@@ -24587,7 +24596,7 @@
         <v>2003</v>
       </c>
       <c r="B2008" s="1" t="s">
-        <v>2003</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="2009" spans="1:2" x14ac:dyDescent="0.25">
@@ -24595,7 +24604,7 @@
         <v>2004</v>
       </c>
       <c r="B2009" s="1" t="s">
-        <v>2004</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="2010" spans="1:2" x14ac:dyDescent="0.25">
@@ -25997,166 +26006,166 @@
   <autoFilter ref="A1:D2183" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="73" priority="148"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A129">
-    <cfRule type="duplicateValues" dxfId="71" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
-    <cfRule type="duplicateValues" dxfId="69" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:A195">
     <cfRule type="duplicateValues" dxfId="67" priority="117"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1573:A1784 A1546:A1571">
+    <cfRule type="duplicateValues" dxfId="66" priority="6212"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1887:A1891">
-    <cfRule type="duplicateValues" dxfId="66" priority="1192"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1917:A1995">
-    <cfRule type="duplicateValues" dxfId="65" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4421:A1048576 A196:A1528 A2:A13 A15:A71 A130 A1791:A1886 A1892:A1913">
-    <cfRule type="duplicateValues" dxfId="64" priority="157"/>
     <cfRule type="duplicateValues" dxfId="63" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="157"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1572:B1572">
-    <cfRule type="duplicateValues" dxfId="60" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1789:B1789">
-    <cfRule type="duplicateValues" dxfId="57" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2183:B1048576 A2179:A2182 A1571 A1887 A2:B1570 A1791:B1886 A1790 A1888:B2178 A1573:B1788">
-    <cfRule type="duplicateValues" dxfId="55" priority="48"/>
+  <conditionalFormatting sqref="A2183:B1048576 A2179:A2182 A1571 A1887 A2:B1570 A1791:B1886 A1790 A1573:B1788 A1888:B2178">
     <cfRule type="duplicateValues" dxfId="54" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="53" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B129">
-    <cfRule type="duplicateValues" dxfId="51" priority="56"/>
     <cfRule type="duplicateValues" dxfId="50" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="49" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:B195">
-    <cfRule type="duplicateValues" dxfId="47" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B221">
-    <cfRule type="duplicateValues" dxfId="46" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1521">
-    <cfRule type="duplicateValues" dxfId="45" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1528">
-    <cfRule type="duplicateValues" dxfId="44" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1546:B1570 B1573:B1784">
+    <cfRule type="duplicateValues" dxfId="42" priority="6215"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1571">
-    <cfRule type="duplicateValues" dxfId="43" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="40"/>
     <cfRule type="duplicateValues" dxfId="41" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1761">
-    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1769">
-    <cfRule type="duplicateValues" dxfId="38" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1790">
-    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1887">
-    <cfRule type="duplicateValues" dxfId="34" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1888:B1891">
-    <cfRule type="duplicateValues" dxfId="31" priority="1193"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1915">
-    <cfRule type="duplicateValues" dxfId="30" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2013">
-    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2014">
-    <cfRule type="duplicateValues" dxfId="27" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2016">
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2027">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
     <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2034">
-    <cfRule type="duplicateValues" dxfId="22" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2043">
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2045">
-    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="11"/>
     <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2047">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2049">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2050">
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2055">
-    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2060">
-    <cfRule type="duplicateValues" dxfId="13" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2062">
-    <cfRule type="duplicateValues" dxfId="12" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4421:B1048576 B2:B13 B130 B1892:B1913 B1791:B1886 B15:B71 B196:B1528">
-    <cfRule type="duplicateValues" dxfId="11" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1899">
-    <cfRule type="duplicateValues" dxfId="9" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1570">
-    <cfRule type="duplicateValues" dxfId="5" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="30"/>
     <cfRule type="duplicateValues" dxfId="3" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1572:W1572">
-    <cfRule type="duplicateValues" dxfId="2" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1573:A1784 A1546:A1571">
-    <cfRule type="duplicateValues" dxfId="1" priority="6212"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1546:B1570 B1573:B1784">
-    <cfRule type="duplicateValues" dxfId="0" priority="6215"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797DC494-915C-47FF-94E6-8304518E92BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551D4C8A-E24E-473F-85E9-189248E78C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="2424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="2483">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -7327,6 +7327,183 @@
   </si>
   <si>
     <t xml:space="preserve"> Họ hàng ly tán, thường lập nghiệp ở xa quê hương.</t>
+  </si>
+  <si>
+    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
+  </si>
+  <si>
+    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
+  </si>
+  <si>
+    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
+  </si>
+  <si>
+    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
+  </si>
+  <si>
+    <t>Là cách cục đại cát, phú quý lâu dài</t>
+  </si>
+  <si>
+    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
+  </si>
+  <si>
+    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
+  </si>
+  <si>
+    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
+  </si>
+  <si>
+    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
+  </si>
+  <si>
+    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
+  </si>
+  <si>
+    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
+  </si>
+  <si>
+    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
+  </si>
+  <si>
+    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
+  </si>
+  <si>
+    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
+  </si>
+  <si>
+    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
+  </si>
+  <si>
+    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
+  </si>
+  <si>
+    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
+  </si>
+  <si>
+    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
+  </si>
+  <si>
+    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
+  </si>
+  <si>
+    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
+  </si>
+  <si>
+    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
+  </si>
+  <si>
+    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
+  </si>
+  <si>
+    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
+  </si>
+  <si>
+    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
+  </si>
+  <si>
+    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
+  </si>
+  <si>
+    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
+  </si>
+  <si>
+    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
+  </si>
+  <si>
+    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
+  </si>
+  <si>
+    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
   </si>
 </sst>
 </file>
@@ -7362,16 +7539,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8388,10 +8578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:G2183"/>
+  <dimension ref="A2:G2197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1980" workbookViewId="0">
-      <selection activeCell="E1986" sqref="E1986"/>
+    <sheetView tabSelected="1" topLeftCell="A2195" workbookViewId="0">
+      <selection activeCell="B2196" sqref="B2196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9652,7 +9842,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>178</v>
       </c>
@@ -9660,7 +9850,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>179</v>
       </c>
@@ -10876,7 +11066,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>331</v>
       </c>
@@ -11068,7 +11258,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>355</v>
       </c>
@@ -11132,7 +11322,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>363</v>
       </c>
@@ -11268,7 +11458,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>380</v>
       </c>
@@ -11276,7 +11466,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>381</v>
       </c>
@@ -11484,7 +11674,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>407</v>
       </c>
@@ -15468,7 +15658,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="885" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A885" s="1" t="s">
         <v>898</v>
       </c>
@@ -15500,7 +15690,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="889" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A889" s="1" t="s">
         <v>902</v>
       </c>
@@ -15596,7 +15786,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="901" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A901" s="1" t="s">
         <v>914</v>
       </c>
@@ -15628,7 +15818,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="905" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A905" s="1" t="s">
         <v>918</v>
       </c>
@@ -18236,7 +18426,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="1231" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1231" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1231" s="1" t="s">
         <v>1240</v>
       </c>
@@ -18660,7 +18850,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="1284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1284" s="1" t="s">
         <v>1293</v>
       </c>
@@ -20785,7 +20975,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="1547" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="1547" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A1547" s="1" t="s">
         <v>1543</v>
       </c>
@@ -20923,7 +21113,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="1562" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
         <v>1559</v>
       </c>
@@ -21374,7 +21564,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="1610" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1610" s="1" t="s">
         <v>1597</v>
       </c>
@@ -21382,7 +21572,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="1611" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1611" s="1" t="s">
         <v>1598</v>
       </c>
@@ -21390,7 +21580,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="1612" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1612" s="1" t="s">
         <v>1599</v>
       </c>
@@ -21398,7 +21588,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="1613" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1613" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1613" s="1" t="s">
         <v>1600</v>
       </c>
@@ -21406,7 +21596,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="1614" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1614" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1614" s="1" t="s">
         <v>1601</v>
       </c>
@@ -22030,7 +22220,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="1692" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1692" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1692" s="1" t="s">
         <v>1679</v>
       </c>
@@ -22038,7 +22228,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="1693" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1693" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1693" s="1" t="s">
         <v>1680</v>
       </c>
@@ -22606,7 +22796,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="1764" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1764" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1764" s="1" t="s">
         <v>1751</v>
       </c>
@@ -22614,7 +22804,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="1765" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1765" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1765" s="1" t="s">
         <v>1752</v>
       </c>
@@ -25946,7 +26136,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="2177" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2177" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2177" s="1" t="s">
         <v>2280</v>
       </c>
@@ -25954,7 +26144,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="2178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2178" s="1" t="s">
         <v>2279</v>
       </c>
@@ -25962,7 +26152,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="2179" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2179" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2179" s="1" t="s">
         <v>2283</v>
       </c>
@@ -25970,7 +26160,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="2180" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2180" s="1" t="s">
         <v>2284</v>
       </c>
@@ -25978,7 +26168,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="2181" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2181" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2181" s="1" t="s">
         <v>2285</v>
       </c>
@@ -25986,7 +26176,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="2182" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2182" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2182" s="1" t="s">
         <v>2286</v>
       </c>
@@ -25994,178 +26184,430 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="2183" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="2183" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A2183" s="1" t="s">
         <v>2289</v>
       </c>
       <c r="B2183" s="1" t="s">
         <v>2290</v>
       </c>
+    </row>
+    <row r="2184" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2184" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B2184" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="C2184" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="D2184" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F2184" s="2"/>
+    </row>
+    <row r="2185" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2185" s="1" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B2185" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="C2185" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="D2185" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="E2185" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F2185" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2186" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B2186" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="C2186" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D2186" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E2186" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F2186" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="G2186" s="1" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2187" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B2187" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F2187" s="2"/>
+    </row>
+    <row r="2188" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2188" s="1" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B2188" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C2188" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="D2188" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2188" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F2188" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G2188" s="1" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2189" s="1" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B2189" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="C2189" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="D2189" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="E2189" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="F2189" s="1" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2190" s="1" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B2190" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="C2190" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D2190" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E2190" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F2190" s="1" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2191" s="1" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2191" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="C2191" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="D2191" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="E2191" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="F2191" s="1" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2192" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B2192" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C2192" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="D2192" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="E2192" s="1" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2193" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B2193" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="C2193" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D2193" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E2193" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="F2193" s="1" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2194" s="1" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B2194" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="C2194" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D2194" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="E2194" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="G2194" s="1"/>
+    </row>
+    <row r="2195" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2195" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B2195" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="C2195" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D2195" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="E2195" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="G2195" s="1"/>
+    </row>
+    <row r="2196" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2196" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B2196" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="C2196" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D2196" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E2196" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="F2196" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="G2196" s="1" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2197" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D2183" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="74" priority="150"/>
     <cfRule type="duplicateValues" dxfId="73" priority="149"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="148"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A129">
+    <cfRule type="duplicateValues" dxfId="72" priority="120"/>
     <cfRule type="duplicateValues" dxfId="71" priority="119"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A131">
+    <cfRule type="duplicateValues" dxfId="70" priority="124"/>
     <cfRule type="duplicateValues" dxfId="69" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="122"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A132:A195">
-    <cfRule type="duplicateValues" dxfId="67" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1573:A1784 A1546:A1571">
-    <cfRule type="duplicateValues" dxfId="66" priority="6212"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="6213"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1887:A1891">
-    <cfRule type="duplicateValues" dxfId="65" priority="1192"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1193"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1917:A1995">
-    <cfRule type="duplicateValues" dxfId="64" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4421:A1048576 A196:A1528 A2:A13 A15:A71 A130 A1791:A1886 A1892:A1913">
-    <cfRule type="duplicateValues" dxfId="63" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="158"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="61" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="2"/>
+  <conditionalFormatting sqref="A1:B2183 A2198:B1048576">
+    <cfRule type="duplicateValues" dxfId="62" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1572:B1572">
-    <cfRule type="duplicateValues" dxfId="59" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1789:B1789">
-    <cfRule type="duplicateValues" dxfId="56" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2183:B1048576 A2179:A2182 A1571 A1887 A2:B1570 A1791:B1886 A1790 A1573:B1788 A1888:B2178">
-    <cfRule type="duplicateValues" dxfId="54" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="48"/>
+  <conditionalFormatting sqref="A2183:B2183 A2179:A2182 A1571 A1887 A2:B1570 A1791:B1886 A1790 A1573:B1788 A1888:B2178 A2198:B1048576">
+    <cfRule type="duplicateValues" dxfId="55" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="52" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72:B129">
+    <cfRule type="duplicateValues" dxfId="51" priority="58"/>
     <cfRule type="duplicateValues" dxfId="50" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="48" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:B195">
-    <cfRule type="duplicateValues" dxfId="46" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B221">
-    <cfRule type="duplicateValues" dxfId="45" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1521">
-    <cfRule type="duplicateValues" dxfId="44" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1528">
-    <cfRule type="duplicateValues" dxfId="43" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1546:B1570 B1573:B1784">
-    <cfRule type="duplicateValues" dxfId="42" priority="6215"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="6216"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1571">
+    <cfRule type="duplicateValues" dxfId="42" priority="42"/>
     <cfRule type="duplicateValues" dxfId="41" priority="41"/>
     <cfRule type="duplicateValues" dxfId="40" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1761">
-    <cfRule type="duplicateValues" dxfId="38" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1769">
-    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1790">
-    <cfRule type="duplicateValues" dxfId="34" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1887">
-    <cfRule type="duplicateValues" dxfId="32" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1888:B1891">
-    <cfRule type="duplicateValues" dxfId="29" priority="1193"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1194"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1915">
+    <cfRule type="duplicateValues" dxfId="29" priority="44"/>
     <cfRule type="duplicateValues" dxfId="28" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2013">
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2014">
     <cfRule type="duplicateValues" dxfId="26" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2014">
-    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2016">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2027">
+    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
     <cfRule type="duplicateValues" dxfId="23" priority="5"/>
     <cfRule type="duplicateValues" dxfId="22" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2034">
-    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2043">
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2045">
+    <cfRule type="duplicateValues" dxfId="19" priority="13"/>
     <cfRule type="duplicateValues" dxfId="18" priority="12"/>
     <cfRule type="duplicateValues" dxfId="17" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2047">
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2049">
     <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2049">
+  <conditionalFormatting sqref="B2050">
     <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2050">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B2055">
-    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2060">
+    <cfRule type="duplicateValues" dxfId="12" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2062">
     <cfRule type="duplicateValues" dxfId="11" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2062">
-    <cfRule type="duplicateValues" dxfId="10" priority="23"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B4421:B1048576 B2:B13 B130 B1892:B1913 B1791:B1886 B15:B71 B196:B1528">
-    <cfRule type="duplicateValues" dxfId="9" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1899">
-    <cfRule type="duplicateValues" dxfId="7" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1570">
+    <cfRule type="duplicateValues" dxfId="4" priority="32"/>
     <cfRule type="duplicateValues" dxfId="3" priority="31"/>
     <cfRule type="duplicateValues" dxfId="2" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1572:W1572">
-    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2184:B2197">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319552E1-935E-46D9-B6FF-5E3E72B6F053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD6E78A-C62D-465F-A89A-7F14D9116FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -7557,7 +7557,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="43" style="1" customWidth="1"/>
     <col min="4" max="6" width="54" style="1" customWidth="1"/>
   </cols>
@@ -24360,7 +24361,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="2084" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="2084" spans="1:7" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2084" s="1" t="s">
         <v>1999</v>
       </c>
@@ -24375,7 +24376,7 @@
       </c>
       <c r="F2084" s="2"/>
     </row>
-    <row r="2085" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="2085" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2085" s="1" t="s">
         <v>1997</v>
       </c>
@@ -24395,7 +24396,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="2086" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2086" spans="1:7" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2086" s="1" t="s">
         <v>2002</v>
       </c>
@@ -24418,7 +24419,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="2087" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2087" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2087" s="1" t="s">
         <v>2003</v>
       </c>
@@ -24427,7 +24428,7 @@
       </c>
       <c r="F2087" s="2"/>
     </row>
-    <row r="2088" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2088" spans="1:7" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2088" s="1" t="s">
         <v>1992</v>
       </c>
@@ -24450,7 +24451,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="2089" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="2089" spans="1:7" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2089" s="1" t="s">
         <v>1991</v>
       </c>
@@ -24470,7 +24471,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="2090" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="2090" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2090" s="1" t="s">
         <v>1995</v>
       </c>
@@ -24490,7 +24491,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="2091" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="2091" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2091" s="1" t="s">
         <v>1993</v>
       </c>
@@ -24510,7 +24511,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="2092" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="2092" spans="1:7" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2092" s="1" t="s">
         <v>2000</v>
       </c>
@@ -24527,7 +24528,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="2093" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="2093" spans="1:7" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2093" s="1" t="s">
         <v>1998</v>
       </c>
@@ -24547,7 +24548,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="2094" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="2094" spans="1:7" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2094" s="1" t="s">
         <v>1996</v>
       </c>
@@ -24565,7 +24566,7 @@
       </c>
       <c r="G2094" s="1"/>
     </row>
-    <row r="2095" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="2095" spans="1:7" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2095" s="1" t="s">
         <v>1994</v>
       </c>
@@ -24583,7 +24584,7 @@
       </c>
       <c r="G2095" s="1"/>
     </row>
-    <row r="2096" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2096" spans="1:7" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2096" s="1" t="s">
         <v>2001</v>
       </c>
@@ -24613,7 +24614,7 @@
   <autoFilter ref="A1:D2096" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
     <filterColumn colId="0">
       <customFilters>
-        <customFilter val="*tại cung đối Tài Bạch"/>
+        <customFilter val="*tại Huynh Đệ"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
